--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="D7:N45"/>
+  <dimension ref="D7:N37"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="H10" activeCellId="0" pane="topLeft" sqref="H10"/>
@@ -1007,12 +1007,12 @@
     <row r="21">
       <c r="F21" t="inlineStr">
         <is>
-          <t>choerodon.route.development-pipeline.application</t>
+          <t>choerodon.route.development-pipeline.code-quality</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>/devops/app</t>
+          <t>/devops/code-quality</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1027,7 +1027,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>应用路由</t>
+          <t>代码质量路由</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1048,12 +1048,12 @@
     <row r="22">
       <c r="F22" t="inlineStr">
         <is>
-          <t>choerodon.route.development-pipeline.application-version</t>
+          <t>choerodon.route.deployment-pipeline.environment-overview</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>/devops/app-version</t>
+          <t>/devops/env-overview</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>应用版本路由</t>
+          <t>环境总览路由</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1089,12 +1089,12 @@
     <row r="23">
       <c r="F23" t="inlineStr">
         <is>
-          <t>choerodon.route.deployment-pipeline.environment-overview</t>
+          <t>choerodon.route.deployment-pipeline.environment-pipeline</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>/devops/env-overview</t>
+          <t>/devops/env-pipeline</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>环境总览路由</t>
+          <t>环境管理路由</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1130,12 +1130,12 @@
     <row r="24">
       <c r="F24" t="inlineStr">
         <is>
-          <t>choerodon.route.deployment-pipeline.environment-pipeline</t>
+          <t>choerodon.route.deployment-pipeline.deployment-overview</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>/devops/env-pipeline</t>
+          <t>/devops/deploy-overview</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>环境管理路由</t>
+          <t>部署总览路由</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1171,12 +1171,12 @@
     <row r="25">
       <c r="F25" t="inlineStr">
         <is>
-          <t>choerodon.route.deployment-pipeline.deployment-overview</t>
+          <t>choerodon.route.deployment-pipeline.application-deployment</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>/devops/deploy-overview</t>
+          <t>/devops/deployment-app</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1191,7 +1191,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>部署总览路由</t>
+          <t>应用部署路由</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1212,12 +1212,12 @@
     <row r="26">
       <c r="F26" t="inlineStr">
         <is>
-          <t>choerodon.route.deployment-pipeline.application-deployment</t>
+          <t>choerodon.route.deployment-pipeline.instance</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>/devops/deployment-app</t>
+          <t>/devops/instance</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>应用部署路由</t>
+          <t>实例路由</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -1253,12 +1253,12 @@
     <row r="27">
       <c r="F27" t="inlineStr">
         <is>
-          <t>choerodon.route.deployment-pipeline.instance</t>
+          <t>choerodon.route.deployment-pipeline.service</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>/devops/instance</t>
+          <t>/devops/service</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>实例路由</t>
+          <t>网络路由</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1294,12 +1294,12 @@
     <row r="28">
       <c r="F28" t="inlineStr">
         <is>
-          <t>choerodon.route.deployment-pipeline.service</t>
+          <t>choerodon.route.deployment-pipeline.ingress</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>/devops/service</t>
+          <t>/devops/ingress</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1314,7 +1314,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>网络路由</t>
+          <t>域名路由</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -1335,12 +1335,12 @@
     <row r="29">
       <c r="F29" t="inlineStr">
         <is>
-          <t>choerodon.route.deployment-pipeline.ingress</t>
+          <t>choerodon.route.deployment-pipeline.container</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>/devops/ingress</t>
+          <t>/devops/container</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>域名路由</t>
+          <t>容器路由</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -1376,12 +1376,12 @@
     <row r="30">
       <c r="F30" t="inlineStr">
         <is>
-          <t>choerodon.route.deployment-pipeline.container</t>
+          <t>choerodon.route.deployment-pipeline.certificate</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>/devops/container</t>
+          <t>/devops/certificate</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>容器路由</t>
+          <t>证书路由</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -1417,12 +1417,12 @@
     <row r="31">
       <c r="F31" t="inlineStr">
         <is>
-          <t>choerodon.route.deployment-pipeline.certificate</t>
+          <t>choerodon.route.deployment-pipeline.config-map</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>/devops/certificate</t>
+          <t>/devops/config-map</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>证书路由</t>
+          <t>配置映射路由</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -1458,12 +1458,12 @@
     <row r="32">
       <c r="F32" t="inlineStr">
         <is>
-          <t>choerodon.route.deployment-pipeline.config-map</t>
+          <t>choerodon.route.deployment-pipeline.secret</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>/devops/config-map</t>
+          <t>/devops/secret</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>配置映射路由</t>
+          <t>密文路由</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -1499,12 +1499,12 @@
     <row r="33">
       <c r="F33" t="inlineStr">
         <is>
-          <t>choerodon.route.deployment-pipeline.secret</t>
+          <t>choerodon.route.deployment-pipeline.pipeline-management</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>/devops/secret</t>
+          <t>/devops/pipeline</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>密文路由</t>
+          <t>流水线管理路由</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -1540,12 +1540,12 @@
     <row r="34">
       <c r="F34" t="inlineStr">
         <is>
-          <t>choerodon.route.deployment-pipeline.pipeline-management</t>
+          <t>choerodon.route.deployment-pipeline.pipeline-record</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>/devops/pipeline</t>
+          <t>/devops/pipeline-record</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>流水线管理路由</t>
+          <t>流水线执行总览路由</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -1581,12 +1581,12 @@
     <row r="35">
       <c r="F35" t="inlineStr">
         <is>
-          <t>choerodon.route.deployment-pipeline.pipeline-record</t>
+          <t>choerodon.route.deployment-pipeline.deployment-config</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>/devops/pipeline-record</t>
+          <t>/devops/deployment-config</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>流水线执行总览路由</t>
+          <t>部署配置路由</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -1622,12 +1622,12 @@
     <row r="36">
       <c r="F36" t="inlineStr">
         <is>
-          <t>choerodon.route.deployment-pipeline.deployment-config</t>
+          <t>choerodon.route.prosetting.element-settings</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>/devops/deployment-config</t>
+          <t>/devops/elements</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>部署配置路由</t>
+          <t>组件设置路由</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -1663,12 +1663,12 @@
     <row r="37">
       <c r="F37" t="inlineStr">
         <is>
-          <t>choerodon.route.deployment-pipeline.auto-deploy</t>
+          <t>choerodon.route.platform-reports.reports</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>/devops/auto-deploy</t>
+          <t>/devops/reports</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>自动部署路由</t>
+          <t>DevOps报表路由</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -1698,334 +1698,6 @@
         <v>1</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>choerodon.route.prosetting.element-settings</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>/devops/elements</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>devops</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>project</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>组件设置路由</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>page</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>choerodon.route.platform-reports.reports</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>/devops/reports</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>devops</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>project</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>DevOps报表路由</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>page</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>choerodon.route.application-market.application-release</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>/devops/app-release</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>devops</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>project</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>应用发布路由</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>page</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>choerodon.route.application-market.application-market</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>/devops/app-market</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>devops</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>project</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>应用市场路由</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>page</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>choerodon.route.cluster-management.cluster</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>/devops/cluster</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>devops</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>organization</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>集群路由</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>page</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>choerodon.route.devops.template</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>/devops/template</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>devops</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>organization</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>应用模板路由</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>page</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>choerodon.route.platform_reports.reports</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>/devops/reports</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>devops</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>project</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>DevOps报表路由</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>page</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>choerodon.route.application-management.application-template</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>/devops/template</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>devops</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>organization</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>应用模板路由</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>page</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2050,7 +1722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="D7:O56"/>
+  <dimension ref="D7:O43"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="O8" activeCellId="0" pane="topLeft" sqref="O8"/>
@@ -2922,22 +2594,22 @@
     <row r="24">
       <c r="F24" t="inlineStr">
         <is>
-          <t>choerodon.code.development-pipeline.application</t>
+          <t>choerodon.code.development-pipeline.code-quality</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>应用</t>
+          <t>代码质量</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Application</t>
+          <t>Code Quality</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>choerodon.route.development-pipeline.application</t>
+          <t>choerodon.route.development-pipeline.code-quality</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2972,22 +2644,17 @@
     <row r="25">
       <c r="F25" t="inlineStr">
         <is>
-          <t>choerodon.code.development-pipeline.application-version</t>
+          <t>choerodon.code.deployment-pipeline</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>应用版本</t>
+          <t>部署流水线</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Application Version</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>choerodon.route.development-pipeline.application-version</t>
+          <t>Deployment Pipeline</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2997,7 +2664,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>choerodon.code.development-pipeline</t>
+          <t>choerodon.code.top.project</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -3007,44 +2674,49 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>menu_item</t>
+          <t>menu</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>wrench</t>
+          <t>cloud_upload</t>
         </is>
       </c>
       <c r="O25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="F26" t="inlineStr">
         <is>
+          <t>choerodon.code.deployment-pipeline.environment-overview</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>环境总览</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Environment Overview</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>choerodon.route.deployment-pipeline.environment-overview</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>devops</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
           <t>choerodon.code.deployment-pipeline</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>部署流水线</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Deployment Pipeline</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>devops</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>choerodon.code.top.project</t>
-        </is>
-      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>project</t>
@@ -3052,7 +2724,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>menu</t>
+          <t>menu_item</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -3067,22 +2739,22 @@
     <row r="27">
       <c r="F27" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.environment-overview</t>
+          <t>choerodon.code.deployment-pipeline.environment-pipeline</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>环境总览</t>
+          <t>环境管理</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Environment Overview</t>
+          <t>Environment Management</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>choerodon.route.deployment-pipeline.environment-overview</t>
+          <t>choerodon.route.deployment-pipeline.environment-pipeline</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -3117,22 +2789,22 @@
     <row r="28">
       <c r="F28" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.environment-pipeline</t>
+          <t>choerodon.code.deployment-pipeline.deployment-overview</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>环境管理</t>
+          <t>部署总览</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Environment Management</t>
+          <t>Deployment Overview</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>choerodon.route.deployment-pipeline.environment-pipeline</t>
+          <t>choerodon.route.deployment-pipeline.deployment-overview</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -3167,22 +2839,22 @@
     <row r="29">
       <c r="F29" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.deployment-overview</t>
+          <t>choerodon.code.deployment-pipeline.application-deployment</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>部署总览</t>
+          <t>应用部署</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Deployment Overview</t>
+          <t>Application Deployment</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>choerodon.route.deployment-pipeline.deployment-overview</t>
+          <t>choerodon.route.deployment-pipeline.application-deployment</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -3217,22 +2889,22 @@
     <row r="30">
       <c r="F30" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.application-deployment</t>
+          <t>choerodon.code.deployment-pipeline.instance</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>应用部署</t>
+          <t>实例</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Application Deployment</t>
+          <t>Instance</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>choerodon.route.deployment-pipeline.application-deployment</t>
+          <t>choerodon.route.deployment-pipeline.instance</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -3267,22 +2939,22 @@
     <row r="31">
       <c r="F31" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.instance</t>
+          <t>choerodon.code.deployment-pipeline.service</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>实例</t>
+          <t>网络</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Instance</t>
+          <t>Service</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>choerodon.route.deployment-pipeline.instance</t>
+          <t>choerodon.route.deployment-pipeline.service</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -3317,22 +2989,22 @@
     <row r="32">
       <c r="F32" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.service</t>
+          <t>choerodon.code.deployment-pipeline.ingress</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>网络</t>
+          <t>域名</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Service</t>
+          <t>Ingress</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>choerodon.route.deployment-pipeline.service</t>
+          <t>choerodon.route.deployment-pipeline.ingress</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -3367,22 +3039,22 @@
     <row r="33">
       <c r="F33" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.ingress</t>
+          <t>choerodon.code.deployment-pipeline.container</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>域名</t>
+          <t>容器</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Ingress</t>
+          <t>Container</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>choerodon.route.deployment-pipeline.ingress</t>
+          <t>choerodon.route.deployment-pipeline.container</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -3417,22 +3089,22 @@
     <row r="34">
       <c r="F34" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.container</t>
+          <t>choerodon.code.deployment-pipeline.certificate</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>容器</t>
+          <t>证书</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Container</t>
+          <t>Certificate</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>choerodon.route.deployment-pipeline.container</t>
+          <t>choerodon.route.deployment-pipeline.certificate</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -3467,22 +3139,22 @@
     <row r="35">
       <c r="F35" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.certificate</t>
+          <t>choerodon.code.deployment-pipeline.config-map</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>证书</t>
+          <t>配置映射</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Certificate</t>
+          <t>Config Map</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>choerodon.route.deployment-pipeline.certificate</t>
+          <t>choerodon.route.deployment-pipeline.config-map</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -3517,22 +3189,22 @@
     <row r="36">
       <c r="F36" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.config-map</t>
+          <t>choerodon.code.deployment-pipeline.secret</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>配置映射</t>
+          <t>密文</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Config Map</t>
+          <t>Secret</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>choerodon.route.deployment-pipeline.config-map</t>
+          <t>choerodon.route.deployment-pipeline.secret</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3567,22 +3239,22 @@
     <row r="37">
       <c r="F37" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.secret</t>
+          <t>choerodon.code.deployment-pipeline.pipeline-management</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>密文</t>
+          <t>流水线管理</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Secret</t>
+          <t>Pipeline Management</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>choerodon.route.deployment-pipeline.secret</t>
+          <t>choerodon.route.deployment-pipeline.pipeline-management</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3617,22 +3289,22 @@
     <row r="38">
       <c r="F38" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.pipeline-management</t>
+          <t>choerodon.code.deployment-pipeline.pipeline-record</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>流水线管理</t>
+          <t>流水线执行总览</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Pipeline Management</t>
+          <t>Pipeline Record</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>choerodon.route.deployment-pipeline.pipeline-management</t>
+          <t>choerodon.route.deployment-pipeline.pipeline-record</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3667,22 +3339,22 @@
     <row r="39">
       <c r="F39" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.pipeline-record</t>
+          <t>choerodon.code.deployment-pipeline.deployment-config</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>流水线执行总览</t>
+          <t>部署配置</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Pipeline Record</t>
+          <t>Deployment Config</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>choerodon.route.deployment-pipeline.pipeline-record</t>
+          <t>choerodon.route.deployment-pipeline.deployment-config</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3717,22 +3389,17 @@
     <row r="40">
       <c r="F40" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.deployment-config</t>
+          <t>choerodon.code.prosetting</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>部署配置</t>
+          <t>项目设置</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Deployment Config</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>choerodon.route.deployment-pipeline.deployment-config</t>
+          <t>Project Manage</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3742,7 +3409,7 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline</t>
+          <t>choerodon.code.top.project</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -3752,37 +3419,37 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>menu_item</t>
+          <t>menu</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>cloud_upload</t>
+          <t>IAM</t>
         </is>
       </c>
       <c r="O40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.auto-deploy</t>
+          <t>choerodon.code.prosetting.element-settings</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>自动部署</t>
+          <t>组件设置</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Auto Deploy</t>
+          <t>Element Setting</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>choerodon.route.deployment-pipeline.auto-deploy</t>
+          <t>choerodon.route.prosetting.element-settings</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3792,7 +3459,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline</t>
+          <t>choerodon.code.prosetting</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -3807,27 +3474,27 @@
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>cloud_upload</t>
+          <t>IAM</t>
         </is>
       </c>
       <c r="O41" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="inlineStr">
         <is>
-          <t>choerodon.code.prosetting</t>
+          <t>choerodon.code.platform-reports</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>项目设置</t>
+          <t>报表</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Project Manage</t>
+          <t>Reports</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3852,32 +3519,32 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>IAM</t>
+          <t>bar_chart</t>
         </is>
       </c>
       <c r="O42" t="n">
-        <v>6</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="inlineStr">
         <is>
-          <t>choerodon.code.prosetting.element-settings</t>
+          <t>choerodon.code.platform-reports.reports</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>组件设置</t>
+          <t>DevOps报表</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Element Setting</t>
+          <t>DevOps Report</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>choerodon.route.prosetting.element-settings</t>
+          <t>choerodon.route.platform-reports.reports</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -3887,7 +3554,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>choerodon.code.prosetting</t>
+          <t>choerodon.code.platform-reports</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -3902,631 +3569,11 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>IAM</t>
+          <t>bar_chart</t>
         </is>
       </c>
       <c r="O43" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>choerodon.code.platform-reports</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>报表</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Reports</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>devops</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>choerodon.code.top.project</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>project</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>menu</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>bar_chart</t>
-        </is>
-      </c>
-      <c r="O44" t="n">
         <v>99</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>choerodon.code.platform-reports.reports</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>DevOps报表</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>DevOps Report</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>choerodon.route.platform-reports.reports</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>devops</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>choerodon.code.platform-reports</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>project</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>menu_item</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>bar_chart</t>
-        </is>
-      </c>
-      <c r="O45" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>choerodon.code.application-market</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>应用市场</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Application Market</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>devops</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>choerodon.code.top.project</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>project</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>menu</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>apps</t>
-        </is>
-      </c>
-      <c r="O46" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>choerodon.code.application-market.application-release</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>应用发布</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Application Release</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>choerodon.route.application-market.application-release</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>devops</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>choerodon.code.application-market</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>project</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>menu_item</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>apps</t>
-        </is>
-      </c>
-      <c r="O47" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>choerodon.code.application-market.application-market</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>应用市场</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Application Market</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>choerodon.route.application-market.application-market</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>devops</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>choerodon.code.application-market</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>project</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>menu_item</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>apps</t>
-        </is>
-      </c>
-      <c r="O48" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>choerodon.code.cluster-management</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>集群管理</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Cluster Management</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>devops</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>choerodon.code.top.organization</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>organization</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>menu</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>cluster</t>
-        </is>
-      </c>
-      <c r="O49" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>choerodon.code.cluster-management.cluster</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>集群</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Cluster</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>choerodon.route.cluster-management.cluster</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>devops</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>choerodon.code.cluster-management</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>organization</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>menu_item</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>cluster</t>
-        </is>
-      </c>
-      <c r="O50" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>choerodon.code.devops</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>持续交付</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Devops</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>devops</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>choerodon.code.top.organization</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>organization</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>menu</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>devops</t>
-        </is>
-      </c>
-      <c r="O51" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>choerodon.code.devops.template</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>应用模板</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Application template</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>choerodon.route.devops.template</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>devops</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>choerodon.code.devops</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>organization</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>menu_item</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>devops</t>
-        </is>
-      </c>
-      <c r="O52" t="n">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>choerodon.code.platform_reports</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>报表</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Reports</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>devops</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>choerodon.code.top.project</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>project</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>menu</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>bar_chart</t>
-        </is>
-      </c>
-      <c r="O53" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>choerodon.code.platform_reports.reports</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>DevOps报表</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>DevOps Report</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>choerodon.route.platform_reports.reports</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>devops</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>choerodon.code.platform_reports</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>project</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>menu_item</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>bar_chart</t>
-        </is>
-      </c>
-      <c r="O54" t="n">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>choerodon.code.application-management</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>应用管理</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Application Management</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>devops</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>choerodon.code.top.organization</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>organization</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>menu</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>apps</t>
-        </is>
-      </c>
-      <c r="O55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>choerodon.code.application-management.application-template</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>应用模板</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Application Template</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>choerodon.route.application-management.application-template</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>devops</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>choerodon.code.application-management</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>organization</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>menu_item</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>apps</t>
-        </is>
-      </c>
-      <c r="O56" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4550,7 +3597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="D7:G175"/>
+  <dimension ref="D7:G155"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="E25" activeCellId="0" pane="topLeft" sqref="E25"/>
@@ -5059,60 +4106,60 @@
     <row r="47">
       <c r="F47" t="inlineStr">
         <is>
-          <t>choerodon.code.development-pipeline.application</t>
+          <t>choerodon.code.development-pipeline.code-quality</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>devops-service.application.pageByOptions</t>
+          <t>devops-service.application.getSonarQube</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="F48" t="inlineStr">
         <is>
-          <t>choerodon.code.development-pipeline.application</t>
+          <t>choerodon.code.deployment-pipeline.environment-overview</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>devops-service.application.update</t>
+          <t>devops-service.application-instance.listByAppId</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="F49" t="inlineStr">
         <is>
-          <t>choerodon.code.development-pipeline.application</t>
+          <t>choerodon.code.deployment-pipeline.environment-overview</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>devops-service.application.queryByAppId</t>
+          <t>devops-service.application-instance.listByAppInstanceId</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="F50" t="inlineStr">
         <is>
-          <t>choerodon.code.development-pipeline.application</t>
+          <t>choerodon.code.deployment-pipeline.environment-overview</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>devops-service.application.queryByAppIdAndActive</t>
+          <t>devops-service.application-instance.queryValue</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="F51" t="inlineStr">
         <is>
-          <t>choerodon.code.development-pipeline.application-version</t>
+          <t>choerodon.code.deployment-pipeline.environment-overview</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>devops-service.application-version.pageByOptions</t>
+          <t>devops-service.application-instance.deploy</t>
         </is>
       </c>
     </row>
@@ -5124,7 +4171,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>devops-service.application-instance.listByAppId</t>
+          <t>devops-service.application-instance.pageInstances</t>
         </is>
       </c>
     </row>
@@ -5136,7 +4183,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>devops-service.application-instance.listByAppInstanceId</t>
+          <t>devops-service.application-instance.pageByOptions</t>
         </is>
       </c>
     </row>
@@ -5148,7 +4195,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>devops-service.application-instance.queryValue</t>
+          <t>devops-service.application-instance.listByAppVersionId</t>
         </is>
       </c>
     </row>
@@ -5160,7 +4207,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>devops-service.application-instance.deploy</t>
+          <t>devops-service.application-instance.queryValues</t>
         </is>
       </c>
     </row>
@@ -5172,7 +4219,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>devops-service.application-instance.pageInstances</t>
+          <t>devops-service.application-instance.listResources</t>
         </is>
       </c>
     </row>
@@ -5184,7 +4231,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>devops-service.application-instance.pageByOptions</t>
+          <t>devops-service.application-instance.listStages</t>
         </is>
       </c>
     </row>
@@ -5196,7 +4243,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>devops-service.application-instance.listByAppVersionId</t>
+          <t>devops-service.application-instance.delete</t>
         </is>
       </c>
     </row>
@@ -5208,7 +4255,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>devops-service.application-instance.queryValues</t>
+          <t>devops-service.application-instance.start</t>
         </is>
       </c>
     </row>
@@ -5220,7 +4267,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>devops-service.application-instance.listResources</t>
+          <t>devops-service.application-instance.stop</t>
         </is>
       </c>
     </row>
@@ -5232,7 +4279,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>devops-service.application-instance.listStages</t>
+          <t>devops-service.application-instance.listByEnv</t>
         </is>
       </c>
     </row>
@@ -5244,7 +4291,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>devops-service.application-instance.delete</t>
+          <t>devops-service.devops-env-file-error.page</t>
         </is>
       </c>
     </row>
@@ -5256,7 +4303,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>devops-service.application-instance.start</t>
+          <t>devops-service.devops-environment.listByProjectIdAndActive</t>
         </is>
       </c>
     </row>
@@ -5268,7 +4315,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>devops-service.application-instance.stop</t>
+          <t>devops-service.application.listByEnvIdAndStatus</t>
         </is>
       </c>
     </row>
@@ -5280,7 +4327,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>devops-service.application-instance.listByEnv</t>
+          <t>devops-service.devops-service.create</t>
         </is>
       </c>
     </row>
@@ -5292,7 +4339,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>devops-service.devops-env-file-error.page</t>
+          <t>devops-service.devops-service.checkName</t>
         </is>
       </c>
     </row>
@@ -5304,7 +4351,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>devops-service.devops-environment.listByProjectIdAndActive</t>
+          <t>devops-service.devops-service.query</t>
         </is>
       </c>
     </row>
@@ -5316,7 +4363,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>devops-service.application.listByEnvIdAndStatus</t>
+          <t>devops-service.devops-service.update</t>
         </is>
       </c>
     </row>
@@ -5328,7 +4375,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>devops-service.devops-service.create</t>
+          <t>devops-service.devops-service.delete</t>
         </is>
       </c>
     </row>
@@ -5340,7 +4387,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>devops-service.devops-service.checkName</t>
+          <t>devops-service.devops-service.listByEnv</t>
         </is>
       </c>
     </row>
@@ -5352,7 +4399,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>devops-service.devops-service.query</t>
+          <t>devops-service.devops-ingress.queryDomainId</t>
         </is>
       </c>
     </row>
@@ -5364,7 +4411,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>devops-service.devops-service.update</t>
+          <t>devops-service.devops-ingress.delete</t>
         </is>
       </c>
     </row>
@@ -5376,98 +4423,98 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>devops-service.devops-service.delete</t>
+          <t>devops-service.devops-ingress.listByEnv</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.environment-overview</t>
+          <t>choerodon.code.deployment-pipeline.environment-pipeline</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>devops-service.devops-service.listByEnv</t>
+          <t>devops-service.devops-environment.create</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.environment-overview</t>
+          <t>choerodon.code.deployment-pipeline.deployment-overview</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>devops-service.devops-ingress.queryDomainId</t>
+          <t>devops-service.application.listAll</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.environment-overview</t>
+          <t>choerodon.code.deployment-pipeline.deployment-overview</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>devops-service.devops-ingress.delete</t>
+          <t>devops-service.application-instance.deploy</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.environment-overview</t>
+          <t>choerodon.code.deployment-pipeline.application-deployment</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>devops-service.devops-ingress.listByEnv</t>
+          <t>devops-service.application-instance.deploy</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.environment-pipeline</t>
+          <t>choerodon.code.deployment-pipeline.instance</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>devops-service.devops-environment.create</t>
+          <t>devops-service.application-instance.listByAppId</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.deployment-overview</t>
+          <t>choerodon.code.deployment-pipeline.instance</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>devops-service.application.listAll</t>
+          <t>devops-service.application-instance.listByAppInstanceId</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.deployment-overview</t>
+          <t>choerodon.code.deployment-pipeline.instance</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>devops-service.application-instance.deploy</t>
+          <t>devops-service.application-instance.queryValue</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.application-deployment</t>
+          <t>choerodon.code.deployment-pipeline.instance</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5484,7 +4531,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>devops-service.application-instance.listByAppId</t>
+          <t>devops-service.application-instance.pageInstances</t>
         </is>
       </c>
     </row>
@@ -5496,7 +4543,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>devops-service.application-instance.listByAppInstanceId</t>
+          <t>devops-service.application-instance.pageByOptions</t>
         </is>
       </c>
     </row>
@@ -5508,7 +4555,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>devops-service.application-instance.queryValue</t>
+          <t>devops-service.application-instance.listByAppVersionId</t>
         </is>
       </c>
     </row>
@@ -5520,7 +4567,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>devops-service.application-instance.deploy</t>
+          <t>devops-service.application-instance.queryValues</t>
         </is>
       </c>
     </row>
@@ -5532,7 +4579,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>devops-service.application-instance.pageInstances</t>
+          <t>devops-service.application-instance.listResources</t>
         </is>
       </c>
     </row>
@@ -5544,7 +4591,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>devops-service.application-instance.pageByOptions</t>
+          <t>devops-service.application-instance.listStages</t>
         </is>
       </c>
     </row>
@@ -5556,7 +4603,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>devops-service.application-instance.listByAppVersionId</t>
+          <t>devops-service.application-instance.delete</t>
         </is>
       </c>
     </row>
@@ -5568,7 +4615,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>devops-service.application-instance.queryValues</t>
+          <t>devops-service.application-instance.start</t>
         </is>
       </c>
     </row>
@@ -5580,7 +4627,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>devops-service.application-instance.listResources</t>
+          <t>devops-service.application-instance.stop</t>
         </is>
       </c>
     </row>
@@ -5592,7 +4639,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>devops-service.application-instance.listStages</t>
+          <t>devops-service.devops-environment.listByProjectIdAndActive</t>
         </is>
       </c>
     </row>
@@ -5604,55 +4651,55 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>devops-service.application-instance.delete</t>
+          <t>devops-service.application.listByEnvIdAndStatus</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="F93" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.instance</t>
+          <t>choerodon.code.deployment-pipeline.service</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>devops-service.application-instance.start</t>
+          <t>devops-service.devops-service.create</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="F94" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.instance</t>
+          <t>choerodon.code.deployment-pipeline.service</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>devops-service.application-instance.stop</t>
+          <t>devops-service.devops-service.checkName</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="F95" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.instance</t>
+          <t>choerodon.code.deployment-pipeline.service</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>devops-service.devops-environment.listByProjectIdAndActive</t>
+          <t>devops-service.devops-service.listByEnv</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="F96" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.instance</t>
+          <t>choerodon.code.deployment-pipeline.service</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>devops-service.application.listByEnvIdAndStatus</t>
+          <t>devops-service.devops-service.query</t>
         </is>
       </c>
     </row>
@@ -5664,7 +4711,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>devops-service.devops-service.create</t>
+          <t>devops-service.devops-service.update</t>
         </is>
       </c>
     </row>
@@ -5676,283 +4723,283 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>devops-service.devops-service.checkName</t>
+          <t>devops-service.devops-service.delete</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="F99" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.service</t>
+          <t>choerodon.code.deployment-pipeline.ingress</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>devops-service.devops-service.listByEnv</t>
+          <t>devops-service.devops-ingress.listByEnv</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="F100" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.service</t>
+          <t>choerodon.code.deployment-pipeline.ingress</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>devops-service.devops-service.query</t>
+          <t>devops-service.devops-ingress.queryDomainId</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="F101" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.service</t>
+          <t>choerodon.code.deployment-pipeline.ingress</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>devops-service.devops-service.update</t>
+          <t>devops-service.devops-ingress.delete</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="F102" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.service</t>
+          <t>choerodon.code.deployment-pipeline.ingress</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>devops-service.devops-service.delete</t>
+          <t>devops-service.certification.getActiveByDomain</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="F103" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.ingress</t>
+          <t>choerodon.code.deployment-pipeline.container</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>devops-service.devops-ingress.listByEnv</t>
+          <t>devops-service.devops-env-pod-container.queryLogByPod</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="F104" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.ingress</t>
+          <t>choerodon.code.deployment-pipeline.container</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>devops-service.devops-ingress.queryDomainId</t>
+          <t>devops-service.devops-env-pod-container.handleShellByPod</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="F105" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.ingress</t>
+          <t>choerodon.code.deployment-pipeline.container</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>devops-service.devops-ingress.delete</t>
+          <t>devops-service.devops-env-pod.pageByOptions</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="F106" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.ingress</t>
+          <t>choerodon.code.deployment-pipeline.certificate</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>devops-service.certification.getActiveByDomain</t>
+          <t>devops-service.devops-environment.listByProjectIdAndActive</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="F107" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.container</t>
+          <t>choerodon.code.deployment-pipeline.certificate</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>devops-service.devops-env-pod-container.queryLogByPod</t>
+          <t>devops-service.certification.listByOptions</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="F108" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.container</t>
+          <t>choerodon.code.deployment-pipeline.certificate</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>devops-service.devops-env-pod-container.handleShellByPod</t>
+          <t>devops-service.certification.create</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="F109" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.container</t>
+          <t>choerodon.code.deployment-pipeline.certificate</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>devops-service.devops-env-pod.pageByOptions</t>
+          <t>devops-service.certification.delete</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="F110" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.certificate</t>
+          <t>choerodon.code.deployment-pipeline.config-map</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>devops-service.devops-environment.listByProjectIdAndActive</t>
+          <t>devops-service.devops-config-map.create</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="F111" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.certificate</t>
+          <t>choerodon.code.deployment-pipeline.config-map</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>devops-service.certification.listByOptions</t>
+          <t>devops-service.devops-config-map.query</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="F112" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.certificate</t>
+          <t>choerodon.code.deployment-pipeline.config-map</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>devops-service.certification.create</t>
+          <t>devops-service.devops-config-map.delete</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="F113" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.certificate</t>
+          <t>choerodon.code.deployment-pipeline.config-map</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>devops-service.certification.delete</t>
+          <t>devops-service.devops-config-map.listByEnv</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="F114" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.config-map</t>
+          <t>choerodon.code.deployment-pipeline.secret</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>devops-service.devops-config-map.create</t>
+          <t>devops-service.devops-secret.createOrUpdate</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="F115" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.config-map</t>
+          <t>choerodon.code.deployment-pipeline.secret</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>devops-service.devops-config-map.query</t>
+          <t>devops-service.devops-secret.querySecret</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="F116" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.config-map</t>
+          <t>choerodon.code.deployment-pipeline.secret</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>devops-service.devops-config-map.delete</t>
+          <t>devops-service.devops-secret.deleteSecret</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="F117" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.config-map</t>
+          <t>choerodon.code.deployment-pipeline.secret</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>devops-service.devops-config-map.listByEnv</t>
+          <t>devops-service.devops-secret.listByOption</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="F118" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.secret</t>
+          <t>choerodon.code.deployment-pipeline.pipeline-management</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>devops-service.devops-secret.createOrUpdate</t>
+          <t>devops-service.pipeline.create</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="F119" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.secret</t>
+          <t>choerodon.code.deployment-pipeline.pipeline-management</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>devops-service.devops-secret.querySecret</t>
+          <t>devops-service.pipeline.update</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="F120" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.secret</t>
+          <t>choerodon.code.deployment-pipeline.pipeline-management</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>devops-service.devops-secret.deleteSecret</t>
+          <t>devops-service.pipeline.listByOptions</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="F121" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.secret</t>
+          <t>choerodon.code.deployment-pipeline.pipeline-management</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>devops-service.devops-secret.listByOption</t>
+          <t>devops-service.pipeline.updateIsEnabled</t>
         </is>
       </c>
     </row>
@@ -5964,7 +5011,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>devops-service.pipeline.create</t>
+          <t>devops-service.pipeline.delete</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5023,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>devops-service.pipeline.update</t>
+          <t>devops-service.pipeline.execute</t>
         </is>
       </c>
     </row>
@@ -5988,7 +5035,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>devops-service.pipeline.listByOptions</t>
+          <t>devops-service.pipeline.listRecords</t>
         </is>
       </c>
     </row>
@@ -6000,55 +5047,55 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>devops-service.pipeline.updateIsEnabled</t>
+          <t>devops-service.pipeline.checkDeploy</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="F126" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.pipeline-management</t>
+          <t>choerodon.code.deployment-pipeline.pipeline-record</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>devops-service.pipeline.delete</t>
+          <t>devops-service.pipeline.listRecords</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="F127" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.pipeline-management</t>
+          <t>choerodon.code.deployment-pipeline.pipeline-record</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>devops-service.pipeline.execute</t>
+          <t>devops-service.pipeline.listPipelineDTO</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="F128" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.pipeline-management</t>
+          <t>choerodon.code.deployment-pipeline.pipeline-record</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>devops-service.pipeline.listRecords</t>
+          <t>devops-service.pipeline.getRecordById</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="F129" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.pipeline-management</t>
+          <t>choerodon.code.deployment-pipeline.pipeline-record</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>devops-service.pipeline.checkDeploy</t>
+          <t>devops-service.pipeline.retry</t>
         </is>
       </c>
     </row>
@@ -6060,115 +5107,115 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>devops-service.pipeline.listRecords</t>
+          <t>devops-service.pipeline.audit</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="F131" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.pipeline-record</t>
+          <t>choerodon.code.deployment-pipeline.deployment-config</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>devops-service.pipeline.listPipelineDTO</t>
+          <t>devops-service.pipeline-value.listByOptions</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="F132" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.pipeline-record</t>
+          <t>choerodon.code.deployment-pipeline.deployment-config</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>devops-service.pipeline.getRecordById</t>
+          <t>devops-service.pipeline-value.queryById</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="F133" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.pipeline-record</t>
+          <t>choerodon.code.deployment-pipeline.deployment-config</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>devops-service.pipeline.retry</t>
+          <t>devops-service.pipeline-value.createOrUpdate</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="F134" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.pipeline-record</t>
+          <t>choerodon.code.deployment-pipeline.deployment-config</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>devops-service.pipeline.audit</t>
+          <t>devops-service.pipeline-value.delete</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="F135" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.deployment-config</t>
+          <t>choerodon.code.prosetting.element-settings</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>devops-service.pipeline-value.listByOptions</t>
+          <t>devops-service.devops-project-config.pageByOptions</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="F136" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.deployment-config</t>
+          <t>choerodon.code.prosetting.element-settings</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>devops-service.pipeline-value.queryById</t>
+          <t>devops-service.devops-project-config.update</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="F137" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.deployment-config</t>
+          <t>choerodon.code.prosetting.element-settings</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>devops-service.pipeline-value.createOrUpdate</t>
+          <t>devops-service.devops-project-config.create</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="F138" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.deployment-config</t>
+          <t>choerodon.code.prosetting.element-settings</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>devops-service.pipeline-value.delete</t>
+          <t>devops-service.devops-project-config.checkName</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="F139" t="inlineStr">
         <is>
-          <t>choerodon.code.deployment-pipeline.auto-deploy</t>
+          <t>choerodon.code.prosetting.element-settings</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>devops-service.devops-auto-deploy.pageByOptions</t>
+          <t>devops-service.application.checkHarbor</t>
         </is>
       </c>
     </row>
@@ -6180,7 +5227,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>devops-service.devops-project-config.pageByOptions</t>
+          <t>devops-service.application.checkChart</t>
         </is>
       </c>
     </row>
@@ -6192,7 +5239,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>devops-service.devops-project-config.update</t>
+          <t>devops-service.devops-project-config.queryByPrimaryKey</t>
         </is>
       </c>
     </row>
@@ -6204,7 +5251,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>devops-service.devops-project-config.create</t>
+          <t>devops-service.devops-project-config.deleteByProjectConfigId</t>
         </is>
       </c>
     </row>
@@ -6216,67 +5263,67 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>devops-service.devops-project-config.checkName</t>
+          <t>devops-service.devops-project-config.checkIsUsed</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="F144" t="inlineStr">
         <is>
-          <t>choerodon.code.prosetting.element-settings</t>
+          <t>choerodon.code.platform-reports.reports</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>devops-service.application.checkHarbor</t>
+          <t>devops-service.application.listByActive</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="F145" t="inlineStr">
         <is>
-          <t>choerodon.code.prosetting.element-settings</t>
+          <t>choerodon.code.platform-reports.reports</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>devops-service.application.checkChart</t>
+          <t>devops-service.devops-gitlab-commit.getCommits</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="F146" t="inlineStr">
         <is>
-          <t>choerodon.code.prosetting.element-settings</t>
+          <t>choerodon.code.platform-reports.reports</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>devops-service.devops-project-config.queryByPrimaryKey</t>
+          <t>devops-service.devops-gitlab-commit.getRecordCommits</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="F147" t="inlineStr">
         <is>
-          <t>choerodon.code.prosetting.element-settings</t>
+          <t>choerodon.code.platform-reports.reports</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>devops-service.devops-project-config.deleteByProjectConfigId</t>
+          <t>devops-service.application-instance.listDeployTime</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="F148" t="inlineStr">
         <is>
-          <t>choerodon.code.prosetting.element-settings</t>
+          <t>choerodon.code.platform-reports.reports</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>devops-service.devops-project-config.checkIsUsed</t>
+          <t>devops-service.application-instance.pageDeployTimeDetail</t>
         </is>
       </c>
     </row>
@@ -6288,7 +5335,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>devops-service.application.listByActive</t>
+          <t>devops-service.devops-environment.listByProjectIdAndActive</t>
         </is>
       </c>
     </row>
@@ -6300,7 +5347,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>devops-service.devops-gitlab-commit.getCommits</t>
+          <t>devops-service.devops-gitlab-pipeline.listPipelineTime</t>
         </is>
       </c>
     </row>
@@ -6312,7 +5359,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>devops-service.devops-gitlab-commit.getRecordCommits</t>
+          <t>devops-service.devops-gitlab-pipeline.pagePipeline</t>
         </is>
       </c>
     </row>
@@ -6324,7 +5371,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>devops-service.application-instance.listDeployTime</t>
+          <t>devops-service.application-instance.listDeployFrequency</t>
         </is>
       </c>
     </row>
@@ -6336,7 +5383,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>devops-service.application-instance.pageDeployTimeDetail</t>
+          <t>devops-service.application-instance.pageDeployFrequencyDetail</t>
         </is>
       </c>
     </row>
@@ -6348,7 +5395,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>devops-service.devops-environment.listByProjectIdAndActive</t>
+          <t>devops-service.devops-gitlab-pipeline.listPipelineFrequency</t>
         </is>
       </c>
     </row>
@@ -6360,247 +5407,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>devops-service.devops-gitlab-pipeline.listPipelineTime</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>choerodon.code.platform-reports.reports</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
           <t>devops-service.devops-gitlab-pipeline.pagePipeline</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>choerodon.code.platform-reports.reports</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>devops-service.application-instance.listDeployFrequency</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>choerodon.code.platform-reports.reports</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>devops-service.application-instance.pageDeployFrequencyDetail</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>choerodon.code.platform-reports.reports</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>devops-service.devops-gitlab-pipeline.listPipelineFrequency</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>choerodon.code.platform-reports.reports</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>devops-service.devops-gitlab-pipeline.pagePipeline</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>choerodon.code.application-market.application-release</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>devops-service.application-market.create</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>choerodon.code.application-market.application-release</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>devops-service.application-market.update</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>choerodon.code.application-market.application-release</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>devops-service.application-market.updateVersions</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>choerodon.code.application-market.application-market</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>devops-service.application-market.queryApp</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>choerodon.code.application-market.application-market</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>devops-service.application-market.listAllApp</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>choerodon.code.application-market.application-market</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>devops-service.application-market.uploadApps</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>choerodon.code.application-market.application-market</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>devops-service.application-market.importApps</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>choerodon.code.application-market.application-market</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>devops-service.application-market.deleteZip</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>choerodon.code.application-market.application-market</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>devops-service.application-market.queryAppVersionReadme</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>choerodon.code.cluster-management.cluster</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>devops-service.devops-cluster.listCluster</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>choerodon.code.devops.template</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>devops-service.application-template.listByOrgId</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>choerodon.code.platform_reports.reports</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>devops-service.application.listByActive</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>choerodon.code.application-management.application-template</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>devops-service.application-template.listByOrgId</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>choerodon.code.application-management.application-template</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>devops-service.application-template.queryByAppTemplateId</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>choerodon.code.application-management.application-template</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>devops-service.application-template.delete</t>
         </is>
       </c>
     </row>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongle/Documents/work/devops-service/src/main/resources/script/front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3442D85E-C80E-7346-8B29-62A6FA4485B9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7373747F-B324-2D40-A3C7-26BA328B10AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1840" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="404">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -1229,6 +1229,74 @@
   </si>
   <si>
     <t>database</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.prosetting.element-settings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.prosetting.devops-notifications</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notifications</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.prosetting.element-settings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.prosetting.devops-notifications</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_item</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>notifications</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/devops/notifications</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>通知设置路由</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>devops-service.devops-notification.listByOptions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>devops-service.devops-notification.create</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>devops-service.devops-notification.update</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>devops-service.devops-notification.check</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>devops-service.devops-notification.queryById</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>devops-service.devops-notification.delete</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1236,7 +1304,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1254,6 +1322,11 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1276,10 +1349,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1582,10 +1656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:AMK37"/>
+  <dimension ref="A7:AMK38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" zoomScale="157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="B5" zoomScale="157" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -2482,32 +2556,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="6:14">
-      <c r="F37" t="s">
+    <row r="37" spans="6:14" s="1" customFormat="1">
+      <c r="F37" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>1</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="6:14">
+      <c r="F38" t="s">
         <v>102</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G38" t="s">
         <v>103</v>
       </c>
-      <c r="H37" t="s">
-        <v>13</v>
-      </c>
-      <c r="I37" t="s">
-        <v>25</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+      <c r="I38" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38" t="s">
         <v>104</v>
       </c>
-      <c r="K37" t="s">
+      <c r="K38" t="s">
         <v>16</v>
       </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
         <v>1</v>
       </c>
-      <c r="N37">
+      <c r="N38">
         <v>0</v>
       </c>
     </row>
@@ -2524,10 +2627,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A7:AMK46"/>
+  <dimension ref="A7:AMK47"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" zoomScale="166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView topLeftCell="F22" zoomScale="166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -3716,7 +3819,7 @@
     </row>
     <row r="44" spans="6:15">
       <c r="F44" t="s">
-        <v>219</v>
+        <v>387</v>
       </c>
       <c r="G44" t="s">
         <v>220</v>
@@ -3725,7 +3828,7 @@
         <v>221</v>
       </c>
       <c r="I44" t="s">
-        <v>99</v>
+        <v>391</v>
       </c>
       <c r="J44" t="s">
         <v>13</v>
@@ -3746,64 +3849,96 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="6:15">
-      <c r="F45" t="s">
-        <v>222</v>
-      </c>
-      <c r="G45" t="s">
-        <v>223</v>
-      </c>
-      <c r="H45" t="s">
-        <v>224</v>
-      </c>
-      <c r="J45" t="s">
-        <v>13</v>
-      </c>
-      <c r="K45" t="s">
-        <v>131</v>
-      </c>
-      <c r="L45" t="s">
-        <v>25</v>
-      </c>
-      <c r="M45" t="s">
-        <v>117</v>
-      </c>
-      <c r="N45" t="s">
-        <v>369</v>
-      </c>
-      <c r="O45">
-        <v>99</v>
+    <row r="45" spans="6:15" s="1" customFormat="1">
+      <c r="F45" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="O45" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="6:15">
       <c r="F46" t="s">
+        <v>222</v>
+      </c>
+      <c r="G46" t="s">
+        <v>223</v>
+      </c>
+      <c r="H46" t="s">
+        <v>224</v>
+      </c>
+      <c r="J46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" t="s">
+        <v>131</v>
+      </c>
+      <c r="L46" t="s">
+        <v>25</v>
+      </c>
+      <c r="M46" t="s">
+        <v>117</v>
+      </c>
+      <c r="N46" t="s">
+        <v>369</v>
+      </c>
+      <c r="O46">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="6:15">
+      <c r="F47" t="s">
         <v>225</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G47" t="s">
         <v>226</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H47" t="s">
         <v>227</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I47" t="s">
         <v>102</v>
       </c>
-      <c r="J46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K46" t="s">
+      <c r="J47" t="s">
+        <v>13</v>
+      </c>
+      <c r="K47" t="s">
         <v>222</v>
       </c>
-      <c r="L46" t="s">
-        <v>25</v>
-      </c>
-      <c r="M46" t="s">
+      <c r="L47" t="s">
+        <v>25</v>
+      </c>
+      <c r="M47" t="s">
         <v>121</v>
       </c>
-      <c r="N46" t="s">
+      <c r="N47" t="s">
         <v>371</v>
       </c>
-      <c r="O46">
+      <c r="O47">
         <v>2</v>
       </c>
     </row>
@@ -3820,10 +3955,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A7:AMK155"/>
+  <dimension ref="A7:AMK161"/>
   <sheetViews>
-    <sheetView topLeftCell="C103" zoomScale="172" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="D120" zoomScale="172" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G147" sqref="G147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -4938,52 +5073,52 @@
         <v>331</v>
       </c>
     </row>
-    <row r="144" spans="6:7">
-      <c r="F144" t="s">
-        <v>225</v>
-      </c>
-      <c r="G144" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="145" spans="6:7">
-      <c r="F145" t="s">
-        <v>225</v>
-      </c>
-      <c r="G145" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="146" spans="6:7">
-      <c r="F146" t="s">
-        <v>225</v>
-      </c>
-      <c r="G146" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="147" spans="6:7">
-      <c r="F147" t="s">
-        <v>225</v>
-      </c>
-      <c r="G147" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="148" spans="6:7">
-      <c r="F148" t="s">
-        <v>225</v>
-      </c>
-      <c r="G148" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="149" spans="6:7">
-      <c r="F149" t="s">
-        <v>225</v>
-      </c>
-      <c r="G149" t="s">
-        <v>279</v>
+    <row r="144" spans="6:7" s="1" customFormat="1">
+      <c r="F144" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="145" spans="6:7" s="1" customFormat="1">
+      <c r="F145" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="146" spans="6:7" s="1" customFormat="1">
+      <c r="F146" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="147" spans="6:7" s="1" customFormat="1">
+      <c r="F147" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="148" spans="6:7" s="1" customFormat="1">
+      <c r="F148" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="149" spans="6:7" s="1" customFormat="1">
+      <c r="F149" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="150" spans="6:7">
@@ -4991,7 +5126,7 @@
         <v>225</v>
       </c>
       <c r="G150" t="s">
-        <v>336</v>
+        <v>237</v>
       </c>
     </row>
     <row r="151" spans="6:7">
@@ -4999,7 +5134,7 @@
         <v>225</v>
       </c>
       <c r="G151" t="s">
-        <v>253</v>
+        <v>332</v>
       </c>
     </row>
     <row r="152" spans="6:7">
@@ -5007,7 +5142,7 @@
         <v>225</v>
       </c>
       <c r="G152" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="153" spans="6:7">
@@ -5015,7 +5150,7 @@
         <v>225</v>
       </c>
       <c r="G153" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="154" spans="6:7">
@@ -5023,7 +5158,7 @@
         <v>225</v>
       </c>
       <c r="G154" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="155" spans="6:7">
@@ -5031,6 +5166,54 @@
         <v>225</v>
       </c>
       <c r="G155" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="156" spans="6:7">
+      <c r="F156" t="s">
+        <v>225</v>
+      </c>
+      <c r="G156" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="157" spans="6:7">
+      <c r="F157" t="s">
+        <v>225</v>
+      </c>
+      <c r="G157" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="158" spans="6:7">
+      <c r="F158" t="s">
+        <v>225</v>
+      </c>
+      <c r="G158" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="159" spans="6:7">
+      <c r="F159" t="s">
+        <v>225</v>
+      </c>
+      <c r="G159" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="160" spans="6:7">
+      <c r="F160" t="s">
+        <v>225</v>
+      </c>
+      <c r="G160" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="161" spans="6:7">
+      <c r="F161" t="s">
+        <v>225</v>
+      </c>
+      <c r="G161" t="s">
         <v>253</v>
       </c>
     </row>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongle/Documents/work/devops-service/src/main/resources/script/front/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7373747F-B324-2D40-A3C7-26BA328B10AD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9347" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
     <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="396">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -330,6 +324,15 @@
     <t>组件设置路由</t>
   </si>
   <si>
+    <t>choerodon.route.prosetting.devops-notifications</t>
+  </si>
+  <si>
+    <t>/devops/notifications</t>
+  </si>
+  <si>
+    <t>通知设置路由</t>
+  </si>
+  <si>
     <t>choerodon.route.platform-reports.reports</t>
   </si>
   <si>
@@ -390,6 +393,9 @@
     <t>menu_item</t>
   </si>
   <si>
+    <t>application_model</t>
+  </si>
+  <si>
     <t>choerodon.code.devops-management.cluster</t>
   </si>
   <si>
@@ -399,6 +405,9 @@
     <t>Cluster Management</t>
   </si>
   <si>
+    <t>cluster</t>
+  </si>
+  <si>
     <t>choerodon.code.devops-management.certificate-manage</t>
   </si>
   <si>
@@ -408,6 +417,9 @@
     <t>Certificate Management</t>
   </si>
   <si>
+    <t>class</t>
+  </si>
+  <si>
     <t>choerodon.code.app-management</t>
   </si>
   <si>
@@ -432,6 +444,9 @@
     <t>Application</t>
   </si>
   <si>
+    <t>widgets</t>
+  </si>
+  <si>
     <t>choerodon.code.app-management.application-version</t>
   </si>
   <si>
@@ -441,6 +456,9 @@
     <t>Application Version</t>
   </si>
   <si>
+    <t>version</t>
+  </si>
+  <si>
     <t>choerodon.code.app-management.application-release</t>
   </si>
   <si>
@@ -450,6 +468,9 @@
     <t>Application Release</t>
   </si>
   <si>
+    <t>publish2</t>
+  </si>
+  <si>
     <t>choerodon.code.app-management.application-market</t>
   </si>
   <si>
@@ -459,6 +480,9 @@
     <t>Application Market</t>
   </si>
   <si>
+    <t>appmarket</t>
+  </si>
+  <si>
     <t>choerodon.code.development-pipeline</t>
   </si>
   <si>
@@ -480,6 +504,9 @@
     <t>Development Console</t>
   </si>
   <si>
+    <t>develop_console</t>
+  </si>
+  <si>
     <t>choerodon.code.development-pipeline.repository</t>
   </si>
   <si>
@@ -489,6 +516,9 @@
     <t>Repository</t>
   </si>
   <si>
+    <t>account_balance</t>
+  </si>
+  <si>
     <t>choerodon.code.development-pipeline.branch</t>
   </si>
   <si>
@@ -498,6 +528,9 @@
     <t>Branch</t>
   </si>
   <si>
+    <t>branch</t>
+  </si>
+  <si>
     <t>choerodon.code.development-pipeline.tag</t>
   </si>
   <si>
@@ -507,6 +540,9 @@
     <t>Tag</t>
   </si>
   <si>
+    <t>local_offer</t>
+  </si>
+  <si>
     <t>choerodon.code.development-pipeline.merge-request</t>
   </si>
   <si>
@@ -516,6 +552,9 @@
     <t>Merge Request</t>
   </si>
   <si>
+    <t>merge_request</t>
+  </si>
+  <si>
     <t>choerodon.code.development-pipeline.continuous-integration</t>
   </si>
   <si>
@@ -525,6 +564,9 @@
     <t>Continuous Integration</t>
   </si>
   <si>
+    <t>CI</t>
+  </si>
+  <si>
     <t>choerodon.code.development-pipeline.code-quality</t>
   </si>
   <si>
@@ -534,6 +576,9 @@
     <t>Code Quality</t>
   </si>
   <si>
+    <t>quality</t>
+  </si>
+  <si>
     <t>choerodon.code.deployment-pipeline</t>
   </si>
   <si>
@@ -543,6 +588,9 @@
     <t>Deployment Pipeline</t>
   </si>
   <si>
+    <t>cloud_upload</t>
+  </si>
+  <si>
     <t>choerodon.code.deployment-pipeline.environment-overview</t>
   </si>
   <si>
@@ -552,6 +600,9 @@
     <t>Environment Overview</t>
   </si>
   <si>
+    <t>public</t>
+  </si>
+  <si>
     <t>choerodon.code.deployment-pipeline.environment-pipeline</t>
   </si>
   <si>
@@ -561,6 +612,9 @@
     <t>Environment Management</t>
   </si>
   <si>
+    <t>data_usage</t>
+  </si>
+  <si>
     <t>choerodon.code.deployment-pipeline.deployment-overview</t>
   </si>
   <si>
@@ -570,6 +624,9 @@
     <t>Deployment Overview</t>
   </si>
   <si>
+    <t>Operation-monitoring</t>
+  </si>
+  <si>
     <t>choerodon.code.deployment-pipeline.application-deployment</t>
   </si>
   <si>
@@ -579,6 +636,9 @@
     <t>Application Deployment</t>
   </si>
   <si>
+    <t>jsfiddle</t>
+  </si>
+  <si>
     <t>choerodon.code.deployment-pipeline.instance</t>
   </si>
   <si>
@@ -588,6 +648,45 @@
     <t>Instance</t>
   </si>
   <si>
+    <t>instance_outline</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.pipeline</t>
+  </si>
+  <si>
+    <t>流水线</t>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t>linear_scale</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.resource</t>
+  </si>
+  <si>
+    <t>资源</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.configuration</t>
+  </si>
+  <si>
+    <t>配置管理</t>
+  </si>
+  <si>
+    <t>Configuration Management</t>
+  </si>
+  <si>
+    <t>tune</t>
+  </si>
+  <si>
     <t>choerodon.code.deployment-pipeline.service</t>
   </si>
   <si>
@@ -597,6 +696,9 @@
     <t>Service</t>
   </si>
   <si>
+    <t>router</t>
+  </si>
+  <si>
     <t>choerodon.code.deployment-pipeline.ingress</t>
   </si>
   <si>
@@ -606,6 +708,9 @@
     <t>Ingress</t>
   </si>
   <si>
+    <t>language</t>
+  </si>
+  <si>
     <t>choerodon.code.deployment-pipeline.container</t>
   </si>
   <si>
@@ -615,6 +720,9 @@
     <t>Container</t>
   </si>
   <si>
+    <t>kubernetes</t>
+  </si>
+  <si>
     <t>choerodon.code.deployment-pipeline.certificate</t>
   </si>
   <si>
@@ -633,6 +741,9 @@
     <t>Config Map</t>
   </si>
   <si>
+    <t>compare_arrows</t>
+  </si>
+  <si>
     <t>choerodon.code.deployment-pipeline.secret</t>
   </si>
   <si>
@@ -642,6 +753,9 @@
     <t>Secret</t>
   </si>
   <si>
+    <t>secret</t>
+  </si>
+  <si>
     <t>choerodon.code.deployment-pipeline.pipeline-management</t>
   </si>
   <si>
@@ -651,6 +765,9 @@
     <t>Pipeline Management</t>
   </si>
   <si>
+    <t>line_manage</t>
+  </si>
+  <si>
     <t>choerodon.code.deployment-pipeline.pipeline-record</t>
   </si>
   <si>
@@ -660,6 +777,9 @@
     <t>Pipeline Record</t>
   </si>
   <si>
+    <t>format_list_bulleted</t>
+  </si>
+  <si>
     <t>choerodon.code.deployment-pipeline.deployment-config</t>
   </si>
   <si>
@@ -669,6 +789,9 @@
     <t>Deployment Config</t>
   </si>
   <si>
+    <t>cloud_done</t>
+  </si>
+  <si>
     <t>choerodon.code.prosetting</t>
   </si>
   <si>
@@ -690,6 +813,21 @@
     <t>Element Setting</t>
   </si>
   <si>
+    <t>games</t>
+  </si>
+  <si>
+    <t>choerodon.code.prosetting.devops-notifications</t>
+  </si>
+  <si>
+    <t>通知设置</t>
+  </si>
+  <si>
+    <t>Notifications</t>
+  </si>
+  <si>
+    <t>notifications</t>
+  </si>
+  <si>
     <t>choerodon.code.platform-reports</t>
   </si>
   <si>
@@ -699,6 +837,9 @@
     <t>Reports</t>
   </si>
   <si>
+    <t>bar_chart</t>
+  </si>
+  <si>
     <t>choerodon.code.platform-reports.reports</t>
   </si>
   <si>
@@ -708,6 +849,9 @@
     <t>DevOps Report</t>
   </si>
   <si>
+    <t>devops_chart</t>
+  </si>
+  <si>
     <t>IAM_MENU_PERMISSION</t>
   </si>
   <si>
@@ -1020,6 +1164,24 @@
     <t>devops-service.devops-project-config.checkIsUsed</t>
   </si>
   <si>
+    <t>devops-service.devops-notification.listByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.devops-notification.create</t>
+  </si>
+  <si>
+    <t>devops-service.devops-notification.update</t>
+  </si>
+  <si>
+    <t>devops-service.devops-notification.check</t>
+  </si>
+  <si>
+    <t>devops-service.devops-notification.queryById</t>
+  </si>
+  <si>
+    <t>devops-service.devops-notification.delete</t>
+  </si>
+  <si>
     <t>devops-service.devops-gitlab-commit.getCommits</t>
   </si>
   <si>
@@ -1042,302 +1204,381 @@
   </si>
   <si>
     <t>devops-service.devops-gitlab-pipeline.listPipelineFrequency</t>
-  </si>
-  <si>
-    <t>devops</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>application_model</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cluster</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>class</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>widgets</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>version</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>publish2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>appmarket</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>develop_console</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>account_balance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>branch</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>local_offer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>merge_request</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>quality</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cloud_upload</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>public</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>data_usage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Operation-monitoring</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsfiddle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>instance_outline</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>router</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>language</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>kubernetes</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>compare_arrows</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>secret</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>line_manage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>format_list_bulleted</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cloud_done</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bar_chart</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>games</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>devops_chart</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.pipeline</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipeline</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>project</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>linear_scale</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置管理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.resource</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.configuration</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resource</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Configuration Management</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tune</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>database</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.prosetting.element-settings</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通知设置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.prosetting.devops-notifications</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Notifications</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.prosetting.element-settings</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.prosetting.devops-notifications</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu_item</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>notifications</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/devops/notifications</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>通知设置路由</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>page</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>devops-service.devops-notification.listByOptions</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>devops-service.devops-notification.create</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>devops-service.devops-notification.update</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>devops-service.devops-notification.check</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>devops-service.devops-notification.queryById</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>devops-service.devops-notification.delete</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="DejaVu Sans"/>
-      <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1345,27 +1586,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1650,101 +2176,101 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A7:AMK38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" zoomScale="157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="65.796875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="33" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.796875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="26" style="1" customWidth="1"/>
-    <col min="12" max="12" width="24" style="1" customWidth="1"/>
-    <col min="13" max="13" width="29.19921875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.3984375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="19" style="1" customWidth="1"/>
-    <col min="16" max="1025" width="11.59765625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.6018518518519" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="11.6018518518519" customWidth="1"/>
+    <col min="6" max="6" width="65.7962962962963" customWidth="1"/>
+    <col min="7" max="7" width="33" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
+    <col min="10" max="10" width="28.7962962962963" customWidth="1"/>
+    <col min="11" max="11" width="26" customWidth="1"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="13" max="13" width="29.2037037037037" customWidth="1"/>
+    <col min="14" max="14" width="19.3981481481481" customWidth="1"/>
+    <col min="15" max="15" width="19" customWidth="1"/>
+    <col min="16" max="1025" width="11.6018518518519" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14" ht="12.75" customHeight="1">
-      <c r="D7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
+    <row r="7" ht="12.75" customHeight="1" spans="4:14">
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:14" ht="12.75" customHeight="1">
-      <c r="F8" s="2" t="s">
+    <row r="8" ht="12.75" customHeight="1" spans="6:14">
+      <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="1">
-        <v>0</v>
-      </c>
-      <c r="M8" s="1">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
         <v>1</v>
       </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="4:14">
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="6:14">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -1773,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:14">
+    <row r="10" spans="6:14">
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -1802,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:14">
+    <row r="11" spans="6:14">
       <c r="F11" t="s">
         <v>23</v>
       </c>
@@ -1831,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:14">
+    <row r="12" spans="6:14">
       <c r="F12" t="s">
         <v>27</v>
       </c>
@@ -1860,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:14">
+    <row r="13" spans="6:14">
       <c r="F13" t="s">
         <v>30</v>
       </c>
@@ -1889,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:14">
+    <row r="14" spans="6:14">
       <c r="F14" t="s">
         <v>33</v>
       </c>
@@ -1918,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:14">
+    <row r="15" spans="6:14">
       <c r="F15" t="s">
         <v>36</v>
       </c>
@@ -1947,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:14">
+    <row r="16" spans="6:14">
       <c r="F16" t="s">
         <v>39</v>
       </c>
@@ -2556,41 +3082,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="6:14" s="1" customFormat="1">
-      <c r="F37" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="J37" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="L37" s="1">
-        <v>0</v>
-      </c>
-      <c r="M37" s="1">
+    <row r="37" customFormat="1" ht="13.2" spans="6:14">
+      <c r="F37" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37" t="s">
+        <v>103</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="K37" t="s">
+        <v>16</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
         <v>1</v>
       </c>
-      <c r="N37" s="1">
+      <c r="N37">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="6:14">
       <c r="F38" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G38" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H38" t="s">
         <v>13</v>
@@ -2599,7 +3125,7 @@
         <v>25</v>
       </c>
       <c r="J38" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K38" t="s">
         <v>16</v>
@@ -2615,9 +3141,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -2626,107 +3151,108 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A7:AMK47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:O47"/>
   <sheetViews>
-    <sheetView topLeftCell="F22" zoomScale="166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="56.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="27.796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="66" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.59765625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="47.59765625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25.796875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="37.796875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="27" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.796875" style="1" customWidth="1"/>
-    <col min="16" max="1025" width="11.59765625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.6018518518519" customWidth="1"/>
+    <col min="4" max="4" width="15.2037037037037" customWidth="1"/>
+    <col min="5" max="5" width="11.6018518518519" customWidth="1"/>
+    <col min="6" max="6" width="56.2037037037037" customWidth="1"/>
+    <col min="7" max="7" width="18.2037037037037" customWidth="1"/>
+    <col min="8" max="8" width="27.7962962962963" customWidth="1"/>
+    <col min="9" max="9" width="66" customWidth="1"/>
+    <col min="10" max="10" width="22.6018518518519" customWidth="1"/>
+    <col min="11" max="11" width="47.6018518518519" customWidth="1"/>
+    <col min="12" max="12" width="25.7962962962963" customWidth="1"/>
+    <col min="13" max="13" width="37.7962962962963" customWidth="1"/>
+    <col min="14" max="14" width="27" customWidth="1"/>
+    <col min="15" max="15" width="9.7962962962963" customWidth="1"/>
+    <col min="16" max="1025" width="11.6018518518519" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1">
-      <c r="D7" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E7" s="2" t="s">
+    <row r="7" ht="12.75" customHeight="1" spans="4:15">
+      <c r="D7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="G7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="K7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="8" spans="4:15" ht="12.75" customHeight="1">
-      <c r="F8" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="N7" t="s">
         <v>114</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="O7" t="s">
         <v>115</v>
       </c>
-      <c r="J8" s="2" t="s">
+    </row>
+    <row r="8" ht="12.75" customHeight="1" spans="6:15">
+      <c r="F8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>116</v>
-      </c>
-      <c r="L8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="L8" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="O8" s="1">
+      <c r="M8" t="s">
+        <v>120</v>
+      </c>
+      <c r="N8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="4:15">
+    <row r="9" spans="6:15">
       <c r="F9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H9" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -2735,30 +3261,30 @@
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L9" t="s">
         <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N9" t="s">
-        <v>341</v>
+        <v>125</v>
       </c>
       <c r="O9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:15">
+    <row r="10" spans="6:15">
       <c r="F10" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H10" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -2767,30 +3293,30 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
         <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N10" t="s">
-        <v>342</v>
+        <v>129</v>
       </c>
       <c r="O10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="4:15">
+    <row r="11" spans="6:15">
       <c r="F11" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H11" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I11" t="s">
         <v>20</v>
@@ -2799,59 +3325,59 @@
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="L11" t="s">
         <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N11" t="s">
-        <v>343</v>
+        <v>133</v>
       </c>
       <c r="O11">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="4:15">
+    <row r="12" spans="6:15">
       <c r="F12" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G12" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H12" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="L12" t="s">
         <v>25</v>
       </c>
       <c r="M12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:15">
+    <row r="13" spans="6:15">
       <c r="F13" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G13" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H13" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="I13" t="s">
         <v>23</v>
@@ -2860,30 +3386,30 @@
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
         <v>25</v>
       </c>
       <c r="M13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N13" t="s">
-        <v>344</v>
+        <v>142</v>
       </c>
       <c r="O13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:15">
+    <row r="14" spans="6:15">
       <c r="F14" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="H14" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="I14" t="s">
         <v>27</v>
@@ -2892,30 +3418,30 @@
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="L14" t="s">
         <v>25</v>
       </c>
       <c r="M14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N14" t="s">
-        <v>345</v>
-      </c>
-      <c r="O14" s="1">
+        <v>146</v>
+      </c>
+      <c r="O14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="4:15">
+    <row r="15" spans="6:15">
       <c r="F15" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G15" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="H15" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="I15" t="s">
         <v>30</v>
@@ -2924,30 +3450,30 @@
         <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s">
         <v>25</v>
       </c>
       <c r="M15" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N15" t="s">
-        <v>346</v>
-      </c>
-      <c r="O15" s="1">
+        <v>150</v>
+      </c>
+      <c r="O15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="4:15">
+    <row r="16" spans="6:15">
       <c r="F16" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="H16" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="I16" t="s">
         <v>33</v>
@@ -2956,45 +3482,45 @@
         <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s">
         <v>25</v>
       </c>
       <c r="M16" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N16" t="s">
-        <v>347</v>
-      </c>
-      <c r="O16" s="1">
+        <v>154</v>
+      </c>
+      <c r="O16">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="6:15">
       <c r="F17" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G17" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="H17" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="L17" t="s">
         <v>25</v>
       </c>
       <c r="M17" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="N17" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="O17">
         <v>2</v>
@@ -3002,13 +3528,13 @@
     </row>
     <row r="18" spans="6:15">
       <c r="F18" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="G18" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="H18" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="I18" t="s">
         <v>36</v>
@@ -3017,16 +3543,16 @@
         <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="L18" t="s">
         <v>25</v>
       </c>
       <c r="M18" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N18" t="s">
-        <v>348</v>
+        <v>162</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -3034,13 +3560,13 @@
     </row>
     <row r="19" spans="6:15">
       <c r="F19" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="G19" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="H19" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="I19" t="s">
         <v>39</v>
@@ -3049,30 +3575,30 @@
         <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="L19" t="s">
         <v>25</v>
       </c>
       <c r="M19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N19" t="s">
-        <v>349</v>
-      </c>
-      <c r="O19" s="1">
+        <v>166</v>
+      </c>
+      <c r="O19">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="6:15">
       <c r="F20" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="G20" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="H20" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="I20" t="s">
         <v>42</v>
@@ -3081,30 +3607,30 @@
         <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="L20" t="s">
         <v>25</v>
       </c>
       <c r="M20" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N20" t="s">
-        <v>350</v>
-      </c>
-      <c r="O20" s="1">
+        <v>170</v>
+      </c>
+      <c r="O20">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="6:15">
       <c r="F21" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G21" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="H21" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="I21" t="s">
         <v>45</v>
@@ -3113,30 +3639,30 @@
         <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="L21" t="s">
         <v>25</v>
       </c>
       <c r="M21" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N21" t="s">
-        <v>351</v>
-      </c>
-      <c r="O21" s="1">
+        <v>174</v>
+      </c>
+      <c r="O21">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="6:15">
       <c r="F22" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="G22" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="H22" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="I22" t="s">
         <v>48</v>
@@ -3145,30 +3671,30 @@
         <v>13</v>
       </c>
       <c r="K22" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="L22" t="s">
         <v>25</v>
       </c>
       <c r="M22" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N22" t="s">
-        <v>352</v>
-      </c>
-      <c r="O22" s="1">
+        <v>178</v>
+      </c>
+      <c r="O22">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="6:15">
       <c r="F23" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="G23" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="H23" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="I23" t="s">
         <v>51</v>
@@ -3177,30 +3703,30 @@
         <v>13</v>
       </c>
       <c r="K23" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="L23" t="s">
         <v>25</v>
       </c>
       <c r="M23" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N23" t="s">
-        <v>353</v>
-      </c>
-      <c r="O23" s="1">
+        <v>182</v>
+      </c>
+      <c r="O23">
         <v>6</v>
       </c>
     </row>
     <row r="24" spans="6:15">
       <c r="F24" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="G24" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="H24" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="I24" t="s">
         <v>54</v>
@@ -3209,45 +3735,45 @@
         <v>13</v>
       </c>
       <c r="K24" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="L24" t="s">
         <v>25</v>
       </c>
       <c r="M24" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N24" t="s">
-        <v>354</v>
-      </c>
-      <c r="O24" s="1">
+        <v>186</v>
+      </c>
+      <c r="O24">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="6:15">
       <c r="F25" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="G25" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="H25" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="J25" t="s">
         <v>13</v>
       </c>
       <c r="K25" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="L25" t="s">
         <v>25</v>
       </c>
       <c r="M25" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="N25" t="s">
-        <v>355</v>
+        <v>190</v>
       </c>
       <c r="O25">
         <v>3</v>
@@ -3255,13 +3781,13 @@
     </row>
     <row r="26" spans="6:15">
       <c r="F26" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G26" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="H26" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="I26" t="s">
         <v>57</v>
@@ -3270,16 +3796,16 @@
         <v>13</v>
       </c>
       <c r="K26" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="L26" t="s">
         <v>25</v>
       </c>
       <c r="M26" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N26" t="s">
-        <v>356</v>
+        <v>194</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -3287,13 +3813,13 @@
     </row>
     <row r="27" spans="6:15">
       <c r="F27" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="G27" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="H27" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="I27" t="s">
         <v>60</v>
@@ -3302,30 +3828,30 @@
         <v>13</v>
       </c>
       <c r="K27" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="L27" t="s">
         <v>25</v>
       </c>
       <c r="M27" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N27" t="s">
-        <v>357</v>
-      </c>
-      <c r="O27" s="1">
+        <v>198</v>
+      </c>
+      <c r="O27">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="6:15">
       <c r="F28" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="G28" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="H28" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="I28" t="s">
         <v>63</v>
@@ -3334,30 +3860,30 @@
         <v>13</v>
       </c>
       <c r="K28" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="L28" t="s">
         <v>25</v>
       </c>
       <c r="M28" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N28" t="s">
-        <v>358</v>
-      </c>
-      <c r="O28" s="1">
+        <v>202</v>
+      </c>
+      <c r="O28">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="6:15">
       <c r="F29" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="G29" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="H29" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="I29" t="s">
         <v>66</v>
@@ -3366,30 +3892,30 @@
         <v>13</v>
       </c>
       <c r="K29" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="L29" t="s">
         <v>25</v>
       </c>
       <c r="M29" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N29" t="s">
-        <v>359</v>
-      </c>
-      <c r="O29" s="1">
+        <v>206</v>
+      </c>
+      <c r="O29">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="6:15">
       <c r="F30" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="G30" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="H30" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="I30" t="s">
         <v>69</v>
@@ -3398,117 +3924,117 @@
         <v>13</v>
       </c>
       <c r="K30" t="s">
-        <v>375</v>
+        <v>187</v>
       </c>
       <c r="L30" t="s">
         <v>25</v>
       </c>
       <c r="M30" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N30" t="s">
-        <v>360</v>
-      </c>
-      <c r="O30" s="1">
+        <v>210</v>
+      </c>
+      <c r="O30">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="6:15" s="1" customFormat="1">
-      <c r="F31" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="O31" s="1">
+    <row r="31" customFormat="1" spans="6:15">
+      <c r="F31" t="s">
+        <v>211</v>
+      </c>
+      <c r="G31" t="s">
+        <v>212</v>
+      </c>
+      <c r="H31" t="s">
+        <v>213</v>
+      </c>
+      <c r="J31" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" t="s">
+        <v>187</v>
+      </c>
+      <c r="L31" t="s">
+        <v>25</v>
+      </c>
+      <c r="M31" t="s">
+        <v>120</v>
+      </c>
+      <c r="N31" t="s">
+        <v>214</v>
+      </c>
+      <c r="O31">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="6:15" s="1" customFormat="1">
-      <c r="F32" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="M32" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="N32" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="O32" s="1">
+    <row r="32" customFormat="1" spans="6:15">
+      <c r="F32" t="s">
+        <v>215</v>
+      </c>
+      <c r="G32" t="s">
+        <v>216</v>
+      </c>
+      <c r="H32" t="s">
+        <v>217</v>
+      </c>
+      <c r="J32" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" t="s">
+        <v>187</v>
+      </c>
+      <c r="L32" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" t="s">
+        <v>120</v>
+      </c>
+      <c r="N32" t="s">
+        <v>218</v>
+      </c>
+      <c r="O32">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="6:15" s="1" customFormat="1">
-      <c r="F33" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="O33" s="1">
+    <row r="33" customFormat="1" spans="6:15">
+      <c r="F33" t="s">
+        <v>219</v>
+      </c>
+      <c r="G33" t="s">
+        <v>220</v>
+      </c>
+      <c r="H33" t="s">
+        <v>221</v>
+      </c>
+      <c r="J33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" t="s">
+        <v>187</v>
+      </c>
+      <c r="L33" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" t="s">
+        <v>120</v>
+      </c>
+      <c r="N33" t="s">
+        <v>222</v>
+      </c>
+      <c r="O33">
         <v>8</v>
       </c>
     </row>
     <row r="34" spans="6:15">
       <c r="F34" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="G34" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="H34" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="I34" t="s">
         <v>72</v>
@@ -3517,30 +4043,30 @@
         <v>13</v>
       </c>
       <c r="K34" t="s">
-        <v>381</v>
+        <v>215</v>
       </c>
       <c r="L34" t="s">
         <v>25</v>
       </c>
       <c r="M34" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N34" t="s">
-        <v>361</v>
-      </c>
-      <c r="O34" s="1">
+        <v>226</v>
+      </c>
+      <c r="O34">
         <v>9</v>
       </c>
     </row>
     <row r="35" spans="6:15">
       <c r="F35" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="G35" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="H35" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="I35" t="s">
         <v>75</v>
@@ -3549,30 +4075,30 @@
         <v>13</v>
       </c>
       <c r="K35" t="s">
-        <v>381</v>
+        <v>215</v>
       </c>
       <c r="L35" t="s">
         <v>25</v>
       </c>
       <c r="M35" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N35" t="s">
-        <v>362</v>
-      </c>
-      <c r="O35" s="1">
+        <v>230</v>
+      </c>
+      <c r="O35">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="6:15">
       <c r="F36" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="G36" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="H36" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="I36" t="s">
         <v>78</v>
@@ -3581,30 +4107,30 @@
         <v>13</v>
       </c>
       <c r="K36" t="s">
-        <v>381</v>
+        <v>215</v>
       </c>
       <c r="L36" t="s">
         <v>25</v>
       </c>
       <c r="M36" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N36" t="s">
-        <v>363</v>
-      </c>
-      <c r="O36" s="1">
+        <v>234</v>
+      </c>
+      <c r="O36">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="6:15">
       <c r="F37" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="G37" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="H37" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="I37" t="s">
         <v>81</v>
@@ -3613,30 +4139,30 @@
         <v>13</v>
       </c>
       <c r="K37" t="s">
-        <v>381</v>
+        <v>215</v>
       </c>
       <c r="L37" t="s">
         <v>25</v>
       </c>
       <c r="M37" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N37" t="s">
-        <v>343</v>
-      </c>
-      <c r="O37" s="1">
+        <v>133</v>
+      </c>
+      <c r="O37">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="6:15">
       <c r="F38" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="G38" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="H38" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="I38" t="s">
         <v>84</v>
@@ -3645,30 +4171,30 @@
         <v>13</v>
       </c>
       <c r="K38" t="s">
-        <v>382</v>
+        <v>219</v>
       </c>
       <c r="L38" t="s">
         <v>25</v>
       </c>
       <c r="M38" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N38" t="s">
-        <v>364</v>
-      </c>
-      <c r="O38" s="1">
+        <v>241</v>
+      </c>
+      <c r="O38">
         <v>13</v>
       </c>
     </row>
     <row r="39" spans="6:15">
       <c r="F39" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="G39" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="H39" t="s">
-        <v>205</v>
+        <v>244</v>
       </c>
       <c r="I39" t="s">
         <v>87</v>
@@ -3677,30 +4203,30 @@
         <v>13</v>
       </c>
       <c r="K39" t="s">
-        <v>382</v>
+        <v>219</v>
       </c>
       <c r="L39" t="s">
         <v>25</v>
       </c>
       <c r="M39" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N39" t="s">
-        <v>365</v>
-      </c>
-      <c r="O39" s="1">
+        <v>245</v>
+      </c>
+      <c r="O39">
         <v>14</v>
       </c>
     </row>
     <row r="40" spans="6:15">
       <c r="F40" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="G40" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="H40" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="I40" t="s">
         <v>90</v>
@@ -3709,30 +4235,30 @@
         <v>13</v>
       </c>
       <c r="K40" t="s">
-        <v>372</v>
+        <v>211</v>
       </c>
       <c r="L40" t="s">
         <v>25</v>
       </c>
       <c r="M40" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N40" t="s">
-        <v>366</v>
-      </c>
-      <c r="O40" s="1">
+        <v>249</v>
+      </c>
+      <c r="O40">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="6:15">
       <c r="F41" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="G41" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="H41" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="I41" t="s">
         <v>93</v>
@@ -3741,30 +4267,30 @@
         <v>13</v>
       </c>
       <c r="K41" t="s">
-        <v>372</v>
+        <v>211</v>
       </c>
       <c r="L41" t="s">
         <v>25</v>
       </c>
       <c r="M41" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N41" t="s">
-        <v>367</v>
-      </c>
-      <c r="O41" s="1">
+        <v>253</v>
+      </c>
+      <c r="O41">
         <v>16</v>
       </c>
     </row>
     <row r="42" spans="6:15">
       <c r="F42" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="G42" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="H42" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="I42" t="s">
         <v>96</v>
@@ -3773,45 +4299,45 @@
         <v>13</v>
       </c>
       <c r="K42" t="s">
-        <v>372</v>
+        <v>211</v>
       </c>
       <c r="L42" t="s">
         <v>25</v>
       </c>
       <c r="M42" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N42" t="s">
-        <v>368</v>
-      </c>
-      <c r="O42" s="1">
+        <v>257</v>
+      </c>
+      <c r="O42">
         <v>17</v>
       </c>
     </row>
     <row r="43" spans="6:15">
       <c r="F43" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="G43" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="H43" t="s">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="J43" t="s">
         <v>13</v>
       </c>
       <c r="K43" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="L43" t="s">
         <v>25</v>
       </c>
       <c r="M43" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="N43" t="s">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="O43">
         <v>6</v>
@@ -3819,92 +4345,92 @@
     </row>
     <row r="44" spans="6:15">
       <c r="F44" t="s">
-        <v>387</v>
+        <v>262</v>
       </c>
       <c r="G44" t="s">
-        <v>220</v>
+        <v>263</v>
       </c>
       <c r="H44" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="I44" t="s">
-        <v>391</v>
+        <v>99</v>
       </c>
       <c r="J44" t="s">
         <v>13</v>
       </c>
       <c r="K44" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="L44" t="s">
         <v>25</v>
       </c>
       <c r="M44" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N44" t="s">
-        <v>370</v>
+        <v>265</v>
       </c>
       <c r="O44">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="6:15" s="1" customFormat="1">
-      <c r="F45" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="N45" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="O45" s="1">
+    <row r="45" customFormat="1" spans="6:15">
+      <c r="F45" t="s">
+        <v>266</v>
+      </c>
+      <c r="G45" t="s">
+        <v>267</v>
+      </c>
+      <c r="H45" t="s">
+        <v>268</v>
+      </c>
+      <c r="I45" t="s">
+        <v>102</v>
+      </c>
+      <c r="J45" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" t="s">
+        <v>258</v>
+      </c>
+      <c r="L45" t="s">
+        <v>25</v>
+      </c>
+      <c r="M45" t="s">
+        <v>124</v>
+      </c>
+      <c r="N45" t="s">
+        <v>269</v>
+      </c>
+      <c r="O45">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="6:15">
       <c r="F46" t="s">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="G46" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="H46" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="J46" t="s">
         <v>13</v>
       </c>
       <c r="K46" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="L46" t="s">
         <v>25</v>
       </c>
       <c r="M46" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="N46" t="s">
-        <v>369</v>
+        <v>273</v>
       </c>
       <c r="O46">
         <v>99</v>
@@ -3912,40 +4438,39 @@
     </row>
     <row r="47" spans="6:15">
       <c r="F47" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="G47" t="s">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="H47" t="s">
-        <v>227</v>
+        <v>276</v>
       </c>
       <c r="I47" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J47" t="s">
         <v>13</v>
       </c>
       <c r="K47" t="s">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="L47" t="s">
         <v>25</v>
       </c>
       <c r="M47" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N47" t="s">
-        <v>371</v>
+        <v>277</v>
       </c>
       <c r="O47">
         <v>2</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -3954,1273 +4479,1273 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A7:AMK161"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:G161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D120" zoomScale="172" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G147" sqref="G147"/>
+    <sheetView tabSelected="1" topLeftCell="D133" workbookViewId="0">
+      <selection activeCell="F152" sqref="D7:G161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="82" style="1" customWidth="1"/>
-    <col min="7" max="7" width="85.19921875" style="1" customWidth="1"/>
-    <col min="8" max="1025" width="11.59765625" style="1" customWidth="1"/>
+    <col min="1" max="3" width="11.6018518518519" customWidth="1"/>
+    <col min="4" max="4" width="23.7962962962963" customWidth="1"/>
+    <col min="5" max="5" width="11.6018518518519" customWidth="1"/>
+    <col min="6" max="6" width="82" customWidth="1"/>
+    <col min="7" max="7" width="85.2037037037037" customWidth="1"/>
+    <col min="8" max="1025" width="11.6018518518519" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="12.75" customHeight="1">
-      <c r="D7" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E7" s="2" t="s">
+    <row r="7" ht="12.75" customHeight="1" spans="4:7">
+      <c r="D7" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7" ht="12.75" customHeight="1">
-      <c r="F8" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="4:7">
+      <c r="F7" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1" spans="6:7">
+      <c r="F8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7">
       <c r="F9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="6:7">
       <c r="F10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11" spans="4:7">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="6:7">
       <c r="F11" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="4:7">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="6:7">
       <c r="F12" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="13" spans="4:7">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="6:7">
       <c r="F13" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="14" spans="4:7">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="14" spans="6:7">
       <c r="F14" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="15" spans="4:7">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="6:7">
       <c r="F15" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="16" spans="4:7">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="6:7">
       <c r="F16" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G16" t="s">
-        <v>239</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G17" t="s">
-        <v>240</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="6:7">
       <c r="F18" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="G18" t="s">
-        <v>241</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="G19" t="s">
-        <v>242</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="6:7">
       <c r="F20" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="G20" t="s">
-        <v>243</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="G21" t="s">
-        <v>244</v>
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="G22" t="s">
-        <v>245</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="G23" t="s">
-        <v>246</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="6:7">
       <c r="F24" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="G24" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="G25" t="s">
-        <v>248</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="G26" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="G27" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="28" spans="6:7">
       <c r="F28" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="G28" t="s">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="G29" t="s">
-        <v>252</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="G30" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="G31" t="s">
-        <v>248</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="G32" t="s">
-        <v>254</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="G33" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="G34" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="6:7">
       <c r="F35" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="G35" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="6:7">
       <c r="F36" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="G36" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
     </row>
     <row r="37" spans="6:7">
       <c r="F37" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G37" t="s">
-        <v>251</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="6:7">
       <c r="F38" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G38" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="6:7">
       <c r="F39" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G39" t="s">
-        <v>257</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="6:7">
       <c r="F40" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G40" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="6:7">
       <c r="F41" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G41" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="6:7">
       <c r="F42" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="G42" t="s">
-        <v>252</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="6:7">
       <c r="F43" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="G43" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44" spans="6:7">
       <c r="F44" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="G44" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="6:7">
       <c r="F45" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="G45" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46" spans="6:7">
       <c r="F46" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="G46" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
     </row>
     <row r="47" spans="6:7">
       <c r="F47" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="G47" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="6:7">
       <c r="F48" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G48" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="6:7">
       <c r="F49" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G49" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="6:7">
       <c r="F50" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G50" t="s">
-        <v>266</v>
+        <v>316</v>
       </c>
     </row>
     <row r="51" spans="6:7">
       <c r="F51" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G51" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
     </row>
     <row r="52" spans="6:7">
       <c r="F52" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G52" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
     </row>
     <row r="53" spans="6:7">
       <c r="F53" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G53" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
     </row>
     <row r="54" spans="6:7">
       <c r="F54" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G54" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="6:7">
       <c r="F55" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G55" t="s">
-        <v>271</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="6:7">
       <c r="F56" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G56" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
     </row>
     <row r="57" spans="6:7">
       <c r="F57" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G57" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
     </row>
     <row r="58" spans="6:7">
       <c r="F58" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G58" t="s">
-        <v>274</v>
+        <v>324</v>
       </c>
     </row>
     <row r="59" spans="6:7">
       <c r="F59" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G59" t="s">
-        <v>275</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="6:7">
       <c r="F60" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G60" t="s">
-        <v>276</v>
+        <v>326</v>
       </c>
     </row>
     <row r="61" spans="6:7">
       <c r="F61" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G61" t="s">
-        <v>277</v>
+        <v>327</v>
       </c>
     </row>
     <row r="62" spans="6:7">
       <c r="F62" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G62" t="s">
-        <v>278</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63" spans="6:7">
       <c r="F63" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G63" t="s">
-        <v>279</v>
+        <v>329</v>
       </c>
     </row>
     <row r="64" spans="6:7">
       <c r="F64" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G64" t="s">
-        <v>280</v>
+        <v>330</v>
       </c>
     </row>
     <row r="65" spans="6:7">
       <c r="F65" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G65" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
     </row>
     <row r="66" spans="6:7">
       <c r="F66" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G66" t="s">
-        <v>282</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67" spans="6:7">
       <c r="F67" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G67" t="s">
-        <v>283</v>
+        <v>333</v>
       </c>
     </row>
     <row r="68" spans="6:7">
       <c r="F68" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G68" t="s">
-        <v>284</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69" spans="6:7">
       <c r="F69" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G69" t="s">
-        <v>285</v>
+        <v>335</v>
       </c>
     </row>
     <row r="70" spans="6:7">
       <c r="F70" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G70" t="s">
-        <v>286</v>
+        <v>336</v>
       </c>
     </row>
     <row r="71" spans="6:7">
       <c r="F71" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G71" t="s">
-        <v>287</v>
+        <v>337</v>
       </c>
     </row>
     <row r="72" spans="6:7">
       <c r="F72" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G72" t="s">
-        <v>288</v>
+        <v>338</v>
       </c>
     </row>
     <row r="73" spans="6:7">
       <c r="F73" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G73" t="s">
-        <v>289</v>
+        <v>339</v>
       </c>
     </row>
     <row r="74" spans="6:7">
       <c r="F74" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="G74" t="s">
-        <v>290</v>
+        <v>340</v>
       </c>
     </row>
     <row r="75" spans="6:7">
       <c r="F75" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="G75" t="s">
-        <v>291</v>
+        <v>341</v>
       </c>
     </row>
     <row r="76" spans="6:7">
       <c r="F76" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="G76" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
     </row>
     <row r="77" spans="6:7">
       <c r="F77" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="G77" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
     </row>
     <row r="78" spans="6:7">
       <c r="F78" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="G78" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
     </row>
     <row r="79" spans="6:7">
       <c r="F79" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="G79" t="s">
-        <v>265</v>
+        <v>315</v>
       </c>
     </row>
     <row r="80" spans="6:7">
       <c r="F80" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="G80" t="s">
-        <v>266</v>
+        <v>316</v>
       </c>
     </row>
     <row r="81" spans="6:7">
       <c r="F81" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="G81" t="s">
-        <v>267</v>
+        <v>317</v>
       </c>
     </row>
     <row r="82" spans="6:7">
       <c r="F82" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="G82" t="s">
-        <v>268</v>
+        <v>318</v>
       </c>
     </row>
     <row r="83" spans="6:7">
       <c r="F83" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="G83" t="s">
-        <v>269</v>
+        <v>319</v>
       </c>
     </row>
     <row r="84" spans="6:7">
       <c r="F84" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="G84" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
     </row>
     <row r="85" spans="6:7">
       <c r="F85" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="G85" t="s">
-        <v>271</v>
+        <v>321</v>
       </c>
     </row>
     <row r="86" spans="6:7">
       <c r="F86" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="G86" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
     </row>
     <row r="87" spans="6:7">
       <c r="F87" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="G87" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
     </row>
     <row r="88" spans="6:7">
       <c r="F88" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="G88" t="s">
-        <v>274</v>
+        <v>324</v>
       </c>
     </row>
     <row r="89" spans="6:7">
       <c r="F89" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="G89" t="s">
-        <v>275</v>
+        <v>325</v>
       </c>
     </row>
     <row r="90" spans="6:7">
       <c r="F90" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="G90" t="s">
-        <v>276</v>
+        <v>326</v>
       </c>
     </row>
     <row r="91" spans="6:7">
       <c r="F91" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="G91" t="s">
-        <v>279</v>
+        <v>329</v>
       </c>
     </row>
     <row r="92" spans="6:7">
       <c r="F92" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="G92" t="s">
-        <v>280</v>
+        <v>330</v>
       </c>
     </row>
     <row r="93" spans="6:7">
       <c r="F93" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="G93" t="s">
-        <v>281</v>
+        <v>331</v>
       </c>
     </row>
     <row r="94" spans="6:7">
       <c r="F94" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="G94" t="s">
-        <v>282</v>
+        <v>332</v>
       </c>
     </row>
     <row r="95" spans="6:7">
       <c r="F95" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="G95" t="s">
-        <v>286</v>
+        <v>336</v>
       </c>
     </row>
     <row r="96" spans="6:7">
       <c r="F96" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="G96" t="s">
-        <v>283</v>
+        <v>333</v>
       </c>
     </row>
     <row r="97" spans="6:7">
       <c r="F97" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="G97" t="s">
-        <v>284</v>
+        <v>334</v>
       </c>
     </row>
     <row r="98" spans="6:7">
       <c r="F98" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="G98" t="s">
-        <v>285</v>
+        <v>335</v>
       </c>
     </row>
     <row r="99" spans="6:7">
       <c r="F99" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="G99" t="s">
-        <v>289</v>
+        <v>339</v>
       </c>
     </row>
     <row r="100" spans="6:7">
       <c r="F100" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="G100" t="s">
-        <v>287</v>
+        <v>337</v>
       </c>
     </row>
     <row r="101" spans="6:7">
       <c r="F101" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="G101" t="s">
-        <v>288</v>
+        <v>338</v>
       </c>
     </row>
     <row r="102" spans="6:7">
       <c r="F102" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="G102" t="s">
-        <v>292</v>
+        <v>342</v>
       </c>
     </row>
     <row r="103" spans="6:7">
       <c r="F103" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="G103" t="s">
-        <v>293</v>
+        <v>343</v>
       </c>
     </row>
     <row r="104" spans="6:7">
       <c r="F104" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="G104" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
     </row>
     <row r="105" spans="6:7">
       <c r="F105" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="G105" t="s">
-        <v>295</v>
+        <v>345</v>
       </c>
     </row>
     <row r="106" spans="6:7">
       <c r="F106" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="G106" t="s">
-        <v>279</v>
+        <v>329</v>
       </c>
     </row>
     <row r="107" spans="6:7">
       <c r="F107" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="G107" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
     </row>
     <row r="108" spans="6:7">
       <c r="F108" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="G108" t="s">
-        <v>297</v>
+        <v>347</v>
       </c>
     </row>
     <row r="109" spans="6:7">
       <c r="F109" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="G109" t="s">
-        <v>298</v>
+        <v>348</v>
       </c>
     </row>
     <row r="110" spans="6:7">
       <c r="F110" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="G110" t="s">
-        <v>299</v>
+        <v>349</v>
       </c>
     </row>
     <row r="111" spans="6:7">
       <c r="F111" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="G111" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="112" spans="6:7">
       <c r="F112" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="G112" t="s">
-        <v>301</v>
+        <v>351</v>
       </c>
     </row>
     <row r="113" spans="6:7">
       <c r="F113" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="G113" t="s">
-        <v>302</v>
+        <v>352</v>
       </c>
     </row>
     <row r="114" spans="6:7">
       <c r="F114" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="G114" t="s">
-        <v>303</v>
+        <v>353</v>
       </c>
     </row>
     <row r="115" spans="6:7">
       <c r="F115" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="G115" t="s">
-        <v>304</v>
+        <v>354</v>
       </c>
     </row>
     <row r="116" spans="6:7">
       <c r="F116" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="G116" t="s">
-        <v>305</v>
+        <v>355</v>
       </c>
     </row>
     <row r="117" spans="6:7">
       <c r="F117" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="G117" t="s">
-        <v>306</v>
+        <v>356</v>
       </c>
     </row>
     <row r="118" spans="6:7">
       <c r="F118" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="G118" t="s">
-        <v>307</v>
+        <v>357</v>
       </c>
     </row>
     <row r="119" spans="6:7">
       <c r="F119" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="G119" t="s">
-        <v>308</v>
+        <v>358</v>
       </c>
     </row>
     <row r="120" spans="6:7">
       <c r="F120" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="G120" t="s">
-        <v>309</v>
+        <v>359</v>
       </c>
     </row>
     <row r="121" spans="6:7">
       <c r="F121" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="G121" t="s">
-        <v>310</v>
+        <v>360</v>
       </c>
     </row>
     <row r="122" spans="6:7">
       <c r="F122" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="G122" t="s">
-        <v>311</v>
+        <v>361</v>
       </c>
     </row>
     <row r="123" spans="6:7">
       <c r="F123" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="G123" t="s">
-        <v>312</v>
+        <v>362</v>
       </c>
     </row>
     <row r="124" spans="6:7">
       <c r="F124" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="G124" t="s">
-        <v>313</v>
+        <v>363</v>
       </c>
     </row>
     <row r="125" spans="6:7">
       <c r="F125" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="G125" t="s">
-        <v>314</v>
+        <v>364</v>
       </c>
     </row>
     <row r="126" spans="6:7">
       <c r="F126" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="G126" t="s">
-        <v>313</v>
+        <v>363</v>
       </c>
     </row>
     <row r="127" spans="6:7">
       <c r="F127" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="G127" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
     </row>
     <row r="128" spans="6:7">
       <c r="F128" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="G128" t="s">
-        <v>316</v>
+        <v>366</v>
       </c>
     </row>
     <row r="129" spans="6:7">
       <c r="F129" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="G129" t="s">
-        <v>317</v>
+        <v>367</v>
       </c>
     </row>
     <row r="130" spans="6:7">
       <c r="F130" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="G130" t="s">
-        <v>318</v>
+        <v>368</v>
       </c>
     </row>
     <row r="131" spans="6:7">
       <c r="F131" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="G131" t="s">
-        <v>319</v>
+        <v>369</v>
       </c>
     </row>
     <row r="132" spans="6:7">
       <c r="F132" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="G132" t="s">
-        <v>320</v>
+        <v>370</v>
       </c>
     </row>
     <row r="133" spans="6:7">
       <c r="F133" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="G133" t="s">
-        <v>321</v>
+        <v>371</v>
       </c>
     </row>
     <row r="134" spans="6:7">
       <c r="F134" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="G134" t="s">
-        <v>322</v>
+        <v>372</v>
       </c>
     </row>
     <row r="135" spans="6:7">
       <c r="F135" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="G135" t="s">
-        <v>323</v>
+        <v>373</v>
       </c>
     </row>
     <row r="136" spans="6:7">
       <c r="F136" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="G136" t="s">
-        <v>324</v>
+        <v>374</v>
       </c>
     </row>
     <row r="137" spans="6:7">
       <c r="F137" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="G137" t="s">
-        <v>325</v>
+        <v>375</v>
       </c>
     </row>
     <row r="138" spans="6:7">
       <c r="F138" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="G138" t="s">
-        <v>326</v>
+        <v>376</v>
       </c>
     </row>
     <row r="139" spans="6:7">
       <c r="F139" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="G139" t="s">
-        <v>327</v>
+        <v>377</v>
       </c>
     </row>
     <row r="140" spans="6:7">
       <c r="F140" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="G140" t="s">
-        <v>328</v>
+        <v>378</v>
       </c>
     </row>
     <row r="141" spans="6:7">
       <c r="F141" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="G141" t="s">
-        <v>329</v>
+        <v>379</v>
       </c>
     </row>
     <row r="142" spans="6:7">
       <c r="F142" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="G142" t="s">
-        <v>330</v>
+        <v>380</v>
       </c>
     </row>
     <row r="143" spans="6:7">
       <c r="F143" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="G143" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="144" spans="6:7" s="1" customFormat="1">
-      <c r="F144" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="145" spans="6:7" s="1" customFormat="1">
-      <c r="F145" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="146" spans="6:7" s="1" customFormat="1">
-      <c r="F146" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="147" spans="6:7" s="1" customFormat="1">
-      <c r="F147" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="148" spans="6:7" s="1" customFormat="1">
-      <c r="F148" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="149" spans="6:7" s="1" customFormat="1">
-      <c r="F149" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>403</v>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="144" customFormat="1" spans="6:7">
+      <c r="F144" t="s">
+        <v>266</v>
+      </c>
+      <c r="G144" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="145" customFormat="1" spans="6:7">
+      <c r="F145" t="s">
+        <v>266</v>
+      </c>
+      <c r="G145" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="146" customFormat="1" spans="6:7">
+      <c r="F146" t="s">
+        <v>266</v>
+      </c>
+      <c r="G146" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="147" customFormat="1" spans="6:7">
+      <c r="F147" t="s">
+        <v>266</v>
+      </c>
+      <c r="G147" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="148" customFormat="1" spans="6:7">
+      <c r="F148" t="s">
+        <v>266</v>
+      </c>
+      <c r="G148" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="149" customFormat="1" spans="6:7">
+      <c r="F149" t="s">
+        <v>266</v>
+      </c>
+      <c r="G149" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="150" spans="6:7">
       <c r="F150" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="G150" t="s">
-        <v>237</v>
+        <v>287</v>
       </c>
     </row>
     <row r="151" spans="6:7">
       <c r="F151" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="G151" t="s">
-        <v>332</v>
+        <v>388</v>
       </c>
     </row>
     <row r="152" spans="6:7">
       <c r="F152" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="G152" t="s">
-        <v>333</v>
+        <v>389</v>
       </c>
     </row>
     <row r="153" spans="6:7">
       <c r="F153" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="G153" t="s">
-        <v>334</v>
+        <v>390</v>
       </c>
     </row>
     <row r="154" spans="6:7">
       <c r="F154" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="G154" t="s">
-        <v>335</v>
+        <v>391</v>
       </c>
     </row>
     <row r="155" spans="6:7">
       <c r="F155" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="G155" t="s">
-        <v>279</v>
+        <v>329</v>
       </c>
     </row>
     <row r="156" spans="6:7">
       <c r="F156" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="G156" t="s">
-        <v>336</v>
+        <v>392</v>
       </c>
     </row>
     <row r="157" spans="6:7">
       <c r="F157" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="G157" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
     </row>
     <row r="158" spans="6:7">
       <c r="F158" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="G158" t="s">
-        <v>337</v>
+        <v>393</v>
       </c>
     </row>
     <row r="159" spans="6:7">
       <c r="F159" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="G159" t="s">
-        <v>338</v>
+        <v>394</v>
       </c>
     </row>
     <row r="160" spans="6:7">
       <c r="F160" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="G160" t="s">
-        <v>339</v>
+        <v>395</v>
       </c>
     </row>
     <row r="161" spans="6:7">
       <c r="F161" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="G161" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongle/Documents/work/devops-service/src/main/resources/script/front/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA35BA5-3E13-4346-AF1C-DC14A8EBA835}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -1209,14 +1215,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1230,355 +1230,24 @@
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1586,312 +1255,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2176,37 +1559,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:N38"/>
   <sheetViews>
     <sheetView topLeftCell="F13" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="3" width="11.6018518518519" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.6018518518519" customWidth="1"/>
-    <col min="6" max="6" width="65.7962962962963" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="65.796875" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="28.7962962962963" customWidth="1"/>
+    <col min="10" max="10" width="28.796875" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="29.2037037037037" customWidth="1"/>
-    <col min="14" max="14" width="19.3981481481481" customWidth="1"/>
+    <col min="13" max="13" width="29.19921875" customWidth="1"/>
+    <col min="14" max="14" width="19.3984375" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.6018518518519" customWidth="1"/>
+    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:14">
+    <row r="7" spans="4:14" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2241,7 +1624,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1" spans="6:14">
+    <row r="8" spans="4:14" ht="12.75" customHeight="1">
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2270,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="6:14">
+    <row r="9" spans="4:14">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -2299,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="6:14">
+    <row r="10" spans="4:14">
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -2328,7 +1711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="6:14">
+    <row r="11" spans="4:14">
       <c r="F11" t="s">
         <v>23</v>
       </c>
@@ -2357,7 +1740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:14">
+    <row r="12" spans="4:14">
       <c r="F12" t="s">
         <v>27</v>
       </c>
@@ -2386,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="6:14">
+    <row r="13" spans="4:14">
       <c r="F13" t="s">
         <v>30</v>
       </c>
@@ -2415,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="6:14">
+    <row r="14" spans="4:14">
       <c r="F14" t="s">
         <v>33</v>
       </c>
@@ -2444,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="6:14">
+    <row r="15" spans="4:14">
       <c r="F15" t="s">
         <v>36</v>
       </c>
@@ -2473,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="6:14">
+    <row r="16" spans="4:14">
       <c r="F16" t="s">
         <v>39</v>
       </c>
@@ -3082,7 +2465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" customFormat="1" ht="13.2" spans="6:14">
+    <row r="37" spans="6:14">
       <c r="F37" t="s">
         <v>102</v>
       </c>
@@ -3141,8 +2524,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -3151,33 +2535,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:O47"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="3" width="11.6018518518519" customWidth="1"/>
-    <col min="4" max="4" width="15.2037037037037" customWidth="1"/>
-    <col min="5" max="5" width="11.6018518518519" customWidth="1"/>
-    <col min="6" max="6" width="56.2037037037037" customWidth="1"/>
-    <col min="7" max="7" width="18.2037037037037" customWidth="1"/>
-    <col min="8" max="8" width="27.7962962962963" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="56.19921875" customWidth="1"/>
+    <col min="7" max="7" width="18.19921875" customWidth="1"/>
+    <col min="8" max="8" width="27.796875" customWidth="1"/>
     <col min="9" max="9" width="66" customWidth="1"/>
-    <col min="10" max="10" width="22.6018518518519" customWidth="1"/>
-    <col min="11" max="11" width="47.6018518518519" customWidth="1"/>
-    <col min="12" max="12" width="25.7962962962963" customWidth="1"/>
-    <col min="13" max="13" width="37.7962962962963" customWidth="1"/>
+    <col min="10" max="10" width="22.59765625" customWidth="1"/>
+    <col min="11" max="11" width="47.59765625" customWidth="1"/>
+    <col min="12" max="12" width="25.796875" customWidth="1"/>
+    <col min="13" max="13" width="37.796875" customWidth="1"/>
     <col min="14" max="14" width="27" customWidth="1"/>
-    <col min="15" max="15" width="9.7962962962963" customWidth="1"/>
-    <col min="16" max="1025" width="11.6018518518519" customWidth="1"/>
+    <col min="15" max="15" width="9.796875" customWidth="1"/>
+    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:15">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>108</v>
       </c>
@@ -3215,7 +2598,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1" spans="6:15">
+    <row r="8" spans="4:15" ht="12.75" customHeight="1">
       <c r="F8" s="1" t="s">
         <v>116</v>
       </c>
@@ -3244,7 +2627,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="6:15">
+    <row r="9" spans="4:15">
       <c r="F9" t="s">
         <v>121</v>
       </c>
@@ -3276,7 +2659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="6:15">
+    <row r="10" spans="4:15">
       <c r="F10" t="s">
         <v>126</v>
       </c>
@@ -3308,7 +2691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="6:15">
+    <row r="11" spans="4:15">
       <c r="F11" t="s">
         <v>130</v>
       </c>
@@ -3340,7 +2723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="6:15">
+    <row r="12" spans="4:15">
       <c r="F12" t="s">
         <v>134</v>
       </c>
@@ -3369,7 +2752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="6:15">
+    <row r="13" spans="4:15">
       <c r="F13" t="s">
         <v>139</v>
       </c>
@@ -3401,7 +2784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="6:15">
+    <row r="14" spans="4:15">
       <c r="F14" t="s">
         <v>143</v>
       </c>
@@ -3433,7 +2816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="6:15">
+    <row r="15" spans="4:15">
       <c r="F15" t="s">
         <v>147</v>
       </c>
@@ -3465,7 +2848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="6:15">
+    <row r="16" spans="4:15">
       <c r="F16" t="s">
         <v>151</v>
       </c>
@@ -3523,7 +2906,7 @@
         <v>158</v>
       </c>
       <c r="O17">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="6:15">
@@ -3776,7 +3159,7 @@
         <v>190</v>
       </c>
       <c r="O25">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="6:15">
@@ -3939,7 +3322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" customFormat="1" spans="6:15">
+    <row r="31" spans="6:15">
       <c r="F31" t="s">
         <v>211</v>
       </c>
@@ -3968,7 +3351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" customFormat="1" spans="6:15">
+    <row r="32" spans="6:15">
       <c r="F32" t="s">
         <v>215</v>
       </c>
@@ -3997,7 +3380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" customFormat="1" spans="6:15">
+    <row r="33" spans="6:15">
       <c r="F33" t="s">
         <v>219</v>
       </c>
@@ -4375,7 +3758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" customFormat="1" spans="6:15">
+    <row r="45" spans="6:15">
       <c r="F45" t="s">
         <v>266</v>
       </c>
@@ -4469,8 +3852,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -4479,25 +3863,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:G161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D133" workbookViewId="0">
-      <selection activeCell="F152" sqref="D7:G161"/>
+    <sheetView topLeftCell="D133" workbookViewId="0">
+      <selection activeCell="G169" sqref="G169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="3" width="11.6018518518519" customWidth="1"/>
-    <col min="4" max="4" width="23.7962962962963" customWidth="1"/>
-    <col min="5" max="5" width="11.6018518518519" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="23.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
     <col min="6" max="6" width="82" customWidth="1"/>
-    <col min="7" max="7" width="85.2037037037037" customWidth="1"/>
-    <col min="8" max="1025" width="11.6018518518519" customWidth="1"/>
+    <col min="7" max="7" width="85.19921875" customWidth="1"/>
+    <col min="8" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="12.75" customHeight="1" spans="4:7">
+    <row r="7" spans="4:7" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>278</v>
       </c>
@@ -4511,7 +3894,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1" spans="6:7">
+    <row r="8" spans="4:7" ht="12.75" customHeight="1">
       <c r="F8" t="s">
         <v>121</v>
       </c>
@@ -4519,7 +3902,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="6:7">
+    <row r="9" spans="4:7">
       <c r="F9" t="s">
         <v>121</v>
       </c>
@@ -4527,7 +3910,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="6:7">
+    <row r="10" spans="4:7">
       <c r="F10" t="s">
         <v>121</v>
       </c>
@@ -4535,7 +3918,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="11" spans="6:7">
+    <row r="11" spans="4:7">
       <c r="F11" t="s">
         <v>126</v>
       </c>
@@ -4543,7 +3926,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="6:7">
+    <row r="12" spans="4:7">
       <c r="F12" t="s">
         <v>130</v>
       </c>
@@ -4551,7 +3934,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="13" spans="6:7">
+    <row r="13" spans="4:7">
       <c r="F13" t="s">
         <v>139</v>
       </c>
@@ -4559,7 +3942,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="14" spans="6:7">
+    <row r="14" spans="4:7">
       <c r="F14" t="s">
         <v>143</v>
       </c>
@@ -4567,7 +3950,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="6:7">
+    <row r="15" spans="4:7">
       <c r="F15" t="s">
         <v>143</v>
       </c>
@@ -4575,7 +3958,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="16" spans="6:7">
+    <row r="16" spans="4:7">
       <c r="F16" t="s">
         <v>147</v>
       </c>
@@ -5599,7 +4982,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="144" customFormat="1" spans="6:7">
+    <row r="144" spans="6:7">
       <c r="F144" t="s">
         <v>266</v>
       </c>
@@ -5607,7 +4990,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="145" customFormat="1" spans="6:7">
+    <row r="145" spans="6:7">
       <c r="F145" t="s">
         <v>266</v>
       </c>
@@ -5615,7 +4998,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="146" customFormat="1" spans="6:7">
+    <row r="146" spans="6:7">
       <c r="F146" t="s">
         <v>266</v>
       </c>
@@ -5623,7 +5006,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="147" customFormat="1" spans="6:7">
+    <row r="147" spans="6:7">
       <c r="F147" t="s">
         <v>266</v>
       </c>
@@ -5631,7 +5014,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="148" customFormat="1" spans="6:7">
+    <row r="148" spans="6:7">
       <c r="F148" t="s">
         <v>266</v>
       </c>
@@ -5639,7 +5022,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="149" customFormat="1" spans="6:7">
+    <row r="149" spans="6:7">
       <c r="F149" t="s">
         <v>266</v>
       </c>
@@ -5744,8 +5127,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongle/Documents/work/devops-service/src/main/resources/script/front/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA35BA5-3E13-4346-AF1C-DC14A8EBA835}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19935" windowHeight="7785" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -633,6 +627,18 @@
     <t>Operation-monitoring</t>
   </si>
   <si>
+    <t>choerodon.code.deployment-pipeline.deployment-config</t>
+  </si>
+  <si>
+    <t>部署配置</t>
+  </si>
+  <si>
+    <t>Deployment Config</t>
+  </si>
+  <si>
+    <t>cloud_done</t>
+  </si>
+  <si>
     <t>choerodon.code.deployment-pipeline.application-deployment</t>
   </si>
   <si>
@@ -784,18 +790,6 @@
   </si>
   <si>
     <t>format_list_bulleted</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.deployment-config</t>
-  </si>
-  <si>
-    <t>部署配置</t>
-  </si>
-  <si>
-    <t>Deployment Config</t>
-  </si>
-  <si>
-    <t>cloud_done</t>
   </si>
   <si>
     <t>choerodon.code.prosetting</t>
@@ -1215,8 +1209,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1230,24 +1230,355 @@
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1255,26 +1586,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1559,37 +2176,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="F13" workbookViewId="0">
+    <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="1" max="3" width="11.6" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="65.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.6" customWidth="1"/>
+    <col min="6" max="6" width="65.8" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="28.796875" customWidth="1"/>
+    <col min="10" max="10" width="28.8" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="29.19921875" customWidth="1"/>
-    <col min="14" max="14" width="19.3984375" customWidth="1"/>
+    <col min="13" max="13" width="29.2" customWidth="1"/>
+    <col min="14" max="14" width="19.4" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="16" max="1025" width="11.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14" ht="12.75" customHeight="1">
+    <row r="7" customHeight="1" spans="4:14">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1624,7 +2241,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:14" ht="12.75" customHeight="1">
+    <row r="8" customHeight="1" spans="6:14">
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1653,7 +2270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:14">
+    <row r="9" spans="6:14">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -1682,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:14">
+    <row r="10" spans="6:14">
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -1711,7 +2328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:14">
+    <row r="11" spans="6:14">
       <c r="F11" t="s">
         <v>23</v>
       </c>
@@ -1740,7 +2357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:14">
+    <row r="12" spans="6:14">
       <c r="F12" t="s">
         <v>27</v>
       </c>
@@ -1769,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:14">
+    <row r="13" spans="6:14">
       <c r="F13" t="s">
         <v>30</v>
       </c>
@@ -1798,7 +2415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:14">
+    <row r="14" spans="6:14">
       <c r="F14" t="s">
         <v>33</v>
       </c>
@@ -1827,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:14">
+    <row r="15" spans="6:14">
       <c r="F15" t="s">
         <v>36</v>
       </c>
@@ -1856,7 +2473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:14">
+    <row r="16" spans="6:14">
       <c r="F16" t="s">
         <v>39</v>
       </c>
@@ -2524,9 +3141,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -2535,32 +3151,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F42" sqref="$A42:$XFD42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="56.19921875" customWidth="1"/>
-    <col min="7" max="7" width="18.19921875" customWidth="1"/>
-    <col min="8" max="8" width="27.796875" customWidth="1"/>
+    <col min="1" max="3" width="11.6" customWidth="1"/>
+    <col min="4" max="4" width="15.2" customWidth="1"/>
+    <col min="5" max="5" width="11.6" customWidth="1"/>
+    <col min="6" max="6" width="56.2" customWidth="1"/>
+    <col min="7" max="7" width="18.2" customWidth="1"/>
+    <col min="8" max="8" width="27.8" customWidth="1"/>
     <col min="9" max="9" width="66" customWidth="1"/>
-    <col min="10" max="10" width="22.59765625" customWidth="1"/>
-    <col min="11" max="11" width="47.59765625" customWidth="1"/>
-    <col min="12" max="12" width="25.796875" customWidth="1"/>
-    <col min="13" max="13" width="37.796875" customWidth="1"/>
+    <col min="10" max="10" width="22.6" customWidth="1"/>
+    <col min="11" max="11" width="47.6" customWidth="1"/>
+    <col min="12" max="12" width="25.8" customWidth="1"/>
+    <col min="13" max="13" width="37.8" customWidth="1"/>
     <col min="14" max="14" width="27" customWidth="1"/>
-    <col min="15" max="15" width="9.796875" customWidth="1"/>
-    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="15" max="15" width="9.8" customWidth="1"/>
+    <col min="16" max="1025" width="11.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1">
+    <row r="7" customHeight="1" spans="4:15">
       <c r="D7" s="1" t="s">
         <v>108</v>
       </c>
@@ -2598,7 +3215,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="4:15" ht="12.75" customHeight="1">
+    <row r="8" customHeight="1" spans="6:15">
       <c r="F8" s="1" t="s">
         <v>116</v>
       </c>
@@ -2627,7 +3244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="4:15">
+    <row r="9" spans="6:15">
       <c r="F9" t="s">
         <v>121</v>
       </c>
@@ -2659,7 +3276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:15">
+    <row r="10" spans="6:15">
       <c r="F10" t="s">
         <v>126</v>
       </c>
@@ -2691,7 +3308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="4:15">
+    <row r="11" spans="6:15">
       <c r="F11" t="s">
         <v>130</v>
       </c>
@@ -2723,7 +3340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="4:15">
+    <row r="12" spans="6:15">
       <c r="F12" t="s">
         <v>134</v>
       </c>
@@ -2752,7 +3369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:15">
+    <row r="13" spans="6:15">
       <c r="F13" t="s">
         <v>139</v>
       </c>
@@ -2784,7 +3401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:15">
+    <row r="14" spans="6:15">
       <c r="F14" t="s">
         <v>143</v>
       </c>
@@ -2816,7 +3433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="4:15">
+    <row r="15" spans="6:15">
       <c r="F15" t="s">
         <v>147</v>
       </c>
@@ -2848,7 +3465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="4:15">
+    <row r="16" spans="6:15">
       <c r="F16" t="s">
         <v>151</v>
       </c>
@@ -3269,7 +3886,7 @@
         <v>205</v>
       </c>
       <c r="I29" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="J29" t="s">
         <v>13</v>
@@ -3301,7 +3918,7 @@
         <v>209</v>
       </c>
       <c r="I30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J30" t="s">
         <v>13</v>
@@ -3332,6 +3949,9 @@
       <c r="H31" t="s">
         <v>213</v>
       </c>
+      <c r="I31" t="s">
+        <v>69</v>
+      </c>
       <c r="J31" t="s">
         <v>13</v>
       </c>
@@ -3342,7 +3962,7 @@
         <v>25</v>
       </c>
       <c r="M31" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="N31" t="s">
         <v>214</v>
@@ -3419,20 +4039,17 @@
       <c r="H34" t="s">
         <v>225</v>
       </c>
-      <c r="I34" t="s">
-        <v>72</v>
-      </c>
       <c r="J34" t="s">
         <v>13</v>
       </c>
       <c r="K34" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="L34" t="s">
         <v>25</v>
       </c>
       <c r="M34" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="N34" t="s">
         <v>226</v>
@@ -3452,13 +4069,13 @@
         <v>229</v>
       </c>
       <c r="I35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J35" t="s">
         <v>13</v>
       </c>
       <c r="K35" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L35" t="s">
         <v>25</v>
@@ -3484,13 +4101,13 @@
         <v>233</v>
       </c>
       <c r="I36" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J36" t="s">
         <v>13</v>
       </c>
       <c r="K36" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L36" t="s">
         <v>25</v>
@@ -3516,13 +4133,13 @@
         <v>237</v>
       </c>
       <c r="I37" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J37" t="s">
         <v>13</v>
       </c>
       <c r="K37" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="L37" t="s">
         <v>25</v>
@@ -3531,7 +4148,7 @@
         <v>124</v>
       </c>
       <c r="N37" t="s">
-        <v>133</v>
+        <v>238</v>
       </c>
       <c r="O37">
         <v>12</v>
@@ -3539,16 +4156,16 @@
     </row>
     <row r="38" spans="6:15">
       <c r="F38" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G38" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H38" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I38" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J38" t="s">
         <v>13</v>
@@ -3563,7 +4180,7 @@
         <v>124</v>
       </c>
       <c r="N38" t="s">
-        <v>241</v>
+        <v>133</v>
       </c>
       <c r="O38">
         <v>13</v>
@@ -3580,13 +4197,13 @@
         <v>244</v>
       </c>
       <c r="I39" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J39" t="s">
         <v>13</v>
       </c>
       <c r="K39" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L39" t="s">
         <v>25</v>
@@ -3612,13 +4229,13 @@
         <v>248</v>
       </c>
       <c r="I40" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s">
         <v>13</v>
       </c>
       <c r="K40" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="L40" t="s">
         <v>25</v>
@@ -3644,13 +4261,13 @@
         <v>252</v>
       </c>
       <c r="I41" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J41" t="s">
         <v>13</v>
       </c>
       <c r="K41" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L41" t="s">
         <v>25</v>
@@ -3676,13 +4293,13 @@
         <v>256</v>
       </c>
       <c r="I42" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J42" t="s">
         <v>13</v>
       </c>
       <c r="K42" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L42" t="s">
         <v>25</v>
@@ -3852,9 +4469,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -3863,24 +4479,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:G161"/>
   <sheetViews>
-    <sheetView topLeftCell="D133" workbookViewId="0">
+    <sheetView topLeftCell="D112" workbookViewId="0">
       <selection activeCell="G169" sqref="G169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="23.796875" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="1" max="3" width="11.6" customWidth="1"/>
+    <col min="4" max="4" width="23.8" customWidth="1"/>
+    <col min="5" max="5" width="11.6" customWidth="1"/>
     <col min="6" max="6" width="82" customWidth="1"/>
-    <col min="7" max="7" width="85.19921875" customWidth="1"/>
-    <col min="8" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="7" max="7" width="85.2" customWidth="1"/>
+    <col min="8" max="1025" width="11.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="12.75" customHeight="1">
+    <row r="7" customHeight="1" spans="4:7">
       <c r="D7" s="1" t="s">
         <v>278</v>
       </c>
@@ -3894,7 +4511,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="8" spans="4:7" ht="12.75" customHeight="1">
+    <row r="8" customHeight="1" spans="6:7">
       <c r="F8" t="s">
         <v>121</v>
       </c>
@@ -3902,7 +4519,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="4:7">
+    <row r="9" spans="6:7">
       <c r="F9" t="s">
         <v>121</v>
       </c>
@@ -3910,7 +4527,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="4:7">
+    <row r="10" spans="6:7">
       <c r="F10" t="s">
         <v>121</v>
       </c>
@@ -3918,7 +4535,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="11" spans="4:7">
+    <row r="11" spans="6:7">
       <c r="F11" t="s">
         <v>126</v>
       </c>
@@ -3926,7 +4543,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="4:7">
+    <row r="12" spans="6:7">
       <c r="F12" t="s">
         <v>130</v>
       </c>
@@ -3934,7 +4551,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="13" spans="4:7">
+    <row r="13" spans="6:7">
       <c r="F13" t="s">
         <v>139</v>
       </c>
@@ -3942,7 +4559,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="14" spans="4:7">
+    <row r="14" spans="6:7">
       <c r="F14" t="s">
         <v>143</v>
       </c>
@@ -3950,7 +4567,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="4:7">
+    <row r="15" spans="6:7">
       <c r="F15" t="s">
         <v>143</v>
       </c>
@@ -3958,7 +4575,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="16" spans="4:7">
+    <row r="16" spans="6:7">
       <c r="F16" t="s">
         <v>147</v>
       </c>
@@ -4448,7 +5065,7 @@
     </row>
     <row r="77" spans="6:7">
       <c r="F77" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G77" t="s">
         <v>317</v>
@@ -4456,7 +5073,7 @@
     </row>
     <row r="78" spans="6:7">
       <c r="F78" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G78" t="s">
         <v>314</v>
@@ -4464,7 +5081,7 @@
     </row>
     <row r="79" spans="6:7">
       <c r="F79" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G79" t="s">
         <v>315</v>
@@ -4472,7 +5089,7 @@
     </row>
     <row r="80" spans="6:7">
       <c r="F80" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G80" t="s">
         <v>316</v>
@@ -4480,7 +5097,7 @@
     </row>
     <row r="81" spans="6:7">
       <c r="F81" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G81" t="s">
         <v>317</v>
@@ -4488,7 +5105,7 @@
     </row>
     <row r="82" spans="6:7">
       <c r="F82" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G82" t="s">
         <v>318</v>
@@ -4496,7 +5113,7 @@
     </row>
     <row r="83" spans="6:7">
       <c r="F83" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G83" t="s">
         <v>319</v>
@@ -4504,7 +5121,7 @@
     </row>
     <row r="84" spans="6:7">
       <c r="F84" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G84" t="s">
         <v>320</v>
@@ -4512,7 +5129,7 @@
     </row>
     <row r="85" spans="6:7">
       <c r="F85" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G85" t="s">
         <v>321</v>
@@ -4520,7 +5137,7 @@
     </row>
     <row r="86" spans="6:7">
       <c r="F86" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G86" t="s">
         <v>322</v>
@@ -4528,7 +5145,7 @@
     </row>
     <row r="87" spans="6:7">
       <c r="F87" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G87" t="s">
         <v>323</v>
@@ -4536,7 +5153,7 @@
     </row>
     <row r="88" spans="6:7">
       <c r="F88" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G88" t="s">
         <v>324</v>
@@ -4544,7 +5161,7 @@
     </row>
     <row r="89" spans="6:7">
       <c r="F89" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G89" t="s">
         <v>325</v>
@@ -4552,7 +5169,7 @@
     </row>
     <row r="90" spans="6:7">
       <c r="F90" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G90" t="s">
         <v>326</v>
@@ -4560,7 +5177,7 @@
     </row>
     <row r="91" spans="6:7">
       <c r="F91" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G91" t="s">
         <v>329</v>
@@ -4568,7 +5185,7 @@
     </row>
     <row r="92" spans="6:7">
       <c r="F92" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G92" t="s">
         <v>330</v>
@@ -4576,7 +5193,7 @@
     </row>
     <row r="93" spans="6:7">
       <c r="F93" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G93" t="s">
         <v>331</v>
@@ -4584,7 +5201,7 @@
     </row>
     <row r="94" spans="6:7">
       <c r="F94" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G94" t="s">
         <v>332</v>
@@ -4592,7 +5209,7 @@
     </row>
     <row r="95" spans="6:7">
       <c r="F95" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G95" t="s">
         <v>336</v>
@@ -4600,7 +5217,7 @@
     </row>
     <row r="96" spans="6:7">
       <c r="F96" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G96" t="s">
         <v>333</v>
@@ -4608,7 +5225,7 @@
     </row>
     <row r="97" spans="6:7">
       <c r="F97" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G97" t="s">
         <v>334</v>
@@ -4616,7 +5233,7 @@
     </row>
     <row r="98" spans="6:7">
       <c r="F98" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G98" t="s">
         <v>335</v>
@@ -4624,7 +5241,7 @@
     </row>
     <row r="99" spans="6:7">
       <c r="F99" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G99" t="s">
         <v>339</v>
@@ -4632,7 +5249,7 @@
     </row>
     <row r="100" spans="6:7">
       <c r="F100" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G100" t="s">
         <v>337</v>
@@ -4640,7 +5257,7 @@
     </row>
     <row r="101" spans="6:7">
       <c r="F101" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G101" t="s">
         <v>338</v>
@@ -4648,7 +5265,7 @@
     </row>
     <row r="102" spans="6:7">
       <c r="F102" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G102" t="s">
         <v>342</v>
@@ -4656,7 +5273,7 @@
     </row>
     <row r="103" spans="6:7">
       <c r="F103" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G103" t="s">
         <v>343</v>
@@ -4664,7 +5281,7 @@
     </row>
     <row r="104" spans="6:7">
       <c r="F104" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G104" t="s">
         <v>344</v>
@@ -4672,7 +5289,7 @@
     </row>
     <row r="105" spans="6:7">
       <c r="F105" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G105" t="s">
         <v>345</v>
@@ -4680,7 +5297,7 @@
     </row>
     <row r="106" spans="6:7">
       <c r="F106" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G106" t="s">
         <v>329</v>
@@ -4688,7 +5305,7 @@
     </row>
     <row r="107" spans="6:7">
       <c r="F107" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G107" t="s">
         <v>346</v>
@@ -4696,7 +5313,7 @@
     </row>
     <row r="108" spans="6:7">
       <c r="F108" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G108" t="s">
         <v>347</v>
@@ -4704,7 +5321,7 @@
     </row>
     <row r="109" spans="6:7">
       <c r="F109" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G109" t="s">
         <v>348</v>
@@ -4712,7 +5329,7 @@
     </row>
     <row r="110" spans="6:7">
       <c r="F110" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G110" t="s">
         <v>349</v>
@@ -4720,7 +5337,7 @@
     </row>
     <row r="111" spans="6:7">
       <c r="F111" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G111" t="s">
         <v>350</v>
@@ -4728,7 +5345,7 @@
     </row>
     <row r="112" spans="6:7">
       <c r="F112" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G112" t="s">
         <v>351</v>
@@ -4736,7 +5353,7 @@
     </row>
     <row r="113" spans="6:7">
       <c r="F113" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G113" t="s">
         <v>352</v>
@@ -4744,7 +5361,7 @@
     </row>
     <row r="114" spans="6:7">
       <c r="F114" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G114" t="s">
         <v>353</v>
@@ -4752,7 +5369,7 @@
     </row>
     <row r="115" spans="6:7">
       <c r="F115" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G115" t="s">
         <v>354</v>
@@ -4760,7 +5377,7 @@
     </row>
     <row r="116" spans="6:7">
       <c r="F116" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G116" t="s">
         <v>355</v>
@@ -4768,7 +5385,7 @@
     </row>
     <row r="117" spans="6:7">
       <c r="F117" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G117" t="s">
         <v>356</v>
@@ -4776,7 +5393,7 @@
     </row>
     <row r="118" spans="6:7">
       <c r="F118" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G118" t="s">
         <v>357</v>
@@ -4784,7 +5401,7 @@
     </row>
     <row r="119" spans="6:7">
       <c r="F119" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G119" t="s">
         <v>358</v>
@@ -4792,7 +5409,7 @@
     </row>
     <row r="120" spans="6:7">
       <c r="F120" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G120" t="s">
         <v>359</v>
@@ -4800,7 +5417,7 @@
     </row>
     <row r="121" spans="6:7">
       <c r="F121" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G121" t="s">
         <v>360</v>
@@ -4808,7 +5425,7 @@
     </row>
     <row r="122" spans="6:7">
       <c r="F122" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G122" t="s">
         <v>361</v>
@@ -4816,7 +5433,7 @@
     </row>
     <row r="123" spans="6:7">
       <c r="F123" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G123" t="s">
         <v>362</v>
@@ -4824,7 +5441,7 @@
     </row>
     <row r="124" spans="6:7">
       <c r="F124" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G124" t="s">
         <v>363</v>
@@ -4832,7 +5449,7 @@
     </row>
     <row r="125" spans="6:7">
       <c r="F125" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G125" t="s">
         <v>364</v>
@@ -4840,7 +5457,7 @@
     </row>
     <row r="126" spans="6:7">
       <c r="F126" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G126" t="s">
         <v>363</v>
@@ -4848,7 +5465,7 @@
     </row>
     <row r="127" spans="6:7">
       <c r="F127" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G127" t="s">
         <v>365</v>
@@ -4856,7 +5473,7 @@
     </row>
     <row r="128" spans="6:7">
       <c r="F128" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G128" t="s">
         <v>366</v>
@@ -4864,7 +5481,7 @@
     </row>
     <row r="129" spans="6:7">
       <c r="F129" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G129" t="s">
         <v>367</v>
@@ -4872,7 +5489,7 @@
     </row>
     <row r="130" spans="6:7">
       <c r="F130" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G130" t="s">
         <v>368</v>
@@ -4880,7 +5497,7 @@
     </row>
     <row r="131" spans="6:7">
       <c r="F131" t="s">
-        <v>254</v>
+        <v>203</v>
       </c>
       <c r="G131" t="s">
         <v>369</v>
@@ -4888,7 +5505,7 @@
     </row>
     <row r="132" spans="6:7">
       <c r="F132" t="s">
-        <v>254</v>
+        <v>203</v>
       </c>
       <c r="G132" t="s">
         <v>370</v>
@@ -4896,7 +5513,7 @@
     </row>
     <row r="133" spans="6:7">
       <c r="F133" t="s">
-        <v>254</v>
+        <v>203</v>
       </c>
       <c r="G133" t="s">
         <v>371</v>
@@ -4904,7 +5521,7 @@
     </row>
     <row r="134" spans="6:7">
       <c r="F134" t="s">
-        <v>254</v>
+        <v>203</v>
       </c>
       <c r="G134" t="s">
         <v>372</v>
@@ -5127,9 +5744,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongle/Documents/work/service/devops-service/src/main/resources/script/front/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D6D01B-3960-744A-A4EB-C0DB4C36DD43}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
     <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
-    <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
+    <sheet name="FD_CATEGORY_MENU" sheetId="4" r:id="rId3"/>
+    <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="404">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -1204,19 +1211,45 @@
   </si>
   <si>
     <t>devops-service.devops-gitlab-pipeline.listPipelineFrequency</t>
+  </si>
+  <si>
+    <t>FD_CATEGORY_MENU</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#CATEGORY_CODE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#MENU_CODE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#RESOURCE_LEVEL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGILE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>organization_project</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1230,355 +1263,24 @@
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1586,312 +1288,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2176,37 +1592,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="131" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="3" width="11.6" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.6" customWidth="1"/>
-    <col min="6" max="6" width="65.8" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="65.796875" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="28.8" customWidth="1"/>
+    <col min="10" max="10" width="28.796875" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="29.2" customWidth="1"/>
-    <col min="14" max="14" width="19.4" customWidth="1"/>
+    <col min="13" max="13" width="29.19921875" customWidth="1"/>
+    <col min="14" max="14" width="19.3984375" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.6" customWidth="1"/>
+    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:14">
+    <row r="7" spans="4:14" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2241,7 +1657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="6:14">
+    <row r="8" spans="4:14" ht="12.75" customHeight="1">
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2270,7 +1686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="6:14">
+    <row r="9" spans="4:14">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -2299,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="6:14">
+    <row r="10" spans="4:14">
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -2328,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="6:14">
+    <row r="11" spans="4:14">
       <c r="F11" t="s">
         <v>23</v>
       </c>
@@ -2357,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:14">
+    <row r="12" spans="4:14">
       <c r="F12" t="s">
         <v>27</v>
       </c>
@@ -2386,7 +1802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="6:14">
+    <row r="13" spans="4:14">
       <c r="F13" t="s">
         <v>30</v>
       </c>
@@ -2415,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="6:14">
+    <row r="14" spans="4:14">
       <c r="F14" t="s">
         <v>33</v>
       </c>
@@ -2444,7 +1860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="6:14">
+    <row r="15" spans="4:14">
       <c r="F15" t="s">
         <v>36</v>
       </c>
@@ -2473,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="6:14">
+    <row r="16" spans="4:14">
       <c r="F16" t="s">
         <v>39</v>
       </c>
@@ -3141,8 +2557,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -3151,33 +2568,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D7:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F42" sqref="$A42:$XFD42"/>
+    <sheetView topLeftCell="D3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="3" width="11.6" customWidth="1"/>
-    <col min="4" max="4" width="15.2" customWidth="1"/>
-    <col min="5" max="5" width="11.6" customWidth="1"/>
-    <col min="6" max="6" width="56.2" customWidth="1"/>
-    <col min="7" max="7" width="18.2" customWidth="1"/>
-    <col min="8" max="8" width="27.8" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="56.19921875" customWidth="1"/>
+    <col min="7" max="7" width="18.19921875" customWidth="1"/>
+    <col min="8" max="8" width="27.796875" customWidth="1"/>
     <col min="9" max="9" width="66" customWidth="1"/>
-    <col min="10" max="10" width="22.6" customWidth="1"/>
-    <col min="11" max="11" width="47.6" customWidth="1"/>
-    <col min="12" max="12" width="25.8" customWidth="1"/>
-    <col min="13" max="13" width="37.8" customWidth="1"/>
+    <col min="10" max="10" width="22.59765625" customWidth="1"/>
+    <col min="11" max="11" width="47.59765625" customWidth="1"/>
+    <col min="12" max="12" width="25.796875" customWidth="1"/>
+    <col min="13" max="13" width="37.796875" customWidth="1"/>
     <col min="14" max="14" width="27" customWidth="1"/>
-    <col min="15" max="15" width="9.8" customWidth="1"/>
-    <col min="16" max="1025" width="11.6" customWidth="1"/>
+    <col min="15" max="15" width="9.796875" customWidth="1"/>
+    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:15">
+    <row r="7" spans="4:15" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>108</v>
       </c>
@@ -3215,7 +2631,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="6:15">
+    <row r="8" spans="4:15" ht="12.75" customHeight="1">
       <c r="F8" s="1" t="s">
         <v>116</v>
       </c>
@@ -3244,7 +2660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="6:15">
+    <row r="9" spans="4:15">
       <c r="F9" t="s">
         <v>121</v>
       </c>
@@ -3276,7 +2692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="6:15">
+    <row r="10" spans="4:15">
       <c r="F10" t="s">
         <v>126</v>
       </c>
@@ -3308,7 +2724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="6:15">
+    <row r="11" spans="4:15">
       <c r="F11" t="s">
         <v>130</v>
       </c>
@@ -3340,7 +2756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="6:15">
+    <row r="12" spans="4:15">
       <c r="F12" t="s">
         <v>134</v>
       </c>
@@ -3369,7 +2785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="6:15">
+    <row r="13" spans="4:15">
       <c r="F13" t="s">
         <v>139</v>
       </c>
@@ -3401,7 +2817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="6:15">
+    <row r="14" spans="4:15">
       <c r="F14" t="s">
         <v>143</v>
       </c>
@@ -3433,7 +2849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="6:15">
+    <row r="15" spans="4:15">
       <c r="F15" t="s">
         <v>147</v>
       </c>
@@ -3465,7 +2881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="6:15">
+    <row r="16" spans="4:15">
       <c r="F16" t="s">
         <v>151</v>
       </c>
@@ -4469,8 +3885,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -4479,25 +3896,899 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786B14DF-DF88-B34D-A0E3-421049572596}">
+  <dimension ref="D7:H83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="7" max="7" width="54.796875" customWidth="1"/>
+    <col min="8" max="8" width="28.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:8">
+      <c r="D7" t="s">
+        <v>396</v>
+      </c>
+      <c r="E7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8">
+      <c r="F8" t="s">
+        <v>401</v>
+      </c>
+      <c r="G8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8">
+      <c r="F9" t="s">
+        <v>401</v>
+      </c>
+      <c r="G9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8">
+      <c r="F10" t="s">
+        <v>401</v>
+      </c>
+      <c r="G10" t="s">
+        <v>126</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8">
+      <c r="F11" t="s">
+        <v>401</v>
+      </c>
+      <c r="G11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8">
+      <c r="F12" t="s">
+        <v>401</v>
+      </c>
+      <c r="G12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="13" spans="4:8">
+      <c r="F13" t="s">
+        <v>401</v>
+      </c>
+      <c r="G13" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="14" spans="4:8">
+      <c r="F14" t="s">
+        <v>401</v>
+      </c>
+      <c r="G14" t="s">
+        <v>143</v>
+      </c>
+      <c r="H14" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8">
+      <c r="F15" t="s">
+        <v>401</v>
+      </c>
+      <c r="G15" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="16" spans="4:8">
+      <c r="F16" t="s">
+        <v>401</v>
+      </c>
+      <c r="G16" t="s">
+        <v>151</v>
+      </c>
+      <c r="H16" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="17" spans="6:8">
+      <c r="F17" t="s">
+        <v>401</v>
+      </c>
+      <c r="G17" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="18" spans="6:8">
+      <c r="F18" t="s">
+        <v>401</v>
+      </c>
+      <c r="G18" t="s">
+        <v>159</v>
+      </c>
+      <c r="H18" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="19" spans="6:8">
+      <c r="F19" t="s">
+        <v>401</v>
+      </c>
+      <c r="G19" t="s">
+        <v>163</v>
+      </c>
+      <c r="H19" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="20" spans="6:8">
+      <c r="F20" t="s">
+        <v>401</v>
+      </c>
+      <c r="G20" t="s">
+        <v>167</v>
+      </c>
+      <c r="H20" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="21" spans="6:8">
+      <c r="F21" t="s">
+        <v>401</v>
+      </c>
+      <c r="G21" t="s">
+        <v>171</v>
+      </c>
+      <c r="H21" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="22" spans="6:8">
+      <c r="F22" t="s">
+        <v>401</v>
+      </c>
+      <c r="G22" t="s">
+        <v>175</v>
+      </c>
+      <c r="H22" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="23" spans="6:8">
+      <c r="F23" t="s">
+        <v>401</v>
+      </c>
+      <c r="G23" t="s">
+        <v>179</v>
+      </c>
+      <c r="H23" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="24" spans="6:8">
+      <c r="F24" t="s">
+        <v>401</v>
+      </c>
+      <c r="G24" t="s">
+        <v>183</v>
+      </c>
+      <c r="H24" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="6:8">
+      <c r="F25" t="s">
+        <v>401</v>
+      </c>
+      <c r="G25" t="s">
+        <v>187</v>
+      </c>
+      <c r="H25" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="6:8">
+      <c r="F26" t="s">
+        <v>401</v>
+      </c>
+      <c r="G26" t="s">
+        <v>191</v>
+      </c>
+      <c r="H26" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8">
+      <c r="F27" t="s">
+        <v>401</v>
+      </c>
+      <c r="G27" t="s">
+        <v>195</v>
+      </c>
+      <c r="H27" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="28" spans="6:8">
+      <c r="F28" t="s">
+        <v>401</v>
+      </c>
+      <c r="G28" t="s">
+        <v>199</v>
+      </c>
+      <c r="H28" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="29" spans="6:8">
+      <c r="F29" t="s">
+        <v>401</v>
+      </c>
+      <c r="G29" t="s">
+        <v>203</v>
+      </c>
+      <c r="H29" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="30" spans="6:8">
+      <c r="F30" t="s">
+        <v>401</v>
+      </c>
+      <c r="G30" t="s">
+        <v>207</v>
+      </c>
+      <c r="H30" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="31" spans="6:8">
+      <c r="F31" t="s">
+        <v>401</v>
+      </c>
+      <c r="G31" t="s">
+        <v>211</v>
+      </c>
+      <c r="H31" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="32" spans="6:8">
+      <c r="F32" t="s">
+        <v>401</v>
+      </c>
+      <c r="G32" t="s">
+        <v>215</v>
+      </c>
+      <c r="H32" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8">
+      <c r="F33" t="s">
+        <v>401</v>
+      </c>
+      <c r="G33" t="s">
+        <v>219</v>
+      </c>
+      <c r="H33" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8">
+      <c r="F34" t="s">
+        <v>401</v>
+      </c>
+      <c r="G34" t="s">
+        <v>223</v>
+      </c>
+      <c r="H34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8">
+      <c r="F35" t="s">
+        <v>401</v>
+      </c>
+      <c r="G35" t="s">
+        <v>227</v>
+      </c>
+      <c r="H35" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8">
+      <c r="F36" t="s">
+        <v>401</v>
+      </c>
+      <c r="G36" t="s">
+        <v>231</v>
+      </c>
+      <c r="H36" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8">
+      <c r="F37" t="s">
+        <v>401</v>
+      </c>
+      <c r="G37" t="s">
+        <v>235</v>
+      </c>
+      <c r="H37" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8">
+      <c r="F38" t="s">
+        <v>401</v>
+      </c>
+      <c r="G38" t="s">
+        <v>239</v>
+      </c>
+      <c r="H38" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="39" spans="6:8">
+      <c r="F39" t="s">
+        <v>401</v>
+      </c>
+      <c r="G39" t="s">
+        <v>242</v>
+      </c>
+      <c r="H39" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="40" spans="6:8">
+      <c r="F40" t="s">
+        <v>401</v>
+      </c>
+      <c r="G40" t="s">
+        <v>246</v>
+      </c>
+      <c r="H40" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="41" spans="6:8">
+      <c r="F41" t="s">
+        <v>401</v>
+      </c>
+      <c r="G41" t="s">
+        <v>250</v>
+      </c>
+      <c r="H41" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="42" spans="6:8">
+      <c r="F42" t="s">
+        <v>401</v>
+      </c>
+      <c r="G42" t="s">
+        <v>254</v>
+      </c>
+      <c r="H42" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="43" spans="6:8">
+      <c r="F43" t="s">
+        <v>401</v>
+      </c>
+      <c r="G43" t="s">
+        <v>258</v>
+      </c>
+      <c r="H43" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="44" spans="6:8">
+      <c r="F44" t="s">
+        <v>401</v>
+      </c>
+      <c r="G44" t="s">
+        <v>262</v>
+      </c>
+      <c r="H44" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="45" spans="6:8">
+      <c r="F45" t="s">
+        <v>401</v>
+      </c>
+      <c r="G45" t="s">
+        <v>266</v>
+      </c>
+      <c r="H45" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="46" spans="6:8">
+      <c r="F46" t="s">
+        <v>401</v>
+      </c>
+      <c r="G46" t="s">
+        <v>270</v>
+      </c>
+      <c r="H46" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="47" spans="6:8">
+      <c r="F47" t="s">
+        <v>401</v>
+      </c>
+      <c r="G47" t="s">
+        <v>274</v>
+      </c>
+      <c r="H47" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="48" spans="6:8">
+      <c r="F48" t="s">
+        <v>402</v>
+      </c>
+      <c r="G48" t="s">
+        <v>134</v>
+      </c>
+      <c r="H48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="6:8">
+      <c r="F49" t="s">
+        <v>402</v>
+      </c>
+      <c r="G49" t="s">
+        <v>139</v>
+      </c>
+      <c r="H49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="6:8">
+      <c r="F50" t="s">
+        <v>402</v>
+      </c>
+      <c r="G50" t="s">
+        <v>143</v>
+      </c>
+      <c r="H50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="6:8">
+      <c r="F51" t="s">
+        <v>402</v>
+      </c>
+      <c r="G51" t="s">
+        <v>147</v>
+      </c>
+      <c r="H51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="6:8">
+      <c r="F52" t="s">
+        <v>402</v>
+      </c>
+      <c r="G52" t="s">
+        <v>151</v>
+      </c>
+      <c r="H52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="6:8">
+      <c r="F53" t="s">
+        <v>402</v>
+      </c>
+      <c r="G53" t="s">
+        <v>155</v>
+      </c>
+      <c r="H53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="6:8">
+      <c r="F54" t="s">
+        <v>402</v>
+      </c>
+      <c r="G54" t="s">
+        <v>159</v>
+      </c>
+      <c r="H54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="6:8">
+      <c r="F55" t="s">
+        <v>402</v>
+      </c>
+      <c r="G55" t="s">
+        <v>163</v>
+      </c>
+      <c r="H55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="6:8">
+      <c r="F56" t="s">
+        <v>402</v>
+      </c>
+      <c r="G56" t="s">
+        <v>167</v>
+      </c>
+      <c r="H56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="6:8">
+      <c r="F57" t="s">
+        <v>402</v>
+      </c>
+      <c r="G57" t="s">
+        <v>171</v>
+      </c>
+      <c r="H57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="6:8">
+      <c r="F58" t="s">
+        <v>402</v>
+      </c>
+      <c r="G58" t="s">
+        <v>175</v>
+      </c>
+      <c r="H58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="6:8">
+      <c r="F59" t="s">
+        <v>402</v>
+      </c>
+      <c r="G59" t="s">
+        <v>179</v>
+      </c>
+      <c r="H59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="6:8">
+      <c r="F60" t="s">
+        <v>402</v>
+      </c>
+      <c r="G60" t="s">
+        <v>183</v>
+      </c>
+      <c r="H60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="6:8">
+      <c r="F61" t="s">
+        <v>402</v>
+      </c>
+      <c r="G61" t="s">
+        <v>187</v>
+      </c>
+      <c r="H61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="6:8">
+      <c r="F62" t="s">
+        <v>402</v>
+      </c>
+      <c r="G62" t="s">
+        <v>191</v>
+      </c>
+      <c r="H62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="6:8">
+      <c r="F63" t="s">
+        <v>402</v>
+      </c>
+      <c r="G63" t="s">
+        <v>195</v>
+      </c>
+      <c r="H63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="6:8">
+      <c r="F64" t="s">
+        <v>402</v>
+      </c>
+      <c r="G64" t="s">
+        <v>199</v>
+      </c>
+      <c r="H64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="6:8">
+      <c r="F65" t="s">
+        <v>402</v>
+      </c>
+      <c r="G65" t="s">
+        <v>203</v>
+      </c>
+      <c r="H65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="6:8">
+      <c r="F66" t="s">
+        <v>402</v>
+      </c>
+      <c r="G66" t="s">
+        <v>207</v>
+      </c>
+      <c r="H66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="6:8">
+      <c r="F67" t="s">
+        <v>402</v>
+      </c>
+      <c r="G67" t="s">
+        <v>211</v>
+      </c>
+      <c r="H67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="6:8">
+      <c r="F68" t="s">
+        <v>402</v>
+      </c>
+      <c r="G68" t="s">
+        <v>215</v>
+      </c>
+      <c r="H68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="6:8">
+      <c r="F69" t="s">
+        <v>402</v>
+      </c>
+      <c r="G69" t="s">
+        <v>219</v>
+      </c>
+      <c r="H69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="6:8">
+      <c r="F70" t="s">
+        <v>402</v>
+      </c>
+      <c r="G70" t="s">
+        <v>223</v>
+      </c>
+      <c r="H70" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="6:8">
+      <c r="F71" t="s">
+        <v>402</v>
+      </c>
+      <c r="G71" t="s">
+        <v>227</v>
+      </c>
+      <c r="H71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="6:8">
+      <c r="F72" t="s">
+        <v>402</v>
+      </c>
+      <c r="G72" t="s">
+        <v>231</v>
+      </c>
+      <c r="H72" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="6:8">
+      <c r="F73" t="s">
+        <v>402</v>
+      </c>
+      <c r="G73" t="s">
+        <v>235</v>
+      </c>
+      <c r="H73" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="6:8">
+      <c r="F74" t="s">
+        <v>402</v>
+      </c>
+      <c r="G74" t="s">
+        <v>239</v>
+      </c>
+      <c r="H74" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="6:8">
+      <c r="F75" t="s">
+        <v>402</v>
+      </c>
+      <c r="G75" t="s">
+        <v>242</v>
+      </c>
+      <c r="H75" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="6:8">
+      <c r="F76" t="s">
+        <v>402</v>
+      </c>
+      <c r="G76" t="s">
+        <v>246</v>
+      </c>
+      <c r="H76" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="6:8">
+      <c r="F77" t="s">
+        <v>402</v>
+      </c>
+      <c r="G77" t="s">
+        <v>250</v>
+      </c>
+      <c r="H77" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="6:8">
+      <c r="F78" t="s">
+        <v>402</v>
+      </c>
+      <c r="G78" t="s">
+        <v>254</v>
+      </c>
+      <c r="H78" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="6:8">
+      <c r="F79" t="s">
+        <v>402</v>
+      </c>
+      <c r="G79" t="s">
+        <v>258</v>
+      </c>
+      <c r="H79" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="80" spans="6:8">
+      <c r="F80" t="s">
+        <v>402</v>
+      </c>
+      <c r="G80" t="s">
+        <v>262</v>
+      </c>
+      <c r="H80" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="6:8">
+      <c r="F81" t="s">
+        <v>402</v>
+      </c>
+      <c r="G81" t="s">
+        <v>266</v>
+      </c>
+      <c r="H81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="6:8">
+      <c r="F82" t="s">
+        <v>402</v>
+      </c>
+      <c r="G82" t="s">
+        <v>270</v>
+      </c>
+      <c r="H82" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="6:8">
+      <c r="F83" t="s">
+        <v>402</v>
+      </c>
+      <c r="G83" t="s">
+        <v>274</v>
+      </c>
+      <c r="H83" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:G161"/>
   <sheetViews>
     <sheetView topLeftCell="D112" workbookViewId="0">
       <selection activeCell="G169" sqref="G169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="3" width="11.6" customWidth="1"/>
-    <col min="4" max="4" width="23.8" customWidth="1"/>
-    <col min="5" max="5" width="11.6" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="23.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
     <col min="6" max="6" width="82" customWidth="1"/>
-    <col min="7" max="7" width="85.2" customWidth="1"/>
-    <col min="8" max="1025" width="11.6" customWidth="1"/>
+    <col min="7" max="7" width="85.19921875" customWidth="1"/>
+    <col min="8" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:7">
+    <row r="7" spans="4:7" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>278</v>
       </c>
@@ -4511,7 +4802,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="6:7">
+    <row r="8" spans="4:7" ht="12.75" customHeight="1">
       <c r="F8" t="s">
         <v>121</v>
       </c>
@@ -4519,7 +4810,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="6:7">
+    <row r="9" spans="4:7">
       <c r="F9" t="s">
         <v>121</v>
       </c>
@@ -4527,7 +4818,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="6:7">
+    <row r="10" spans="4:7">
       <c r="F10" t="s">
         <v>121</v>
       </c>
@@ -4535,7 +4826,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="11" spans="6:7">
+    <row r="11" spans="4:7">
       <c r="F11" t="s">
         <v>126</v>
       </c>
@@ -4543,7 +4834,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="12" spans="6:7">
+    <row r="12" spans="4:7">
       <c r="F12" t="s">
         <v>130</v>
       </c>
@@ -4551,7 +4842,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="13" spans="6:7">
+    <row r="13" spans="4:7">
       <c r="F13" t="s">
         <v>139</v>
       </c>
@@ -4559,7 +4850,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="14" spans="6:7">
+    <row r="14" spans="4:7">
       <c r="F14" t="s">
         <v>143</v>
       </c>
@@ -4567,7 +4858,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="6:7">
+    <row r="15" spans="4:7">
       <c r="F15" t="s">
         <v>143</v>
       </c>
@@ -4575,7 +4866,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="16" spans="6:7">
+    <row r="16" spans="4:7">
       <c r="F16" t="s">
         <v>147</v>
       </c>
@@ -5744,8 +6035,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongle/Documents/work/service/devops-service/src/main/resources/script/front/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D6D01B-3960-744A-A4EB-C0DB4C36DD43}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19935" windowHeight="7785" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="402">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -859,12 +853,30 @@
     <t>devops_chart</t>
   </si>
   <si>
+    <t>FD_CATEGORY_MENU</t>
+  </si>
+  <si>
+    <t>#CATEGORY_CODE</t>
+  </si>
+  <si>
+    <t>#MENU_CODE</t>
+  </si>
+  <si>
+    <t>#RESOURCE_LEVEL</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>organization_project</t>
+  </si>
+  <si>
+    <t>AGILE</t>
+  </si>
+  <si>
     <t>IAM_MENU_PERMISSION</t>
   </si>
   <si>
-    <t>#MENU_CODE</t>
-  </si>
-  <si>
     <t>#PERMISSION_CODE</t>
   </si>
   <si>
@@ -1211,45 +1223,19 @@
   </si>
   <si>
     <t>devops-service.devops-gitlab-pipeline.listPipelineFrequency</t>
-  </si>
-  <si>
-    <t>FD_CATEGORY_MENU</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#CATEGORY_CODE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#MENU_CODE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#RESOURCE_LEVEL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFAULT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGILE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>organization_project</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1263,24 +1249,355 @@
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1288,26 +1605,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1592,37 +2195,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="131" workbookViewId="0">
+    <sheetView zoomScale="131" zoomScaleNormal="131" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="1" max="3" width="11.6" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="65.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.6" customWidth="1"/>
+    <col min="6" max="6" width="65.8" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="28.796875" customWidth="1"/>
+    <col min="10" max="10" width="28.8" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="29.19921875" customWidth="1"/>
-    <col min="14" max="14" width="19.3984375" customWidth="1"/>
+    <col min="13" max="13" width="29.2" customWidth="1"/>
+    <col min="14" max="14" width="19.4" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="16" max="1025" width="11.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14" ht="12.75" customHeight="1">
+    <row r="7" customHeight="1" spans="4:14">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1657,7 +2260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:14" ht="12.75" customHeight="1">
+    <row r="8" customHeight="1" spans="6:14">
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1686,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:14">
+    <row r="9" spans="6:14">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -1715,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:14">
+    <row r="10" spans="6:14">
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -1744,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:14">
+    <row r="11" spans="6:14">
       <c r="F11" t="s">
         <v>23</v>
       </c>
@@ -1773,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:14">
+    <row r="12" spans="6:14">
       <c r="F12" t="s">
         <v>27</v>
       </c>
@@ -1802,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:14">
+    <row r="13" spans="6:14">
       <c r="F13" t="s">
         <v>30</v>
       </c>
@@ -1831,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:14">
+    <row r="14" spans="6:14">
       <c r="F14" t="s">
         <v>33</v>
       </c>
@@ -1860,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:14">
+    <row r="15" spans="6:14">
       <c r="F15" t="s">
         <v>36</v>
       </c>
@@ -1889,7 +2492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:14">
+    <row r="16" spans="6:14">
       <c r="F16" t="s">
         <v>39</v>
       </c>
@@ -2557,9 +3160,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -2568,32 +3170,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:O47"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="L28" workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="56.19921875" customWidth="1"/>
-    <col min="7" max="7" width="18.19921875" customWidth="1"/>
-    <col min="8" max="8" width="27.796875" customWidth="1"/>
+    <col min="1" max="3" width="11.6" customWidth="1"/>
+    <col min="4" max="4" width="15.2" customWidth="1"/>
+    <col min="5" max="5" width="11.6" customWidth="1"/>
+    <col min="6" max="6" width="56.2" customWidth="1"/>
+    <col min="7" max="7" width="18.2" customWidth="1"/>
+    <col min="8" max="8" width="27.8" customWidth="1"/>
     <col min="9" max="9" width="66" customWidth="1"/>
-    <col min="10" max="10" width="22.59765625" customWidth="1"/>
-    <col min="11" max="11" width="47.59765625" customWidth="1"/>
-    <col min="12" max="12" width="25.796875" customWidth="1"/>
-    <col min="13" max="13" width="37.796875" customWidth="1"/>
+    <col min="10" max="10" width="22.6" customWidth="1"/>
+    <col min="11" max="11" width="47.6" customWidth="1"/>
+    <col min="12" max="12" width="25.8" customWidth="1"/>
+    <col min="13" max="13" width="37.8" customWidth="1"/>
     <col min="14" max="14" width="27" customWidth="1"/>
-    <col min="15" max="15" width="9.796875" customWidth="1"/>
-    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="15" max="15" width="9.8" customWidth="1"/>
+    <col min="16" max="1025" width="11.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:15" ht="12.75" customHeight="1">
+    <row r="7" customHeight="1" spans="4:15">
       <c r="D7" s="1" t="s">
         <v>108</v>
       </c>
@@ -2631,7 +3234,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="4:15" ht="12.75" customHeight="1">
+    <row r="8" customHeight="1" spans="6:15">
       <c r="F8" s="1" t="s">
         <v>116</v>
       </c>
@@ -2657,10 +3260,10 @@
         <v>13</v>
       </c>
       <c r="O8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="4:15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="6:15">
       <c r="F9" t="s">
         <v>121</v>
       </c>
@@ -2689,10 +3292,10 @@
         <v>125</v>
       </c>
       <c r="O9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="4:15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="6:15">
       <c r="F10" t="s">
         <v>126</v>
       </c>
@@ -2721,10 +3324,10 @@
         <v>129</v>
       </c>
       <c r="O10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="4:15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="6:15">
       <c r="F11" t="s">
         <v>130</v>
       </c>
@@ -2753,10 +3356,10 @@
         <v>133</v>
       </c>
       <c r="O11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="4:15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="6:15">
       <c r="F12" t="s">
         <v>134</v>
       </c>
@@ -2782,10 +3385,10 @@
         <v>138</v>
       </c>
       <c r="O12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="4:15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="6:15">
       <c r="F13" t="s">
         <v>139</v>
       </c>
@@ -2814,10 +3417,10 @@
         <v>142</v>
       </c>
       <c r="O13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="4:15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="6:15">
       <c r="F14" t="s">
         <v>143</v>
       </c>
@@ -2846,10 +3449,10 @@
         <v>146</v>
       </c>
       <c r="O14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="4:15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="6:15">
       <c r="F15" t="s">
         <v>147</v>
       </c>
@@ -2878,10 +3481,10 @@
         <v>150</v>
       </c>
       <c r="O15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="4:15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="6:15">
       <c r="F16" t="s">
         <v>151</v>
       </c>
@@ -2910,7 +3513,7 @@
         <v>154</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="6:15">
@@ -2939,7 +3542,7 @@
         <v>158</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="6:15">
@@ -2971,7 +3574,7 @@
         <v>162</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="6:15">
@@ -3003,7 +3606,7 @@
         <v>166</v>
       </c>
       <c r="O19">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="6:15">
@@ -3035,7 +3638,7 @@
         <v>170</v>
       </c>
       <c r="O20">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="6:15">
@@ -3067,7 +3670,7 @@
         <v>174</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="6:15">
@@ -3099,7 +3702,7 @@
         <v>178</v>
       </c>
       <c r="O22">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="6:15">
@@ -3131,7 +3734,7 @@
         <v>182</v>
       </c>
       <c r="O23">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="6:15">
@@ -3163,7 +3766,7 @@
         <v>186</v>
       </c>
       <c r="O24">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="6:15">
@@ -3192,7 +3795,7 @@
         <v>190</v>
       </c>
       <c r="O25">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="6:15">
@@ -3224,7 +3827,7 @@
         <v>194</v>
       </c>
       <c r="O26">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="6:15">
@@ -3256,7 +3859,7 @@
         <v>198</v>
       </c>
       <c r="O27">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="6:15">
@@ -3288,7 +3891,7 @@
         <v>202</v>
       </c>
       <c r="O28">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="6:15">
@@ -3320,7 +3923,7 @@
         <v>206</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="6:15">
@@ -3352,7 +3955,7 @@
         <v>210</v>
       </c>
       <c r="O30">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="6:15">
@@ -3384,7 +3987,7 @@
         <v>214</v>
       </c>
       <c r="O31">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="6:15">
@@ -3413,7 +4016,7 @@
         <v>218</v>
       </c>
       <c r="O32">
-        <v>7</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="6:15">
@@ -3442,7 +4045,7 @@
         <v>222</v>
       </c>
       <c r="O33">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="6:15">
@@ -3471,7 +4074,7 @@
         <v>226</v>
       </c>
       <c r="O34">
-        <v>9</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="6:15">
@@ -3535,7 +4138,7 @@
         <v>234</v>
       </c>
       <c r="O36">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="6:15">
@@ -3567,7 +4170,7 @@
         <v>238</v>
       </c>
       <c r="O37">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="6:15">
@@ -3599,7 +4202,7 @@
         <v>133</v>
       </c>
       <c r="O38">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="6:15">
@@ -3631,7 +4234,7 @@
         <v>245</v>
       </c>
       <c r="O39">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="6:15">
@@ -3663,7 +4266,7 @@
         <v>249</v>
       </c>
       <c r="O40">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="6:15">
@@ -3695,7 +4298,7 @@
         <v>253</v>
       </c>
       <c r="O41">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="6:15">
@@ -3727,7 +4330,7 @@
         <v>257</v>
       </c>
       <c r="O42">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="6:15">
@@ -3756,7 +4359,7 @@
         <v>261</v>
       </c>
       <c r="O43">
-        <v>6</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="6:15">
@@ -3788,7 +4391,7 @@
         <v>265</v>
       </c>
       <c r="O44">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="6:15">
@@ -3820,7 +4423,7 @@
         <v>269</v>
       </c>
       <c r="O45">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="6:15">
@@ -3849,7 +4452,7 @@
         <v>273</v>
       </c>
       <c r="O46">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="6:15">
@@ -3881,13 +4484,12 @@
         <v>277</v>
       </c>
       <c r="O47">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -3896,41 +4498,42 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786B14DF-DF88-B34D-A0E3-421049572596}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="54.796875" customWidth="1"/>
-    <col min="8" max="8" width="28.796875" customWidth="1"/>
+    <col min="7" max="7" width="54.8" customWidth="1"/>
+    <col min="8" max="8" width="28.8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>396</v>
+        <v>278</v>
       </c>
       <c r="E7" t="s">
-        <v>397</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>398</v>
+        <v>279</v>
       </c>
       <c r="G7" t="s">
-        <v>399</v>
+        <v>280</v>
       </c>
       <c r="H7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" spans="6:8">
       <c r="F8" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G8" t="s">
         <v>116</v>
@@ -3939,9 +4542,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="4:8">
+    <row r="9" spans="6:8">
       <c r="F9" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G9" t="s">
         <v>121</v>
@@ -3950,9 +4553,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="4:8">
+    <row r="10" spans="6:8">
       <c r="F10" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G10" t="s">
         <v>126</v>
@@ -3961,9 +4564,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="4:8">
+    <row r="11" spans="6:8">
       <c r="F11" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G11" t="s">
         <v>130</v>
@@ -3972,405 +4575,405 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="4:8">
+    <row r="12" spans="6:8">
       <c r="F12" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G12" t="s">
         <v>134</v>
       </c>
       <c r="H12" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" spans="6:8">
       <c r="F13" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G13" t="s">
         <v>139</v>
       </c>
       <c r="H13" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="6:8">
       <c r="F14" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G14" t="s">
         <v>143</v>
       </c>
       <c r="H14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="15" spans="6:8">
       <c r="F15" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G15" t="s">
         <v>147</v>
       </c>
       <c r="H15" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="16" spans="6:8">
       <c r="F16" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G16" t="s">
         <v>151</v>
       </c>
       <c r="H16" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G17" t="s">
         <v>155</v>
       </c>
       <c r="H17" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G18" t="s">
         <v>159</v>
       </c>
       <c r="H18" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G19" t="s">
         <v>163</v>
       </c>
       <c r="H19" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G20" t="s">
         <v>167</v>
       </c>
       <c r="H20" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G21" t="s">
         <v>171</v>
       </c>
       <c r="H21" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G22" t="s">
         <v>175</v>
       </c>
       <c r="H22" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G23" t="s">
         <v>179</v>
       </c>
       <c r="H23" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="6:8">
       <c r="F24" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G24" t="s">
         <v>183</v>
       </c>
       <c r="H24" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="6:8">
       <c r="F25" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G25" t="s">
         <v>187</v>
       </c>
       <c r="H25" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="6:8">
       <c r="F26" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G26" t="s">
         <v>191</v>
       </c>
       <c r="H26" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="6:8">
       <c r="F27" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G27" t="s">
         <v>195</v>
       </c>
       <c r="H27" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="6:8">
       <c r="F28" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G28" t="s">
         <v>199</v>
       </c>
       <c r="H28" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="6:8">
       <c r="F29" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G29" t="s">
         <v>203</v>
       </c>
       <c r="H29" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="6:8">
       <c r="F30" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G30" t="s">
         <v>207</v>
       </c>
       <c r="H30" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="6:8">
       <c r="F31" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G31" t="s">
         <v>211</v>
       </c>
       <c r="H31" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="6:8">
       <c r="F32" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G32" t="s">
         <v>215</v>
       </c>
       <c r="H32" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="6:8">
       <c r="F33" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G33" t="s">
         <v>219</v>
       </c>
       <c r="H33" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="6:8">
       <c r="F34" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G34" t="s">
         <v>223</v>
       </c>
       <c r="H34" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="6:8">
       <c r="F35" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G35" t="s">
         <v>227</v>
       </c>
       <c r="H35" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" spans="6:8">
       <c r="F36" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G36" t="s">
         <v>231</v>
       </c>
       <c r="H36" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="6:8">
       <c r="F37" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G37" t="s">
         <v>235</v>
       </c>
       <c r="H37" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="6:8">
       <c r="F38" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G38" t="s">
         <v>239</v>
       </c>
       <c r="H38" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="6:8">
       <c r="F39" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G39" t="s">
         <v>242</v>
       </c>
       <c r="H39" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="6:8">
       <c r="F40" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G40" t="s">
         <v>246</v>
       </c>
       <c r="H40" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="6:8">
       <c r="F41" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G41" t="s">
         <v>250</v>
       </c>
       <c r="H41" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="6:8">
       <c r="F42" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G42" t="s">
         <v>254</v>
       </c>
       <c r="H42" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="6:8">
       <c r="F43" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G43" t="s">
         <v>258</v>
       </c>
       <c r="H43" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="6:8">
       <c r="F44" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G44" t="s">
         <v>262</v>
       </c>
       <c r="H44" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" spans="6:8">
       <c r="F45" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G45" t="s">
         <v>266</v>
       </c>
       <c r="H45" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="6:8">
       <c r="F46" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G46" t="s">
         <v>270</v>
       </c>
       <c r="H46" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47" spans="6:8">
       <c r="F47" t="s">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="G47" t="s">
         <v>274</v>
       </c>
       <c r="H47" t="s">
-        <v>403</v>
+        <v>283</v>
       </c>
     </row>
     <row r="48" spans="6:8">
       <c r="F48" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G48" t="s">
         <v>134</v>
@@ -4381,7 +4984,7 @@
     </row>
     <row r="49" spans="6:8">
       <c r="F49" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G49" t="s">
         <v>139</v>
@@ -4392,7 +4995,7 @@
     </row>
     <row r="50" spans="6:8">
       <c r="F50" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G50" t="s">
         <v>143</v>
@@ -4403,7 +5006,7 @@
     </row>
     <row r="51" spans="6:8">
       <c r="F51" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G51" t="s">
         <v>147</v>
@@ -4414,7 +5017,7 @@
     </row>
     <row r="52" spans="6:8">
       <c r="F52" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G52" t="s">
         <v>151</v>
@@ -4425,7 +5028,7 @@
     </row>
     <row r="53" spans="6:8">
       <c r="F53" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G53" t="s">
         <v>155</v>
@@ -4436,7 +5039,7 @@
     </row>
     <row r="54" spans="6:8">
       <c r="F54" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G54" t="s">
         <v>159</v>
@@ -4447,7 +5050,7 @@
     </row>
     <row r="55" spans="6:8">
       <c r="F55" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G55" t="s">
         <v>163</v>
@@ -4458,7 +5061,7 @@
     </row>
     <row r="56" spans="6:8">
       <c r="F56" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G56" t="s">
         <v>167</v>
@@ -4469,7 +5072,7 @@
     </row>
     <row r="57" spans="6:8">
       <c r="F57" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G57" t="s">
         <v>171</v>
@@ -4480,7 +5083,7 @@
     </row>
     <row r="58" spans="6:8">
       <c r="F58" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G58" t="s">
         <v>175</v>
@@ -4491,7 +5094,7 @@
     </row>
     <row r="59" spans="6:8">
       <c r="F59" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G59" t="s">
         <v>179</v>
@@ -4502,7 +5105,7 @@
     </row>
     <row r="60" spans="6:8">
       <c r="F60" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G60" t="s">
         <v>183</v>
@@ -4513,7 +5116,7 @@
     </row>
     <row r="61" spans="6:8">
       <c r="F61" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G61" t="s">
         <v>187</v>
@@ -4524,7 +5127,7 @@
     </row>
     <row r="62" spans="6:8">
       <c r="F62" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G62" t="s">
         <v>191</v>
@@ -4535,7 +5138,7 @@
     </row>
     <row r="63" spans="6:8">
       <c r="F63" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G63" t="s">
         <v>195</v>
@@ -4546,7 +5149,7 @@
     </row>
     <row r="64" spans="6:8">
       <c r="F64" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G64" t="s">
         <v>199</v>
@@ -4557,7 +5160,7 @@
     </row>
     <row r="65" spans="6:8">
       <c r="F65" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G65" t="s">
         <v>203</v>
@@ -4568,7 +5171,7 @@
     </row>
     <row r="66" spans="6:8">
       <c r="F66" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G66" t="s">
         <v>207</v>
@@ -4579,7 +5182,7 @@
     </row>
     <row r="67" spans="6:8">
       <c r="F67" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G67" t="s">
         <v>211</v>
@@ -4590,7 +5193,7 @@
     </row>
     <row r="68" spans="6:8">
       <c r="F68" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G68" t="s">
         <v>215</v>
@@ -4601,7 +5204,7 @@
     </row>
     <row r="69" spans="6:8">
       <c r="F69" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G69" t="s">
         <v>219</v>
@@ -4612,7 +5215,7 @@
     </row>
     <row r="70" spans="6:8">
       <c r="F70" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G70" t="s">
         <v>223</v>
@@ -4623,7 +5226,7 @@
     </row>
     <row r="71" spans="6:8">
       <c r="F71" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G71" t="s">
         <v>227</v>
@@ -4634,7 +5237,7 @@
     </row>
     <row r="72" spans="6:8">
       <c r="F72" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G72" t="s">
         <v>231</v>
@@ -4645,7 +5248,7 @@
     </row>
     <row r="73" spans="6:8">
       <c r="F73" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G73" t="s">
         <v>235</v>
@@ -4656,7 +5259,7 @@
     </row>
     <row r="74" spans="6:8">
       <c r="F74" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G74" t="s">
         <v>239</v>
@@ -4667,7 +5270,7 @@
     </row>
     <row r="75" spans="6:8">
       <c r="F75" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G75" t="s">
         <v>242</v>
@@ -4678,7 +5281,7 @@
     </row>
     <row r="76" spans="6:8">
       <c r="F76" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G76" t="s">
         <v>246</v>
@@ -4689,7 +5292,7 @@
     </row>
     <row r="77" spans="6:8">
       <c r="F77" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G77" t="s">
         <v>250</v>
@@ -4700,7 +5303,7 @@
     </row>
     <row r="78" spans="6:8">
       <c r="F78" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G78" t="s">
         <v>254</v>
@@ -4711,7 +5314,7 @@
     </row>
     <row r="79" spans="6:8">
       <c r="F79" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G79" t="s">
         <v>258</v>
@@ -4722,7 +5325,7 @@
     </row>
     <row r="80" spans="6:8">
       <c r="F80" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G80" t="s">
         <v>262</v>
@@ -4733,7 +5336,7 @@
     </row>
     <row r="81" spans="6:8">
       <c r="F81" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G81" t="s">
         <v>266</v>
@@ -4744,7 +5347,7 @@
     </row>
     <row r="82" spans="6:8">
       <c r="F82" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G82" t="s">
         <v>270</v>
@@ -4755,7 +5358,7 @@
     </row>
     <row r="83" spans="6:8">
       <c r="F83" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="G83" t="s">
         <v>274</v>
@@ -4765,113 +5368,114 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:G161"/>
   <sheetViews>
     <sheetView topLeftCell="D112" workbookViewId="0">
       <selection activeCell="G169" sqref="G169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="23.796875" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="1" max="3" width="11.6" customWidth="1"/>
+    <col min="4" max="4" width="23.8" customWidth="1"/>
+    <col min="5" max="5" width="11.6" customWidth="1"/>
     <col min="6" max="6" width="82" customWidth="1"/>
-    <col min="7" max="7" width="85.19921875" customWidth="1"/>
-    <col min="8" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="7" max="7" width="85.2" customWidth="1"/>
+    <col min="8" max="1025" width="11.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="12.75" customHeight="1">
+    <row r="7" customHeight="1" spans="4:7">
       <c r="D7" s="1" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7" ht="12.75" customHeight="1">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="6:7">
       <c r="F8" t="s">
         <v>121</v>
       </c>
       <c r="G8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="9" spans="4:7">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7">
       <c r="F9" t="s">
         <v>121</v>
       </c>
       <c r="G9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="6:7">
       <c r="F10" t="s">
         <v>121</v>
       </c>
       <c r="G10" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="11" spans="4:7">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="6:7">
       <c r="F11" t="s">
         <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="12" spans="4:7">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="6:7">
       <c r="F12" t="s">
         <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="13" spans="4:7">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="6:7">
       <c r="F13" t="s">
         <v>139</v>
       </c>
       <c r="G13" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="14" spans="4:7">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="6:7">
       <c r="F14" t="s">
         <v>143</v>
       </c>
       <c r="G14" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="15" spans="4:7">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" spans="6:7">
       <c r="F15" t="s">
         <v>143</v>
       </c>
       <c r="G15" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="16" spans="4:7">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="6:7">
       <c r="F16" t="s">
         <v>147</v>
       </c>
       <c r="G16" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="6:7">
@@ -4879,7 +5483,7 @@
         <v>147</v>
       </c>
       <c r="G17" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="6:7">
@@ -4887,7 +5491,7 @@
         <v>147</v>
       </c>
       <c r="G18" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="6:7">
@@ -4895,7 +5499,7 @@
         <v>151</v>
       </c>
       <c r="G19" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="6:7">
@@ -4903,7 +5507,7 @@
         <v>151</v>
       </c>
       <c r="G20" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="6:7">
@@ -4911,7 +5515,7 @@
         <v>151</v>
       </c>
       <c r="G21" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="6:7">
@@ -4919,7 +5523,7 @@
         <v>151</v>
       </c>
       <c r="G22" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="23" spans="6:7">
@@ -4927,7 +5531,7 @@
         <v>151</v>
       </c>
       <c r="G23" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="6:7">
@@ -4935,7 +5539,7 @@
         <v>151</v>
       </c>
       <c r="G24" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="6:7">
@@ -4943,7 +5547,7 @@
         <v>159</v>
       </c>
       <c r="G25" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="6:7">
@@ -4951,7 +5555,7 @@
         <v>159</v>
       </c>
       <c r="G26" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="6:7">
@@ -4959,7 +5563,7 @@
         <v>159</v>
       </c>
       <c r="G27" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="6:7">
@@ -4967,7 +5571,7 @@
         <v>159</v>
       </c>
       <c r="G28" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="6:7">
@@ -4975,7 +5579,7 @@
         <v>159</v>
       </c>
       <c r="G29" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="6:7">
@@ -4983,7 +5587,7 @@
         <v>159</v>
       </c>
       <c r="G30" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="6:7">
@@ -4991,7 +5595,7 @@
         <v>163</v>
       </c>
       <c r="G31" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="6:7">
@@ -4999,7 +5603,7 @@
         <v>167</v>
       </c>
       <c r="G32" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="6:7">
@@ -5007,7 +5611,7 @@
         <v>167</v>
       </c>
       <c r="G33" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34" spans="6:7">
@@ -5015,7 +5619,7 @@
         <v>167</v>
       </c>
       <c r="G34" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35" spans="6:7">
@@ -5023,7 +5627,7 @@
         <v>167</v>
       </c>
       <c r="G35" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="6:7">
@@ -5031,7 +5635,7 @@
         <v>167</v>
       </c>
       <c r="G36" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="6:7">
@@ -5039,7 +5643,7 @@
         <v>171</v>
       </c>
       <c r="G37" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="6:7">
@@ -5047,7 +5651,7 @@
         <v>171</v>
       </c>
       <c r="G38" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="6:7">
@@ -5055,7 +5659,7 @@
         <v>171</v>
       </c>
       <c r="G39" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="6:7">
@@ -5063,7 +5667,7 @@
         <v>171</v>
       </c>
       <c r="G40" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41" spans="6:7">
@@ -5071,7 +5675,7 @@
         <v>171</v>
       </c>
       <c r="G41" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42" spans="6:7">
@@ -5079,7 +5683,7 @@
         <v>175</v>
       </c>
       <c r="G42" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="6:7">
@@ -5087,7 +5691,7 @@
         <v>175</v>
       </c>
       <c r="G43" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="6:7">
@@ -5095,7 +5699,7 @@
         <v>179</v>
       </c>
       <c r="G44" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="6:7">
@@ -5103,7 +5707,7 @@
         <v>179</v>
       </c>
       <c r="G45" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="6:7">
@@ -5111,7 +5715,7 @@
         <v>179</v>
       </c>
       <c r="G46" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47" spans="6:7">
@@ -5119,7 +5723,7 @@
         <v>183</v>
       </c>
       <c r="G47" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="6:7">
@@ -5127,7 +5731,7 @@
         <v>191</v>
       </c>
       <c r="G48" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="6:7">
@@ -5135,7 +5739,7 @@
         <v>191</v>
       </c>
       <c r="G49" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="6:7">
@@ -5143,7 +5747,7 @@
         <v>191</v>
       </c>
       <c r="G50" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51" spans="6:7">
@@ -5151,7 +5755,7 @@
         <v>191</v>
       </c>
       <c r="G51" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="52" spans="6:7">
@@ -5159,7 +5763,7 @@
         <v>191</v>
       </c>
       <c r="G52" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="53" spans="6:7">
@@ -5167,7 +5771,7 @@
         <v>191</v>
       </c>
       <c r="G53" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="6:7">
@@ -5175,7 +5779,7 @@
         <v>191</v>
       </c>
       <c r="G54" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="55" spans="6:7">
@@ -5183,7 +5787,7 @@
         <v>191</v>
       </c>
       <c r="G55" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="56" spans="6:7">
@@ -5191,7 +5795,7 @@
         <v>191</v>
       </c>
       <c r="G56" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57" spans="6:7">
@@ -5199,7 +5803,7 @@
         <v>191</v>
       </c>
       <c r="G57" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="58" spans="6:7">
@@ -5207,7 +5811,7 @@
         <v>191</v>
       </c>
       <c r="G58" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="59" spans="6:7">
@@ -5215,7 +5819,7 @@
         <v>191</v>
       </c>
       <c r="G59" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="60" spans="6:7">
@@ -5223,7 +5827,7 @@
         <v>191</v>
       </c>
       <c r="G60" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="61" spans="6:7">
@@ -5231,7 +5835,7 @@
         <v>191</v>
       </c>
       <c r="G61" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="62" spans="6:7">
@@ -5239,7 +5843,7 @@
         <v>191</v>
       </c>
       <c r="G62" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="63" spans="6:7">
@@ -5247,7 +5851,7 @@
         <v>191</v>
       </c>
       <c r="G63" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="64" spans="6:7">
@@ -5255,7 +5859,7 @@
         <v>191</v>
       </c>
       <c r="G64" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="65" spans="6:7">
@@ -5263,7 +5867,7 @@
         <v>191</v>
       </c>
       <c r="G65" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="66" spans="6:7">
@@ -5271,7 +5875,7 @@
         <v>191</v>
       </c>
       <c r="G66" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="67" spans="6:7">
@@ -5279,7 +5883,7 @@
         <v>191</v>
       </c>
       <c r="G67" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="68" spans="6:7">
@@ -5287,7 +5891,7 @@
         <v>191</v>
       </c>
       <c r="G68" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="69" spans="6:7">
@@ -5295,7 +5899,7 @@
         <v>191</v>
       </c>
       <c r="G69" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="70" spans="6:7">
@@ -5303,7 +5907,7 @@
         <v>191</v>
       </c>
       <c r="G70" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71" spans="6:7">
@@ -5311,7 +5915,7 @@
         <v>191</v>
       </c>
       <c r="G71" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="72" spans="6:7">
@@ -5319,7 +5923,7 @@
         <v>191</v>
       </c>
       <c r="G72" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73" spans="6:7">
@@ -5327,7 +5931,7 @@
         <v>191</v>
       </c>
       <c r="G73" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="74" spans="6:7">
@@ -5335,7 +5939,7 @@
         <v>195</v>
       </c>
       <c r="G74" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75" spans="6:7">
@@ -5343,7 +5947,7 @@
         <v>199</v>
       </c>
       <c r="G75" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="76" spans="6:7">
@@ -5351,7 +5955,7 @@
         <v>199</v>
       </c>
       <c r="G76" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="77" spans="6:7">
@@ -5359,7 +5963,7 @@
         <v>207</v>
       </c>
       <c r="G77" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="78" spans="6:7">
@@ -5367,7 +5971,7 @@
         <v>211</v>
       </c>
       <c r="G78" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="79" spans="6:7">
@@ -5375,7 +5979,7 @@
         <v>211</v>
       </c>
       <c r="G79" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="80" spans="6:7">
@@ -5383,7 +5987,7 @@
         <v>211</v>
       </c>
       <c r="G80" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="81" spans="6:7">
@@ -5391,7 +5995,7 @@
         <v>211</v>
       </c>
       <c r="G81" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="82" spans="6:7">
@@ -5399,7 +6003,7 @@
         <v>211</v>
       </c>
       <c r="G82" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="83" spans="6:7">
@@ -5407,7 +6011,7 @@
         <v>211</v>
       </c>
       <c r="G83" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="84" spans="6:7">
@@ -5415,7 +6019,7 @@
         <v>211</v>
       </c>
       <c r="G84" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="85" spans="6:7">
@@ -5423,7 +6027,7 @@
         <v>211</v>
       </c>
       <c r="G85" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="86" spans="6:7">
@@ -5431,7 +6035,7 @@
         <v>211</v>
       </c>
       <c r="G86" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="87" spans="6:7">
@@ -5439,7 +6043,7 @@
         <v>211</v>
       </c>
       <c r="G87" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="88" spans="6:7">
@@ -5447,7 +6051,7 @@
         <v>211</v>
       </c>
       <c r="G88" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="89" spans="6:7">
@@ -5455,7 +6059,7 @@
         <v>211</v>
       </c>
       <c r="G89" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="90" spans="6:7">
@@ -5463,7 +6067,7 @@
         <v>211</v>
       </c>
       <c r="G90" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="91" spans="6:7">
@@ -5471,7 +6075,7 @@
         <v>211</v>
       </c>
       <c r="G91" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="92" spans="6:7">
@@ -5479,7 +6083,7 @@
         <v>211</v>
       </c>
       <c r="G92" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="93" spans="6:7">
@@ -5487,7 +6091,7 @@
         <v>227</v>
       </c>
       <c r="G93" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="94" spans="6:7">
@@ -5495,7 +6099,7 @@
         <v>227</v>
       </c>
       <c r="G94" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="95" spans="6:7">
@@ -5503,7 +6107,7 @@
         <v>227</v>
       </c>
       <c r="G95" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="96" spans="6:7">
@@ -5511,7 +6115,7 @@
         <v>227</v>
       </c>
       <c r="G96" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="97" spans="6:7">
@@ -5519,7 +6123,7 @@
         <v>227</v>
       </c>
       <c r="G97" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="98" spans="6:7">
@@ -5527,7 +6131,7 @@
         <v>227</v>
       </c>
       <c r="G98" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="99" spans="6:7">
@@ -5535,7 +6139,7 @@
         <v>231</v>
       </c>
       <c r="G99" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="100" spans="6:7">
@@ -5543,7 +6147,7 @@
         <v>231</v>
       </c>
       <c r="G100" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="101" spans="6:7">
@@ -5551,7 +6155,7 @@
         <v>231</v>
       </c>
       <c r="G101" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="102" spans="6:7">
@@ -5559,7 +6163,7 @@
         <v>231</v>
       </c>
       <c r="G102" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="103" spans="6:7">
@@ -5567,7 +6171,7 @@
         <v>235</v>
       </c>
       <c r="G103" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="104" spans="6:7">
@@ -5575,7 +6179,7 @@
         <v>235</v>
       </c>
       <c r="G104" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="105" spans="6:7">
@@ -5583,7 +6187,7 @@
         <v>235</v>
       </c>
       <c r="G105" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="106" spans="6:7">
@@ -5591,7 +6195,7 @@
         <v>239</v>
       </c>
       <c r="G106" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="107" spans="6:7">
@@ -5599,7 +6203,7 @@
         <v>239</v>
       </c>
       <c r="G107" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="108" spans="6:7">
@@ -5607,7 +6211,7 @@
         <v>239</v>
       </c>
       <c r="G108" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="109" spans="6:7">
@@ -5615,7 +6219,7 @@
         <v>239</v>
       </c>
       <c r="G109" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="110" spans="6:7">
@@ -5623,7 +6227,7 @@
         <v>242</v>
       </c>
       <c r="G110" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="111" spans="6:7">
@@ -5631,7 +6235,7 @@
         <v>242</v>
       </c>
       <c r="G111" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="112" spans="6:7">
@@ -5639,7 +6243,7 @@
         <v>242</v>
       </c>
       <c r="G112" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="113" spans="6:7">
@@ -5647,7 +6251,7 @@
         <v>242</v>
       </c>
       <c r="G113" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="114" spans="6:7">
@@ -5655,7 +6259,7 @@
         <v>246</v>
       </c>
       <c r="G114" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="115" spans="6:7">
@@ -5663,7 +6267,7 @@
         <v>246</v>
       </c>
       <c r="G115" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="116" spans="6:7">
@@ -5671,7 +6275,7 @@
         <v>246</v>
       </c>
       <c r="G116" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="117" spans="6:7">
@@ -5679,7 +6283,7 @@
         <v>246</v>
       </c>
       <c r="G117" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="118" spans="6:7">
@@ -5687,7 +6291,7 @@
         <v>250</v>
       </c>
       <c r="G118" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="119" spans="6:7">
@@ -5695,7 +6299,7 @@
         <v>250</v>
       </c>
       <c r="G119" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="120" spans="6:7">
@@ -5703,7 +6307,7 @@
         <v>250</v>
       </c>
       <c r="G120" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="121" spans="6:7">
@@ -5711,7 +6315,7 @@
         <v>250</v>
       </c>
       <c r="G121" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="122" spans="6:7">
@@ -5719,7 +6323,7 @@
         <v>250</v>
       </c>
       <c r="G122" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="123" spans="6:7">
@@ -5727,7 +6331,7 @@
         <v>250</v>
       </c>
       <c r="G123" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="124" spans="6:7">
@@ -5735,7 +6339,7 @@
         <v>250</v>
       </c>
       <c r="G124" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="125" spans="6:7">
@@ -5743,7 +6347,7 @@
         <v>250</v>
       </c>
       <c r="G125" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="126" spans="6:7">
@@ -5751,7 +6355,7 @@
         <v>254</v>
       </c>
       <c r="G126" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="127" spans="6:7">
@@ -5759,7 +6363,7 @@
         <v>254</v>
       </c>
       <c r="G127" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="128" spans="6:7">
@@ -5767,7 +6371,7 @@
         <v>254</v>
       </c>
       <c r="G128" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="129" spans="6:7">
@@ -5775,7 +6379,7 @@
         <v>254</v>
       </c>
       <c r="G129" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="130" spans="6:7">
@@ -5783,7 +6387,7 @@
         <v>254</v>
       </c>
       <c r="G130" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="131" spans="6:7">
@@ -5791,7 +6395,7 @@
         <v>203</v>
       </c>
       <c r="G131" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="132" spans="6:7">
@@ -5799,7 +6403,7 @@
         <v>203</v>
       </c>
       <c r="G132" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="133" spans="6:7">
@@ -5807,7 +6411,7 @@
         <v>203</v>
       </c>
       <c r="G133" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="134" spans="6:7">
@@ -5815,7 +6419,7 @@
         <v>203</v>
       </c>
       <c r="G134" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="135" spans="6:7">
@@ -5823,7 +6427,7 @@
         <v>262</v>
       </c>
       <c r="G135" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="136" spans="6:7">
@@ -5831,7 +6435,7 @@
         <v>262</v>
       </c>
       <c r="G136" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="137" spans="6:7">
@@ -5839,7 +6443,7 @@
         <v>262</v>
       </c>
       <c r="G137" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="138" spans="6:7">
@@ -5847,7 +6451,7 @@
         <v>262</v>
       </c>
       <c r="G138" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="139" spans="6:7">
@@ -5855,7 +6459,7 @@
         <v>262</v>
       </c>
       <c r="G139" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="140" spans="6:7">
@@ -5863,7 +6467,7 @@
         <v>262</v>
       </c>
       <c r="G140" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="141" spans="6:7">
@@ -5871,7 +6475,7 @@
         <v>262</v>
       </c>
       <c r="G141" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="142" spans="6:7">
@@ -5879,7 +6483,7 @@
         <v>262</v>
       </c>
       <c r="G142" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="143" spans="6:7">
@@ -5887,7 +6491,7 @@
         <v>262</v>
       </c>
       <c r="G143" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="144" spans="6:7">
@@ -5895,7 +6499,7 @@
         <v>266</v>
       </c>
       <c r="G144" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="145" spans="6:7">
@@ -5903,7 +6507,7 @@
         <v>266</v>
       </c>
       <c r="G145" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="146" spans="6:7">
@@ -5911,7 +6515,7 @@
         <v>266</v>
       </c>
       <c r="G146" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="147" spans="6:7">
@@ -5919,7 +6523,7 @@
         <v>266</v>
       </c>
       <c r="G147" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="148" spans="6:7">
@@ -5927,7 +6531,7 @@
         <v>266</v>
       </c>
       <c r="G148" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="149" spans="6:7">
@@ -5935,7 +6539,7 @@
         <v>266</v>
       </c>
       <c r="G149" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="150" spans="6:7">
@@ -5943,7 +6547,7 @@
         <v>274</v>
       </c>
       <c r="G150" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="151" spans="6:7">
@@ -5951,7 +6555,7 @@
         <v>274</v>
       </c>
       <c r="G151" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="152" spans="6:7">
@@ -5959,7 +6563,7 @@
         <v>274</v>
       </c>
       <c r="G152" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="153" spans="6:7">
@@ -5967,7 +6571,7 @@
         <v>274</v>
       </c>
       <c r="G153" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="154" spans="6:7">
@@ -5975,7 +6579,7 @@
         <v>274</v>
       </c>
       <c r="G154" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="155" spans="6:7">
@@ -5983,7 +6587,7 @@
         <v>274</v>
       </c>
       <c r="G155" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="156" spans="6:7">
@@ -5991,7 +6595,7 @@
         <v>274</v>
       </c>
       <c r="G156" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="157" spans="6:7">
@@ -5999,7 +6603,7 @@
         <v>274</v>
       </c>
       <c r="G157" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="158" spans="6:7">
@@ -6007,7 +6611,7 @@
         <v>274</v>
       </c>
       <c r="G158" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="159" spans="6:7">
@@ -6015,7 +6619,7 @@
         <v>274</v>
       </c>
       <c r="G159" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="160" spans="6:7">
@@ -6023,7 +6627,7 @@
         <v>274</v>
       </c>
       <c r="G160" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="161" spans="6:7">
@@ -6031,13 +6635,12 @@
         <v>274</v>
       </c>
       <c r="G161" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongle/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22623C5-D61A-B342-A88C-347257F6BAF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
     <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
-    <sheet name="FD_CATEGORY_MENU" sheetId="4" r:id="rId3"/>
-    <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId4"/>
+    <sheet name="IAM_DASHBOARD" sheetId="5" r:id="rId3"/>
+    <sheet name="FD_CATEGORY_MENU" sheetId="4" r:id="rId4"/>
+    <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="412">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -343,899 +350,933 @@
     <t>DevOps报表路由</t>
   </si>
   <si>
+    <t>NAME:zh_CN</t>
+  </si>
+  <si>
+    <t>NAME:en_US</t>
+  </si>
+  <si>
+    <t>PAGE_PERMISSION_CODE</t>
+  </si>
+  <si>
+    <t>PARENT_CODE</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>ICON</t>
+  </si>
+  <si>
+    <t>SORT</t>
+  </si>
+  <si>
+    <t>choerodon.code.devops-management</t>
+  </si>
+  <si>
+    <t>DevOps管理</t>
+  </si>
+  <si>
+    <t>DevOps Management</t>
+  </si>
+  <si>
+    <t>choerodon.code.top.organization</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>choerodon.code.devops-management.application-template</t>
+  </si>
+  <si>
+    <t>应用模板</t>
+  </si>
+  <si>
+    <t>Application Template</t>
+  </si>
+  <si>
+    <t>menu_item</t>
+  </si>
+  <si>
+    <t>application_model</t>
+  </si>
+  <si>
+    <t>choerodon.code.devops-management.cluster</t>
+  </si>
+  <si>
+    <t>集群管理</t>
+  </si>
+  <si>
+    <t>Cluster Management</t>
+  </si>
+  <si>
+    <t>cluster</t>
+  </si>
+  <si>
+    <t>choerodon.code.devops-management.certificate-manage</t>
+  </si>
+  <si>
+    <t>证书管理</t>
+  </si>
+  <si>
+    <t>Certificate Management</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>choerodon.code.app-management</t>
+  </si>
+  <si>
+    <t>应用管理</t>
+  </si>
+  <si>
+    <t>Application Management</t>
+  </si>
+  <si>
+    <t>choerodon.code.top.project</t>
+  </si>
+  <si>
+    <t>apps</t>
+  </si>
+  <si>
+    <t>choerodon.code.app-management.application</t>
+  </si>
+  <si>
+    <t>应用</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>widgets</t>
+  </si>
+  <si>
+    <t>choerodon.code.app-management.application-version</t>
+  </si>
+  <si>
+    <t>应用版本</t>
+  </si>
+  <si>
+    <t>Application Version</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>choerodon.code.app-management.application-release</t>
+  </si>
+  <si>
+    <t>应用发布</t>
+  </si>
+  <si>
+    <t>Application Release</t>
+  </si>
+  <si>
+    <t>publish2</t>
+  </si>
+  <si>
+    <t>choerodon.code.app-management.application-market</t>
+  </si>
+  <si>
+    <t>应用市场</t>
+  </si>
+  <si>
+    <t>Application Market</t>
+  </si>
+  <si>
+    <t>appmarket</t>
+  </si>
+  <si>
+    <t>choerodon.code.development-pipeline</t>
+  </si>
+  <si>
+    <t>开发流水线</t>
+  </si>
+  <si>
+    <t>Development Pipeline</t>
+  </si>
+  <si>
+    <t>wrench</t>
+  </si>
+  <si>
+    <t>choerodon.code.development-pipeline.development-console</t>
+  </si>
+  <si>
+    <t>开发控制台</t>
+  </si>
+  <si>
+    <t>Development Console</t>
+  </si>
+  <si>
+    <t>develop_console</t>
+  </si>
+  <si>
+    <t>choerodon.code.development-pipeline.repository</t>
+  </si>
+  <si>
+    <t>代码仓库</t>
+  </si>
+  <si>
+    <t>Repository</t>
+  </si>
+  <si>
+    <t>account_balance</t>
+  </si>
+  <si>
+    <t>choerodon.code.development-pipeline.branch</t>
+  </si>
+  <si>
+    <t>分支</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>choerodon.code.development-pipeline.tag</t>
+  </si>
+  <si>
+    <t>标记</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>local_offer</t>
+  </si>
+  <si>
+    <t>choerodon.code.development-pipeline.merge-request</t>
+  </si>
+  <si>
+    <t>合并请求</t>
+  </si>
+  <si>
+    <t>Merge Request</t>
+  </si>
+  <si>
+    <t>merge_request</t>
+  </si>
+  <si>
+    <t>choerodon.code.development-pipeline.continuous-integration</t>
+  </si>
+  <si>
+    <t>持续集成</t>
+  </si>
+  <si>
+    <t>Continuous Integration</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>choerodon.code.development-pipeline.code-quality</t>
+  </si>
+  <si>
+    <t>代码质量</t>
+  </si>
+  <si>
+    <t>Code Quality</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline</t>
+  </si>
+  <si>
+    <t>部署流水线</t>
+  </si>
+  <si>
+    <t>Deployment Pipeline</t>
+  </si>
+  <si>
+    <t>cloud_upload</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.environment-overview</t>
+  </si>
+  <si>
+    <t>环境总览</t>
+  </si>
+  <si>
+    <t>Environment Overview</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.environment-pipeline</t>
+  </si>
+  <si>
+    <t>环境管理</t>
+  </si>
+  <si>
+    <t>Environment Management</t>
+  </si>
+  <si>
+    <t>data_usage</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.deployment-overview</t>
+  </si>
+  <si>
+    <t>部署总览</t>
+  </si>
+  <si>
+    <t>Deployment Overview</t>
+  </si>
+  <si>
+    <t>Operation-monitoring</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.deployment-config</t>
+  </si>
+  <si>
+    <t>部署配置</t>
+  </si>
+  <si>
+    <t>Deployment Config</t>
+  </si>
+  <si>
+    <t>cloud_done</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.application-deployment</t>
+  </si>
+  <si>
+    <t>应用部署</t>
+  </si>
+  <si>
+    <t>Application Deployment</t>
+  </si>
+  <si>
+    <t>jsfiddle</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.instance</t>
+  </si>
+  <si>
+    <t>实例</t>
+  </si>
+  <si>
+    <t>Instance</t>
+  </si>
+  <si>
+    <t>instance_outline</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.pipeline</t>
+  </si>
+  <si>
+    <t>流水线</t>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t>linear_scale</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.resource</t>
+  </si>
+  <si>
+    <t>资源</t>
+  </si>
+  <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.configuration</t>
+  </si>
+  <si>
+    <t>配置管理</t>
+  </si>
+  <si>
+    <t>Configuration Management</t>
+  </si>
+  <si>
+    <t>tune</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.service</t>
+  </si>
+  <si>
+    <t>网络</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>router</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.ingress</t>
+  </si>
+  <si>
+    <t>域名</t>
+  </si>
+  <si>
+    <t>Ingress</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.container</t>
+  </si>
+  <si>
+    <t>容器</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>kubernetes</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.certificate</t>
+  </si>
+  <si>
+    <t>证书</t>
+  </si>
+  <si>
+    <t>Certificate</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.config-map</t>
+  </si>
+  <si>
+    <t>配置映射</t>
+  </si>
+  <si>
+    <t>Config Map</t>
+  </si>
+  <si>
+    <t>compare_arrows</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.secret</t>
+  </si>
+  <si>
+    <t>密文</t>
+  </si>
+  <si>
+    <t>Secret</t>
+  </si>
+  <si>
+    <t>secret</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.pipeline-management</t>
+  </si>
+  <si>
+    <t>流水线管理</t>
+  </si>
+  <si>
+    <t>Pipeline Management</t>
+  </si>
+  <si>
+    <t>line_manage</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.pipeline-record</t>
+  </si>
+  <si>
+    <t>流水线执行总览</t>
+  </si>
+  <si>
+    <t>Pipeline Record</t>
+  </si>
+  <si>
+    <t>format_list_bulleted</t>
+  </si>
+  <si>
+    <t>choerodon.code.prosetting</t>
+  </si>
+  <si>
+    <t>项目设置</t>
+  </si>
+  <si>
+    <t>Project Manage</t>
+  </si>
+  <si>
+    <t>IAM</t>
+  </si>
+  <si>
+    <t>choerodon.code.prosetting.element-settings</t>
+  </si>
+  <si>
+    <t>组件设置</t>
+  </si>
+  <si>
+    <t>Element Setting</t>
+  </si>
+  <si>
+    <t>games</t>
+  </si>
+  <si>
+    <t>choerodon.code.prosetting.devops-notifications</t>
+  </si>
+  <si>
+    <t>通知设置</t>
+  </si>
+  <si>
+    <t>Notifications</t>
+  </si>
+  <si>
+    <t>notifications</t>
+  </si>
+  <si>
+    <t>choerodon.code.platform-reports</t>
+  </si>
+  <si>
+    <t>报表</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>bar_chart</t>
+  </si>
+  <si>
+    <t>choerodon.code.platform-reports.reports</t>
+  </si>
+  <si>
+    <t>DevOps报表</t>
+  </si>
+  <si>
+    <t>DevOps Report</t>
+  </si>
+  <si>
+    <t>devops_chart</t>
+  </si>
+  <si>
+    <t>FD_CATEGORY_MENU</t>
+  </si>
+  <si>
+    <t>#CATEGORY_CODE</t>
+  </si>
+  <si>
+    <t>#MENU_CODE</t>
+  </si>
+  <si>
+    <t>#RESOURCE_LEVEL</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>organization_project</t>
+  </si>
+  <si>
+    <t>AGILE</t>
+  </si>
+  <si>
+    <t>IAM_MENU_PERMISSION</t>
+  </si>
+  <si>
+    <t>#PERMISSION_CODE</t>
+  </si>
+  <si>
+    <t>devops-service.application-template.listByOrgId</t>
+  </si>
+  <si>
+    <t>devops-service.application-template.queryByAppTemplateId</t>
+  </si>
+  <si>
+    <t>devops-service.application-template.delete</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cluster.listCluster</t>
+  </si>
+  <si>
+    <t>devops-service.org-certification.listOrgCert</t>
+  </si>
+  <si>
+    <t>devops-service.application.create</t>
+  </si>
+  <si>
+    <t>devops-service.application.listByActive</t>
+  </si>
+  <si>
+    <t>devops-service.application-version.pageByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.application-market.create</t>
+  </si>
+  <si>
+    <t>devops-service.application-market.update</t>
+  </si>
+  <si>
+    <t>devops-service.application-market.updateVersions</t>
+  </si>
+  <si>
+    <t>devops-service.application-market.queryApp</t>
+  </si>
+  <si>
+    <t>devops-service.application-market.listAllApp</t>
+  </si>
+  <si>
+    <t>devops-service.application-market.uploadApps</t>
+  </si>
+  <si>
+    <t>devops-service.application-market.importApps</t>
+  </si>
+  <si>
+    <t>devops-service.application-market.deleteZip</t>
+  </si>
+  <si>
+    <t>devops-service.application-market.queryAppVersionReadme</t>
+  </si>
+  <si>
+    <t>devops-service.application.listCodeRepository</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.queryByAppId</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.listByAppId</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.getTagByPage</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.getMergeRequestList</t>
+  </si>
+  <si>
+    <t>devops-service.devops-gitlab-pipeline.pagePipeline</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.createBranch</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.delete</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.update</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.createTag</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.checkTag</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.deleteTag</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.getUrl</t>
+  </si>
+  <si>
+    <t>devops-service.project-pipeline.cancel</t>
+  </si>
+  <si>
+    <t>devops-service.project-pipeline.retry</t>
+  </si>
+  <si>
+    <t>devops-service.application.getSonarQube</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.listByAppId</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.listByAppInstanceId</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.queryValue</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.deploy</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.pageInstances</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.pageByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.listByAppVersionId</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.queryValues</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.listResources</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.listStages</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.delete</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.start</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.stop</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.listByEnv</t>
+  </si>
+  <si>
+    <t>devops-service.devops-env-file-error.page</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.listByProjectIdAndActive</t>
+  </si>
+  <si>
+    <t>devops-service.application.listByEnvIdAndStatus</t>
+  </si>
+  <si>
+    <t>devops-service.devops-service.create</t>
+  </si>
+  <si>
+    <t>devops-service.devops-service.checkName</t>
+  </si>
+  <si>
+    <t>devops-service.devops-service.query</t>
+  </si>
+  <si>
+    <t>devops-service.devops-service.update</t>
+  </si>
+  <si>
+    <t>devops-service.devops-service.delete</t>
+  </si>
+  <si>
+    <t>devops-service.devops-service.listByEnv</t>
+  </si>
+  <si>
+    <t>devops-service.devops-ingress.queryDomainId</t>
+  </si>
+  <si>
+    <t>devops-service.devops-ingress.delete</t>
+  </si>
+  <si>
+    <t>devops-service.devops-ingress.listByEnv</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.create</t>
+  </si>
+  <si>
+    <t>devops-service.application.listAll</t>
+  </si>
+  <si>
+    <t>devops-service.certification.getActiveByDomain</t>
+  </si>
+  <si>
+    <t>devops-service.devops-env-pod-container.queryLogByPod</t>
+  </si>
+  <si>
+    <t>devops-service.devops-env-pod-container.handleShellByPod</t>
+  </si>
+  <si>
+    <t>devops-service.devops-env-pod.pageByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.certification.listByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.certification.create</t>
+  </si>
+  <si>
+    <t>devops-service.certification.delete</t>
+  </si>
+  <si>
+    <t>devops-service.devops-config-map.create</t>
+  </si>
+  <si>
+    <t>devops-service.devops-config-map.query</t>
+  </si>
+  <si>
+    <t>devops-service.devops-config-map.delete</t>
+  </si>
+  <si>
+    <t>devops-service.devops-config-map.listByEnv</t>
+  </si>
+  <si>
+    <t>devops-service.devops-secret.createOrUpdate</t>
+  </si>
+  <si>
+    <t>devops-service.devops-secret.querySecret</t>
+  </si>
+  <si>
+    <t>devops-service.devops-secret.deleteSecret</t>
+  </si>
+  <si>
+    <t>devops-service.devops-secret.listByOption</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.create</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.update</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.listByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.updateIsEnabled</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.delete</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.execute</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.listRecords</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.checkDeploy</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.listPipelineDTO</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.getRecordById</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.retry</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.audit</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline-value.listByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline-value.queryById</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline-value.createOrUpdate</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline-value.delete</t>
+  </si>
+  <si>
+    <t>devops-service.devops-project-config.pageByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.devops-project-config.update</t>
+  </si>
+  <si>
+    <t>devops-service.devops-project-config.create</t>
+  </si>
+  <si>
+    <t>devops-service.devops-project-config.checkName</t>
+  </si>
+  <si>
+    <t>devops-service.application.checkHarbor</t>
+  </si>
+  <si>
+    <t>devops-service.application.checkChart</t>
+  </si>
+  <si>
+    <t>devops-service.devops-project-config.queryByPrimaryKey</t>
+  </si>
+  <si>
+    <t>devops-service.devops-project-config.deleteByProjectConfigId</t>
+  </si>
+  <si>
+    <t>devops-service.devops-project-config.checkIsUsed</t>
+  </si>
+  <si>
+    <t>devops-service.devops-notification.listByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.devops-notification.create</t>
+  </si>
+  <si>
+    <t>devops-service.devops-notification.update</t>
+  </si>
+  <si>
+    <t>devops-service.devops-notification.check</t>
+  </si>
+  <si>
+    <t>devops-service.devops-notification.queryById</t>
+  </si>
+  <si>
+    <t>devops-service.devops-notification.delete</t>
+  </si>
+  <si>
+    <t>devops-service.devops-gitlab-commit.getCommits</t>
+  </si>
+  <si>
+    <t>devops-service.devops-gitlab-commit.getRecordCommits</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.listDeployTime</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.pageDeployTimeDetail</t>
+  </si>
+  <si>
+    <t>devops-service.devops-gitlab-pipeline.listPipelineTime</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.listDeployFrequency</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.pageDeployFrequencyDetail</t>
+  </si>
+  <si>
+    <t>devops-service.devops-gitlab-pipeline.listPipelineFrequency</t>
+  </si>
+  <si>
     <t>IAM_MENU_B</t>
-  </si>
-  <si>
-    <t>NAME:zh_CN</t>
-  </si>
-  <si>
-    <t>NAME:en_US</t>
-  </si>
-  <si>
-    <t>PAGE_PERMISSION_CODE</t>
-  </si>
-  <si>
-    <t>PARENT_CODE</t>
-  </si>
-  <si>
-    <t>TYPE</t>
-  </si>
-  <si>
-    <t>ICON</t>
-  </si>
-  <si>
-    <t>SORT</t>
-  </si>
-  <si>
-    <t>choerodon.code.devops-management</t>
-  </si>
-  <si>
-    <t>DevOps管理</t>
-  </si>
-  <si>
-    <t>DevOps Management</t>
-  </si>
-  <si>
-    <t>choerodon.code.top.organization</t>
-  </si>
-  <si>
-    <t>menu</t>
-  </si>
-  <si>
-    <t>choerodon.code.devops-management.application-template</t>
-  </si>
-  <si>
-    <t>应用模板</t>
-  </si>
-  <si>
-    <t>Application Template</t>
-  </si>
-  <si>
-    <t>menu_item</t>
-  </si>
-  <si>
-    <t>application_model</t>
-  </si>
-  <si>
-    <t>choerodon.code.devops-management.cluster</t>
-  </si>
-  <si>
-    <t>集群管理</t>
-  </si>
-  <si>
-    <t>Cluster Management</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
-    <t>choerodon.code.devops-management.certificate-manage</t>
-  </si>
-  <si>
-    <t>证书管理</t>
-  </si>
-  <si>
-    <t>Certificate Management</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>choerodon.code.app-management</t>
-  </si>
-  <si>
-    <t>应用管理</t>
-  </si>
-  <si>
-    <t>Application Management</t>
-  </si>
-  <si>
-    <t>choerodon.code.top.project</t>
-  </si>
-  <si>
-    <t>apps</t>
-  </si>
-  <si>
-    <t>choerodon.code.app-management.application</t>
-  </si>
-  <si>
-    <t>应用</t>
-  </si>
-  <si>
-    <t>Application</t>
-  </si>
-  <si>
-    <t>widgets</t>
-  </si>
-  <si>
-    <t>choerodon.code.app-management.application-version</t>
-  </si>
-  <si>
-    <t>应用版本</t>
-  </si>
-  <si>
-    <t>Application Version</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>choerodon.code.app-management.application-release</t>
-  </si>
-  <si>
-    <t>应用发布</t>
-  </si>
-  <si>
-    <t>Application Release</t>
-  </si>
-  <si>
-    <t>publish2</t>
-  </si>
-  <si>
-    <t>choerodon.code.app-management.application-market</t>
-  </si>
-  <si>
-    <t>应用市场</t>
-  </si>
-  <si>
-    <t>Application Market</t>
-  </si>
-  <si>
-    <t>appmarket</t>
-  </si>
-  <si>
-    <t>choerodon.code.development-pipeline</t>
-  </si>
-  <si>
-    <t>开发流水线</t>
-  </si>
-  <si>
-    <t>Development Pipeline</t>
-  </si>
-  <si>
-    <t>wrench</t>
-  </si>
-  <si>
-    <t>choerodon.code.development-pipeline.development-console</t>
-  </si>
-  <si>
-    <t>开发控制台</t>
-  </si>
-  <si>
-    <t>Development Console</t>
-  </si>
-  <si>
-    <t>develop_console</t>
-  </si>
-  <si>
-    <t>choerodon.code.development-pipeline.repository</t>
-  </si>
-  <si>
-    <t>代码仓库</t>
-  </si>
-  <si>
-    <t>Repository</t>
-  </si>
-  <si>
-    <t>account_balance</t>
-  </si>
-  <si>
-    <t>choerodon.code.development-pipeline.branch</t>
-  </si>
-  <si>
-    <t>分支</t>
-  </si>
-  <si>
-    <t>Branch</t>
-  </si>
-  <si>
-    <t>branch</t>
-  </si>
-  <si>
-    <t>choerodon.code.development-pipeline.tag</t>
-  </si>
-  <si>
-    <t>标记</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>local_offer</t>
-  </si>
-  <si>
-    <t>choerodon.code.development-pipeline.merge-request</t>
-  </si>
-  <si>
-    <t>合并请求</t>
-  </si>
-  <si>
-    <t>Merge Request</t>
-  </si>
-  <si>
-    <t>merge_request</t>
-  </si>
-  <si>
-    <t>choerodon.code.development-pipeline.continuous-integration</t>
-  </si>
-  <si>
-    <t>持续集成</t>
-  </si>
-  <si>
-    <t>Continuous Integration</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>choerodon.code.development-pipeline.code-quality</t>
-  </si>
-  <si>
-    <t>代码质量</t>
-  </si>
-  <si>
-    <t>Code Quality</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline</t>
-  </si>
-  <si>
-    <t>部署流水线</t>
-  </si>
-  <si>
-    <t>Deployment Pipeline</t>
-  </si>
-  <si>
-    <t>cloud_upload</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.environment-overview</t>
-  </si>
-  <si>
-    <t>环境总览</t>
-  </si>
-  <si>
-    <t>Environment Overview</t>
-  </si>
-  <si>
-    <t>public</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.environment-pipeline</t>
-  </si>
-  <si>
-    <t>环境管理</t>
-  </si>
-  <si>
-    <t>Environment Management</t>
-  </si>
-  <si>
-    <t>data_usage</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.deployment-overview</t>
-  </si>
-  <si>
-    <t>部署总览</t>
-  </si>
-  <si>
-    <t>Deployment Overview</t>
-  </si>
-  <si>
-    <t>Operation-monitoring</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.deployment-config</t>
-  </si>
-  <si>
-    <t>部署配置</t>
-  </si>
-  <si>
-    <t>Deployment Config</t>
-  </si>
-  <si>
-    <t>cloud_done</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.application-deployment</t>
-  </si>
-  <si>
-    <t>应用部署</t>
-  </si>
-  <si>
-    <t>Application Deployment</t>
-  </si>
-  <si>
-    <t>jsfiddle</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.instance</t>
-  </si>
-  <si>
-    <t>实例</t>
-  </si>
-  <si>
-    <t>Instance</t>
-  </si>
-  <si>
-    <t>instance_outline</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.pipeline</t>
-  </si>
-  <si>
-    <t>流水线</t>
-  </si>
-  <si>
-    <t>Pipeline</t>
-  </si>
-  <si>
-    <t>linear_scale</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.resource</t>
-  </si>
-  <si>
-    <t>资源</t>
-  </si>
-  <si>
-    <t>Resource</t>
-  </si>
-  <si>
-    <t>database</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.configuration</t>
-  </si>
-  <si>
-    <t>配置管理</t>
-  </si>
-  <si>
-    <t>Configuration Management</t>
-  </si>
-  <si>
-    <t>tune</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.service</t>
-  </si>
-  <si>
-    <t>网络</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>router</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.ingress</t>
-  </si>
-  <si>
-    <t>域名</t>
-  </si>
-  <si>
-    <t>Ingress</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.container</t>
-  </si>
-  <si>
-    <t>容器</t>
-  </si>
-  <si>
-    <t>Container</t>
-  </si>
-  <si>
-    <t>kubernetes</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.certificate</t>
-  </si>
-  <si>
-    <t>证书</t>
-  </si>
-  <si>
-    <t>Certificate</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.config-map</t>
-  </si>
-  <si>
-    <t>配置映射</t>
-  </si>
-  <si>
-    <t>Config Map</t>
-  </si>
-  <si>
-    <t>compare_arrows</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.secret</t>
-  </si>
-  <si>
-    <t>密文</t>
-  </si>
-  <si>
-    <t>Secret</t>
-  </si>
-  <si>
-    <t>secret</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.pipeline-management</t>
-  </si>
-  <si>
-    <t>流水线管理</t>
-  </si>
-  <si>
-    <t>Pipeline Management</t>
-  </si>
-  <si>
-    <t>line_manage</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.pipeline-record</t>
-  </si>
-  <si>
-    <t>流水线执行总览</t>
-  </si>
-  <si>
-    <t>Pipeline Record</t>
-  </si>
-  <si>
-    <t>format_list_bulleted</t>
-  </si>
-  <si>
-    <t>choerodon.code.prosetting</t>
-  </si>
-  <si>
-    <t>项目设置</t>
-  </si>
-  <si>
-    <t>Project Manage</t>
-  </si>
-  <si>
-    <t>IAM</t>
-  </si>
-  <si>
-    <t>choerodon.code.prosetting.element-settings</t>
-  </si>
-  <si>
-    <t>组件设置</t>
-  </si>
-  <si>
-    <t>Element Setting</t>
-  </si>
-  <si>
-    <t>games</t>
-  </si>
-  <si>
-    <t>choerodon.code.prosetting.devops-notifications</t>
-  </si>
-  <si>
-    <t>通知设置</t>
-  </si>
-  <si>
-    <t>Notifications</t>
-  </si>
-  <si>
-    <t>notifications</t>
-  </si>
-  <si>
-    <t>choerodon.code.platform-reports</t>
-  </si>
-  <si>
-    <t>报表</t>
-  </si>
-  <si>
-    <t>Reports</t>
-  </si>
-  <si>
-    <t>bar_chart</t>
-  </si>
-  <si>
-    <t>choerodon.code.platform-reports.reports</t>
-  </si>
-  <si>
-    <t>DevOps报表</t>
-  </si>
-  <si>
-    <t>DevOps Report</t>
-  </si>
-  <si>
-    <t>devops_chart</t>
-  </si>
-  <si>
-    <t>FD_CATEGORY_MENU</t>
-  </si>
-  <si>
-    <t>#CATEGORY_CODE</t>
-  </si>
-  <si>
-    <t>#MENU_CODE</t>
-  </si>
-  <si>
-    <t>#RESOURCE_LEVEL</t>
-  </si>
-  <si>
-    <t>DEFAULT</t>
-  </si>
-  <si>
-    <t>organization_project</t>
-  </si>
-  <si>
-    <t>AGILE</t>
-  </si>
-  <si>
-    <t>IAM_MENU_PERMISSION</t>
-  </si>
-  <si>
-    <t>#PERMISSION_CODE</t>
-  </si>
-  <si>
-    <t>devops-service.application-template.listByOrgId</t>
-  </si>
-  <si>
-    <t>devops-service.application-template.queryByAppTemplateId</t>
-  </si>
-  <si>
-    <t>devops-service.application-template.delete</t>
-  </si>
-  <si>
-    <t>devops-service.devops-cluster.listCluster</t>
-  </si>
-  <si>
-    <t>devops-service.org-certification.listOrgCert</t>
-  </si>
-  <si>
-    <t>devops-service.application.create</t>
-  </si>
-  <si>
-    <t>devops-service.application.listByActive</t>
-  </si>
-  <si>
-    <t>devops-service.application-version.pageByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.application-market.create</t>
-  </si>
-  <si>
-    <t>devops-service.application-market.update</t>
-  </si>
-  <si>
-    <t>devops-service.application-market.updateVersions</t>
-  </si>
-  <si>
-    <t>devops-service.application-market.queryApp</t>
-  </si>
-  <si>
-    <t>devops-service.application-market.listAllApp</t>
-  </si>
-  <si>
-    <t>devops-service.application-market.uploadApps</t>
-  </si>
-  <si>
-    <t>devops-service.application-market.importApps</t>
-  </si>
-  <si>
-    <t>devops-service.application-market.deleteZip</t>
-  </si>
-  <si>
-    <t>devops-service.application-market.queryAppVersionReadme</t>
-  </si>
-  <si>
-    <t>devops-service.application.listCodeRepository</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.queryByAppId</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.listByAppId</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.getTagByPage</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.getMergeRequestList</t>
-  </si>
-  <si>
-    <t>devops-service.devops-gitlab-pipeline.pagePipeline</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.createBranch</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.delete</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.update</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.createTag</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.checkTag</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.deleteTag</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.getUrl</t>
-  </si>
-  <si>
-    <t>devops-service.project-pipeline.cancel</t>
-  </si>
-  <si>
-    <t>devops-service.project-pipeline.retry</t>
-  </si>
-  <si>
-    <t>devops-service.application.getSonarQube</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.listByAppId</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.listByAppInstanceId</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.queryValue</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.deploy</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.pageInstances</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.pageByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.listByAppVersionId</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.queryValues</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.listResources</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.listStages</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.delete</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.start</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.stop</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.listByEnv</t>
-  </si>
-  <si>
-    <t>devops-service.devops-env-file-error.page</t>
-  </si>
-  <si>
-    <t>devops-service.devops-environment.listByProjectIdAndActive</t>
-  </si>
-  <si>
-    <t>devops-service.application.listByEnvIdAndStatus</t>
-  </si>
-  <si>
-    <t>devops-service.devops-service.create</t>
-  </si>
-  <si>
-    <t>devops-service.devops-service.checkName</t>
-  </si>
-  <si>
-    <t>devops-service.devops-service.query</t>
-  </si>
-  <si>
-    <t>devops-service.devops-service.update</t>
-  </si>
-  <si>
-    <t>devops-service.devops-service.delete</t>
-  </si>
-  <si>
-    <t>devops-service.devops-service.listByEnv</t>
-  </si>
-  <si>
-    <t>devops-service.devops-ingress.queryDomainId</t>
-  </si>
-  <si>
-    <t>devops-service.devops-ingress.delete</t>
-  </si>
-  <si>
-    <t>devops-service.devops-ingress.listByEnv</t>
-  </si>
-  <si>
-    <t>devops-service.devops-environment.create</t>
-  </si>
-  <si>
-    <t>devops-service.application.listAll</t>
-  </si>
-  <si>
-    <t>devops-service.certification.getActiveByDomain</t>
-  </si>
-  <si>
-    <t>devops-service.devops-env-pod-container.queryLogByPod</t>
-  </si>
-  <si>
-    <t>devops-service.devops-env-pod-container.handleShellByPod</t>
-  </si>
-  <si>
-    <t>devops-service.devops-env-pod.pageByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.certification.listByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.certification.create</t>
-  </si>
-  <si>
-    <t>devops-service.certification.delete</t>
-  </si>
-  <si>
-    <t>devops-service.devops-config-map.create</t>
-  </si>
-  <si>
-    <t>devops-service.devops-config-map.query</t>
-  </si>
-  <si>
-    <t>devops-service.devops-config-map.delete</t>
-  </si>
-  <si>
-    <t>devops-service.devops-config-map.listByEnv</t>
-  </si>
-  <si>
-    <t>devops-service.devops-secret.createOrUpdate</t>
-  </si>
-  <si>
-    <t>devops-service.devops-secret.querySecret</t>
-  </si>
-  <si>
-    <t>devops-service.devops-secret.deleteSecret</t>
-  </si>
-  <si>
-    <t>devops-service.devops-secret.listByOption</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline.create</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline.update</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline.listByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline.updateIsEnabled</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline.delete</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline.execute</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline.listRecords</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline.checkDeploy</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline.listPipelineDTO</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline.getRecordById</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline.retry</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline.audit</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline-value.listByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline-value.queryById</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline-value.createOrUpdate</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline-value.delete</t>
-  </si>
-  <si>
-    <t>devops-service.devops-project-config.pageByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.devops-project-config.update</t>
-  </si>
-  <si>
-    <t>devops-service.devops-project-config.create</t>
-  </si>
-  <si>
-    <t>devops-service.devops-project-config.checkName</t>
-  </si>
-  <si>
-    <t>devops-service.application.checkHarbor</t>
-  </si>
-  <si>
-    <t>devops-service.application.checkChart</t>
-  </si>
-  <si>
-    <t>devops-service.devops-project-config.queryByPrimaryKey</t>
-  </si>
-  <si>
-    <t>devops-service.devops-project-config.deleteByProjectConfigId</t>
-  </si>
-  <si>
-    <t>devops-service.devops-project-config.checkIsUsed</t>
-  </si>
-  <si>
-    <t>devops-service.devops-notification.listByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.devops-notification.create</t>
-  </si>
-  <si>
-    <t>devops-service.devops-notification.update</t>
-  </si>
-  <si>
-    <t>devops-service.devops-notification.check</t>
-  </si>
-  <si>
-    <t>devops-service.devops-notification.queryById</t>
-  </si>
-  <si>
-    <t>devops-service.devops-notification.delete</t>
-  </si>
-  <si>
-    <t>devops-service.devops-gitlab-commit.getCommits</t>
-  </si>
-  <si>
-    <t>devops-service.devops-gitlab-commit.getRecordCommits</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.listDeployTime</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.pageDeployTimeDetail</t>
-  </si>
-  <si>
-    <t>devops-service.devops-gitlab-pipeline.listPipelineTime</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.listDeployFrequency</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.pageDeployFrequencyDetail</t>
-  </si>
-  <si>
-    <t>devops-service.devops-gitlab-pipeline.listPipelineFrequency</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAM_DASHBOARD</t>
+  </si>
+  <si>
+    <t>#CODE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DevOpsCommit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DevOpsBuild</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DevOpsDeploy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DevOpsBranch</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DevOpsAppDep</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DevopsDoc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$DEL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1249,355 +1290,24 @@
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1605,312 +1315,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2195,37 +1619,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D7:N38"/>
   <sheetViews>
-    <sheetView zoomScale="131" zoomScaleNormal="131" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="3" width="11.6" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.6" customWidth="1"/>
-    <col min="6" max="6" width="65.8" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="65.796875" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="28.8" customWidth="1"/>
+    <col min="10" max="10" width="28.796875" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="29.2" customWidth="1"/>
-    <col min="14" max="14" width="19.4" customWidth="1"/>
+    <col min="13" max="13" width="29.19921875" customWidth="1"/>
+    <col min="14" max="14" width="19.3984375" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.6" customWidth="1"/>
+    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:14">
+    <row r="7" spans="4:14" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2260,7 +1684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="6:14">
+    <row r="8" spans="4:14" ht="12.75" customHeight="1">
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2289,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="6:14">
+    <row r="9" spans="4:14">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -2318,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="6:14">
+    <row r="10" spans="4:14">
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -2347,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="6:14">
+    <row r="11" spans="4:14">
       <c r="F11" t="s">
         <v>23</v>
       </c>
@@ -2376,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="6:14">
+    <row r="12" spans="4:14">
       <c r="F12" t="s">
         <v>27</v>
       </c>
@@ -2405,7 +1829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="6:14">
+    <row r="13" spans="4:14">
       <c r="F13" t="s">
         <v>30</v>
       </c>
@@ -2434,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="6:14">
+    <row r="14" spans="4:14">
       <c r="F14" t="s">
         <v>33</v>
       </c>
@@ -2463,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="6:14">
+    <row r="15" spans="4:14">
       <c r="F15" t="s">
         <v>36</v>
       </c>
@@ -2492,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="6:14">
+    <row r="16" spans="4:14">
       <c r="F16" t="s">
         <v>39</v>
       </c>
@@ -3160,8 +2584,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -3170,35 +2595,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="D7:O47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="D5:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="L28" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="3" width="11.6" customWidth="1"/>
-    <col min="4" max="4" width="15.2" customWidth="1"/>
-    <col min="5" max="5" width="11.6" customWidth="1"/>
-    <col min="6" max="6" width="56.2" customWidth="1"/>
-    <col min="7" max="7" width="18.2" customWidth="1"/>
-    <col min="8" max="8" width="27.8" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="6" max="6" width="56.19921875" customWidth="1"/>
+    <col min="7" max="7" width="18.19921875" customWidth="1"/>
+    <col min="8" max="8" width="27.796875" customWidth="1"/>
     <col min="9" max="9" width="66" customWidth="1"/>
-    <col min="10" max="10" width="22.6" customWidth="1"/>
-    <col min="11" max="11" width="47.6" customWidth="1"/>
-    <col min="12" max="12" width="25.8" customWidth="1"/>
-    <col min="13" max="13" width="37.8" customWidth="1"/>
+    <col min="10" max="10" width="22.59765625" customWidth="1"/>
+    <col min="11" max="11" width="47.59765625" customWidth="1"/>
+    <col min="12" max="12" width="25.796875" customWidth="1"/>
+    <col min="13" max="13" width="37.796875" customWidth="1"/>
     <col min="14" max="14" width="27" customWidth="1"/>
-    <col min="15" max="15" width="9.8" customWidth="1"/>
-    <col min="16" max="1025" width="11.6" customWidth="1"/>
+    <col min="15" max="15" width="9.796875" customWidth="1"/>
+    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:15">
+    <row r="5" spans="4:15" ht="11" customHeight="1"/>
+    <row r="6" spans="4:15" hidden="1"/>
+    <row r="7" spans="4:15" ht="24" customHeight="1">
       <c r="D7" s="1" t="s">
-        <v>108</v>
+        <v>401</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -3207,54 +2633,54 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="N7" t="s">
         <v>113</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>114</v>
       </c>
-      <c r="O7" t="s">
+    </row>
+    <row r="8" spans="4:15" ht="12.75" customHeight="1">
+      <c r="F8" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="6:15">
-      <c r="F8" s="1" t="s">
+      <c r="G8" t="s">
         <v>116</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="J8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
         <v>118</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" t="s">
-        <v>119</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="N8" t="s">
         <v>13</v>
@@ -3263,15 +2689,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="6:15">
+    <row r="9" spans="4:15">
       <c r="F9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" t="s">
         <v>121</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>122</v>
-      </c>
-      <c r="H9" t="s">
-        <v>123</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -3280,30 +2706,30 @@
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s">
         <v>14</v>
       </c>
       <c r="M9" t="s">
+        <v>123</v>
+      </c>
+      <c r="N9" t="s">
         <v>124</v>
-      </c>
-      <c r="N9" t="s">
-        <v>125</v>
       </c>
       <c r="O9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="6:15">
+    <row r="10" spans="4:15">
       <c r="F10" t="s">
+        <v>125</v>
+      </c>
+      <c r="G10" t="s">
         <v>126</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>127</v>
-      </c>
-      <c r="H10" t="s">
-        <v>128</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -3312,30 +2738,30 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
         <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O10">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="6:15">
+    <row r="11" spans="4:15">
       <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
         <v>130</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>131</v>
-      </c>
-      <c r="H11" t="s">
-        <v>132</v>
       </c>
       <c r="I11" t="s">
         <v>20</v>
@@ -3344,59 +2770,59 @@
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s">
         <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O11">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="6:15">
+    <row r="12" spans="4:15">
       <c r="F12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" t="s">
         <v>134</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>135</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s">
         <v>136</v>
       </c>
-      <c r="J12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" t="s">
+        <v>119</v>
+      </c>
+      <c r="N12" t="s">
         <v>137</v>
-      </c>
-      <c r="L12" t="s">
-        <v>25</v>
-      </c>
-      <c r="M12" t="s">
-        <v>120</v>
-      </c>
-      <c r="N12" t="s">
-        <v>138</v>
       </c>
       <c r="O12">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="6:15">
+    <row r="13" spans="4:15">
       <c r="F13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" t="s">
         <v>139</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>140</v>
-      </c>
-      <c r="H13" t="s">
-        <v>141</v>
       </c>
       <c r="I13" t="s">
         <v>23</v>
@@ -3405,30 +2831,30 @@
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s">
         <v>25</v>
       </c>
       <c r="M13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="6:15">
+    <row r="14" spans="4:15">
       <c r="F14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" t="s">
         <v>143</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>144</v>
-      </c>
-      <c r="H14" t="s">
-        <v>145</v>
       </c>
       <c r="I14" t="s">
         <v>27</v>
@@ -3437,30 +2863,30 @@
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s">
         <v>25</v>
       </c>
       <c r="M14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O14">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="6:15">
+    <row r="15" spans="4:15">
       <c r="F15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" t="s">
         <v>147</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>148</v>
-      </c>
-      <c r="H15" t="s">
-        <v>149</v>
       </c>
       <c r="I15" t="s">
         <v>30</v>
@@ -3469,30 +2895,30 @@
         <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s">
         <v>25</v>
       </c>
       <c r="M15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O15">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="6:15">
+    <row r="16" spans="4:15">
       <c r="F16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" t="s">
         <v>151</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>152</v>
-      </c>
-      <c r="H16" t="s">
-        <v>153</v>
       </c>
       <c r="I16" t="s">
         <v>33</v>
@@ -3501,16 +2927,16 @@
         <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s">
         <v>25</v>
       </c>
       <c r="M16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O16">
         <v>40</v>
@@ -3518,28 +2944,28 @@
     </row>
     <row r="17" spans="6:15">
       <c r="F17" t="s">
+        <v>154</v>
+      </c>
+      <c r="G17" t="s">
         <v>155</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>156</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" t="s">
+        <v>136</v>
+      </c>
+      <c r="L17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" t="s">
+        <v>119</v>
+      </c>
+      <c r="N17" t="s">
         <v>157</v>
-      </c>
-      <c r="J17" t="s">
-        <v>13</v>
-      </c>
-      <c r="K17" t="s">
-        <v>137</v>
-      </c>
-      <c r="L17" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" t="s">
-        <v>120</v>
-      </c>
-      <c r="N17" t="s">
-        <v>158</v>
       </c>
       <c r="O17">
         <v>30</v>
@@ -3547,13 +2973,13 @@
     </row>
     <row r="18" spans="6:15">
       <c r="F18" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" t="s">
         <v>159</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>160</v>
-      </c>
-      <c r="H18" t="s">
-        <v>161</v>
       </c>
       <c r="I18" t="s">
         <v>36</v>
@@ -3562,16 +2988,16 @@
         <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L18" t="s">
         <v>25</v>
       </c>
       <c r="M18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O18">
         <v>10</v>
@@ -3579,13 +3005,13 @@
     </row>
     <row r="19" spans="6:15">
       <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s">
         <v>163</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>164</v>
-      </c>
-      <c r="H19" t="s">
-        <v>165</v>
       </c>
       <c r="I19" t="s">
         <v>39</v>
@@ -3594,16 +3020,16 @@
         <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L19" t="s">
         <v>25</v>
       </c>
       <c r="M19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O19">
         <v>20</v>
@@ -3611,13 +3037,13 @@
     </row>
     <row r="20" spans="6:15">
       <c r="F20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" t="s">
         <v>167</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>168</v>
-      </c>
-      <c r="H20" t="s">
-        <v>169</v>
       </c>
       <c r="I20" t="s">
         <v>42</v>
@@ -3626,16 +3052,16 @@
         <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L20" t="s">
         <v>25</v>
       </c>
       <c r="M20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O20">
         <v>30</v>
@@ -3643,13 +3069,13 @@
     </row>
     <row r="21" spans="6:15">
       <c r="F21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" t="s">
         <v>171</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>172</v>
-      </c>
-      <c r="H21" t="s">
-        <v>173</v>
       </c>
       <c r="I21" t="s">
         <v>45</v>
@@ -3658,16 +3084,16 @@
         <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L21" t="s">
         <v>25</v>
       </c>
       <c r="M21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O21">
         <v>40</v>
@@ -3675,13 +3101,13 @@
     </row>
     <row r="22" spans="6:15">
       <c r="F22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" t="s">
         <v>175</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>176</v>
-      </c>
-      <c r="H22" t="s">
-        <v>177</v>
       </c>
       <c r="I22" t="s">
         <v>48</v>
@@ -3690,16 +3116,16 @@
         <v>13</v>
       </c>
       <c r="K22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L22" t="s">
         <v>25</v>
       </c>
       <c r="M22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O22">
         <v>50</v>
@@ -3707,13 +3133,13 @@
     </row>
     <row r="23" spans="6:15">
       <c r="F23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" t="s">
         <v>179</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>180</v>
-      </c>
-      <c r="H23" t="s">
-        <v>181</v>
       </c>
       <c r="I23" t="s">
         <v>51</v>
@@ -3722,16 +3148,16 @@
         <v>13</v>
       </c>
       <c r="K23" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L23" t="s">
         <v>25</v>
       </c>
       <c r="M23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="O23">
         <v>60</v>
@@ -3739,13 +3165,13 @@
     </row>
     <row r="24" spans="6:15">
       <c r="F24" t="s">
+        <v>182</v>
+      </c>
+      <c r="G24" t="s">
         <v>183</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>184</v>
-      </c>
-      <c r="H24" t="s">
-        <v>185</v>
       </c>
       <c r="I24" t="s">
         <v>54</v>
@@ -3754,16 +3180,16 @@
         <v>13</v>
       </c>
       <c r="K24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="L24" t="s">
         <v>25</v>
       </c>
       <c r="M24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O24">
         <v>70</v>
@@ -3771,28 +3197,28 @@
     </row>
     <row r="25" spans="6:15">
       <c r="F25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" t="s">
         <v>187</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>188</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J25" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" t="s">
+        <v>136</v>
+      </c>
+      <c r="L25" t="s">
+        <v>25</v>
+      </c>
+      <c r="M25" t="s">
+        <v>119</v>
+      </c>
+      <c r="N25" t="s">
         <v>189</v>
-      </c>
-      <c r="J25" t="s">
-        <v>13</v>
-      </c>
-      <c r="K25" t="s">
-        <v>137</v>
-      </c>
-      <c r="L25" t="s">
-        <v>25</v>
-      </c>
-      <c r="M25" t="s">
-        <v>120</v>
-      </c>
-      <c r="N25" t="s">
-        <v>190</v>
       </c>
       <c r="O25">
         <v>40</v>
@@ -3800,13 +3226,13 @@
     </row>
     <row r="26" spans="6:15">
       <c r="F26" t="s">
+        <v>190</v>
+      </c>
+      <c r="G26" t="s">
         <v>191</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>192</v>
-      </c>
-      <c r="H26" t="s">
-        <v>193</v>
       </c>
       <c r="I26" t="s">
         <v>57</v>
@@ -3815,16 +3241,16 @@
         <v>13</v>
       </c>
       <c r="K26" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L26" t="s">
         <v>25</v>
       </c>
       <c r="M26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N26" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O26">
         <v>10</v>
@@ -3832,13 +3258,13 @@
     </row>
     <row r="27" spans="6:15">
       <c r="F27" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" t="s">
         <v>195</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>196</v>
-      </c>
-      <c r="H27" t="s">
-        <v>197</v>
       </c>
       <c r="I27" t="s">
         <v>60</v>
@@ -3847,16 +3273,16 @@
         <v>13</v>
       </c>
       <c r="K27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L27" t="s">
         <v>25</v>
       </c>
       <c r="M27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O27">
         <v>20</v>
@@ -3864,13 +3290,13 @@
     </row>
     <row r="28" spans="6:15">
       <c r="F28" t="s">
+        <v>198</v>
+      </c>
+      <c r="G28" t="s">
         <v>199</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>200</v>
-      </c>
-      <c r="H28" t="s">
-        <v>201</v>
       </c>
       <c r="I28" t="s">
         <v>63</v>
@@ -3879,16 +3305,16 @@
         <v>13</v>
       </c>
       <c r="K28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L28" t="s">
         <v>25</v>
       </c>
       <c r="M28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O28">
         <v>30</v>
@@ -3896,13 +3322,13 @@
     </row>
     <row r="29" spans="6:15">
       <c r="F29" t="s">
+        <v>202</v>
+      </c>
+      <c r="G29" t="s">
         <v>203</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>204</v>
-      </c>
-      <c r="H29" t="s">
-        <v>205</v>
       </c>
       <c r="I29" t="s">
         <v>96</v>
@@ -3911,16 +3337,16 @@
         <v>13</v>
       </c>
       <c r="K29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L29" t="s">
         <v>25</v>
       </c>
       <c r="M29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N29" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O29">
         <v>40</v>
@@ -3928,13 +3354,13 @@
     </row>
     <row r="30" spans="6:15">
       <c r="F30" t="s">
+        <v>206</v>
+      </c>
+      <c r="G30" t="s">
         <v>207</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>208</v>
-      </c>
-      <c r="H30" t="s">
-        <v>209</v>
       </c>
       <c r="I30" t="s">
         <v>66</v>
@@ -3943,16 +3369,16 @@
         <v>13</v>
       </c>
       <c r="K30" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L30" t="s">
         <v>25</v>
       </c>
       <c r="M30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O30">
         <v>50</v>
@@ -3960,13 +3386,13 @@
     </row>
     <row r="31" spans="6:15">
       <c r="F31" t="s">
+        <v>210</v>
+      </c>
+      <c r="G31" t="s">
         <v>211</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>212</v>
-      </c>
-      <c r="H31" t="s">
-        <v>213</v>
       </c>
       <c r="I31" t="s">
         <v>69</v>
@@ -3975,16 +3401,16 @@
         <v>13</v>
       </c>
       <c r="K31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L31" t="s">
         <v>25</v>
       </c>
       <c r="M31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O31">
         <v>60</v>
@@ -3992,28 +3418,28 @@
     </row>
     <row r="32" spans="6:15">
       <c r="F32" t="s">
+        <v>214</v>
+      </c>
+      <c r="G32" t="s">
         <v>215</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>216</v>
       </c>
-      <c r="H32" t="s">
+      <c r="J32" t="s">
+        <v>13</v>
+      </c>
+      <c r="K32" t="s">
+        <v>186</v>
+      </c>
+      <c r="L32" t="s">
+        <v>25</v>
+      </c>
+      <c r="M32" t="s">
+        <v>119</v>
+      </c>
+      <c r="N32" t="s">
         <v>217</v>
-      </c>
-      <c r="J32" t="s">
-        <v>13</v>
-      </c>
-      <c r="K32" t="s">
-        <v>187</v>
-      </c>
-      <c r="L32" t="s">
-        <v>25</v>
-      </c>
-      <c r="M32" t="s">
-        <v>120</v>
-      </c>
-      <c r="N32" t="s">
-        <v>218</v>
       </c>
       <c r="O32">
         <v>70</v>
@@ -4021,28 +3447,28 @@
     </row>
     <row r="33" spans="6:15">
       <c r="F33" t="s">
+        <v>218</v>
+      </c>
+      <c r="G33" t="s">
         <v>219</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>220</v>
       </c>
-      <c r="H33" t="s">
+      <c r="J33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" t="s">
+        <v>186</v>
+      </c>
+      <c r="L33" t="s">
+        <v>25</v>
+      </c>
+      <c r="M33" t="s">
+        <v>119</v>
+      </c>
+      <c r="N33" t="s">
         <v>221</v>
-      </c>
-      <c r="J33" t="s">
-        <v>13</v>
-      </c>
-      <c r="K33" t="s">
-        <v>187</v>
-      </c>
-      <c r="L33" t="s">
-        <v>25</v>
-      </c>
-      <c r="M33" t="s">
-        <v>120</v>
-      </c>
-      <c r="N33" t="s">
-        <v>222</v>
       </c>
       <c r="O33">
         <v>80</v>
@@ -4050,28 +3476,28 @@
     </row>
     <row r="34" spans="6:15">
       <c r="F34" t="s">
+        <v>222</v>
+      </c>
+      <c r="G34" t="s">
         <v>223</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>224</v>
       </c>
-      <c r="H34" t="s">
+      <c r="J34" t="s">
+        <v>13</v>
+      </c>
+      <c r="K34" t="s">
+        <v>186</v>
+      </c>
+      <c r="L34" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" t="s">
+        <v>119</v>
+      </c>
+      <c r="N34" t="s">
         <v>225</v>
-      </c>
-      <c r="J34" t="s">
-        <v>13</v>
-      </c>
-      <c r="K34" t="s">
-        <v>187</v>
-      </c>
-      <c r="L34" t="s">
-        <v>25</v>
-      </c>
-      <c r="M34" t="s">
-        <v>120</v>
-      </c>
-      <c r="N34" t="s">
-        <v>226</v>
       </c>
       <c r="O34">
         <v>90</v>
@@ -4079,13 +3505,13 @@
     </row>
     <row r="35" spans="6:15">
       <c r="F35" t="s">
+        <v>226</v>
+      </c>
+      <c r="G35" t="s">
         <v>227</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>228</v>
-      </c>
-      <c r="H35" t="s">
-        <v>229</v>
       </c>
       <c r="I35" t="s">
         <v>72</v>
@@ -4094,16 +3520,16 @@
         <v>13</v>
       </c>
       <c r="K35" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L35" t="s">
         <v>25</v>
       </c>
       <c r="M35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O35">
         <v>10</v>
@@ -4111,13 +3537,13 @@
     </row>
     <row r="36" spans="6:15">
       <c r="F36" t="s">
+        <v>230</v>
+      </c>
+      <c r="G36" t="s">
         <v>231</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>232</v>
-      </c>
-      <c r="H36" t="s">
-        <v>233</v>
       </c>
       <c r="I36" t="s">
         <v>75</v>
@@ -4126,16 +3552,16 @@
         <v>13</v>
       </c>
       <c r="K36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L36" t="s">
         <v>25</v>
       </c>
       <c r="M36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O36">
         <v>20</v>
@@ -4143,13 +3569,13 @@
     </row>
     <row r="37" spans="6:15">
       <c r="F37" t="s">
+        <v>234</v>
+      </c>
+      <c r="G37" t="s">
         <v>235</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>236</v>
-      </c>
-      <c r="H37" t="s">
-        <v>237</v>
       </c>
       <c r="I37" t="s">
         <v>78</v>
@@ -4158,16 +3584,16 @@
         <v>13</v>
       </c>
       <c r="K37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L37" t="s">
         <v>25</v>
       </c>
       <c r="M37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O37">
         <v>30</v>
@@ -4175,13 +3601,13 @@
     </row>
     <row r="38" spans="6:15">
       <c r="F38" t="s">
+        <v>238</v>
+      </c>
+      <c r="G38" t="s">
         <v>239</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>240</v>
-      </c>
-      <c r="H38" t="s">
-        <v>241</v>
       </c>
       <c r="I38" t="s">
         <v>81</v>
@@ -4190,16 +3616,16 @@
         <v>13</v>
       </c>
       <c r="K38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L38" t="s">
         <v>25</v>
       </c>
       <c r="M38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O38">
         <v>40</v>
@@ -4207,13 +3633,13 @@
     </row>
     <row r="39" spans="6:15">
       <c r="F39" t="s">
+        <v>241</v>
+      </c>
+      <c r="G39" t="s">
         <v>242</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>243</v>
-      </c>
-      <c r="H39" t="s">
-        <v>244</v>
       </c>
       <c r="I39" t="s">
         <v>84</v>
@@ -4222,16 +3648,16 @@
         <v>13</v>
       </c>
       <c r="K39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L39" t="s">
         <v>25</v>
       </c>
       <c r="M39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O39">
         <v>10</v>
@@ -4239,13 +3665,13 @@
     </row>
     <row r="40" spans="6:15">
       <c r="F40" t="s">
+        <v>245</v>
+      </c>
+      <c r="G40" t="s">
         <v>246</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>247</v>
-      </c>
-      <c r="H40" t="s">
-        <v>248</v>
       </c>
       <c r="I40" t="s">
         <v>87</v>
@@ -4254,16 +3680,16 @@
         <v>13</v>
       </c>
       <c r="K40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L40" t="s">
         <v>25</v>
       </c>
       <c r="M40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O40">
         <v>20</v>
@@ -4271,13 +3697,13 @@
     </row>
     <row r="41" spans="6:15">
       <c r="F41" t="s">
+        <v>249</v>
+      </c>
+      <c r="G41" t="s">
         <v>250</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>251</v>
-      </c>
-      <c r="H41" t="s">
-        <v>252</v>
       </c>
       <c r="I41" t="s">
         <v>90</v>
@@ -4286,16 +3712,16 @@
         <v>13</v>
       </c>
       <c r="K41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L41" t="s">
         <v>25</v>
       </c>
       <c r="M41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N41" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O41">
         <v>10</v>
@@ -4303,13 +3729,13 @@
     </row>
     <row r="42" spans="6:15">
       <c r="F42" t="s">
+        <v>253</v>
+      </c>
+      <c r="G42" t="s">
         <v>254</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>255</v>
-      </c>
-      <c r="H42" t="s">
-        <v>256</v>
       </c>
       <c r="I42" t="s">
         <v>93</v>
@@ -4318,16 +3744,16 @@
         <v>13</v>
       </c>
       <c r="K42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L42" t="s">
         <v>25</v>
       </c>
       <c r="M42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N42" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O42">
         <v>20</v>
@@ -4335,28 +3761,28 @@
     </row>
     <row r="43" spans="6:15">
       <c r="F43" t="s">
+        <v>257</v>
+      </c>
+      <c r="G43" t="s">
         <v>258</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>259</v>
       </c>
-      <c r="H43" t="s">
+      <c r="J43" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" t="s">
+        <v>136</v>
+      </c>
+      <c r="L43" t="s">
+        <v>25</v>
+      </c>
+      <c r="M43" t="s">
+        <v>119</v>
+      </c>
+      <c r="N43" t="s">
         <v>260</v>
-      </c>
-      <c r="J43" t="s">
-        <v>13</v>
-      </c>
-      <c r="K43" t="s">
-        <v>137</v>
-      </c>
-      <c r="L43" t="s">
-        <v>25</v>
-      </c>
-      <c r="M43" t="s">
-        <v>120</v>
-      </c>
-      <c r="N43" t="s">
-        <v>261</v>
       </c>
       <c r="O43">
         <v>90</v>
@@ -4364,13 +3790,13 @@
     </row>
     <row r="44" spans="6:15">
       <c r="F44" t="s">
+        <v>261</v>
+      </c>
+      <c r="G44" t="s">
         <v>262</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>263</v>
-      </c>
-      <c r="H44" t="s">
-        <v>264</v>
       </c>
       <c r="I44" t="s">
         <v>99</v>
@@ -4379,16 +3805,16 @@
         <v>13</v>
       </c>
       <c r="K44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L44" t="s">
         <v>25</v>
       </c>
       <c r="M44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N44" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O44">
         <v>30</v>
@@ -4396,13 +3822,13 @@
     </row>
     <row r="45" spans="6:15">
       <c r="F45" t="s">
+        <v>265</v>
+      </c>
+      <c r="G45" t="s">
         <v>266</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>267</v>
-      </c>
-      <c r="H45" t="s">
-        <v>268</v>
       </c>
       <c r="I45" t="s">
         <v>102</v>
@@ -4411,16 +3837,16 @@
         <v>13</v>
       </c>
       <c r="K45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L45" t="s">
         <v>25</v>
       </c>
       <c r="M45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N45" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O45">
         <v>40</v>
@@ -4428,28 +3854,28 @@
     </row>
     <row r="46" spans="6:15">
       <c r="F46" t="s">
+        <v>269</v>
+      </c>
+      <c r="G46" t="s">
         <v>270</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>271</v>
       </c>
-      <c r="H46" t="s">
+      <c r="J46" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" t="s">
+        <v>136</v>
+      </c>
+      <c r="L46" t="s">
+        <v>25</v>
+      </c>
+      <c r="M46" t="s">
+        <v>119</v>
+      </c>
+      <c r="N46" t="s">
         <v>272</v>
-      </c>
-      <c r="J46" t="s">
-        <v>13</v>
-      </c>
-      <c r="K46" t="s">
-        <v>137</v>
-      </c>
-      <c r="L46" t="s">
-        <v>25</v>
-      </c>
-      <c r="M46" t="s">
-        <v>120</v>
-      </c>
-      <c r="N46" t="s">
-        <v>273</v>
       </c>
       <c r="O46">
         <v>110</v>
@@ -4457,13 +3883,13 @@
     </row>
     <row r="47" spans="6:15">
       <c r="F47" t="s">
+        <v>273</v>
+      </c>
+      <c r="G47" t="s">
         <v>274</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>275</v>
-      </c>
-      <c r="H47" t="s">
-        <v>276</v>
       </c>
       <c r="I47" t="s">
         <v>105</v>
@@ -4472,24 +3898,25 @@
         <v>13</v>
       </c>
       <c r="K47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L47" t="s">
         <v>25</v>
       </c>
       <c r="M47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N47" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O47">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -4498,485 +3925,590 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB36D654-EE0C-E540-866A-1B1845FAABF3}">
+  <dimension ref="D7:P13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="4" max="4" width="24.3984375" customWidth="1"/>
+    <col min="5" max="5" width="28.3984375" customWidth="1"/>
+    <col min="6" max="6" width="41.19921875" customWidth="1"/>
+    <col min="8" max="8" width="6.19921875" customWidth="1"/>
+    <col min="9" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="3" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="11" hidden="1" customWidth="1"/>
+    <col min="14" max="16" width="0.19921875" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:7">
+      <c r="D7" t="s">
+        <v>402</v>
+      </c>
+      <c r="E7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7">
+      <c r="E8" t="s">
+        <v>405</v>
+      </c>
+      <c r="F8" t="s">
+        <v>405</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7">
+      <c r="E9" t="s">
+        <v>406</v>
+      </c>
+      <c r="F9" t="s">
+        <v>406</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7">
+      <c r="E10" t="s">
+        <v>407</v>
+      </c>
+      <c r="F10" t="s">
+        <v>407</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7">
+      <c r="E11" t="s">
+        <v>408</v>
+      </c>
+      <c r="F11" t="s">
+        <v>408</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7">
+      <c r="E12" t="s">
+        <v>409</v>
+      </c>
+      <c r="F12" t="s">
+        <v>409</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7">
+      <c r="E13" t="s">
+        <v>410</v>
+      </c>
+      <c r="F13" t="s">
+        <v>410</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D7:H83"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="54.8" customWidth="1"/>
-    <col min="8" max="8" width="28.8" customWidth="1"/>
+    <col min="7" max="7" width="54.796875" customWidth="1"/>
+    <col min="8" max="8" width="28.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G7" t="s">
         <v>279</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>280</v>
       </c>
-      <c r="H7" t="s">
+    </row>
+    <row r="8" spans="4:8">
+      <c r="F8" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="8" spans="6:8">
-      <c r="F8" t="s">
-        <v>282</v>
-      </c>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="6:8">
+    <row r="9" spans="4:8">
       <c r="F9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="6:8">
+    <row r="10" spans="4:8">
       <c r="F10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="6:8">
+    <row r="11" spans="4:8">
       <c r="F11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="6:8">
+    <row r="12" spans="4:8">
       <c r="F12" t="s">
+        <v>281</v>
+      </c>
+      <c r="G12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" t="s">
         <v>282</v>
       </c>
-      <c r="G12" t="s">
-        <v>134</v>
-      </c>
-      <c r="H12" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="13" spans="6:8">
+    </row>
+    <row r="13" spans="4:8">
       <c r="F13" t="s">
+        <v>281</v>
+      </c>
+      <c r="G13" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" t="s">
         <v>282</v>
       </c>
-      <c r="G13" t="s">
-        <v>139</v>
-      </c>
-      <c r="H13" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="14" spans="6:8">
+    </row>
+    <row r="14" spans="4:8">
       <c r="F14" t="s">
+        <v>281</v>
+      </c>
+      <c r="G14" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" t="s">
         <v>282</v>
       </c>
-      <c r="G14" t="s">
-        <v>143</v>
-      </c>
-      <c r="H14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="15" spans="6:8">
+    </row>
+    <row r="15" spans="4:8">
       <c r="F15" t="s">
+        <v>281</v>
+      </c>
+      <c r="G15" t="s">
+        <v>146</v>
+      </c>
+      <c r="H15" t="s">
         <v>282</v>
       </c>
-      <c r="G15" t="s">
-        <v>147</v>
-      </c>
-      <c r="H15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="16" spans="6:8">
+    </row>
+    <row r="16" spans="4:8">
       <c r="F16" t="s">
+        <v>281</v>
+      </c>
+      <c r="G16" t="s">
+        <v>150</v>
+      </c>
+      <c r="H16" t="s">
         <v>282</v>
-      </c>
-      <c r="G16" t="s">
-        <v>151</v>
-      </c>
-      <c r="H16" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
+        <v>281</v>
+      </c>
+      <c r="G17" t="s">
+        <v>154</v>
+      </c>
+      <c r="H17" t="s">
         <v>282</v>
-      </c>
-      <c r="G17" t="s">
-        <v>155</v>
-      </c>
-      <c r="H17" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
+        <v>281</v>
+      </c>
+      <c r="G18" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" t="s">
         <v>282</v>
-      </c>
-      <c r="G18" t="s">
-        <v>159</v>
-      </c>
-      <c r="H18" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
+        <v>281</v>
+      </c>
+      <c r="G19" t="s">
+        <v>162</v>
+      </c>
+      <c r="H19" t="s">
         <v>282</v>
-      </c>
-      <c r="G19" t="s">
-        <v>163</v>
-      </c>
-      <c r="H19" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
+        <v>281</v>
+      </c>
+      <c r="G20" t="s">
+        <v>166</v>
+      </c>
+      <c r="H20" t="s">
         <v>282</v>
-      </c>
-      <c r="G20" t="s">
-        <v>167</v>
-      </c>
-      <c r="H20" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
+        <v>281</v>
+      </c>
+      <c r="G21" t="s">
+        <v>170</v>
+      </c>
+      <c r="H21" t="s">
         <v>282</v>
-      </c>
-      <c r="G21" t="s">
-        <v>171</v>
-      </c>
-      <c r="H21" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
+        <v>281</v>
+      </c>
+      <c r="G22" t="s">
+        <v>174</v>
+      </c>
+      <c r="H22" t="s">
         <v>282</v>
-      </c>
-      <c r="G22" t="s">
-        <v>175</v>
-      </c>
-      <c r="H22" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
+        <v>281</v>
+      </c>
+      <c r="G23" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" t="s">
         <v>282</v>
-      </c>
-      <c r="G23" t="s">
-        <v>179</v>
-      </c>
-      <c r="H23" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="24" spans="6:8">
       <c r="F24" t="s">
+        <v>281</v>
+      </c>
+      <c r="G24" t="s">
+        <v>182</v>
+      </c>
+      <c r="H24" t="s">
         <v>282</v>
-      </c>
-      <c r="G24" t="s">
-        <v>183</v>
-      </c>
-      <c r="H24" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="25" spans="6:8">
       <c r="F25" t="s">
+        <v>281</v>
+      </c>
+      <c r="G25" t="s">
+        <v>186</v>
+      </c>
+      <c r="H25" t="s">
         <v>282</v>
-      </c>
-      <c r="G25" t="s">
-        <v>187</v>
-      </c>
-      <c r="H25" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="26" spans="6:8">
       <c r="F26" t="s">
+        <v>281</v>
+      </c>
+      <c r="G26" t="s">
+        <v>190</v>
+      </c>
+      <c r="H26" t="s">
         <v>282</v>
-      </c>
-      <c r="G26" t="s">
-        <v>191</v>
-      </c>
-      <c r="H26" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="27" spans="6:8">
       <c r="F27" t="s">
+        <v>281</v>
+      </c>
+      <c r="G27" t="s">
+        <v>194</v>
+      </c>
+      <c r="H27" t="s">
         <v>282</v>
-      </c>
-      <c r="G27" t="s">
-        <v>195</v>
-      </c>
-      <c r="H27" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="28" spans="6:8">
       <c r="F28" t="s">
+        <v>281</v>
+      </c>
+      <c r="G28" t="s">
+        <v>198</v>
+      </c>
+      <c r="H28" t="s">
         <v>282</v>
-      </c>
-      <c r="G28" t="s">
-        <v>199</v>
-      </c>
-      <c r="H28" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="29" spans="6:8">
       <c r="F29" t="s">
+        <v>281</v>
+      </c>
+      <c r="G29" t="s">
+        <v>202</v>
+      </c>
+      <c r="H29" t="s">
         <v>282</v>
-      </c>
-      <c r="G29" t="s">
-        <v>203</v>
-      </c>
-      <c r="H29" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="30" spans="6:8">
       <c r="F30" t="s">
+        <v>281</v>
+      </c>
+      <c r="G30" t="s">
+        <v>206</v>
+      </c>
+      <c r="H30" t="s">
         <v>282</v>
-      </c>
-      <c r="G30" t="s">
-        <v>207</v>
-      </c>
-      <c r="H30" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="31" spans="6:8">
       <c r="F31" t="s">
+        <v>281</v>
+      </c>
+      <c r="G31" t="s">
+        <v>210</v>
+      </c>
+      <c r="H31" t="s">
         <v>282</v>
-      </c>
-      <c r="G31" t="s">
-        <v>211</v>
-      </c>
-      <c r="H31" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="32" spans="6:8">
       <c r="F32" t="s">
+        <v>281</v>
+      </c>
+      <c r="G32" t="s">
+        <v>214</v>
+      </c>
+      <c r="H32" t="s">
         <v>282</v>
-      </c>
-      <c r="G32" t="s">
-        <v>215</v>
-      </c>
-      <c r="H32" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="33" spans="6:8">
       <c r="F33" t="s">
+        <v>281</v>
+      </c>
+      <c r="G33" t="s">
+        <v>218</v>
+      </c>
+      <c r="H33" t="s">
         <v>282</v>
-      </c>
-      <c r="G33" t="s">
-        <v>219</v>
-      </c>
-      <c r="H33" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="34" spans="6:8">
       <c r="F34" t="s">
+        <v>281</v>
+      </c>
+      <c r="G34" t="s">
+        <v>222</v>
+      </c>
+      <c r="H34" t="s">
         <v>282</v>
-      </c>
-      <c r="G34" t="s">
-        <v>223</v>
-      </c>
-      <c r="H34" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="35" spans="6:8">
       <c r="F35" t="s">
+        <v>281</v>
+      </c>
+      <c r="G35" t="s">
+        <v>226</v>
+      </c>
+      <c r="H35" t="s">
         <v>282</v>
-      </c>
-      <c r="G35" t="s">
-        <v>227</v>
-      </c>
-      <c r="H35" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="36" spans="6:8">
       <c r="F36" t="s">
+        <v>281</v>
+      </c>
+      <c r="G36" t="s">
+        <v>230</v>
+      </c>
+      <c r="H36" t="s">
         <v>282</v>
-      </c>
-      <c r="G36" t="s">
-        <v>231</v>
-      </c>
-      <c r="H36" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="37" spans="6:8">
       <c r="F37" t="s">
+        <v>281</v>
+      </c>
+      <c r="G37" t="s">
+        <v>234</v>
+      </c>
+      <c r="H37" t="s">
         <v>282</v>
-      </c>
-      <c r="G37" t="s">
-        <v>235</v>
-      </c>
-      <c r="H37" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="38" spans="6:8">
       <c r="F38" t="s">
+        <v>281</v>
+      </c>
+      <c r="G38" t="s">
+        <v>238</v>
+      </c>
+      <c r="H38" t="s">
         <v>282</v>
-      </c>
-      <c r="G38" t="s">
-        <v>239</v>
-      </c>
-      <c r="H38" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="39" spans="6:8">
       <c r="F39" t="s">
+        <v>281</v>
+      </c>
+      <c r="G39" t="s">
+        <v>241</v>
+      </c>
+      <c r="H39" t="s">
         <v>282</v>
-      </c>
-      <c r="G39" t="s">
-        <v>242</v>
-      </c>
-      <c r="H39" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="40" spans="6:8">
       <c r="F40" t="s">
+        <v>281</v>
+      </c>
+      <c r="G40" t="s">
+        <v>245</v>
+      </c>
+      <c r="H40" t="s">
         <v>282</v>
-      </c>
-      <c r="G40" t="s">
-        <v>246</v>
-      </c>
-      <c r="H40" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="41" spans="6:8">
       <c r="F41" t="s">
+        <v>281</v>
+      </c>
+      <c r="G41" t="s">
+        <v>249</v>
+      </c>
+      <c r="H41" t="s">
         <v>282</v>
-      </c>
-      <c r="G41" t="s">
-        <v>250</v>
-      </c>
-      <c r="H41" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="42" spans="6:8">
       <c r="F42" t="s">
+        <v>281</v>
+      </c>
+      <c r="G42" t="s">
+        <v>253</v>
+      </c>
+      <c r="H42" t="s">
         <v>282</v>
-      </c>
-      <c r="G42" t="s">
-        <v>254</v>
-      </c>
-      <c r="H42" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="43" spans="6:8">
       <c r="F43" t="s">
+        <v>281</v>
+      </c>
+      <c r="G43" t="s">
+        <v>257</v>
+      </c>
+      <c r="H43" t="s">
         <v>282</v>
-      </c>
-      <c r="G43" t="s">
-        <v>258</v>
-      </c>
-      <c r="H43" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="44" spans="6:8">
       <c r="F44" t="s">
+        <v>281</v>
+      </c>
+      <c r="G44" t="s">
+        <v>261</v>
+      </c>
+      <c r="H44" t="s">
         <v>282</v>
-      </c>
-      <c r="G44" t="s">
-        <v>262</v>
-      </c>
-      <c r="H44" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="45" spans="6:8">
       <c r="F45" t="s">
+        <v>281</v>
+      </c>
+      <c r="G45" t="s">
+        <v>265</v>
+      </c>
+      <c r="H45" t="s">
         <v>282</v>
-      </c>
-      <c r="G45" t="s">
-        <v>266</v>
-      </c>
-      <c r="H45" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="46" spans="6:8">
       <c r="F46" t="s">
+        <v>281</v>
+      </c>
+      <c r="G46" t="s">
+        <v>269</v>
+      </c>
+      <c r="H46" t="s">
         <v>282</v>
-      </c>
-      <c r="G46" t="s">
-        <v>270</v>
-      </c>
-      <c r="H46" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="47" spans="6:8">
       <c r="F47" t="s">
+        <v>281</v>
+      </c>
+      <c r="G47" t="s">
+        <v>273</v>
+      </c>
+      <c r="H47" t="s">
         <v>282</v>
-      </c>
-      <c r="G47" t="s">
-        <v>274</v>
-      </c>
-      <c r="H47" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="48" spans="6:8">
       <c r="F48" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H48" t="s">
         <v>25</v>
@@ -4984,10 +4516,10 @@
     </row>
     <row r="49" spans="6:8">
       <c r="F49" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H49" t="s">
         <v>25</v>
@@ -4995,10 +4527,10 @@
     </row>
     <row r="50" spans="6:8">
       <c r="F50" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H50" t="s">
         <v>25</v>
@@ -5006,10 +4538,10 @@
     </row>
     <row r="51" spans="6:8">
       <c r="F51" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G51" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H51" t="s">
         <v>25</v>
@@ -5017,10 +4549,10 @@
     </row>
     <row r="52" spans="6:8">
       <c r="F52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H52" t="s">
         <v>25</v>
@@ -5028,10 +4560,10 @@
     </row>
     <row r="53" spans="6:8">
       <c r="F53" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H53" t="s">
         <v>25</v>
@@ -5039,10 +4571,10 @@
     </row>
     <row r="54" spans="6:8">
       <c r="F54" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G54" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H54" t="s">
         <v>25</v>
@@ -5050,10 +4582,10 @@
     </row>
     <row r="55" spans="6:8">
       <c r="F55" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G55" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H55" t="s">
         <v>25</v>
@@ -5061,10 +4593,10 @@
     </row>
     <row r="56" spans="6:8">
       <c r="F56" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H56" t="s">
         <v>25</v>
@@ -5072,10 +4604,10 @@
     </row>
     <row r="57" spans="6:8">
       <c r="F57" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H57" t="s">
         <v>25</v>
@@ -5083,10 +4615,10 @@
     </row>
     <row r="58" spans="6:8">
       <c r="F58" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G58" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H58" t="s">
         <v>25</v>
@@ -5094,10 +4626,10 @@
     </row>
     <row r="59" spans="6:8">
       <c r="F59" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H59" t="s">
         <v>25</v>
@@ -5105,10 +4637,10 @@
     </row>
     <row r="60" spans="6:8">
       <c r="F60" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H60" t="s">
         <v>25</v>
@@ -5116,10 +4648,10 @@
     </row>
     <row r="61" spans="6:8">
       <c r="F61" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H61" t="s">
         <v>25</v>
@@ -5127,10 +4659,10 @@
     </row>
     <row r="62" spans="6:8">
       <c r="F62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H62" t="s">
         <v>25</v>
@@ -5138,10 +4670,10 @@
     </row>
     <row r="63" spans="6:8">
       <c r="F63" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H63" t="s">
         <v>25</v>
@@ -5149,10 +4681,10 @@
     </row>
     <row r="64" spans="6:8">
       <c r="F64" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H64" t="s">
         <v>25</v>
@@ -5160,10 +4692,10 @@
     </row>
     <row r="65" spans="6:8">
       <c r="F65" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G65" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H65" t="s">
         <v>25</v>
@@ -5171,10 +4703,10 @@
     </row>
     <row r="66" spans="6:8">
       <c r="F66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G66" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H66" t="s">
         <v>25</v>
@@ -5182,10 +4714,10 @@
     </row>
     <row r="67" spans="6:8">
       <c r="F67" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G67" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H67" t="s">
         <v>25</v>
@@ -5193,10 +4725,10 @@
     </row>
     <row r="68" spans="6:8">
       <c r="F68" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G68" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H68" t="s">
         <v>25</v>
@@ -5204,10 +4736,10 @@
     </row>
     <row r="69" spans="6:8">
       <c r="F69" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G69" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H69" t="s">
         <v>25</v>
@@ -5215,10 +4747,10 @@
     </row>
     <row r="70" spans="6:8">
       <c r="F70" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H70" t="s">
         <v>25</v>
@@ -5226,10 +4758,10 @@
     </row>
     <row r="71" spans="6:8">
       <c r="F71" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G71" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H71" t="s">
         <v>25</v>
@@ -5237,10 +4769,10 @@
     </row>
     <row r="72" spans="6:8">
       <c r="F72" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G72" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H72" t="s">
         <v>25</v>
@@ -5248,10 +4780,10 @@
     </row>
     <row r="73" spans="6:8">
       <c r="F73" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G73" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H73" t="s">
         <v>25</v>
@@ -5259,10 +4791,10 @@
     </row>
     <row r="74" spans="6:8">
       <c r="F74" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G74" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H74" t="s">
         <v>25</v>
@@ -5270,10 +4802,10 @@
     </row>
     <row r="75" spans="6:8">
       <c r="F75" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G75" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H75" t="s">
         <v>25</v>
@@ -5281,10 +4813,10 @@
     </row>
     <row r="76" spans="6:8">
       <c r="F76" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G76" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H76" t="s">
         <v>25</v>
@@ -5292,10 +4824,10 @@
     </row>
     <row r="77" spans="6:8">
       <c r="F77" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G77" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H77" t="s">
         <v>25</v>
@@ -5303,10 +4835,10 @@
     </row>
     <row r="78" spans="6:8">
       <c r="F78" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G78" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H78" t="s">
         <v>25</v>
@@ -5314,10 +4846,10 @@
     </row>
     <row r="79" spans="6:8">
       <c r="F79" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G79" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H79" t="s">
         <v>25</v>
@@ -5325,10 +4857,10 @@
     </row>
     <row r="80" spans="6:8">
       <c r="F80" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G80" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H80" t="s">
         <v>25</v>
@@ -5336,10 +4868,10 @@
     </row>
     <row r="81" spans="6:8">
       <c r="F81" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G81" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H81" t="s">
         <v>25</v>
@@ -5347,10 +4879,10 @@
     </row>
     <row r="82" spans="6:8">
       <c r="F82" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G82" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H82" t="s">
         <v>25</v>
@@ -5358,1289 +4890,1289 @@
     </row>
     <row r="83" spans="6:8">
       <c r="F83" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G83" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H83" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="D7:G161"/>
   <sheetViews>
     <sheetView topLeftCell="D112" workbookViewId="0">
       <selection activeCell="G169" sqref="G169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="3" width="11.6" customWidth="1"/>
-    <col min="4" max="4" width="23.8" customWidth="1"/>
-    <col min="5" max="5" width="11.6" customWidth="1"/>
+    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="4" max="4" width="23.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.59765625" customWidth="1"/>
     <col min="6" max="6" width="82" customWidth="1"/>
-    <col min="7" max="7" width="85.2" customWidth="1"/>
-    <col min="8" max="1025" width="11.6" customWidth="1"/>
+    <col min="7" max="7" width="85.19921875" customWidth="1"/>
+    <col min="8" max="1025" width="11.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:7">
+    <row r="7" spans="4:7" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="4:7" ht="12.75" customHeight="1">
+      <c r="F8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="6:7">
-      <c r="F8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G8" t="s">
+    <row r="9" spans="4:7">
+      <c r="F9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G9" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="9" spans="6:7">
-      <c r="F9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G9" t="s">
+    <row r="10" spans="4:7">
+      <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="6:7">
-      <c r="F10" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" t="s">
+    <row r="11" spans="4:7">
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="6:7">
-      <c r="F11" t="s">
-        <v>126</v>
-      </c>
-      <c r="G11" t="s">
+    <row r="12" spans="4:7">
+      <c r="F12" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="12" spans="6:7">
-      <c r="F12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G12" t="s">
+    <row r="13" spans="4:7">
+      <c r="F13" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="13" spans="6:7">
-      <c r="F13" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" t="s">
+    <row r="14" spans="4:7">
+      <c r="F14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G14" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="14" spans="6:7">
-      <c r="F14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G14" t="s">
+    <row r="15" spans="4:7">
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="15" spans="6:7">
-      <c r="F15" t="s">
-        <v>143</v>
-      </c>
-      <c r="G15" t="s">
+    <row r="16" spans="4:7">
+      <c r="F16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" t="s">
         <v>294</v>
-      </c>
-    </row>
-    <row r="16" spans="6:7">
-      <c r="F16" t="s">
-        <v>147</v>
-      </c>
-      <c r="G16" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="6:7">
       <c r="F18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="6:7">
       <c r="F20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G23" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="6:7">
       <c r="F24" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="6:7">
       <c r="F28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G30" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G31" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G32" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G33" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G34" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="6:7">
       <c r="F35" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G35" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="36" spans="6:7">
       <c r="F36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="6:7">
       <c r="F37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G37" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38" spans="6:7">
       <c r="F38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="39" spans="6:7">
       <c r="F39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="6:7">
       <c r="F40" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G40" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="6:7">
       <c r="F41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G41" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="6:7">
       <c r="F42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G42" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="6:7">
       <c r="F43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G43" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" spans="6:7">
       <c r="F44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G44" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="6:7">
       <c r="F45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G45" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" spans="6:7">
       <c r="F46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G46" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="6:7">
       <c r="F47" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G47" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48" spans="6:7">
       <c r="F48" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G48" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="49" spans="6:7">
       <c r="F49" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="50" spans="6:7">
       <c r="F50" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G50" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="6:7">
       <c r="F51" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G51" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52" spans="6:7">
       <c r="F52" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G52" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="53" spans="6:7">
       <c r="F53" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G53" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" spans="6:7">
       <c r="F54" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G54" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="6:7">
       <c r="F55" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G55" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="56" spans="6:7">
       <c r="F56" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G56" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="57" spans="6:7">
       <c r="F57" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G57" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="6:7">
       <c r="F58" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G58" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="59" spans="6:7">
       <c r="F59" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G59" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="60" spans="6:7">
       <c r="F60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G60" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61" spans="6:7">
       <c r="F61" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G61" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="62" spans="6:7">
       <c r="F62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G62" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="63" spans="6:7">
       <c r="F63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G63" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="64" spans="6:7">
       <c r="F64" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G64" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="65" spans="6:7">
       <c r="F65" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G65" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="66" spans="6:7">
       <c r="F66" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G66" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="67" spans="6:7">
       <c r="F67" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G67" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="68" spans="6:7">
       <c r="F68" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G68" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="69" spans="6:7">
       <c r="F69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G69" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70" spans="6:7">
       <c r="F70" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G70" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="71" spans="6:7">
       <c r="F71" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G71" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72" spans="6:7">
       <c r="F72" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G72" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="73" spans="6:7">
       <c r="F73" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G73" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="74" spans="6:7">
       <c r="F74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G74" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="75" spans="6:7">
       <c r="F75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G75" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="76" spans="6:7">
       <c r="F76" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G76" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="6:7">
       <c r="F77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G77" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" spans="6:7">
       <c r="F78" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G78" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="79" spans="6:7">
       <c r="F79" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G79" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="80" spans="6:7">
       <c r="F80" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G80" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="81" spans="6:7">
       <c r="F81" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G81" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="82" spans="6:7">
       <c r="F82" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G82" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="83" spans="6:7">
       <c r="F83" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G83" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="84" spans="6:7">
       <c r="F84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G84" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="85" spans="6:7">
       <c r="F85" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G85" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="86" spans="6:7">
       <c r="F86" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G86" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="87" spans="6:7">
       <c r="F87" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G87" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="88" spans="6:7">
       <c r="F88" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G88" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="89" spans="6:7">
       <c r="F89" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G89" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="90" spans="6:7">
       <c r="F90" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G90" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="91" spans="6:7">
       <c r="F91" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G91" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="92" spans="6:7">
       <c r="F92" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G92" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="93" spans="6:7">
       <c r="F93" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G93" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="94" spans="6:7">
       <c r="F94" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G94" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="95" spans="6:7">
       <c r="F95" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G95" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="96" spans="6:7">
       <c r="F96" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G96" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="97" spans="6:7">
       <c r="F97" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G97" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="98" spans="6:7">
       <c r="F98" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G98" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="99" spans="6:7">
       <c r="F99" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G99" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="100" spans="6:7">
       <c r="F100" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G100" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="101" spans="6:7">
       <c r="F101" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G101" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="102" spans="6:7">
       <c r="F102" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G102" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="103" spans="6:7">
       <c r="F103" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G103" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="104" spans="6:7">
       <c r="F104" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G104" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="105" spans="6:7">
       <c r="F105" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G105" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="106" spans="6:7">
       <c r="F106" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G106" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="107" spans="6:7">
       <c r="F107" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G107" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="108" spans="6:7">
       <c r="F108" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G108" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="109" spans="6:7">
       <c r="F109" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G109" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="110" spans="6:7">
       <c r="F110" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G110" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="111" spans="6:7">
       <c r="F111" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G111" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="112" spans="6:7">
       <c r="F112" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G112" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="113" spans="6:7">
       <c r="F113" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G113" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="114" spans="6:7">
       <c r="F114" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G114" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="115" spans="6:7">
       <c r="F115" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G115" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="116" spans="6:7">
       <c r="F116" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G116" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="117" spans="6:7">
       <c r="F117" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G117" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="118" spans="6:7">
       <c r="F118" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G118" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="119" spans="6:7">
       <c r="F119" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G119" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="120" spans="6:7">
       <c r="F120" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G120" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="121" spans="6:7">
       <c r="F121" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G121" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="122" spans="6:7">
       <c r="F122" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G122" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="123" spans="6:7">
       <c r="F123" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G123" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="124" spans="6:7">
       <c r="F124" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G124" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="125" spans="6:7">
       <c r="F125" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G125" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="126" spans="6:7">
       <c r="F126" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G126" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="127" spans="6:7">
       <c r="F127" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G127" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="128" spans="6:7">
       <c r="F128" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G128" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="129" spans="6:7">
       <c r="F129" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G129" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="130" spans="6:7">
       <c r="F130" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G130" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="131" spans="6:7">
       <c r="F131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G131" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="132" spans="6:7">
       <c r="F132" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G132" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="133" spans="6:7">
       <c r="F133" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G133" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="134" spans="6:7">
       <c r="F134" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G134" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="135" spans="6:7">
       <c r="F135" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G135" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="136" spans="6:7">
       <c r="F136" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G136" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="137" spans="6:7">
       <c r="F137" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G137" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="138" spans="6:7">
       <c r="F138" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G138" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="139" spans="6:7">
       <c r="F139" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G139" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="140" spans="6:7">
       <c r="F140" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G140" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="141" spans="6:7">
       <c r="F141" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G141" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="142" spans="6:7">
       <c r="F142" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G142" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="143" spans="6:7">
       <c r="F143" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G143" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="144" spans="6:7">
       <c r="F144" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G144" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="145" spans="6:7">
       <c r="F145" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G145" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="146" spans="6:7">
       <c r="F146" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G146" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="147" spans="6:7">
       <c r="F147" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G147" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="148" spans="6:7">
       <c r="F148" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G148" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="149" spans="6:7">
       <c r="F149" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G149" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="150" spans="6:7">
       <c r="F150" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G150" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="151" spans="6:7">
       <c r="F151" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G151" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="152" spans="6:7">
       <c r="F152" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G152" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="153" spans="6:7">
       <c r="F153" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G153" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="154" spans="6:7">
       <c r="F154" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G154" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="155" spans="6:7">
       <c r="F155" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G155" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="156" spans="6:7">
       <c r="F156" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G156" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="157" spans="6:7">
       <c r="F157" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G157" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="158" spans="6:7">
       <c r="F158" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G158" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="159" spans="6:7">
       <c r="F159" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G159" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="160" spans="6:7">
       <c r="F160" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G160" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="161" spans="6:7">
       <c r="F161" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G161" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongle/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22623C5-D61A-B342-A88C-347257F6BAF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19335" windowHeight="7515" tabRatio="500" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -24,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="421">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -278,6 +272,15 @@
     <t>证书路由</t>
   </si>
   <si>
+    <t>choerodon.route.deployment-pipeline.custom-resource</t>
+  </si>
+  <si>
+    <t>/devops/custom-resource</t>
+  </si>
+  <si>
+    <t>自定义资源路由</t>
+  </si>
+  <si>
     <t>choerodon.route.deployment-pipeline.config-map</t>
   </si>
   <si>
@@ -350,6 +353,9 @@
     <t>DevOps报表路由</t>
   </si>
   <si>
+    <t>IAM_MENU_B</t>
+  </si>
+  <si>
     <t>NAME:zh_CN</t>
   </si>
   <si>
@@ -749,6 +755,18 @@
     <t>Certificate</t>
   </si>
   <si>
+    <t>choerodon.code.deployment-pipeline.custom-resource</t>
+  </si>
+  <si>
+    <t>自定义资源</t>
+  </si>
+  <si>
+    <t>Custom Resource</t>
+  </si>
+  <si>
+    <t>filter_b_and_w</t>
+  </si>
+  <si>
     <t>choerodon.code.deployment-pipeline.config-map</t>
   </si>
   <si>
@@ -857,6 +875,30 @@
     <t>devops_chart</t>
   </si>
   <si>
+    <t>IAM_DASHBOARD</t>
+  </si>
+  <si>
+    <t>$DEL</t>
+  </si>
+  <si>
+    <t>DevOpsCommit</t>
+  </si>
+  <si>
+    <t>DevOpsBuild</t>
+  </si>
+  <si>
+    <t>DevOpsDeploy</t>
+  </si>
+  <si>
+    <t>DevOpsBranch</t>
+  </si>
+  <si>
+    <t>DevOpsAppDep</t>
+  </si>
+  <si>
+    <t>DevopsDoc</t>
+  </si>
+  <si>
     <t>FD_CATEGORY_MENU</t>
   </si>
   <si>
@@ -1088,6 +1130,18 @@
     <t>devops-service.certification.delete</t>
   </si>
   <si>
+    <t>devops-service.devops-customize-resource.pageByEnv</t>
+  </si>
+  <si>
+    <t>devops-service.devops-customize-resource.createResource</t>
+  </si>
+  <si>
+    <t>devops-service.devops-customize-resource.deleteResource</t>
+  </si>
+  <si>
+    <t>devops-service.devops-customize-resource.getResource</t>
+  </si>
+  <si>
     <t>devops-service.devops-config-map.create</t>
   </si>
   <si>
@@ -1227,56 +1281,19 @@
   </si>
   <si>
     <t>devops-service.devops-gitlab-pipeline.listPipelineFrequency</t>
-  </si>
-  <si>
-    <t>IAM_MENU_B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IAM_DASHBOARD</t>
-  </si>
-  <si>
-    <t>#CODE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>*ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DevOpsCommit</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DevOpsBuild</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DevOpsDeploy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DevOpsBranch</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DevOpsAppDep</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DevopsDoc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>$DEL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -1289,25 +1306,361 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="宋体"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1315,26 +1668,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1619,37 +2259,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D7:N38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="131" zoomScaleNormal="131" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView zoomScale="131" zoomScaleNormal="131" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
+    <col min="1" max="3" width="11.6" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="65.796875" customWidth="1"/>
+    <col min="5" max="5" width="11.6" customWidth="1"/>
+    <col min="6" max="6" width="65.8" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="28.796875" customWidth="1"/>
+    <col min="10" max="10" width="28.8" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="29.19921875" customWidth="1"/>
-    <col min="14" max="14" width="19.3984375" customWidth="1"/>
+    <col min="13" max="13" width="29.2" customWidth="1"/>
+    <col min="14" max="14" width="19.4" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="16" max="1025" width="11.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:14" ht="12.75" customHeight="1">
+    <row r="7" customHeight="1" spans="4:14">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1684,7 +2324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="4:14" ht="12.75" customHeight="1">
+    <row r="8" customHeight="1" spans="6:14">
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
@@ -1713,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:14">
+    <row r="9" spans="6:14">
       <c r="F9" t="s">
         <v>17</v>
       </c>
@@ -1742,7 +2382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="4:14">
+    <row r="10" spans="6:14">
       <c r="F10" t="s">
         <v>20</v>
       </c>
@@ -1771,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="4:14">
+    <row r="11" spans="6:14">
       <c r="F11" t="s">
         <v>23</v>
       </c>
@@ -1800,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="4:14">
+    <row r="12" spans="6:14">
       <c r="F12" t="s">
         <v>27</v>
       </c>
@@ -1829,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="4:14">
+    <row r="13" spans="6:14">
       <c r="F13" t="s">
         <v>30</v>
       </c>
@@ -1858,7 +2498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="4:14">
+    <row r="14" spans="6:14">
       <c r="F14" t="s">
         <v>33</v>
       </c>
@@ -1887,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="4:14">
+    <row r="15" spans="6:14">
       <c r="F15" t="s">
         <v>36</v>
       </c>
@@ -1916,7 +2556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="4:14">
+    <row r="16" spans="6:14">
       <c r="F16" t="s">
         <v>39</v>
       </c>
@@ -2351,7 +2991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="6:14">
+    <row r="31" customFormat="1" spans="6:14">
       <c r="F31" t="s">
         <v>84</v>
       </c>
@@ -2364,7 +3004,7 @@
       <c r="I31" t="s">
         <v>25</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="2" t="s">
         <v>86</v>
       </c>
       <c r="K31" t="s">
@@ -2538,7 +3178,7 @@
       <c r="I37" t="s">
         <v>25</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J37" t="s">
         <v>104</v>
       </c>
       <c r="K37" t="s">
@@ -2567,7 +3207,7 @@
       <c r="I38" t="s">
         <v>25</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="3" t="s">
         <v>107</v>
       </c>
       <c r="K38" t="s">
@@ -2583,10 +3223,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="39" spans="6:14">
+      <c r="F39" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" t="s">
+        <v>109</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" t="s">
+        <v>110</v>
+      </c>
+      <c r="K39" t="s">
+        <v>16</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -2595,36 +3263,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="D5:O47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D5:O48"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="G35" workbookViewId="0">
+      <selection activeCell="A39" sqref="$A39:$XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="15.19921875" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
-    <col min="6" max="6" width="56.19921875" customWidth="1"/>
-    <col min="7" max="7" width="18.19921875" customWidth="1"/>
-    <col min="8" max="8" width="27.796875" customWidth="1"/>
+    <col min="1" max="3" width="11.6" customWidth="1"/>
+    <col min="4" max="4" width="15.2" customWidth="1"/>
+    <col min="5" max="5" width="11.6" customWidth="1"/>
+    <col min="6" max="6" width="56.2" customWidth="1"/>
+    <col min="7" max="7" width="18.2" customWidth="1"/>
+    <col min="8" max="8" width="27.8" customWidth="1"/>
     <col min="9" max="9" width="66" customWidth="1"/>
-    <col min="10" max="10" width="22.59765625" customWidth="1"/>
-    <col min="11" max="11" width="47.59765625" customWidth="1"/>
-    <col min="12" max="12" width="25.796875" customWidth="1"/>
-    <col min="13" max="13" width="37.796875" customWidth="1"/>
+    <col min="10" max="10" width="22.6" customWidth="1"/>
+    <col min="11" max="11" width="47.6" customWidth="1"/>
+    <col min="12" max="12" width="25.8" customWidth="1"/>
+    <col min="13" max="13" width="37.8" customWidth="1"/>
     <col min="14" max="14" width="27" customWidth="1"/>
-    <col min="15" max="15" width="9.796875" customWidth="1"/>
-    <col min="16" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="15" max="15" width="9.8" customWidth="1"/>
+    <col min="16" max="1025" width="11.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:15" ht="11" customHeight="1"/>
-    <row r="6" spans="4:15" hidden="1"/>
-    <row r="7" spans="4:15" ht="24" customHeight="1">
+    <row r="5" ht="11" customHeight="1"/>
+    <row r="6" hidden="1"/>
+    <row r="7" ht="24" customHeight="1" spans="4:15">
       <c r="D7" s="1" t="s">
-        <v>401</v>
+        <v>111</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -2633,54 +3302,54 @@
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="N7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="O7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="4:15" ht="12.75" customHeight="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="6:15">
       <c r="F8" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s">
         <v>14</v>
       </c>
       <c r="M8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="N8" t="s">
         <v>13</v>
@@ -2689,15 +3358,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="4:15">
+    <row r="9" spans="6:15">
       <c r="F9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G9" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H9" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -2706,30 +3375,30 @@
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s">
         <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N9" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="O9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="4:15">
+    <row r="10" spans="6:15">
       <c r="F10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="H10" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -2738,30 +3407,30 @@
         <v>13</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L10" t="s">
         <v>14</v>
       </c>
       <c r="M10" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N10" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="O10">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="4:15">
+    <row r="11" spans="6:15">
       <c r="F11" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I11" t="s">
         <v>20</v>
@@ -2770,59 +3439,59 @@
         <v>13</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
         <v>14</v>
       </c>
       <c r="M11" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="O11">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="4:15">
+    <row r="12" spans="6:15">
       <c r="F12" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H12" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="J12" t="s">
         <v>13</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s">
         <v>25</v>
       </c>
       <c r="M12" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="N12" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="O12">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="4:15">
+    <row r="13" spans="6:15">
       <c r="F13" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H13" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="I13" t="s">
         <v>23</v>
@@ -2831,30 +3500,30 @@
         <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L13" t="s">
         <v>25</v>
       </c>
       <c r="M13" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N13" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="O13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="4:15">
+    <row r="14" spans="6:15">
       <c r="F14" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G14" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H14" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I14" t="s">
         <v>27</v>
@@ -2863,30 +3532,30 @@
         <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s">
         <v>25</v>
       </c>
       <c r="M14" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="O14">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="4:15">
+    <row r="15" spans="6:15">
       <c r="F15" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G15" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H15" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="I15" t="s">
         <v>30</v>
@@ -2895,30 +3564,30 @@
         <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s">
         <v>25</v>
       </c>
       <c r="M15" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N15" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="O15">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="4:15">
+    <row r="16" spans="6:15">
       <c r="F16" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G16" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H16" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="I16" t="s">
         <v>33</v>
@@ -2927,16 +3596,16 @@
         <v>13</v>
       </c>
       <c r="K16" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L16" t="s">
         <v>25</v>
       </c>
       <c r="M16" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N16" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O16">
         <v>40</v>
@@ -2944,28 +3613,28 @@
     </row>
     <row r="17" spans="6:15">
       <c r="F17" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H17" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="J17" t="s">
         <v>13</v>
       </c>
       <c r="K17" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L17" t="s">
         <v>25</v>
       </c>
       <c r="M17" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="O17">
         <v>30</v>
@@ -2973,13 +3642,13 @@
     </row>
     <row r="18" spans="6:15">
       <c r="F18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H18" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="I18" t="s">
         <v>36</v>
@@ -2988,16 +3657,16 @@
         <v>13</v>
       </c>
       <c r="K18" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L18" t="s">
         <v>25</v>
       </c>
       <c r="M18" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N18" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="O18">
         <v>10</v>
@@ -3005,13 +3674,13 @@
     </row>
     <row r="19" spans="6:15">
       <c r="F19" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G19" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H19" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I19" t="s">
         <v>39</v>
@@ -3020,16 +3689,16 @@
         <v>13</v>
       </c>
       <c r="K19" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L19" t="s">
         <v>25</v>
       </c>
       <c r="M19" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N19" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="O19">
         <v>20</v>
@@ -3037,13 +3706,13 @@
     </row>
     <row r="20" spans="6:15">
       <c r="F20" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G20" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H20" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="I20" t="s">
         <v>42</v>
@@ -3052,16 +3721,16 @@
         <v>13</v>
       </c>
       <c r="K20" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L20" t="s">
         <v>25</v>
       </c>
       <c r="M20" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N20" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="O20">
         <v>30</v>
@@ -3069,13 +3738,13 @@
     </row>
     <row r="21" spans="6:15">
       <c r="F21" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G21" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H21" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="I21" t="s">
         <v>45</v>
@@ -3084,16 +3753,16 @@
         <v>13</v>
       </c>
       <c r="K21" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L21" t="s">
         <v>25</v>
       </c>
       <c r="M21" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N21" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="O21">
         <v>40</v>
@@ -3101,13 +3770,13 @@
     </row>
     <row r="22" spans="6:15">
       <c r="F22" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G22" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H22" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="I22" t="s">
         <v>48</v>
@@ -3116,16 +3785,16 @@
         <v>13</v>
       </c>
       <c r="K22" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L22" t="s">
         <v>25</v>
       </c>
       <c r="M22" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N22" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="O22">
         <v>50</v>
@@ -3133,13 +3802,13 @@
     </row>
     <row r="23" spans="6:15">
       <c r="F23" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G23" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H23" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="I23" t="s">
         <v>51</v>
@@ -3148,16 +3817,16 @@
         <v>13</v>
       </c>
       <c r="K23" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L23" t="s">
         <v>25</v>
       </c>
       <c r="M23" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N23" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="O23">
         <v>60</v>
@@ -3165,13 +3834,13 @@
     </row>
     <row r="24" spans="6:15">
       <c r="F24" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G24" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H24" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="I24" t="s">
         <v>54</v>
@@ -3180,16 +3849,16 @@
         <v>13</v>
       </c>
       <c r="K24" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L24" t="s">
         <v>25</v>
       </c>
       <c r="M24" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N24" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="O24">
         <v>70</v>
@@ -3197,28 +3866,28 @@
     </row>
     <row r="25" spans="6:15">
       <c r="F25" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G25" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H25" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="J25" t="s">
         <v>13</v>
       </c>
       <c r="K25" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L25" t="s">
         <v>25</v>
       </c>
       <c r="M25" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="N25" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="O25">
         <v>40</v>
@@ -3226,13 +3895,13 @@
     </row>
     <row r="26" spans="6:15">
       <c r="F26" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G26" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H26" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I26" t="s">
         <v>57</v>
@@ -3241,16 +3910,16 @@
         <v>13</v>
       </c>
       <c r="K26" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L26" t="s">
         <v>25</v>
       </c>
       <c r="M26" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N26" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="O26">
         <v>10</v>
@@ -3258,13 +3927,13 @@
     </row>
     <row r="27" spans="6:15">
       <c r="F27" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G27" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H27" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="I27" t="s">
         <v>60</v>
@@ -3273,16 +3942,16 @@
         <v>13</v>
       </c>
       <c r="K27" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L27" t="s">
         <v>25</v>
       </c>
       <c r="M27" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N27" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="O27">
         <v>20</v>
@@ -3290,13 +3959,13 @@
     </row>
     <row r="28" spans="6:15">
       <c r="F28" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G28" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H28" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I28" t="s">
         <v>63</v>
@@ -3305,16 +3974,16 @@
         <v>13</v>
       </c>
       <c r="K28" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L28" t="s">
         <v>25</v>
       </c>
       <c r="M28" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N28" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="O28">
         <v>30</v>
@@ -3322,31 +3991,31 @@
     </row>
     <row r="29" spans="6:15">
       <c r="F29" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G29" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H29" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="I29" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J29" t="s">
         <v>13</v>
       </c>
       <c r="K29" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L29" t="s">
         <v>25</v>
       </c>
       <c r="M29" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N29" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="O29">
         <v>40</v>
@@ -3354,13 +4023,13 @@
     </row>
     <row r="30" spans="6:15">
       <c r="F30" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G30" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H30" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="I30" t="s">
         <v>66</v>
@@ -3369,16 +4038,16 @@
         <v>13</v>
       </c>
       <c r="K30" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L30" t="s">
         <v>25</v>
       </c>
       <c r="M30" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N30" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="O30">
         <v>50</v>
@@ -3386,13 +4055,13 @@
     </row>
     <row r="31" spans="6:15">
       <c r="F31" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G31" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H31" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="I31" t="s">
         <v>69</v>
@@ -3401,16 +4070,16 @@
         <v>13</v>
       </c>
       <c r="K31" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L31" t="s">
         <v>25</v>
       </c>
       <c r="M31" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N31" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="O31">
         <v>60</v>
@@ -3418,28 +4087,28 @@
     </row>
     <row r="32" spans="6:15">
       <c r="F32" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G32" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H32" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J32" t="s">
         <v>13</v>
       </c>
       <c r="K32" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L32" t="s">
         <v>25</v>
       </c>
       <c r="M32" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="N32" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="O32">
         <v>70</v>
@@ -3447,28 +4116,28 @@
     </row>
     <row r="33" spans="6:15">
       <c r="F33" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G33" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H33" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J33" t="s">
         <v>13</v>
       </c>
       <c r="K33" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L33" t="s">
         <v>25</v>
       </c>
       <c r="M33" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="N33" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="O33">
         <v>80</v>
@@ -3476,28 +4145,28 @@
     </row>
     <row r="34" spans="6:15">
       <c r="F34" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G34" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="H34" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J34" t="s">
         <v>13</v>
       </c>
       <c r="K34" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="L34" t="s">
         <v>25</v>
       </c>
       <c r="M34" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="N34" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="O34">
         <v>90</v>
@@ -3505,13 +4174,13 @@
     </row>
     <row r="35" spans="6:15">
       <c r="F35" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G35" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H35" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="I35" t="s">
         <v>72</v>
@@ -3520,16 +4189,16 @@
         <v>13</v>
       </c>
       <c r="K35" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L35" t="s">
         <v>25</v>
       </c>
       <c r="M35" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N35" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="O35">
         <v>10</v>
@@ -3537,13 +4206,13 @@
     </row>
     <row r="36" spans="6:15">
       <c r="F36" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G36" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H36" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I36" t="s">
         <v>75</v>
@@ -3552,16 +4221,16 @@
         <v>13</v>
       </c>
       <c r="K36" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L36" t="s">
         <v>25</v>
       </c>
       <c r="M36" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N36" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="O36">
         <v>20</v>
@@ -3569,13 +4238,13 @@
     </row>
     <row r="37" spans="6:15">
       <c r="F37" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G37" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H37" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="I37" t="s">
         <v>78</v>
@@ -3584,16 +4253,16 @@
         <v>13</v>
       </c>
       <c r="K37" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L37" t="s">
         <v>25</v>
       </c>
       <c r="M37" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N37" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="O37">
         <v>30</v>
@@ -3601,13 +4270,13 @@
     </row>
     <row r="38" spans="6:15">
       <c r="F38" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G38" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H38" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="I38" t="s">
         <v>81</v>
@@ -3616,30 +4285,30 @@
         <v>13</v>
       </c>
       <c r="K38" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L38" t="s">
         <v>25</v>
       </c>
       <c r="M38" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N38" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="O38">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="6:15">
+    <row r="39" customFormat="1" spans="6:15">
       <c r="F39" t="s">
-        <v>241</v>
-      </c>
-      <c r="G39" t="s">
-        <v>242</v>
+        <v>245</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="H39" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="I39" t="s">
         <v>84</v>
@@ -3654,24 +4323,24 @@
         <v>25</v>
       </c>
       <c r="M39" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N39" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="O39">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="6:15">
       <c r="F40" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G40" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H40" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="I40" t="s">
         <v>87</v>
@@ -3680,30 +4349,30 @@
         <v>13</v>
       </c>
       <c r="K40" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L40" t="s">
         <v>25</v>
       </c>
       <c r="M40" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N40" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="O40">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="6:15">
       <c r="F41" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G41" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H41" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="I41" t="s">
         <v>90</v>
@@ -3712,30 +4381,30 @@
         <v>13</v>
       </c>
       <c r="K41" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="L41" t="s">
         <v>25</v>
       </c>
       <c r="M41" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N41" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="O41">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="6:15">
       <c r="F42" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G42" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H42" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I42" t="s">
         <v>93</v>
@@ -3744,68 +4413,68 @@
         <v>13</v>
       </c>
       <c r="K42" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L42" t="s">
         <v>25</v>
       </c>
       <c r="M42" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N42" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="O42">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="6:15">
       <c r="F43" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="G43" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H43" t="s">
-        <v>259</v>
+        <v>263</v>
+      </c>
+      <c r="I43" t="s">
+        <v>96</v>
       </c>
       <c r="J43" t="s">
         <v>13</v>
       </c>
       <c r="K43" t="s">
-        <v>136</v>
+        <v>218</v>
       </c>
       <c r="L43" t="s">
         <v>25</v>
       </c>
       <c r="M43" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="N43" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="O43">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="6:15">
       <c r="F44" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G44" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="H44" t="s">
-        <v>263</v>
-      </c>
-      <c r="I44" t="s">
-        <v>99</v>
+        <v>267</v>
       </c>
       <c r="J44" t="s">
         <v>13</v>
       </c>
       <c r="K44" t="s">
-        <v>257</v>
+        <v>140</v>
       </c>
       <c r="L44" t="s">
         <v>25</v>
@@ -3814,21 +4483,21 @@
         <v>123</v>
       </c>
       <c r="N44" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="O44">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="6:15">
       <c r="F45" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G45" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H45" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="I45" t="s">
         <v>102</v>
@@ -3837,68 +4506,68 @@
         <v>13</v>
       </c>
       <c r="K45" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="L45" t="s">
         <v>25</v>
       </c>
       <c r="M45" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N45" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="O45">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="6:15">
       <c r="F46" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G46" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H46" t="s">
-        <v>271</v>
+        <v>275</v>
+      </c>
+      <c r="I46" t="s">
+        <v>105</v>
       </c>
       <c r="J46" t="s">
         <v>13</v>
       </c>
       <c r="K46" t="s">
-        <v>136</v>
+        <v>265</v>
       </c>
       <c r="L46" t="s">
         <v>25</v>
       </c>
       <c r="M46" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="N46" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="O46">
-        <v>110</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="6:15">
       <c r="F47" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G47" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H47" t="s">
-        <v>275</v>
-      </c>
-      <c r="I47" t="s">
-        <v>105</v>
+        <v>279</v>
       </c>
       <c r="J47" t="s">
         <v>13</v>
       </c>
       <c r="K47" t="s">
-        <v>269</v>
+        <v>140</v>
       </c>
       <c r="L47" t="s">
         <v>25</v>
@@ -3907,16 +4576,47 @@
         <v>123</v>
       </c>
       <c r="N47" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="O47">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="6:15">
+      <c r="F48" t="s">
+        <v>281</v>
+      </c>
+      <c r="G48" t="s">
+        <v>282</v>
+      </c>
+      <c r="H48" t="s">
+        <v>283</v>
+      </c>
+      <c r="I48" t="s">
+        <v>108</v>
+      </c>
+      <c r="J48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" t="s">
+        <v>277</v>
+      </c>
+      <c r="L48" t="s">
+        <v>25</v>
+      </c>
+      <c r="M48" t="s">
+        <v>127</v>
+      </c>
+      <c r="N48" t="s">
+        <v>284</v>
+      </c>
+      <c r="O48">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>
@@ -3925,590 +4625,592 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB36D654-EE0C-E540-866A-1B1845FAABF3}">
-  <dimension ref="D7:P13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="4" max="4" width="24.3984375" customWidth="1"/>
-    <col min="5" max="5" width="28.3984375" customWidth="1"/>
-    <col min="6" max="6" width="41.19921875" customWidth="1"/>
-    <col min="8" max="8" width="6.19921875" customWidth="1"/>
-    <col min="9" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="24.4" customWidth="1"/>
+    <col min="5" max="5" width="28.4" customWidth="1"/>
+    <col min="6" max="6" width="41.2" customWidth="1"/>
+    <col min="8" max="8" width="6.2" customWidth="1"/>
+    <col min="9" max="11" width="11" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="3" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="11" hidden="1" customWidth="1"/>
-    <col min="14" max="16" width="0.19921875" hidden="1" customWidth="1"/>
+    <col min="14" max="16" width="0.2" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:7">
       <c r="D7" t="s">
-        <v>402</v>
+        <v>285</v>
       </c>
       <c r="E7" t="s">
-        <v>404</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>403</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="5:7">
       <c r="E8" t="s">
-        <v>405</v>
+        <v>287</v>
       </c>
       <c r="F8" t="s">
-        <v>405</v>
+        <v>287</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="4:7">
+    <row r="9" spans="5:7">
       <c r="E9" t="s">
-        <v>406</v>
+        <v>288</v>
       </c>
       <c r="F9" t="s">
-        <v>406</v>
+        <v>288</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="4:7">
+    <row r="10" spans="5:7">
       <c r="E10" t="s">
-        <v>407</v>
+        <v>289</v>
       </c>
       <c r="F10" t="s">
-        <v>407</v>
+        <v>289</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:7">
+    <row r="11" spans="5:7">
       <c r="E11" t="s">
-        <v>408</v>
+        <v>290</v>
       </c>
       <c r="F11" t="s">
-        <v>408</v>
+        <v>290</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:7">
+    <row r="12" spans="5:7">
       <c r="E12" t="s">
-        <v>409</v>
+        <v>291</v>
       </c>
       <c r="F12" t="s">
-        <v>409</v>
+        <v>291</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:7">
+    <row r="13" spans="5:7">
       <c r="E13" t="s">
-        <v>410</v>
+        <v>292</v>
       </c>
       <c r="F13" t="s">
-        <v>410</v>
+        <v>292</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="D7:H83"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:H84"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" topLeftCell="E64" workbookViewId="0">
+      <selection activeCell="D75" sqref="$A75:$XFD75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="54.796875" customWidth="1"/>
-    <col min="8" max="8" width="28.796875" customWidth="1"/>
+    <col min="7" max="7" width="54.8" customWidth="1"/>
+    <col min="8" max="8" width="28.8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="G7" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="H7" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="6:8">
       <c r="F8" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="4:8">
+    <row r="9" spans="6:8">
       <c r="F9" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="4:8">
+    <row r="10" spans="6:8">
       <c r="F10" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="4:8">
+    <row r="11" spans="6:8">
       <c r="F11" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G11" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="4:8">
+    <row r="12" spans="6:8">
       <c r="F12" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G12" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="13" spans="4:8">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="6:8">
       <c r="F13" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G13" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="14" spans="4:8">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="6:8">
       <c r="F14" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G14" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="15" spans="4:8">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="6:8">
       <c r="F15" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G15" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H15" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="16" spans="4:8">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="6:8">
       <c r="F16" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G16" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H16" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G17" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H17" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H18" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G19" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H19" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G20" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H20" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G21" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H21" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G22" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H22" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G23" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H23" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="6:8">
       <c r="F24" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G24" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H24" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="6:8">
       <c r="F25" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G25" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H25" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="6:8">
       <c r="F26" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G26" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H26" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="27" spans="6:8">
       <c r="F27" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G27" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H27" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="6:8">
       <c r="F28" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G28" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H28" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29" spans="6:8">
       <c r="F29" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G29" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H29" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" spans="6:8">
       <c r="F30" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G30" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H30" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="31" spans="6:8">
       <c r="F31" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G31" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H31" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" spans="6:8">
       <c r="F32" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G32" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H32" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="6:8">
       <c r="F33" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G33" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H33" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="6:8">
       <c r="F34" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G34" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H34" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="6:8">
       <c r="F35" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G35" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H35" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36" spans="6:8">
       <c r="F36" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G36" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H36" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="6:8">
       <c r="F37" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G37" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H37" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="6:8">
       <c r="F38" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G38" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H38" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="39" spans="6:8">
       <c r="F39" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G39" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="H39" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="40" spans="6:8">
       <c r="F40" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G40" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="H40" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="6:8">
       <c r="F41" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G41" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="H41" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="42" spans="6:8">
       <c r="F42" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G42" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="H42" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="6:8">
       <c r="F43" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G43" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="H43" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" spans="6:8">
       <c r="F44" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G44" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="H44" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="6:8">
       <c r="F45" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G45" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="H45" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="6:8">
       <c r="F46" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G46" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="H46" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" spans="6:8">
       <c r="F47" t="s">
+        <v>297</v>
+      </c>
+      <c r="G47" t="s">
         <v>281</v>
       </c>
-      <c r="G47" t="s">
-        <v>273</v>
-      </c>
       <c r="H47" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48" spans="6:8">
       <c r="F48" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G48" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="H48" t="s">
         <v>25</v>
@@ -4516,10 +5218,10 @@
     </row>
     <row r="49" spans="6:8">
       <c r="F49" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G49" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H49" t="s">
         <v>25</v>
@@ -4527,10 +5229,10 @@
     </row>
     <row r="50" spans="6:8">
       <c r="F50" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G50" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H50" t="s">
         <v>25</v>
@@ -4538,10 +5240,10 @@
     </row>
     <row r="51" spans="6:8">
       <c r="F51" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G51" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H51" t="s">
         <v>25</v>
@@ -4549,10 +5251,10 @@
     </row>
     <row r="52" spans="6:8">
       <c r="F52" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G52" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H52" t="s">
         <v>25</v>
@@ -4560,10 +5262,10 @@
     </row>
     <row r="53" spans="6:8">
       <c r="F53" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G53" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H53" t="s">
         <v>25</v>
@@ -4571,10 +5273,10 @@
     </row>
     <row r="54" spans="6:8">
       <c r="F54" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G54" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H54" t="s">
         <v>25</v>
@@ -4582,10 +5284,10 @@
     </row>
     <row r="55" spans="6:8">
       <c r="F55" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G55" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H55" t="s">
         <v>25</v>
@@ -4593,10 +5295,10 @@
     </row>
     <row r="56" spans="6:8">
       <c r="F56" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G56" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H56" t="s">
         <v>25</v>
@@ -4604,10 +5306,10 @@
     </row>
     <row r="57" spans="6:8">
       <c r="F57" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G57" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H57" t="s">
         <v>25</v>
@@ -4615,10 +5317,10 @@
     </row>
     <row r="58" spans="6:8">
       <c r="F58" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G58" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H58" t="s">
         <v>25</v>
@@ -4626,10 +5328,10 @@
     </row>
     <row r="59" spans="6:8">
       <c r="F59" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G59" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="H59" t="s">
         <v>25</v>
@@ -4637,10 +5339,10 @@
     </row>
     <row r="60" spans="6:8">
       <c r="F60" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G60" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H60" t="s">
         <v>25</v>
@@ -4648,10 +5350,10 @@
     </row>
     <row r="61" spans="6:8">
       <c r="F61" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G61" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H61" t="s">
         <v>25</v>
@@ -4659,10 +5361,10 @@
     </row>
     <row r="62" spans="6:8">
       <c r="F62" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G62" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H62" t="s">
         <v>25</v>
@@ -4670,10 +5372,10 @@
     </row>
     <row r="63" spans="6:8">
       <c r="F63" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G63" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H63" t="s">
         <v>25</v>
@@ -4681,10 +5383,10 @@
     </row>
     <row r="64" spans="6:8">
       <c r="F64" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G64" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H64" t="s">
         <v>25</v>
@@ -4692,10 +5394,10 @@
     </row>
     <row r="65" spans="6:8">
       <c r="F65" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G65" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H65" t="s">
         <v>25</v>
@@ -4703,10 +5405,10 @@
     </row>
     <row r="66" spans="6:8">
       <c r="F66" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H66" t="s">
         <v>25</v>
@@ -4714,10 +5416,10 @@
     </row>
     <row r="67" spans="6:8">
       <c r="F67" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G67" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H67" t="s">
         <v>25</v>
@@ -4725,10 +5427,10 @@
     </row>
     <row r="68" spans="6:8">
       <c r="F68" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G68" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H68" t="s">
         <v>25</v>
@@ -4736,10 +5438,10 @@
     </row>
     <row r="69" spans="6:8">
       <c r="F69" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G69" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H69" t="s">
         <v>25</v>
@@ -4747,10 +5449,10 @@
     </row>
     <row r="70" spans="6:8">
       <c r="F70" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G70" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H70" t="s">
         <v>25</v>
@@ -4758,10 +5460,10 @@
     </row>
     <row r="71" spans="6:8">
       <c r="F71" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G71" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H71" t="s">
         <v>25</v>
@@ -4769,10 +5471,10 @@
     </row>
     <row r="72" spans="6:8">
       <c r="F72" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G72" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="H72" t="s">
         <v>25</v>
@@ -4780,10 +5482,10 @@
     </row>
     <row r="73" spans="6:8">
       <c r="F73" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G73" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H73" t="s">
         <v>25</v>
@@ -4791,10 +5493,10 @@
     </row>
     <row r="74" spans="6:8">
       <c r="F74" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G74" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H74" t="s">
         <v>25</v>
@@ -4802,10 +5504,10 @@
     </row>
     <row r="75" spans="6:8">
       <c r="F75" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G75" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H75" t="s">
         <v>25</v>
@@ -4813,10 +5515,10 @@
     </row>
     <row r="76" spans="6:8">
       <c r="F76" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G76" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="H76" t="s">
         <v>25</v>
@@ -4824,10 +5526,10 @@
     </row>
     <row r="77" spans="6:8">
       <c r="F77" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G77" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H77" t="s">
         <v>25</v>
@@ -4835,10 +5537,10 @@
     </row>
     <row r="78" spans="6:8">
       <c r="F78" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G78" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H78" t="s">
         <v>25</v>
@@ -4846,10 +5548,10 @@
     </row>
     <row r="79" spans="6:8">
       <c r="F79" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G79" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H79" t="s">
         <v>25</v>
@@ -4857,10 +5559,10 @@
     </row>
     <row r="80" spans="6:8">
       <c r="F80" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G80" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H80" t="s">
         <v>25</v>
@@ -4868,10 +5570,10 @@
     </row>
     <row r="81" spans="6:8">
       <c r="F81" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G81" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H81" t="s">
         <v>25</v>
@@ -4879,10 +5581,10 @@
     </row>
     <row r="82" spans="6:8">
       <c r="F82" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G82" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H82" t="s">
         <v>25</v>
@@ -4890,1187 +5592,1199 @@
     </row>
     <row r="83" spans="6:8">
       <c r="F83" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G83" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H83" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="84" spans="6:8">
+      <c r="F84" t="s">
+        <v>299</v>
+      </c>
+      <c r="G84" t="s">
+        <v>281</v>
+      </c>
+      <c r="H84" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="D7:G161"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:G165"/>
   <sheetViews>
-    <sheetView topLeftCell="D112" workbookViewId="0">
-      <selection activeCell="G169" sqref="G169"/>
+    <sheetView topLeftCell="F100" workbookViewId="0">
+      <selection activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="11.59765625" customWidth="1"/>
-    <col min="4" max="4" width="23.796875" customWidth="1"/>
-    <col min="5" max="5" width="11.59765625" customWidth="1"/>
+    <col min="1" max="3" width="11.6" customWidth="1"/>
+    <col min="4" max="4" width="23.8" customWidth="1"/>
+    <col min="5" max="5" width="11.6" customWidth="1"/>
     <col min="6" max="6" width="82" customWidth="1"/>
-    <col min="7" max="7" width="85.19921875" customWidth="1"/>
-    <col min="8" max="1025" width="11.59765625" customWidth="1"/>
+    <col min="7" max="7" width="85.2" customWidth="1"/>
+    <col min="8" max="1025" width="11.6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:7" ht="12.75" customHeight="1">
+    <row r="7" customHeight="1" spans="4:7">
       <c r="D7" s="1" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="8" spans="4:7" ht="12.75" customHeight="1">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="6:7">
       <c r="F8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="9" spans="4:7">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7">
       <c r="F9" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G9" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="10" spans="4:7">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="10" spans="6:7">
       <c r="F10" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="11" spans="4:7">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="6:7">
       <c r="F11" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="12" spans="4:7">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="12" spans="6:7">
       <c r="F12" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="13" spans="4:7">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="13" spans="6:7">
       <c r="F13" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G13" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="14" spans="4:7">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="6:7">
       <c r="F14" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G14" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="15" spans="4:7">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="15" spans="6:7">
       <c r="F15" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="16" spans="4:7">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="16" spans="6:7">
       <c r="F16" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G17" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="6:7">
       <c r="F18" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G18" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G19" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="6:7">
       <c r="F20" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G20" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G21" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G22" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G23" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="6:7">
       <c r="F24" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G24" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G25" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G26" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="6:7">
       <c r="F27" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G27" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="6:7">
       <c r="F28" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G28" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="6:7">
       <c r="F29" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G29" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="6:7">
       <c r="F30" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G30" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="6:7">
       <c r="F31" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G31" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
     </row>
     <row r="32" spans="6:7">
       <c r="F32" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G32" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="6:7">
       <c r="F33" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G33" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
     </row>
     <row r="34" spans="6:7">
       <c r="F34" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G34" t="s">
-        <v>310</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="6:7">
       <c r="F35" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G35" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36" spans="6:7">
       <c r="F36" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G36" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="6:7">
       <c r="F37" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G37" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38" spans="6:7">
       <c r="F38" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G38" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="6:7">
       <c r="F39" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G39" t="s">
-        <v>312</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40" spans="6:7">
       <c r="F40" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G40" t="s">
-        <v>313</v>
+        <v>329</v>
       </c>
     </row>
     <row r="41" spans="6:7">
       <c r="F41" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G41" t="s">
-        <v>314</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="6:7">
       <c r="F42" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G42" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
     </row>
     <row r="43" spans="6:7">
       <c r="F43" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G43" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44" spans="6:7">
       <c r="F44" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G44" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45" spans="6:7">
       <c r="F45" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G45" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
     </row>
     <row r="46" spans="6:7">
       <c r="F46" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G46" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47" spans="6:7">
       <c r="F47" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G47" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48" spans="6:7">
       <c r="F48" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G48" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="6:7">
       <c r="F49" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G49" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="6:7">
       <c r="F50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G50" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
     </row>
     <row r="51" spans="6:7">
       <c r="F51" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G51" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
     </row>
     <row r="52" spans="6:7">
       <c r="F52" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G52" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53" spans="6:7">
       <c r="F53" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G53" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" spans="6:7">
       <c r="F54" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G54" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
     </row>
     <row r="55" spans="6:7">
       <c r="F55" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G55" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
     </row>
     <row r="56" spans="6:7">
       <c r="F56" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G56" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
     </row>
     <row r="57" spans="6:7">
       <c r="F57" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G57" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
     </row>
     <row r="58" spans="6:7">
       <c r="F58" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G58" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
     </row>
     <row r="59" spans="6:7">
       <c r="F59" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G59" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" spans="6:7">
       <c r="F60" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G60" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61" spans="6:7">
       <c r="F61" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G61" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
     </row>
     <row r="62" spans="6:7">
       <c r="F62" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G62" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
     </row>
     <row r="63" spans="6:7">
       <c r="F63" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G63" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="64" spans="6:7">
       <c r="F64" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G64" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
     </row>
     <row r="65" spans="6:7">
       <c r="F65" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G65" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
     </row>
     <row r="66" spans="6:7">
       <c r="F66" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G66" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
     </row>
     <row r="67" spans="6:7">
       <c r="F67" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G67" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
     </row>
     <row r="68" spans="6:7">
       <c r="F68" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G68" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
     </row>
     <row r="69" spans="6:7">
       <c r="F69" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G69" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
     </row>
     <row r="70" spans="6:7">
       <c r="F70" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G70" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
     </row>
     <row r="71" spans="6:7">
       <c r="F71" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G71" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
     </row>
     <row r="72" spans="6:7">
       <c r="F72" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G72" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
     </row>
     <row r="73" spans="6:7">
       <c r="F73" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G73" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
     </row>
     <row r="74" spans="6:7">
       <c r="F74" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G74" t="s">
-        <v>345</v>
+        <v>361</v>
       </c>
     </row>
     <row r="75" spans="6:7">
       <c r="F75" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G75" t="s">
-        <v>346</v>
+        <v>362</v>
       </c>
     </row>
     <row r="76" spans="6:7">
       <c r="F76" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G76" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
     </row>
     <row r="77" spans="6:7">
       <c r="F77" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G77" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
     </row>
     <row r="78" spans="6:7">
       <c r="F78" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G78" t="s">
-        <v>319</v>
+        <v>335</v>
       </c>
     </row>
     <row r="79" spans="6:7">
       <c r="F79" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G79" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
     </row>
     <row r="80" spans="6:7">
       <c r="F80" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G80" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
     </row>
     <row r="81" spans="6:7">
       <c r="F81" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G81" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
     </row>
     <row r="82" spans="6:7">
       <c r="F82" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G82" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
     </row>
     <row r="83" spans="6:7">
       <c r="F83" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G83" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
     </row>
     <row r="84" spans="6:7">
       <c r="F84" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G84" t="s">
-        <v>325</v>
+        <v>341</v>
       </c>
     </row>
     <row r="85" spans="6:7">
       <c r="F85" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G85" t="s">
-        <v>326</v>
+        <v>342</v>
       </c>
     </row>
     <row r="86" spans="6:7">
       <c r="F86" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G86" t="s">
-        <v>327</v>
+        <v>343</v>
       </c>
     </row>
     <row r="87" spans="6:7">
       <c r="F87" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G87" t="s">
-        <v>328</v>
+        <v>344</v>
       </c>
     </row>
     <row r="88" spans="6:7">
       <c r="F88" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G88" t="s">
-        <v>329</v>
+        <v>345</v>
       </c>
     </row>
     <row r="89" spans="6:7">
       <c r="F89" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G89" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
     </row>
     <row r="90" spans="6:7">
       <c r="F90" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G90" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
     </row>
     <row r="91" spans="6:7">
       <c r="F91" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G91" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="92" spans="6:7">
       <c r="F92" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G92" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
     </row>
     <row r="93" spans="6:7">
       <c r="F93" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G93" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
     </row>
     <row r="94" spans="6:7">
       <c r="F94" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G94" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
     </row>
     <row r="95" spans="6:7">
       <c r="F95" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G95" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
     </row>
     <row r="96" spans="6:7">
       <c r="F96" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G96" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
     </row>
     <row r="97" spans="6:7">
       <c r="F97" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G97" t="s">
-        <v>339</v>
+        <v>355</v>
       </c>
     </row>
     <row r="98" spans="6:7">
       <c r="F98" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G98" t="s">
-        <v>340</v>
+        <v>356</v>
       </c>
     </row>
     <row r="99" spans="6:7">
       <c r="F99" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G99" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
     </row>
     <row r="100" spans="6:7">
       <c r="F100" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G100" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
     </row>
     <row r="101" spans="6:7">
       <c r="F101" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G101" t="s">
-        <v>343</v>
+        <v>359</v>
       </c>
     </row>
     <row r="102" spans="6:7">
       <c r="F102" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G102" t="s">
-        <v>347</v>
+        <v>363</v>
       </c>
     </row>
     <row r="103" spans="6:7">
       <c r="F103" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G103" t="s">
-        <v>348</v>
+        <v>364</v>
       </c>
     </row>
     <row r="104" spans="6:7">
       <c r="F104" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G104" t="s">
-        <v>349</v>
+        <v>365</v>
       </c>
     </row>
     <row r="105" spans="6:7">
       <c r="F105" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G105" t="s">
-        <v>350</v>
+        <v>366</v>
       </c>
     </row>
     <row r="106" spans="6:7">
       <c r="F106" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G106" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
     </row>
     <row r="107" spans="6:7">
       <c r="F107" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G107" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
     </row>
     <row r="108" spans="6:7">
       <c r="F108" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G108" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
     </row>
     <row r="109" spans="6:7">
       <c r="F109" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G109" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="110" spans="6:7">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="110" customFormat="1" spans="6:7">
       <c r="F110" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G110" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="111" spans="6:7">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="111" customFormat="1" spans="6:7">
       <c r="F111" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G111" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="112" spans="6:7">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="112" customFormat="1" spans="6:7">
       <c r="F112" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G112" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="113" spans="6:7">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="113" customFormat="1" spans="6:7">
       <c r="F113" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G113" t="s">
-        <v>357</v>
+        <v>373</v>
       </c>
     </row>
     <row r="114" spans="6:7">
       <c r="F114" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G114" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
     </row>
     <row r="115" spans="6:7">
       <c r="F115" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G115" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
     </row>
     <row r="116" spans="6:7">
       <c r="F116" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G116" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
     </row>
     <row r="117" spans="6:7">
       <c r="F117" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G117" t="s">
-        <v>361</v>
+        <v>377</v>
       </c>
     </row>
     <row r="118" spans="6:7">
       <c r="F118" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G118" t="s">
-        <v>362</v>
+        <v>378</v>
       </c>
     </row>
     <row r="119" spans="6:7">
       <c r="F119" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G119" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
     </row>
     <row r="120" spans="6:7">
       <c r="F120" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G120" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
     </row>
     <row r="121" spans="6:7">
       <c r="F121" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G121" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
     </row>
     <row r="122" spans="6:7">
       <c r="F122" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="G122" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
     </row>
     <row r="123" spans="6:7">
       <c r="F123" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="G123" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
     </row>
     <row r="124" spans="6:7">
       <c r="F124" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="G124" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
     </row>
     <row r="125" spans="6:7">
       <c r="F125" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="G125" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
     </row>
     <row r="126" spans="6:7">
       <c r="F126" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G126" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
     </row>
     <row r="127" spans="6:7">
       <c r="F127" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G127" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
     </row>
     <row r="128" spans="6:7">
       <c r="F128" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G128" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
     <row r="129" spans="6:7">
       <c r="F129" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G129" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
     </row>
     <row r="130" spans="6:7">
       <c r="F130" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="G130" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
     </row>
     <row r="131" spans="6:7">
       <c r="F131" t="s">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="G131" t="s">
-        <v>374</v>
+        <v>390</v>
       </c>
     </row>
     <row r="132" spans="6:7">
       <c r="F132" t="s">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="G132" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
     </row>
     <row r="133" spans="6:7">
       <c r="F133" t="s">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="G133" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
     </row>
     <row r="134" spans="6:7">
       <c r="F134" t="s">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="G134" t="s">
-        <v>377</v>
+        <v>393</v>
       </c>
     </row>
     <row r="135" spans="6:7">
       <c r="F135" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="G135" t="s">
-        <v>378</v>
+        <v>394</v>
       </c>
     </row>
     <row r="136" spans="6:7">
       <c r="F136" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="G136" t="s">
-        <v>379</v>
+        <v>395</v>
       </c>
     </row>
     <row r="137" spans="6:7">
       <c r="F137" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="G137" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
     </row>
     <row r="138" spans="6:7">
       <c r="F138" t="s">
-        <v>261</v>
+        <v>206</v>
       </c>
       <c r="G138" t="s">
-        <v>381</v>
+        <v>397</v>
       </c>
     </row>
     <row r="139" spans="6:7">
       <c r="F139" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G139" t="s">
-        <v>382</v>
+        <v>398</v>
       </c>
     </row>
     <row r="140" spans="6:7">
       <c r="F140" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G140" t="s">
-        <v>383</v>
+        <v>399</v>
       </c>
     </row>
     <row r="141" spans="6:7">
       <c r="F141" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G141" t="s">
-        <v>384</v>
+        <v>400</v>
       </c>
     </row>
     <row r="142" spans="6:7">
       <c r="F142" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G142" t="s">
-        <v>385</v>
+        <v>401</v>
       </c>
     </row>
     <row r="143" spans="6:7">
       <c r="F143" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="G143" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
     </row>
     <row r="144" spans="6:7">
       <c r="F144" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G144" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
     </row>
     <row r="145" spans="6:7">
       <c r="F145" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G145" t="s">
-        <v>388</v>
+        <v>404</v>
       </c>
     </row>
     <row r="146" spans="6:7">
       <c r="F146" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G146" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
     </row>
     <row r="147" spans="6:7">
       <c r="F147" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G147" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
     </row>
     <row r="148" spans="6:7">
       <c r="F148" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="G148" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
     </row>
     <row r="149" spans="6:7">
       <c r="F149" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="G149" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
     </row>
     <row r="150" spans="6:7">
@@ -6078,7 +6792,7 @@
         <v>273</v>
       </c>
       <c r="G150" t="s">
-        <v>292</v>
+        <v>409</v>
       </c>
     </row>
     <row r="151" spans="6:7">
@@ -6086,7 +6800,7 @@
         <v>273</v>
       </c>
       <c r="G151" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
     </row>
     <row r="152" spans="6:7">
@@ -6094,7 +6808,7 @@
         <v>273</v>
       </c>
       <c r="G152" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
     </row>
     <row r="153" spans="6:7">
@@ -6102,77 +6816,108 @@
         <v>273</v>
       </c>
       <c r="G153" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
     </row>
     <row r="154" spans="6:7">
       <c r="F154" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="G154" t="s">
-        <v>396</v>
+        <v>308</v>
       </c>
     </row>
     <row r="155" spans="6:7">
       <c r="F155" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="G155" t="s">
-        <v>334</v>
+        <v>413</v>
       </c>
     </row>
     <row r="156" spans="6:7">
       <c r="F156" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="G156" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
     </row>
     <row r="157" spans="6:7">
       <c r="F157" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="G157" t="s">
-        <v>308</v>
+        <v>415</v>
       </c>
     </row>
     <row r="158" spans="6:7">
       <c r="F158" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="G158" t="s">
-        <v>398</v>
+        <v>416</v>
       </c>
     </row>
     <row r="159" spans="6:7">
       <c r="F159" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="G159" t="s">
-        <v>399</v>
+        <v>350</v>
       </c>
     </row>
     <row r="160" spans="6:7">
       <c r="F160" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="G160" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
     </row>
     <row r="161" spans="6:7">
       <c r="F161" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="G161" t="s">
-        <v>308</v>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="162" spans="6:7">
+      <c r="F162" t="s">
+        <v>281</v>
+      </c>
+      <c r="G162" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="163" spans="6:7">
+      <c r="F163" t="s">
+        <v>281</v>
+      </c>
+      <c r="G163" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="164" spans="6:7">
+      <c r="F164" t="s">
+        <v>281</v>
+      </c>
+      <c r="G164" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="165" spans="6:7">
+      <c r="F165" t="s">
+        <v>281</v>
+      </c>
+      <c r="G165" t="s">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Book"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Book"&amp;12 Page &amp;P</oddFooter>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7785" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9347" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -1144,16 +1144,16 @@
     <t>devops-service.pipeline.audit</t>
   </si>
   <si>
-    <t>devops-service.pipeline-value.listByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline-value.queryById</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline-value.createOrUpdate</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline-value.delete</t>
+    <t>devops-service.devops-deploy-value.listByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.devops-deploy-value.queryById</t>
+  </si>
+  <si>
+    <t>devops-service.devops-deploy-value.createOrUpdate</t>
+  </si>
+  <si>
+    <t>devops-service.devops-deploy-value.delete</t>
   </si>
   <si>
     <t>devops-service.devops-project-config.pageByOptions</t>
@@ -1230,10 +1230,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1252,29 +1252,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1290,17 +1267,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1328,6 +1312,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1345,36 +1366,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1389,15 +1397,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1412,7 +1412,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1424,19 +1460,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1448,49 +1484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1508,79 +1502,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1596,6 +1518,84 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1603,6 +1603,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1621,11 +1641,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1633,8 +1659,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1650,30 +1676,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1695,159 +1697,157 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2207,25 +2207,25 @@
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" width="11.6" customWidth="1"/>
+    <col min="1" max="3" width="11.6018518518519" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="11.6" customWidth="1"/>
-    <col min="6" max="6" width="65.8" customWidth="1"/>
+    <col min="5" max="5" width="11.6018518518519" customWidth="1"/>
+    <col min="6" max="6" width="65.7962962962963" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
-    <col min="10" max="10" width="28.8" customWidth="1"/>
+    <col min="10" max="10" width="28.7962962962963" customWidth="1"/>
     <col min="11" max="11" width="26" customWidth="1"/>
     <col min="12" max="12" width="24" customWidth="1"/>
-    <col min="13" max="13" width="29.2" customWidth="1"/>
-    <col min="14" max="14" width="19.4" customWidth="1"/>
+    <col min="13" max="13" width="29.2037037037037" customWidth="1"/>
+    <col min="14" max="14" width="19.3981481481481" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
-    <col min="16" max="1025" width="11.6" customWidth="1"/>
+    <col min="16" max="1025" width="11.6018518518519" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:14">
+    <row r="7" ht="12.75" customHeight="1" spans="4:14">
       <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="6:14">
+    <row r="8" ht="12.75" customHeight="1" spans="6:14">
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
@@ -3174,29 +3174,29 @@
   <sheetPr/>
   <dimension ref="D7:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="L28" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="L43" workbookViewId="0">
       <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="3" width="11.6" customWidth="1"/>
-    <col min="4" max="4" width="15.2" customWidth="1"/>
-    <col min="5" max="5" width="11.6" customWidth="1"/>
-    <col min="6" max="6" width="56.2" customWidth="1"/>
-    <col min="7" max="7" width="18.2" customWidth="1"/>
-    <col min="8" max="8" width="27.8" customWidth="1"/>
+    <col min="1" max="3" width="11.6018518518519" customWidth="1"/>
+    <col min="4" max="4" width="15.2037037037037" customWidth="1"/>
+    <col min="5" max="5" width="11.6018518518519" customWidth="1"/>
+    <col min="6" max="6" width="56.2037037037037" customWidth="1"/>
+    <col min="7" max="7" width="18.2037037037037" customWidth="1"/>
+    <col min="8" max="8" width="27.7962962962963" customWidth="1"/>
     <col min="9" max="9" width="66" customWidth="1"/>
-    <col min="10" max="10" width="22.6" customWidth="1"/>
-    <col min="11" max="11" width="47.6" customWidth="1"/>
-    <col min="12" max="12" width="25.8" customWidth="1"/>
-    <col min="13" max="13" width="37.8" customWidth="1"/>
+    <col min="10" max="10" width="22.6018518518519" customWidth="1"/>
+    <col min="11" max="11" width="47.6018518518519" customWidth="1"/>
+    <col min="12" max="12" width="25.7962962962963" customWidth="1"/>
+    <col min="13" max="13" width="37.7962962962963" customWidth="1"/>
     <col min="14" max="14" width="27" customWidth="1"/>
-    <col min="15" max="15" width="9.8" customWidth="1"/>
-    <col min="16" max="1025" width="11.6" customWidth="1"/>
+    <col min="15" max="15" width="9.7962962962963" customWidth="1"/>
+    <col min="16" max="1025" width="11.6018518518519" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:15">
+    <row r="7" ht="12.75" customHeight="1" spans="4:15">
       <c r="D7" s="1" t="s">
         <v>108</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="6:15">
+    <row r="8" ht="12.75" customHeight="1" spans="6:15">
       <c r="F8" s="1" t="s">
         <v>116</v>
       </c>
@@ -4506,12 +4506,12 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelCol="7"/>
   <cols>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="6" max="6" width="26" customWidth="1"/>
-    <col min="7" max="7" width="54.8" customWidth="1"/>
-    <col min="8" max="8" width="28.8" customWidth="1"/>
+    <col min="7" max="7" width="54.7962962962963" customWidth="1"/>
+    <col min="8" max="8" width="28.7962962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:8">
@@ -5378,21 +5378,21 @@
   <sheetPr/>
   <dimension ref="D7:G161"/>
   <sheetViews>
-    <sheetView topLeftCell="D112" workbookViewId="0">
-      <selection activeCell="G169" sqref="G169"/>
+    <sheetView tabSelected="1" topLeftCell="D124" workbookViewId="0">
+      <selection activeCell="G129" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="11.6" customWidth="1"/>
-    <col min="4" max="4" width="23.8" customWidth="1"/>
-    <col min="5" max="5" width="11.6" customWidth="1"/>
+    <col min="1" max="3" width="11.6018518518519" customWidth="1"/>
+    <col min="4" max="4" width="23.7962962962963" customWidth="1"/>
+    <col min="5" max="5" width="11.6018518518519" customWidth="1"/>
     <col min="6" max="6" width="82" customWidth="1"/>
-    <col min="7" max="7" width="85.2" customWidth="1"/>
-    <col min="8" max="1025" width="11.6" customWidth="1"/>
+    <col min="7" max="7" width="85.2037037037037" customWidth="1"/>
+    <col min="8" max="1025" width="11.6018518518519" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" customHeight="1" spans="4:7">
+    <row r="7" ht="12.75" customHeight="1" spans="4:7">
       <c r="D7" s="1" t="s">
         <v>285</v>
       </c>
@@ -5406,7 +5406,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="6:7">
+    <row r="8" ht="12.75" customHeight="1" spans="6:7">
       <c r="F8" t="s">
         <v>121</v>
       </c>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="405">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -1151,6 +1151,15 @@
   </si>
   <si>
     <t>devops-service.devops-deploy-value.createOrUpdate</t>
+  </si>
+  <si>
+    <t>devops-service.devops-deploy-value.checkDelete</t>
+  </si>
+  <si>
+    <t>devops-service.devops-deploy-value.checkName</t>
+  </si>
+  <si>
+    <t>devops-service.devops-deploy-value.queryByAppIdAndEnvId</t>
   </si>
   <si>
     <t>devops-service.devops-deploy-value.delete</t>
@@ -1230,10 +1239,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1255,19 +1264,58 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1282,56 +1330,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1349,17 +1358,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1382,24 +1398,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1412,7 +1421,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1424,31 +1469,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1460,85 +1493,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1556,13 +1517,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1574,25 +1571,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1606,22 +1615,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1641,6 +1645,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1652,15 +1674,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1680,174 +1693,170 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5376,10 +5385,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:G161"/>
+  <dimension ref="D7:G164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D124" workbookViewId="0">
-      <selection activeCell="G129" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D115" workbookViewId="0">
+      <selection activeCell="G128" sqref="D7:G164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" outlineLevelCol="6"/>
@@ -6424,7 +6433,7 @@
     </row>
     <row r="135" spans="6:7">
       <c r="F135" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="G135" t="s">
         <v>379</v>
@@ -6432,7 +6441,7 @@
     </row>
     <row r="136" spans="6:7">
       <c r="F136" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="G136" t="s">
         <v>380</v>
@@ -6440,7 +6449,7 @@
     </row>
     <row r="137" spans="6:7">
       <c r="F137" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="G137" t="s">
         <v>381</v>
@@ -6496,7 +6505,7 @@
     </row>
     <row r="144" spans="6:7">
       <c r="F144" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G144" t="s">
         <v>388</v>
@@ -6504,7 +6513,7 @@
     </row>
     <row r="145" spans="6:7">
       <c r="F145" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G145" t="s">
         <v>389</v>
@@ -6512,7 +6521,7 @@
     </row>
     <row r="146" spans="6:7">
       <c r="F146" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G146" t="s">
         <v>390</v>
@@ -6544,26 +6553,26 @@
     </row>
     <row r="150" spans="6:7">
       <c r="F150" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G150" t="s">
-        <v>293</v>
+        <v>394</v>
       </c>
     </row>
     <row r="151" spans="6:7">
       <c r="F151" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G151" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="152" spans="6:7">
       <c r="F152" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G152" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="153" spans="6:7">
@@ -6571,7 +6580,7 @@
         <v>274</v>
       </c>
       <c r="G153" t="s">
-        <v>396</v>
+        <v>293</v>
       </c>
     </row>
     <row r="154" spans="6:7">
@@ -6587,7 +6596,7 @@
         <v>274</v>
       </c>
       <c r="G155" t="s">
-        <v>335</v>
+        <v>398</v>
       </c>
     </row>
     <row r="156" spans="6:7">
@@ -6595,7 +6604,7 @@
         <v>274</v>
       </c>
       <c r="G156" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="157" spans="6:7">
@@ -6603,7 +6612,7 @@
         <v>274</v>
       </c>
       <c r="G157" t="s">
-        <v>309</v>
+        <v>400</v>
       </c>
     </row>
     <row r="158" spans="6:7">
@@ -6611,7 +6620,7 @@
         <v>274</v>
       </c>
       <c r="G158" t="s">
-        <v>399</v>
+        <v>335</v>
       </c>
     </row>
     <row r="159" spans="6:7">
@@ -6619,7 +6628,7 @@
         <v>274</v>
       </c>
       <c r="G159" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="160" spans="6:7">
@@ -6627,7 +6636,7 @@
         <v>274</v>
       </c>
       <c r="G160" t="s">
-        <v>401</v>
+        <v>309</v>
       </c>
     </row>
     <row r="161" spans="6:7">
@@ -6635,6 +6644,30 @@
         <v>274</v>
       </c>
       <c r="G161" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="162" spans="6:7">
+      <c r="F162" t="s">
+        <v>274</v>
+      </c>
+      <c r="G162" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="163" spans="6:7">
+      <c r="F163" t="s">
+        <v>274</v>
+      </c>
+      <c r="G163" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="164" spans="6:7">
+      <c r="F164" t="s">
+        <v>274</v>
+      </c>
+      <c r="G164" t="s">
         <v>309</v>
       </c>
     </row>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongle/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongle/Documents/work/service/devops-service/src/main/resources/script/front/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805C5DAA-4827-DC48-B696-C9D6F6A5F5E2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26237F2B-A5CB-C846-A4FA-67DB26BB8B55}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="494">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -427,1126 +427,1172 @@
     <t>应用管理</t>
   </si>
   <si>
+    <t>choerodon.code.top.project</t>
+  </si>
+  <si>
+    <t>apps</t>
+  </si>
+  <si>
+    <t>choerodon.code.app-management.application</t>
+  </si>
+  <si>
+    <t>应用</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>widgets</t>
+  </si>
+  <si>
+    <t>choerodon.code.app-management.application-version</t>
+  </si>
+  <si>
+    <t>应用版本</t>
+  </si>
+  <si>
+    <t>Application Version</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>choerodon.code.app-management.application-release</t>
+  </si>
+  <si>
+    <t>应用发布</t>
+  </si>
+  <si>
+    <t>Application Release</t>
+  </si>
+  <si>
+    <t>publish2</t>
+  </si>
+  <si>
+    <t>choerodon.code.app-management.application-market</t>
+  </si>
+  <si>
+    <t>应用市场</t>
+  </si>
+  <si>
+    <t>Application Market</t>
+  </si>
+  <si>
+    <t>appmarket</t>
+  </si>
+  <si>
+    <t>choerodon.code.development-pipeline</t>
+  </si>
+  <si>
+    <t>开发流水线</t>
+  </si>
+  <si>
+    <t>Development Pipeline</t>
+  </si>
+  <si>
+    <t>wrench</t>
+  </si>
+  <si>
+    <t>choerodon.code.development-pipeline.development-console</t>
+  </si>
+  <si>
+    <t>开发控制台</t>
+  </si>
+  <si>
+    <t>Development Console</t>
+  </si>
+  <si>
+    <t>develop_console</t>
+  </si>
+  <si>
+    <t>choerodon.code.development-pipeline.repository</t>
+  </si>
+  <si>
+    <t>代码仓库</t>
+  </si>
+  <si>
+    <t>Repository</t>
+  </si>
+  <si>
+    <t>account_balance</t>
+  </si>
+  <si>
+    <t>choerodon.code.development-pipeline.branch</t>
+  </si>
+  <si>
+    <t>分支</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>choerodon.code.development-pipeline.tag</t>
+  </si>
+  <si>
+    <t>标记</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>local_offer</t>
+  </si>
+  <si>
+    <t>choerodon.code.development-pipeline.merge-request</t>
+  </si>
+  <si>
+    <t>合并请求</t>
+  </si>
+  <si>
+    <t>Merge Request</t>
+  </si>
+  <si>
+    <t>merge_request</t>
+  </si>
+  <si>
+    <t>choerodon.code.development-pipeline.continuous-integration</t>
+  </si>
+  <si>
+    <t>持续集成</t>
+  </si>
+  <si>
+    <t>Continuous Integration</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>choerodon.code.development-pipeline.code-quality</t>
+  </si>
+  <si>
+    <t>代码质量</t>
+  </si>
+  <si>
+    <t>Code Quality</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline</t>
+  </si>
+  <si>
+    <t>部署流水线</t>
+  </si>
+  <si>
+    <t>Deployment Pipeline</t>
+  </si>
+  <si>
+    <t>cloud_upload</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.environment-overview</t>
+  </si>
+  <si>
+    <t>环境总览</t>
+  </si>
+  <si>
+    <t>Environment Overview</t>
+  </si>
+  <si>
+    <t>public</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.environment-pipeline</t>
+  </si>
+  <si>
+    <t>环境管理</t>
+  </si>
+  <si>
+    <t>Environment Management</t>
+  </si>
+  <si>
+    <t>data_usage</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.deployment-overview</t>
+  </si>
+  <si>
+    <t>部署总览</t>
+  </si>
+  <si>
+    <t>Deployment Overview</t>
+  </si>
+  <si>
+    <t>Operation-monitoring</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.deployment-config</t>
+  </si>
+  <si>
+    <t>部署配置</t>
+  </si>
+  <si>
+    <t>Deployment Config</t>
+  </si>
+  <si>
+    <t>cloud_done</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.application-deployment</t>
+  </si>
+  <si>
+    <t>应用部署</t>
+  </si>
+  <si>
+    <t>Application Deployment</t>
+  </si>
+  <si>
+    <t>jsfiddle</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.instance</t>
+  </si>
+  <si>
+    <t>实例</t>
+  </si>
+  <si>
+    <t>Instance</t>
+  </si>
+  <si>
+    <t>instance_outline</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.pipeline</t>
+  </si>
+  <si>
+    <t>流水线</t>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t>linear_scale</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.resource</t>
+  </si>
+  <si>
+    <t>资源</t>
+  </si>
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.configuration</t>
+  </si>
+  <si>
+    <t>配置管理</t>
+  </si>
+  <si>
+    <t>Configuration Management</t>
+  </si>
+  <si>
+    <t>tune</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.service</t>
+  </si>
+  <si>
+    <t>网络</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>router</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.ingress</t>
+  </si>
+  <si>
+    <t>域名</t>
+  </si>
+  <si>
+    <t>Ingress</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.container</t>
+  </si>
+  <si>
+    <t>容器</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t>kubernetes</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.certificate</t>
+  </si>
+  <si>
+    <t>证书</t>
+  </si>
+  <si>
+    <t>Certificate</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.custom-resource</t>
+  </si>
+  <si>
+    <t>自定义资源</t>
+  </si>
+  <si>
+    <t>Custom Resource</t>
+  </si>
+  <si>
+    <t>filter_b_and_w</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.config-map</t>
+  </si>
+  <si>
+    <t>配置映射</t>
+  </si>
+  <si>
+    <t>Config Map</t>
+  </si>
+  <si>
+    <t>compare_arrows</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.secret</t>
+  </si>
+  <si>
+    <t>密文</t>
+  </si>
+  <si>
+    <t>Secret</t>
+  </si>
+  <si>
+    <t>secret</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.pipeline-management</t>
+  </si>
+  <si>
+    <t>流水线管理</t>
+  </si>
+  <si>
+    <t>line_manage</t>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.pipeline-record</t>
+  </si>
+  <si>
+    <t>流水线执行总览</t>
+  </si>
+  <si>
+    <t>Pipeline Record</t>
+  </si>
+  <si>
+    <t>format_list_bulleted</t>
+  </si>
+  <si>
+    <t>choerodon.code.prosetting</t>
+  </si>
+  <si>
+    <t>项目设置</t>
+  </si>
+  <si>
+    <t>Project Manage</t>
+  </si>
+  <si>
+    <t>IAM</t>
+  </si>
+  <si>
+    <t>choerodon.code.prosetting.element-settings</t>
+  </si>
+  <si>
+    <t>组件设置</t>
+  </si>
+  <si>
+    <t>Element Setting</t>
+  </si>
+  <si>
+    <t>games</t>
+  </si>
+  <si>
+    <t>choerodon.code.prosetting.devops-notifications</t>
+  </si>
+  <si>
+    <t>通知设置</t>
+  </si>
+  <si>
+    <t>Notifications</t>
+  </si>
+  <si>
+    <t>notifications</t>
+  </si>
+  <si>
+    <t>choerodon.code.platform-reports</t>
+  </si>
+  <si>
+    <t>报表</t>
+  </si>
+  <si>
+    <t>Reports</t>
+  </si>
+  <si>
+    <t>bar_chart</t>
+  </si>
+  <si>
+    <t>choerodon.code.platform-reports.reports</t>
+  </si>
+  <si>
+    <t>DevOps报表</t>
+  </si>
+  <si>
+    <t>DevOps Report</t>
+  </si>
+  <si>
+    <t>devops_chart</t>
+  </si>
+  <si>
+    <t>FD_CATEGORY_MENU</t>
+  </si>
+  <si>
+    <t>#CATEGORY_CODE</t>
+  </si>
+  <si>
+    <t>#MENU_CODE</t>
+  </si>
+  <si>
+    <t>#RESOURCE_LEVEL</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>organization_project</t>
+  </si>
+  <si>
+    <t>AGILE</t>
+  </si>
+  <si>
+    <t>IAM_MENU_PERMISSION</t>
+  </si>
+  <si>
+    <t>#PERMISSION_CODE</t>
+  </si>
+  <si>
+    <t>devops-service.application-template.listByOrgId</t>
+  </si>
+  <si>
+    <t>devops-service.application-template.queryByAppTemplateId</t>
+  </si>
+  <si>
+    <t>devops-service.application-template.delete</t>
+  </si>
+  <si>
+    <t>devops-service.devops-cluster.listCluster</t>
+  </si>
+  <si>
+    <t>devops-service.org-certification.listOrgCert</t>
+  </si>
+  <si>
+    <t>devops-service.application.create</t>
+  </si>
+  <si>
+    <t>devops-service.application.listByActive</t>
+  </si>
+  <si>
+    <t>devops-service.application-version.pageByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.application-market.create</t>
+  </si>
+  <si>
+    <t>devops-service.application-market.update</t>
+  </si>
+  <si>
+    <t>devops-service.application-market.updateVersions</t>
+  </si>
+  <si>
+    <t>devops-service.application-market.queryApp</t>
+  </si>
+  <si>
+    <t>devops-service.application-market.listAllApp</t>
+  </si>
+  <si>
+    <t>devops-service.application-market.uploadApps</t>
+  </si>
+  <si>
+    <t>devops-service.application-market.importApps</t>
+  </si>
+  <si>
+    <t>devops-service.application-market.deleteZip</t>
+  </si>
+  <si>
+    <t>devops-service.application-market.queryAppVersionReadme</t>
+  </si>
+  <si>
+    <t>devops-service.application.listCodeRepository</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.queryByAppId</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.listByAppId</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.getTagByPage</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.getMergeRequestList</t>
+  </si>
+  <si>
+    <t>devops-service.devops-gitlab-pipeline.pagePipeline</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.createBranch</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.delete</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.update</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.createTag</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.checkTag</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.deleteTag</t>
+  </si>
+  <si>
+    <t>devops-service.devops-git.getUrl</t>
+  </si>
+  <si>
+    <t>devops-service.project-pipeline.cancel</t>
+  </si>
+  <si>
+    <t>devops-service.project-pipeline.retry</t>
+  </si>
+  <si>
+    <t>devops-service.application.getSonarQube</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.listByAppId</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.listByAppInstanceId</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.queryValue</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.deploy</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.pageInstances</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.pageByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.listByAppVersionId</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.queryValues</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.listResources</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.listStages</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.delete</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.start</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.stop</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.listByEnv</t>
+  </si>
+  <si>
+    <t>devops-service.devops-env-file-error.page</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.listByProjectIdAndActive</t>
+  </si>
+  <si>
+    <t>devops-service.application.listByEnvIdAndStatus</t>
+  </si>
+  <si>
+    <t>devops-service.devops-service.create</t>
+  </si>
+  <si>
+    <t>devops-service.devops-service.checkName</t>
+  </si>
+  <si>
+    <t>devops-service.devops-service.query</t>
+  </si>
+  <si>
+    <t>devops-service.devops-service.update</t>
+  </si>
+  <si>
+    <t>devops-service.devops-service.delete</t>
+  </si>
+  <si>
+    <t>devops-service.devops-service.listByEnv</t>
+  </si>
+  <si>
+    <t>devops-service.devops-ingress.queryDomainId</t>
+  </si>
+  <si>
+    <t>devops-service.devops-ingress.delete</t>
+  </si>
+  <si>
+    <t>devops-service.devops-ingress.listByEnv</t>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.create</t>
+  </si>
+  <si>
+    <t>devops-service.application.listAll</t>
+  </si>
+  <si>
+    <t>devops-service.certification.getActiveByDomain</t>
+  </si>
+  <si>
+    <t>devops-service.devops-env-pod-container.queryLogByPod</t>
+  </si>
+  <si>
+    <t>devops-service.devops-env-pod-container.handleShellByPod</t>
+  </si>
+  <si>
+    <t>devops-service.devops-env-pod.pageByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.certification.listByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.certification.create</t>
+  </si>
+  <si>
+    <t>devops-service.certification.delete</t>
+  </si>
+  <si>
+    <t>devops-service.devops-customize-resource.pageByEnv</t>
+  </si>
+  <si>
+    <t>devops-service.devops-customize-resource.createResource</t>
+  </si>
+  <si>
+    <t>devops-service.devops-customize-resource.deleteResource</t>
+  </si>
+  <si>
+    <t>devops-service.devops-customize-resource.getResource</t>
+  </si>
+  <si>
+    <t>devops-service.devops-config-map.create</t>
+  </si>
+  <si>
+    <t>devops-service.devops-config-map.query</t>
+  </si>
+  <si>
+    <t>devops-service.devops-config-map.delete</t>
+  </si>
+  <si>
+    <t>devops-service.devops-config-map.listByEnv</t>
+  </si>
+  <si>
+    <t>devops-service.devops-secret.createOrUpdate</t>
+  </si>
+  <si>
+    <t>devops-service.devops-secret.querySecret</t>
+  </si>
+  <si>
+    <t>devops-service.devops-secret.deleteSecret</t>
+  </si>
+  <si>
+    <t>devops-service.devops-secret.listByOption</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.create</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.update</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.listByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.updateIsEnabled</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.delete</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.execute</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.listRecords</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.checkDeploy</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.listPipelineDTO</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.getRecordById</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.retry</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline.audit</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline-value.listByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline-value.queryById</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline-value.createOrUpdate</t>
+  </si>
+  <si>
+    <t>devops-service.pipeline-value.delete</t>
+  </si>
+  <si>
+    <t>devops-service.devops-project-config.pageByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.devops-project-config.update</t>
+  </si>
+  <si>
+    <t>devops-service.devops-project-config.create</t>
+  </si>
+  <si>
+    <t>devops-service.devops-project-config.checkName</t>
+  </si>
+  <si>
+    <t>devops-service.application.checkHarbor</t>
+  </si>
+  <si>
+    <t>devops-service.application.checkChart</t>
+  </si>
+  <si>
+    <t>devops-service.devops-project-config.queryByPrimaryKey</t>
+  </si>
+  <si>
+    <t>devops-service.devops-project-config.deleteByProjectConfigId</t>
+  </si>
+  <si>
+    <t>devops-service.devops-project-config.checkIsUsed</t>
+  </si>
+  <si>
+    <t>devops-service.devops-notification.listByOptions</t>
+  </si>
+  <si>
+    <t>devops-service.devops-notification.create</t>
+  </si>
+  <si>
+    <t>devops-service.devops-notification.update</t>
+  </si>
+  <si>
+    <t>devops-service.devops-notification.check</t>
+  </si>
+  <si>
+    <t>devops-service.devops-notification.queryById</t>
+  </si>
+  <si>
+    <t>devops-service.devops-notification.delete</t>
+  </si>
+  <si>
+    <t>devops-service.devops-gitlab-commit.getCommits</t>
+  </si>
+  <si>
+    <t>devops-service.devops-gitlab-commit.getRecordCommits</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.listDeployTime</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.pageDeployTimeDetail</t>
+  </si>
+  <si>
+    <t>devops-service.devops-gitlab-pipeline.listPipelineTime</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.listDeployFrequency</t>
+  </si>
+  <si>
+    <t>devops-service.application-instance.pageDeployFrequencyDetail</t>
+  </si>
+  <si>
+    <t>devops-service.devops-gitlab-pipeline.listPipelineFrequency</t>
+  </si>
+  <si>
+    <t>IS_LOGIN_ACCESS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IS_PUBLIC_ACCESS</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>$DEL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用模板路由</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群管理路由</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.develop.app-service</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/devops/app-service</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.app-management.application</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.develop.code-management</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/devops/code-management</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.deploy.deployment-operation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/devops/deployment-operation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.deploy.resource</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/devops/resource</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.deploy.pipeline</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.deploy.environment</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.deploy.cluster-management</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.route.deploy.cert-management</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/devops/cert-management</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/devops/cluster-management</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/devops/environment</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>/devops/pipeline</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用服务路由</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码管理路由</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署路由</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源路由</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水线路由</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境配置路由</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>证书管理路由</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.develop.app-service</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.develop.code-management</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.deployment-operation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.resource</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.pipeline</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.environment</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.cluster-management</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.cert-management</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.develop</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.deploy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PARENT_CODE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用服务</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.app-deployment</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.deploy.cluster</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用部署</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水线</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>环境配置</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>集群</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>证书管理</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.top.project</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu_item</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>widgets</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrench</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloud_circle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloud_upload</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>baseline-file_copy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cluster</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>linear_scale</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_usage</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.app-management</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.development-pipeline</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>choerodon.code.deployment-pipeline.resource</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resource</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>devops-service.app-service.pageByOptions</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>devops-service.app-service.create</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>devops-service.app-service.update</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>devops-service.app-service.importAppService</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>devops-service.app-service.pagePermissionUsers</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.listEnvTree</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>devops-service.devops-environment.listResourceEnvTree</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Application Management</t>
-  </si>
-  <si>
-    <t>choerodon.code.top.project</t>
-  </si>
-  <si>
-    <t>apps</t>
-  </si>
-  <si>
-    <t>choerodon.code.app-management.application</t>
-  </si>
-  <si>
-    <t>应用</t>
-  </si>
-  <si>
-    <t>Application</t>
-  </si>
-  <si>
-    <t>widgets</t>
-  </si>
-  <si>
-    <t>choerodon.code.app-management.application-version</t>
-  </si>
-  <si>
-    <t>应用版本</t>
-  </si>
-  <si>
-    <t>Application Version</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>choerodon.code.app-management.application-release</t>
-  </si>
-  <si>
-    <t>应用发布</t>
-  </si>
-  <si>
-    <t>Application Release</t>
-  </si>
-  <si>
-    <t>publish2</t>
-  </si>
-  <si>
-    <t>choerodon.code.app-management.application-market</t>
-  </si>
-  <si>
-    <t>应用市场</t>
-  </si>
-  <si>
-    <t>Application Market</t>
-  </si>
-  <si>
-    <t>appmarket</t>
-  </si>
-  <si>
-    <t>choerodon.code.development-pipeline</t>
-  </si>
-  <si>
-    <t>开发流水线</t>
-  </si>
-  <si>
-    <t>Development Pipeline</t>
-  </si>
-  <si>
-    <t>wrench</t>
-  </si>
-  <si>
-    <t>choerodon.code.development-pipeline.development-console</t>
-  </si>
-  <si>
-    <t>开发控制台</t>
-  </si>
-  <si>
-    <t>Development Console</t>
-  </si>
-  <si>
-    <t>develop_console</t>
-  </si>
-  <si>
-    <t>choerodon.code.development-pipeline.repository</t>
-  </si>
-  <si>
-    <t>代码仓库</t>
-  </si>
-  <si>
-    <t>Repository</t>
-  </si>
-  <si>
-    <t>account_balance</t>
-  </si>
-  <si>
-    <t>choerodon.code.development-pipeline.branch</t>
-  </si>
-  <si>
-    <t>分支</t>
-  </si>
-  <si>
-    <t>Branch</t>
-  </si>
-  <si>
-    <t>branch</t>
-  </si>
-  <si>
-    <t>choerodon.code.development-pipeline.tag</t>
-  </si>
-  <si>
-    <t>标记</t>
-  </si>
-  <si>
-    <t>Tag</t>
-  </si>
-  <si>
-    <t>local_offer</t>
-  </si>
-  <si>
-    <t>choerodon.code.development-pipeline.merge-request</t>
-  </si>
-  <si>
-    <t>合并请求</t>
-  </si>
-  <si>
-    <t>Merge Request</t>
-  </si>
-  <si>
-    <t>merge_request</t>
-  </si>
-  <si>
-    <t>choerodon.code.development-pipeline.continuous-integration</t>
-  </si>
-  <si>
-    <t>持续集成</t>
-  </si>
-  <si>
-    <t>Continuous Integration</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>choerodon.code.development-pipeline.code-quality</t>
-  </si>
-  <si>
-    <t>代码质量</t>
-  </si>
-  <si>
-    <t>Code Quality</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline</t>
-  </si>
-  <si>
-    <t>部署流水线</t>
-  </si>
-  <si>
-    <t>Deployment Pipeline</t>
-  </si>
-  <si>
-    <t>cloud_upload</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.environment-overview</t>
-  </si>
-  <si>
-    <t>环境总览</t>
-  </si>
-  <si>
-    <t>Environment Overview</t>
-  </si>
-  <si>
-    <t>public</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.environment-pipeline</t>
-  </si>
-  <si>
-    <t>环境管理</t>
-  </si>
-  <si>
-    <t>Environment Management</t>
-  </si>
-  <si>
-    <t>data_usage</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.deployment-overview</t>
-  </si>
-  <si>
-    <t>部署总览</t>
-  </si>
-  <si>
-    <t>Deployment Overview</t>
-  </si>
-  <si>
-    <t>Operation-monitoring</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.deployment-config</t>
-  </si>
-  <si>
-    <t>部署配置</t>
-  </si>
-  <si>
-    <t>Deployment Config</t>
-  </si>
-  <si>
-    <t>cloud_done</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.application-deployment</t>
-  </si>
-  <si>
-    <t>应用部署</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Application Service</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipeline Management</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code Management</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Application Deployment</t>
-  </si>
-  <si>
-    <t>jsfiddle</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.instance</t>
-  </si>
-  <si>
-    <t>实例</t>
-  </si>
-  <si>
-    <t>Instance</t>
-  </si>
-  <si>
-    <t>instance_outline</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.pipeline</t>
-  </si>
-  <si>
-    <t>流水线</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deployment Operation</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Pipeline</t>
-  </si>
-  <si>
-    <t>linear_scale</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.resource</t>
-  </si>
-  <si>
-    <t>资源</t>
-  </si>
-  <si>
-    <t>database</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.configuration</t>
-  </si>
-  <si>
-    <t>配置管理</t>
-  </si>
-  <si>
-    <t>Configuration Management</t>
-  </si>
-  <si>
-    <t>tune</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.service</t>
-  </si>
-  <si>
-    <t>网络</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>router</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.ingress</t>
-  </si>
-  <si>
-    <t>域名</t>
-  </si>
-  <si>
-    <t>Ingress</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.container</t>
-  </si>
-  <si>
-    <t>容器</t>
-  </si>
-  <si>
-    <t>Container</t>
-  </si>
-  <si>
-    <t>kubernetes</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.certificate</t>
-  </si>
-  <si>
-    <t>证书</t>
-  </si>
-  <si>
-    <t>Certificate</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.custom-resource</t>
-  </si>
-  <si>
-    <t>自定义资源</t>
-  </si>
-  <si>
-    <t>Custom Resource</t>
-  </si>
-  <si>
-    <t>filter_b_and_w</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.config-map</t>
-  </si>
-  <si>
-    <t>配置映射</t>
-  </si>
-  <si>
-    <t>Config Map</t>
-  </si>
-  <si>
-    <t>compare_arrows</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.secret</t>
-  </si>
-  <si>
-    <t>密文</t>
-  </si>
-  <si>
-    <t>Secret</t>
-  </si>
-  <si>
-    <t>secret</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.pipeline-management</t>
-  </si>
-  <si>
-    <t>流水线管理</t>
-  </si>
-  <si>
-    <t>Pipeline Management</t>
-  </si>
-  <si>
-    <t>line_manage</t>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.pipeline-record</t>
-  </si>
-  <si>
-    <t>流水线执行总览</t>
-  </si>
-  <si>
-    <t>Pipeline Record</t>
-  </si>
-  <si>
-    <t>format_list_bulleted</t>
-  </si>
-  <si>
-    <t>choerodon.code.prosetting</t>
-  </si>
-  <si>
-    <t>项目设置</t>
-  </si>
-  <si>
-    <t>Project Manage</t>
-  </si>
-  <si>
-    <t>IAM</t>
-  </si>
-  <si>
-    <t>choerodon.code.prosetting.element-settings</t>
-  </si>
-  <si>
-    <t>组件设置</t>
-  </si>
-  <si>
-    <t>Element Setting</t>
-  </si>
-  <si>
-    <t>games</t>
-  </si>
-  <si>
-    <t>choerodon.code.prosetting.devops-notifications</t>
-  </si>
-  <si>
-    <t>通知设置</t>
-  </si>
-  <si>
-    <t>Notifications</t>
-  </si>
-  <si>
-    <t>notifications</t>
-  </si>
-  <si>
-    <t>choerodon.code.platform-reports</t>
-  </si>
-  <si>
-    <t>报表</t>
-  </si>
-  <si>
-    <t>Reports</t>
-  </si>
-  <si>
-    <t>bar_chart</t>
-  </si>
-  <si>
-    <t>choerodon.code.platform-reports.reports</t>
-  </si>
-  <si>
-    <t>DevOps报表</t>
-  </si>
-  <si>
-    <t>DevOps Report</t>
-  </si>
-  <si>
-    <t>devops_chart</t>
-  </si>
-  <si>
-    <t>FD_CATEGORY_MENU</t>
-  </si>
-  <si>
-    <t>#CATEGORY_CODE</t>
-  </si>
-  <si>
-    <t>#MENU_CODE</t>
-  </si>
-  <si>
-    <t>#RESOURCE_LEVEL</t>
-  </si>
-  <si>
-    <t>DEFAULT</t>
-  </si>
-  <si>
-    <t>organization_project</t>
-  </si>
-  <si>
-    <t>AGILE</t>
-  </si>
-  <si>
-    <t>IAM_MENU_PERMISSION</t>
-  </si>
-  <si>
-    <t>#PERMISSION_CODE</t>
-  </si>
-  <si>
-    <t>devops-service.application-template.listByOrgId</t>
-  </si>
-  <si>
-    <t>devops-service.application-template.queryByAppTemplateId</t>
-  </si>
-  <si>
-    <t>devops-service.application-template.delete</t>
-  </si>
-  <si>
-    <t>devops-service.devops-cluster.listCluster</t>
-  </si>
-  <si>
-    <t>devops-service.org-certification.listOrgCert</t>
-  </si>
-  <si>
-    <t>devops-service.application.create</t>
-  </si>
-  <si>
-    <t>devops-service.application.listByActive</t>
-  </si>
-  <si>
-    <t>devops-service.application-version.pageByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.application-market.create</t>
-  </si>
-  <si>
-    <t>devops-service.application-market.update</t>
-  </si>
-  <si>
-    <t>devops-service.application-market.updateVersions</t>
-  </si>
-  <si>
-    <t>devops-service.application-market.queryApp</t>
-  </si>
-  <si>
-    <t>devops-service.application-market.listAllApp</t>
-  </si>
-  <si>
-    <t>devops-service.application-market.uploadApps</t>
-  </si>
-  <si>
-    <t>devops-service.application-market.importApps</t>
-  </si>
-  <si>
-    <t>devops-service.application-market.deleteZip</t>
-  </si>
-  <si>
-    <t>devops-service.application-market.queryAppVersionReadme</t>
-  </si>
-  <si>
-    <t>devops-service.application.listCodeRepository</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.queryByAppId</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.listByAppId</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.getTagByPage</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.getMergeRequestList</t>
-  </si>
-  <si>
-    <t>devops-service.devops-gitlab-pipeline.pagePipeline</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.createBranch</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.delete</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.update</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.createTag</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.checkTag</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.deleteTag</t>
-  </si>
-  <si>
-    <t>devops-service.devops-git.getUrl</t>
-  </si>
-  <si>
-    <t>devops-service.project-pipeline.cancel</t>
-  </si>
-  <si>
-    <t>devops-service.project-pipeline.retry</t>
-  </si>
-  <si>
-    <t>devops-service.application.getSonarQube</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.listByAppId</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.listByAppInstanceId</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.queryValue</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.deploy</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.pageInstances</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.pageByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.listByAppVersionId</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.queryValues</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.listResources</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.listStages</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.delete</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.start</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.stop</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.listByEnv</t>
-  </si>
-  <si>
-    <t>devops-service.devops-env-file-error.page</t>
-  </si>
-  <si>
-    <t>devops-service.devops-environment.listByProjectIdAndActive</t>
-  </si>
-  <si>
-    <t>devops-service.application.listByEnvIdAndStatus</t>
-  </si>
-  <si>
-    <t>devops-service.devops-service.create</t>
-  </si>
-  <si>
-    <t>devops-service.devops-service.checkName</t>
-  </si>
-  <si>
-    <t>devops-service.devops-service.query</t>
-  </si>
-  <si>
-    <t>devops-service.devops-service.update</t>
-  </si>
-  <si>
-    <t>devops-service.devops-service.delete</t>
-  </si>
-  <si>
-    <t>devops-service.devops-service.listByEnv</t>
-  </si>
-  <si>
-    <t>devops-service.devops-ingress.queryDomainId</t>
-  </si>
-  <si>
-    <t>devops-service.devops-ingress.delete</t>
-  </si>
-  <si>
-    <t>devops-service.devops-ingress.listByEnv</t>
-  </si>
-  <si>
-    <t>devops-service.devops-environment.create</t>
-  </si>
-  <si>
-    <t>devops-service.application.listAll</t>
-  </si>
-  <si>
-    <t>devops-service.certification.getActiveByDomain</t>
-  </si>
-  <si>
-    <t>devops-service.devops-env-pod-container.queryLogByPod</t>
-  </si>
-  <si>
-    <t>devops-service.devops-env-pod-container.handleShellByPod</t>
-  </si>
-  <si>
-    <t>devops-service.devops-env-pod.pageByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.certification.listByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.certification.create</t>
-  </si>
-  <si>
-    <t>devops-service.certification.delete</t>
-  </si>
-  <si>
-    <t>devops-service.devops-customize-resource.pageByEnv</t>
-  </si>
-  <si>
-    <t>devops-service.devops-customize-resource.createResource</t>
-  </si>
-  <si>
-    <t>devops-service.devops-customize-resource.deleteResource</t>
-  </si>
-  <si>
-    <t>devops-service.devops-customize-resource.getResource</t>
-  </si>
-  <si>
-    <t>devops-service.devops-config-map.create</t>
-  </si>
-  <si>
-    <t>devops-service.devops-config-map.query</t>
-  </si>
-  <si>
-    <t>devops-service.devops-config-map.delete</t>
-  </si>
-  <si>
-    <t>devops-service.devops-config-map.listByEnv</t>
-  </si>
-  <si>
-    <t>devops-service.devops-secret.createOrUpdate</t>
-  </si>
-  <si>
-    <t>devops-service.devops-secret.querySecret</t>
-  </si>
-  <si>
-    <t>devops-service.devops-secret.deleteSecret</t>
-  </si>
-  <si>
-    <t>devops-service.devops-secret.listByOption</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline.create</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline.update</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline.listByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline.updateIsEnabled</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline.delete</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline.execute</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline.listRecords</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline.checkDeploy</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline.listPipelineDTO</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline.getRecordById</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline.retry</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline.audit</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline-value.listByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline-value.queryById</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline-value.createOrUpdate</t>
-  </si>
-  <si>
-    <t>devops-service.pipeline-value.delete</t>
-  </si>
-  <si>
-    <t>devops-service.devops-project-config.pageByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.devops-project-config.update</t>
-  </si>
-  <si>
-    <t>devops-service.devops-project-config.create</t>
-  </si>
-  <si>
-    <t>devops-service.devops-project-config.checkName</t>
-  </si>
-  <si>
-    <t>devops-service.application.checkHarbor</t>
-  </si>
-  <si>
-    <t>devops-service.application.checkChart</t>
-  </si>
-  <si>
-    <t>devops-service.devops-project-config.queryByPrimaryKey</t>
-  </si>
-  <si>
-    <t>devops-service.devops-project-config.deleteByProjectConfigId</t>
-  </si>
-  <si>
-    <t>devops-service.devops-project-config.checkIsUsed</t>
-  </si>
-  <si>
-    <t>devops-service.devops-notification.listByOptions</t>
-  </si>
-  <si>
-    <t>devops-service.devops-notification.create</t>
-  </si>
-  <si>
-    <t>devops-service.devops-notification.update</t>
-  </si>
-  <si>
-    <t>devops-service.devops-notification.check</t>
-  </si>
-  <si>
-    <t>devops-service.devops-notification.queryById</t>
-  </si>
-  <si>
-    <t>devops-service.devops-notification.delete</t>
-  </si>
-  <si>
-    <t>devops-service.devops-gitlab-commit.getCommits</t>
-  </si>
-  <si>
-    <t>devops-service.devops-gitlab-commit.getRecordCommits</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.listDeployTime</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.pageDeployTimeDetail</t>
-  </si>
-  <si>
-    <t>devops-service.devops-gitlab-pipeline.listPipelineTime</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.listDeployFrequency</t>
-  </si>
-  <si>
-    <t>devops-service.application-instance.pageDeployFrequencyDetail</t>
-  </si>
-  <si>
-    <t>devops-service.devops-gitlab-pipeline.listPipelineFrequency</t>
-  </si>
-  <si>
-    <t>IS_LOGIN_ACCESS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>IS_PUBLIC_ACCESS</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>$DEL</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用模板路由</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>集群管理路由</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.develop.app-service</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/devops/app-service</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.app-management.application</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.develop.code-management</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/devops/code-management</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.deploy.deployment-operation</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/devops/deployment-operation</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.deploy.resource</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/devops/resource</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.deploy.pipeline</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.deploy.environment</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.deploy.cluster-management</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.route.deploy.cert-management</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/devops/cert-management</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/devops/cluster-management</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/devops/environment</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>/devops/pipeline</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用服务路由</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码管理路由</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>部署路由</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源路由</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水线路由</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境配置路由</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>证书管理路由</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.develop.app-service</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.develop.code-management</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.deployment-operation</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.resource</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.pipeline</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.environment</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.cluster-management</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.cert-management</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.develop</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.deploy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>PARENT_CODE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用服务</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>部署</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.app-deployment</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.deploy.cluster</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用部署</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>流水线</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>环境配置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>集群管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>集群</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>证书管理</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.top.project</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu_item</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>widgets</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>wrench</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cloud_circle</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cloud_upload</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseline-file_copy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>cluster</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>linear_scale</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>data_usage</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.app-management</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.development-pipeline</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>choerodon.code.deployment-pipeline.resource</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resource</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>devops-service.app-service.pageByOptions</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>devops-service.app-service.create</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>devops-service.app-service.update</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>devops-service.app-service.importAppService</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>devops-service.app-service.pagePermissionUsers</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>devops-service.devops-environment.listEnvTree</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>devops-service.devops-environment.listResourceEnvTree</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Environment</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cluster Management</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cluster</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Certificate Management</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deployment</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Development</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1965,16 +2011,16 @@
         <v>7</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>8</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="4:15" ht="12.75" customHeight="1">
@@ -1991,7 +2037,7 @@
         <v>12</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K8" t="s">
         <v>13</v>
@@ -2023,7 +2069,7 @@
         <v>12</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K9" t="s">
         <v>13</v>
@@ -2075,7 +2121,7 @@
     </row>
     <row r="11" spans="4:15">
       <c r="F11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G11" t="s">
         <v>20</v>
@@ -3003,10 +3049,10 @@
     </row>
     <row r="40" spans="6:15">
       <c r="F40" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G40" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="H40" t="s">
         <v>11</v>
@@ -3015,7 +3061,7 @@
         <v>21</v>
       </c>
       <c r="J40" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K40" t="s">
         <v>13</v>
@@ -3032,10 +3078,10 @@
     </row>
     <row r="41" spans="6:15">
       <c r="F41" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G41" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="H41" t="s">
         <v>11</v>
@@ -3044,7 +3090,7 @@
         <v>21</v>
       </c>
       <c r="J41" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K41" t="s">
         <v>13</v>
@@ -3061,10 +3107,10 @@
     </row>
     <row r="42" spans="6:15">
       <c r="F42" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G42" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="H42" t="s">
         <v>11</v>
@@ -3073,7 +3119,7 @@
         <v>21</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K42" t="s">
         <v>13</v>
@@ -3090,10 +3136,10 @@
     </row>
     <row r="43" spans="6:15">
       <c r="F43" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G43" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="H43" t="s">
         <v>11</v>
@@ -3102,7 +3148,7 @@
         <v>21</v>
       </c>
       <c r="J43" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="K43" t="s">
         <v>13</v>
@@ -3119,10 +3165,10 @@
     </row>
     <row r="44" spans="6:15">
       <c r="F44" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="G44" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H44" t="s">
         <v>11</v>
@@ -3131,7 +3177,7 @@
         <v>21</v>
       </c>
       <c r="J44" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K44" t="s">
         <v>13</v>
@@ -3148,10 +3194,10 @@
     </row>
     <row r="45" spans="6:15">
       <c r="F45" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G45" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H45" t="s">
         <v>11</v>
@@ -3160,7 +3206,7 @@
         <v>21</v>
       </c>
       <c r="J45" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="K45" t="s">
         <v>13</v>
@@ -3177,10 +3223,10 @@
     </row>
     <row r="46" spans="6:15">
       <c r="F46" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G46" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H46" t="s">
         <v>11</v>
@@ -3189,7 +3235,7 @@
         <v>21</v>
       </c>
       <c r="J46" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K46" t="s">
         <v>13</v>
@@ -3206,10 +3252,10 @@
     </row>
     <row r="47" spans="6:15">
       <c r="F47" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G47" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H47" t="s">
         <v>11</v>
@@ -3218,7 +3264,7 @@
         <v>21</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K47" t="s">
         <v>13</v>
@@ -3248,8 +3294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="D5:P60"/>
   <sheetViews>
-    <sheetView topLeftCell="C21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -3295,7 +3341,7 @@
         <v>4</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>5</v>
@@ -3310,7 +3356,7 @@
         <v>113</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="4:16" ht="12.75" customHeight="1">
@@ -3458,13 +3504,13 @@
         <v>133</v>
       </c>
       <c r="H12" t="s">
+        <v>481</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" t="s">
         <v>134</v>
-      </c>
-      <c r="J12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" t="s">
-        <v>135</v>
       </c>
       <c r="L12" t="s">
         <v>21</v>
@@ -3473,7 +3519,7 @@
         <v>118</v>
       </c>
       <c r="N12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O12">
         <v>20</v>
@@ -3484,13 +3530,13 @@
     </row>
     <row r="13" spans="4:16">
       <c r="F13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" t="s">
         <v>137</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>138</v>
-      </c>
-      <c r="H13" t="s">
-        <v>139</v>
       </c>
       <c r="I13" t="s">
         <v>19</v>
@@ -3508,7 +3554,7 @@
         <v>122</v>
       </c>
       <c r="N13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O13">
         <v>10</v>
@@ -3519,13 +3565,13 @@
     </row>
     <row r="14" spans="4:16">
       <c r="F14" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" t="s">
         <v>141</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>142</v>
-      </c>
-      <c r="H14" t="s">
-        <v>143</v>
       </c>
       <c r="I14" t="s">
         <v>23</v>
@@ -3543,7 +3589,7 @@
         <v>122</v>
       </c>
       <c r="N14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O14">
         <v>20</v>
@@ -3554,13 +3600,13 @@
     </row>
     <row r="15" spans="4:16">
       <c r="F15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" t="s">
         <v>145</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>146</v>
-      </c>
-      <c r="H15" t="s">
-        <v>147</v>
       </c>
       <c r="I15" t="s">
         <v>26</v>
@@ -3578,7 +3624,7 @@
         <v>122</v>
       </c>
       <c r="N15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O15">
         <v>30</v>
@@ -3589,13 +3635,13 @@
     </row>
     <row r="16" spans="4:16">
       <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
         <v>149</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>150</v>
-      </c>
-      <c r="H16" t="s">
-        <v>151</v>
       </c>
       <c r="I16" t="s">
         <v>29</v>
@@ -3613,7 +3659,7 @@
         <v>122</v>
       </c>
       <c r="N16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O16">
         <v>40</v>
@@ -3624,19 +3670,19 @@
     </row>
     <row r="17" spans="6:16">
       <c r="F17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" t="s">
         <v>153</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>154</v>
       </c>
-      <c r="H17" t="s">
-        <v>155</v>
-      </c>
       <c r="J17" t="s">
         <v>11</v>
       </c>
       <c r="K17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L17" t="s">
         <v>21</v>
@@ -3645,7 +3691,7 @@
         <v>118</v>
       </c>
       <c r="N17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O17">
         <v>30</v>
@@ -3656,13 +3702,13 @@
     </row>
     <row r="18" spans="6:16">
       <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
         <v>157</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>158</v>
-      </c>
-      <c r="H18" t="s">
-        <v>159</v>
       </c>
       <c r="I18" t="s">
         <v>32</v>
@@ -3671,7 +3717,7 @@
         <v>11</v>
       </c>
       <c r="K18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L18" t="s">
         <v>21</v>
@@ -3680,7 +3726,7 @@
         <v>122</v>
       </c>
       <c r="N18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O18">
         <v>10</v>
@@ -3691,13 +3737,13 @@
     </row>
     <row r="19" spans="6:16">
       <c r="F19" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" t="s">
         <v>161</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>162</v>
-      </c>
-      <c r="H19" t="s">
-        <v>163</v>
       </c>
       <c r="I19" t="s">
         <v>35</v>
@@ -3706,7 +3752,7 @@
         <v>11</v>
       </c>
       <c r="K19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L19" t="s">
         <v>21</v>
@@ -3715,7 +3761,7 @@
         <v>122</v>
       </c>
       <c r="N19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O19">
         <v>20</v>
@@ -3726,13 +3772,13 @@
     </row>
     <row r="20" spans="6:16">
       <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" t="s">
         <v>165</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>166</v>
-      </c>
-      <c r="H20" t="s">
-        <v>167</v>
       </c>
       <c r="I20" t="s">
         <v>38</v>
@@ -3741,7 +3787,7 @@
         <v>11</v>
       </c>
       <c r="K20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L20" t="s">
         <v>21</v>
@@ -3750,7 +3796,7 @@
         <v>122</v>
       </c>
       <c r="N20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O20">
         <v>30</v>
@@ -3761,13 +3807,13 @@
     </row>
     <row r="21" spans="6:16">
       <c r="F21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" t="s">
         <v>169</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>170</v>
-      </c>
-      <c r="H21" t="s">
-        <v>171</v>
       </c>
       <c r="I21" t="s">
         <v>41</v>
@@ -3776,7 +3822,7 @@
         <v>11</v>
       </c>
       <c r="K21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L21" t="s">
         <v>21</v>
@@ -3785,7 +3831,7 @@
         <v>122</v>
       </c>
       <c r="N21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O21">
         <v>40</v>
@@ -3796,13 +3842,13 @@
     </row>
     <row r="22" spans="6:16">
       <c r="F22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" t="s">
         <v>173</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>174</v>
-      </c>
-      <c r="H22" t="s">
-        <v>175</v>
       </c>
       <c r="I22" t="s">
         <v>44</v>
@@ -3811,7 +3857,7 @@
         <v>11</v>
       </c>
       <c r="K22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L22" t="s">
         <v>21</v>
@@ -3820,7 +3866,7 @@
         <v>122</v>
       </c>
       <c r="N22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O22">
         <v>50</v>
@@ -3831,13 +3877,13 @@
     </row>
     <row r="23" spans="6:16">
       <c r="F23" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" t="s">
         <v>177</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>178</v>
-      </c>
-      <c r="H23" t="s">
-        <v>179</v>
       </c>
       <c r="I23" t="s">
         <v>47</v>
@@ -3846,7 +3892,7 @@
         <v>11</v>
       </c>
       <c r="K23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L23" t="s">
         <v>21</v>
@@ -3855,7 +3901,7 @@
         <v>122</v>
       </c>
       <c r="N23" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O23">
         <v>60</v>
@@ -3866,13 +3912,13 @@
     </row>
     <row r="24" spans="6:16">
       <c r="F24" t="s">
+        <v>180</v>
+      </c>
+      <c r="G24" t="s">
         <v>181</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>182</v>
-      </c>
-      <c r="H24" t="s">
-        <v>183</v>
       </c>
       <c r="I24" t="s">
         <v>50</v>
@@ -3881,7 +3927,7 @@
         <v>11</v>
       </c>
       <c r="K24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L24" t="s">
         <v>21</v>
@@ -3890,7 +3936,7 @@
         <v>122</v>
       </c>
       <c r="N24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O24">
         <v>70</v>
@@ -3901,19 +3947,19 @@
     </row>
     <row r="25" spans="6:16">
       <c r="F25" t="s">
+        <v>184</v>
+      </c>
+      <c r="G25" t="s">
         <v>185</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>186</v>
       </c>
-      <c r="H25" t="s">
-        <v>187</v>
-      </c>
       <c r="J25" t="s">
         <v>11</v>
       </c>
       <c r="K25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L25" t="s">
         <v>21</v>
@@ -3922,7 +3968,7 @@
         <v>118</v>
       </c>
       <c r="N25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O25">
         <v>40</v>
@@ -3933,13 +3979,13 @@
     </row>
     <row r="26" spans="6:16">
       <c r="F26" t="s">
+        <v>188</v>
+      </c>
+      <c r="G26" t="s">
         <v>189</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>190</v>
-      </c>
-      <c r="H26" t="s">
-        <v>191</v>
       </c>
       <c r="I26" t="s">
         <v>53</v>
@@ -3948,7 +3994,7 @@
         <v>11</v>
       </c>
       <c r="K26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L26" t="s">
         <v>21</v>
@@ -3957,7 +4003,7 @@
         <v>122</v>
       </c>
       <c r="N26" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O26">
         <v>10</v>
@@ -3968,13 +4014,13 @@
     </row>
     <row r="27" spans="6:16">
       <c r="F27" t="s">
+        <v>192</v>
+      </c>
+      <c r="G27" t="s">
         <v>193</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>194</v>
-      </c>
-      <c r="H27" t="s">
-        <v>195</v>
       </c>
       <c r="I27" t="s">
         <v>56</v>
@@ -3983,7 +4029,7 @@
         <v>11</v>
       </c>
       <c r="K27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L27" t="s">
         <v>21</v>
@@ -3992,7 +4038,7 @@
         <v>122</v>
       </c>
       <c r="N27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O27">
         <v>20</v>
@@ -4003,13 +4049,13 @@
     </row>
     <row r="28" spans="6:16">
       <c r="F28" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" t="s">
         <v>197</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>198</v>
-      </c>
-      <c r="H28" t="s">
-        <v>199</v>
       </c>
       <c r="I28" t="s">
         <v>59</v>
@@ -4018,7 +4064,7 @@
         <v>11</v>
       </c>
       <c r="K28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L28" t="s">
         <v>21</v>
@@ -4027,7 +4073,7 @@
         <v>122</v>
       </c>
       <c r="N28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O28">
         <v>30</v>
@@ -4038,13 +4084,13 @@
     </row>
     <row r="29" spans="6:16">
       <c r="F29" t="s">
+        <v>200</v>
+      </c>
+      <c r="G29" t="s">
         <v>201</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>202</v>
-      </c>
-      <c r="H29" t="s">
-        <v>203</v>
       </c>
       <c r="I29" t="s">
         <v>95</v>
@@ -4053,7 +4099,7 @@
         <v>11</v>
       </c>
       <c r="K29" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L29" t="s">
         <v>21</v>
@@ -4062,7 +4108,7 @@
         <v>122</v>
       </c>
       <c r="N29" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O29">
         <v>40</v>
@@ -4073,13 +4119,13 @@
     </row>
     <row r="30" spans="6:16">
       <c r="F30" t="s">
+        <v>204</v>
+      </c>
+      <c r="G30" t="s">
         <v>205</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>206</v>
-      </c>
-      <c r="H30" t="s">
-        <v>207</v>
       </c>
       <c r="I30" t="s">
         <v>62</v>
@@ -4088,7 +4134,7 @@
         <v>11</v>
       </c>
       <c r="K30" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L30" t="s">
         <v>21</v>
@@ -4097,7 +4143,7 @@
         <v>122</v>
       </c>
       <c r="N30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O30">
         <v>50</v>
@@ -4108,13 +4154,13 @@
     </row>
     <row r="31" spans="6:16">
       <c r="F31" t="s">
+        <v>208</v>
+      </c>
+      <c r="G31" t="s">
         <v>209</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>210</v>
-      </c>
-      <c r="H31" t="s">
-        <v>211</v>
       </c>
       <c r="I31" t="s">
         <v>65</v>
@@ -4123,7 +4169,7 @@
         <v>11</v>
       </c>
       <c r="K31" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L31" t="s">
         <v>21</v>
@@ -4132,7 +4178,7 @@
         <v>122</v>
       </c>
       <c r="N31" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O31">
         <v>60</v>
@@ -4143,19 +4189,19 @@
     </row>
     <row r="32" spans="6:16">
       <c r="F32" t="s">
+        <v>212</v>
+      </c>
+      <c r="G32" t="s">
         <v>213</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>214</v>
       </c>
-      <c r="H32" t="s">
-        <v>215</v>
-      </c>
       <c r="J32" t="s">
         <v>11</v>
       </c>
       <c r="K32" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L32" t="s">
         <v>21</v>
@@ -4164,7 +4210,7 @@
         <v>118</v>
       </c>
       <c r="N32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O32">
         <v>70</v>
@@ -4175,19 +4221,19 @@
     </row>
     <row r="33" spans="6:16">
       <c r="F33" t="s">
+        <v>216</v>
+      </c>
+      <c r="G33" t="s">
         <v>217</v>
       </c>
-      <c r="G33" t="s">
-        <v>218</v>
-      </c>
       <c r="H33" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
       </c>
       <c r="K33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L33" t="s">
         <v>21</v>
@@ -4196,7 +4242,7 @@
         <v>118</v>
       </c>
       <c r="N33" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O33">
         <v>80</v>
@@ -4207,19 +4253,19 @@
     </row>
     <row r="34" spans="6:16">
       <c r="F34" t="s">
+        <v>219</v>
+      </c>
+      <c r="G34" t="s">
         <v>220</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>221</v>
       </c>
-      <c r="H34" t="s">
-        <v>222</v>
-      </c>
       <c r="J34" t="s">
         <v>11</v>
       </c>
       <c r="K34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L34" t="s">
         <v>21</v>
@@ -4228,7 +4274,7 @@
         <v>118</v>
       </c>
       <c r="N34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O34">
         <v>90</v>
@@ -4239,13 +4285,13 @@
     </row>
     <row r="35" spans="6:16">
       <c r="F35" t="s">
+        <v>223</v>
+      </c>
+      <c r="G35" t="s">
         <v>224</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>225</v>
-      </c>
-      <c r="H35" t="s">
-        <v>226</v>
       </c>
       <c r="I35" t="s">
         <v>68</v>
@@ -4254,7 +4300,7 @@
         <v>11</v>
       </c>
       <c r="K35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L35" t="s">
         <v>21</v>
@@ -4263,7 +4309,7 @@
         <v>122</v>
       </c>
       <c r="N35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O35">
         <v>10</v>
@@ -4274,13 +4320,13 @@
     </row>
     <row r="36" spans="6:16">
       <c r="F36" t="s">
+        <v>227</v>
+      </c>
+      <c r="G36" t="s">
         <v>228</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>229</v>
-      </c>
-      <c r="H36" t="s">
-        <v>230</v>
       </c>
       <c r="I36" t="s">
         <v>71</v>
@@ -4289,7 +4335,7 @@
         <v>11</v>
       </c>
       <c r="K36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L36" t="s">
         <v>21</v>
@@ -4298,7 +4344,7 @@
         <v>122</v>
       </c>
       <c r="N36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O36">
         <v>20</v>
@@ -4309,13 +4355,13 @@
     </row>
     <row r="37" spans="6:16">
       <c r="F37" t="s">
+        <v>231</v>
+      </c>
+      <c r="G37" t="s">
         <v>232</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>233</v>
-      </c>
-      <c r="H37" t="s">
-        <v>234</v>
       </c>
       <c r="I37" t="s">
         <v>74</v>
@@ -4324,7 +4370,7 @@
         <v>11</v>
       </c>
       <c r="K37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L37" t="s">
         <v>21</v>
@@ -4333,7 +4379,7 @@
         <v>122</v>
       </c>
       <c r="N37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O37">
         <v>30</v>
@@ -4344,13 +4390,13 @@
     </row>
     <row r="38" spans="6:16">
       <c r="F38" t="s">
+        <v>235</v>
+      </c>
+      <c r="G38" t="s">
         <v>236</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>237</v>
-      </c>
-      <c r="H38" t="s">
-        <v>238</v>
       </c>
       <c r="I38" t="s">
         <v>77</v>
@@ -4359,7 +4405,7 @@
         <v>11</v>
       </c>
       <c r="K38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L38" t="s">
         <v>21</v>
@@ -4379,13 +4425,13 @@
     </row>
     <row r="39" spans="6:16" ht="14">
       <c r="F39" t="s">
+        <v>238</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" t="s">
         <v>240</v>
-      </c>
-      <c r="H39" t="s">
-        <v>241</v>
       </c>
       <c r="I39" t="s">
         <v>80</v>
@@ -4394,7 +4440,7 @@
         <v>11</v>
       </c>
       <c r="K39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L39" t="s">
         <v>21</v>
@@ -4403,7 +4449,7 @@
         <v>122</v>
       </c>
       <c r="N39" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O39">
         <v>50</v>
@@ -4414,13 +4460,13 @@
     </row>
     <row r="40" spans="6:16">
       <c r="F40" t="s">
+        <v>242</v>
+      </c>
+      <c r="G40" t="s">
         <v>243</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>244</v>
-      </c>
-      <c r="H40" t="s">
-        <v>245</v>
       </c>
       <c r="I40" t="s">
         <v>83</v>
@@ -4429,7 +4475,7 @@
         <v>11</v>
       </c>
       <c r="K40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L40" t="s">
         <v>21</v>
@@ -4438,7 +4484,7 @@
         <v>122</v>
       </c>
       <c r="N40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O40">
         <v>10</v>
@@ -4449,13 +4495,13 @@
     </row>
     <row r="41" spans="6:16">
       <c r="F41" t="s">
+        <v>246</v>
+      </c>
+      <c r="G41" t="s">
         <v>247</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>248</v>
-      </c>
-      <c r="H41" t="s">
-        <v>249</v>
       </c>
       <c r="I41" t="s">
         <v>86</v>
@@ -4464,7 +4510,7 @@
         <v>11</v>
       </c>
       <c r="K41" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L41" t="s">
         <v>21</v>
@@ -4473,7 +4519,7 @@
         <v>122</v>
       </c>
       <c r="N41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O41">
         <v>20</v>
@@ -4484,13 +4530,13 @@
     </row>
     <row r="42" spans="6:16">
       <c r="F42" t="s">
+        <v>250</v>
+      </c>
+      <c r="G42" t="s">
         <v>251</v>
       </c>
-      <c r="G42" t="s">
-        <v>252</v>
-      </c>
       <c r="H42" t="s">
-        <v>253</v>
+        <v>483</v>
       </c>
       <c r="I42" t="s">
         <v>89</v>
@@ -4499,7 +4545,7 @@
         <v>11</v>
       </c>
       <c r="K42" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L42" t="s">
         <v>21</v>
@@ -4508,7 +4554,7 @@
         <v>122</v>
       </c>
       <c r="N42" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O42">
         <v>10</v>
@@ -4519,13 +4565,13 @@
     </row>
     <row r="43" spans="6:16">
       <c r="F43" t="s">
+        <v>253</v>
+      </c>
+      <c r="G43" t="s">
+        <v>254</v>
+      </c>
+      <c r="H43" t="s">
         <v>255</v>
-      </c>
-      <c r="G43" t="s">
-        <v>256</v>
-      </c>
-      <c r="H43" t="s">
-        <v>257</v>
       </c>
       <c r="I43" t="s">
         <v>92</v>
@@ -4534,7 +4580,7 @@
         <v>11</v>
       </c>
       <c r="K43" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L43" t="s">
         <v>21</v>
@@ -4543,7 +4589,7 @@
         <v>122</v>
       </c>
       <c r="N43" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O43">
         <v>20</v>
@@ -4554,19 +4600,19 @@
     </row>
     <row r="44" spans="6:16">
       <c r="F44" t="s">
+        <v>257</v>
+      </c>
+      <c r="G44" t="s">
+        <v>258</v>
+      </c>
+      <c r="H44" t="s">
         <v>259</v>
       </c>
-      <c r="G44" t="s">
-        <v>260</v>
-      </c>
-      <c r="H44" t="s">
-        <v>261</v>
-      </c>
       <c r="J44" t="s">
         <v>11</v>
       </c>
       <c r="K44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L44" t="s">
         <v>21</v>
@@ -4575,7 +4621,7 @@
         <v>118</v>
       </c>
       <c r="N44" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O44">
         <v>90</v>
@@ -4586,13 +4632,13 @@
     </row>
     <row r="45" spans="6:16">
       <c r="F45" t="s">
+        <v>261</v>
+      </c>
+      <c r="G45" t="s">
+        <v>262</v>
+      </c>
+      <c r="H45" t="s">
         <v>263</v>
-      </c>
-      <c r="G45" t="s">
-        <v>264</v>
-      </c>
-      <c r="H45" t="s">
-        <v>265</v>
       </c>
       <c r="I45" t="s">
         <v>98</v>
@@ -4601,7 +4647,7 @@
         <v>11</v>
       </c>
       <c r="K45" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="L45" t="s">
         <v>21</v>
@@ -4610,7 +4656,7 @@
         <v>122</v>
       </c>
       <c r="N45" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O45">
         <v>30</v>
@@ -4621,13 +4667,13 @@
     </row>
     <row r="46" spans="6:16">
       <c r="F46" t="s">
+        <v>265</v>
+      </c>
+      <c r="G46" t="s">
+        <v>266</v>
+      </c>
+      <c r="H46" t="s">
         <v>267</v>
-      </c>
-      <c r="G46" t="s">
-        <v>268</v>
-      </c>
-      <c r="H46" t="s">
-        <v>269</v>
       </c>
       <c r="I46" t="s">
         <v>101</v>
@@ -4636,7 +4682,7 @@
         <v>11</v>
       </c>
       <c r="K46" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="L46" t="s">
         <v>21</v>
@@ -4645,7 +4691,7 @@
         <v>122</v>
       </c>
       <c r="N46" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O46">
         <v>40</v>
@@ -4656,19 +4702,19 @@
     </row>
     <row r="47" spans="6:16">
       <c r="F47" t="s">
+        <v>269</v>
+      </c>
+      <c r="G47" t="s">
+        <v>270</v>
+      </c>
+      <c r="H47" t="s">
         <v>271</v>
       </c>
-      <c r="G47" t="s">
-        <v>272</v>
-      </c>
-      <c r="H47" t="s">
-        <v>273</v>
-      </c>
       <c r="J47" t="s">
         <v>11</v>
       </c>
       <c r="K47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L47" t="s">
         <v>21</v>
@@ -4677,7 +4723,7 @@
         <v>118</v>
       </c>
       <c r="N47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="O47">
         <v>110</v>
@@ -4688,13 +4734,13 @@
     </row>
     <row r="48" spans="6:16">
       <c r="F48" t="s">
+        <v>273</v>
+      </c>
+      <c r="G48" t="s">
+        <v>274</v>
+      </c>
+      <c r="H48" t="s">
         <v>275</v>
-      </c>
-      <c r="G48" t="s">
-        <v>276</v>
-      </c>
-      <c r="H48" t="s">
-        <v>277</v>
       </c>
       <c r="I48" t="s">
         <v>104</v>
@@ -4703,7 +4749,7 @@
         <v>11</v>
       </c>
       <c r="K48" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L48" t="s">
         <v>21</v>
@@ -4712,7 +4758,7 @@
         <v>122</v>
       </c>
       <c r="N48" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="O48">
         <v>20</v>
@@ -4723,25 +4769,28 @@
     </row>
     <row r="49" spans="6:15">
       <c r="F49" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G49" t="s">
-        <v>447</v>
+        <v>445</v>
+      </c>
+      <c r="H49" t="s">
+        <v>493</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
       </c>
       <c r="K49" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L49" t="s">
         <v>21</v>
       </c>
       <c r="M49" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="N49" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="O49">
         <v>20</v>
@@ -4749,28 +4798,31 @@
     </row>
     <row r="50" spans="6:15">
       <c r="F50" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G50" t="s">
-        <v>448</v>
+        <v>446</v>
+      </c>
+      <c r="H50" t="s">
+        <v>482</v>
       </c>
       <c r="I50" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J50" t="s">
         <v>11</v>
       </c>
       <c r="K50" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L50" t="s">
         <v>21</v>
       </c>
       <c r="M50" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="N50" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="O50">
         <v>10</v>
@@ -4778,28 +4830,31 @@
     </row>
     <row r="51" spans="6:15">
       <c r="F51" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="G51" t="s">
-        <v>449</v>
+        <v>447</v>
+      </c>
+      <c r="H51" t="s">
+        <v>484</v>
       </c>
       <c r="I51" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="J51" t="s">
         <v>11</v>
       </c>
       <c r="K51" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="L51" t="s">
         <v>21</v>
       </c>
       <c r="M51" t="s">
+        <v>460</v>
+      </c>
+      <c r="N51" t="s">
         <v>462</v>
-      </c>
-      <c r="N51" t="s">
-        <v>464</v>
       </c>
       <c r="O51">
         <v>40</v>
@@ -4807,25 +4862,28 @@
     </row>
     <row r="52" spans="6:15">
       <c r="F52" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G52" t="s">
-        <v>450</v>
+        <v>448</v>
+      </c>
+      <c r="H52" t="s">
+        <v>492</v>
       </c>
       <c r="J52" t="s">
         <v>11</v>
       </c>
       <c r="K52" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="L52" t="s">
         <v>21</v>
       </c>
       <c r="M52" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="N52" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="O52">
         <v>40</v>
@@ -4833,25 +4891,28 @@
     </row>
     <row r="53" spans="6:15">
       <c r="F53" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="G53" t="s">
         <v>451</v>
       </c>
-      <c r="G53" t="s">
-        <v>453</v>
+      <c r="H53" t="s">
+        <v>485</v>
       </c>
       <c r="J53" t="s">
         <v>11</v>
       </c>
       <c r="K53" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L53" t="s">
         <v>21</v>
       </c>
       <c r="M53" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="N53" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="O53">
         <v>10</v>
@@ -4859,28 +4920,31 @@
     </row>
     <row r="54" spans="6:15">
       <c r="F54" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G54" t="s">
-        <v>450</v>
+        <v>448</v>
+      </c>
+      <c r="H54" t="s">
+        <v>486</v>
       </c>
       <c r="I54" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="J54" t="s">
         <v>11</v>
       </c>
       <c r="K54" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L54" t="s">
         <v>21</v>
       </c>
       <c r="M54" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="N54" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="O54">
         <v>10</v>
@@ -4888,28 +4952,31 @@
     </row>
     <row r="55" spans="6:15">
       <c r="F55" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G55" t="s">
-        <v>454</v>
+        <v>452</v>
+      </c>
+      <c r="H55" t="s">
+        <v>473</v>
       </c>
       <c r="I55" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J55" t="s">
         <v>11</v>
       </c>
       <c r="K55" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L55" t="s">
         <v>21</v>
       </c>
       <c r="M55" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="N55" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="O55">
         <v>20</v>
@@ -4917,28 +4984,31 @@
     </row>
     <row r="56" spans="6:15">
       <c r="F56" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G56" t="s">
-        <v>455</v>
+        <v>453</v>
+      </c>
+      <c r="H56" t="s">
+        <v>487</v>
       </c>
       <c r="I56" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="J56" t="s">
         <v>11</v>
       </c>
       <c r="K56" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L56" t="s">
         <v>21</v>
       </c>
       <c r="M56" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="N56" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="O56">
         <v>30</v>
@@ -4946,28 +5016,31 @@
     </row>
     <row r="57" spans="6:15">
       <c r="F57" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G57" t="s">
-        <v>456</v>
+        <v>454</v>
+      </c>
+      <c r="H57" t="s">
+        <v>488</v>
       </c>
       <c r="I57" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="J57" t="s">
         <v>11</v>
       </c>
       <c r="K57" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L57" t="s">
         <v>21</v>
       </c>
       <c r="M57" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="N57" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="O57">
         <v>20</v>
@@ -4975,25 +5048,28 @@
     </row>
     <row r="58" spans="6:15">
       <c r="F58" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
+      </c>
+      <c r="H58" t="s">
+        <v>490</v>
       </c>
       <c r="J58" t="s">
         <v>11</v>
       </c>
       <c r="K58" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="L58" t="s">
         <v>21</v>
       </c>
       <c r="M58" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="N58" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="O58">
         <v>30</v>
@@ -5001,28 +5077,31 @@
     </row>
     <row r="59" spans="6:15">
       <c r="F59" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G59" t="s">
-        <v>457</v>
+        <v>455</v>
+      </c>
+      <c r="H59" t="s">
+        <v>489</v>
       </c>
       <c r="I59" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="J59" t="s">
         <v>11</v>
       </c>
       <c r="K59" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L59" t="s">
         <v>21</v>
       </c>
       <c r="M59" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="N59" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="O59">
         <v>10</v>
@@ -5030,28 +5109,31 @@
     </row>
     <row r="60" spans="6:15">
       <c r="F60" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G60" t="s">
-        <v>459</v>
+        <v>457</v>
+      </c>
+      <c r="H60" t="s">
+        <v>491</v>
       </c>
       <c r="I60" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="J60" t="s">
         <v>11</v>
       </c>
       <c r="K60" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L60" t="s">
         <v>21</v>
       </c>
       <c r="M60" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="N60" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="O60">
         <v>20</v>
@@ -5086,27 +5168,27 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G7" t="s">
         <v>279</v>
       </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>280</v>
       </c>
-      <c r="G7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H7" t="s">
-        <v>282</v>
-      </c>
       <c r="I7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="4:9">
       <c r="F8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G8" t="s">
         <v>114</v>
@@ -5120,7 +5202,7 @@
     </row>
     <row r="9" spans="4:9">
       <c r="F9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G9" t="s">
         <v>119</v>
@@ -5134,7 +5216,7 @@
     </row>
     <row r="10" spans="4:9">
       <c r="F10" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G10" t="s">
         <v>124</v>
@@ -5148,7 +5230,7 @@
     </row>
     <row r="11" spans="4:9">
       <c r="F11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G11" t="s">
         <v>128</v>
@@ -5162,13 +5244,13 @@
     </row>
     <row r="12" spans="4:9">
       <c r="F12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G12" t="s">
         <v>132</v>
       </c>
       <c r="H12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5176,13 +5258,13 @@
     </row>
     <row r="13" spans="4:9">
       <c r="F13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -5190,13 +5272,13 @@
     </row>
     <row r="14" spans="4:9">
       <c r="F14" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -5204,13 +5286,13 @@
     </row>
     <row r="15" spans="4:9">
       <c r="F15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -5218,13 +5300,13 @@
     </row>
     <row r="16" spans="4:9">
       <c r="F16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -5232,13 +5314,13 @@
     </row>
     <row r="17" spans="6:9">
       <c r="F17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H17" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -5246,13 +5328,13 @@
     </row>
     <row r="18" spans="6:9">
       <c r="F18" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H18" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -5260,13 +5342,13 @@
     </row>
     <row r="19" spans="6:9">
       <c r="F19" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H19" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -5274,13 +5356,13 @@
     </row>
     <row r="20" spans="6:9">
       <c r="F20" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H20" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -5288,13 +5370,13 @@
     </row>
     <row r="21" spans="6:9">
       <c r="F21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H21" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -5302,13 +5384,13 @@
     </row>
     <row r="22" spans="6:9">
       <c r="F22" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H22" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -5316,13 +5398,13 @@
     </row>
     <row r="23" spans="6:9">
       <c r="F23" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H23" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -5330,13 +5412,13 @@
     </row>
     <row r="24" spans="6:9">
       <c r="F24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H24" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -5344,13 +5426,13 @@
     </row>
     <row r="25" spans="6:9">
       <c r="F25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G25" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H25" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -5358,13 +5440,13 @@
     </row>
     <row r="26" spans="6:9">
       <c r="F26" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H26" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -5372,13 +5454,13 @@
     </row>
     <row r="27" spans="6:9">
       <c r="F27" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H27" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -5386,13 +5468,13 @@
     </row>
     <row r="28" spans="6:9">
       <c r="F28" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G28" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H28" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -5400,13 +5482,13 @@
     </row>
     <row r="29" spans="6:9">
       <c r="F29" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G29" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H29" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -5414,13 +5496,13 @@
     </row>
     <row r="30" spans="6:9">
       <c r="F30" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H30" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -5428,13 +5510,13 @@
     </row>
     <row r="31" spans="6:9">
       <c r="F31" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H31" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -5442,13 +5524,13 @@
     </row>
     <row r="32" spans="6:9">
       <c r="F32" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H32" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -5456,13 +5538,13 @@
     </row>
     <row r="33" spans="6:9">
       <c r="F33" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H33" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -5470,13 +5552,13 @@
     </row>
     <row r="34" spans="6:9">
       <c r="F34" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H34" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -5484,13 +5566,13 @@
     </row>
     <row r="35" spans="6:9">
       <c r="F35" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H35" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -5498,13 +5580,13 @@
     </row>
     <row r="36" spans="6:9">
       <c r="F36" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H36" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -5512,13 +5594,13 @@
     </row>
     <row r="37" spans="6:9">
       <c r="F37" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G37" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H37" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -5526,13 +5608,13 @@
     </row>
     <row r="38" spans="6:9">
       <c r="F38" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G38" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -5540,13 +5622,13 @@
     </row>
     <row r="39" spans="6:9">
       <c r="F39" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H39" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -5554,13 +5636,13 @@
     </row>
     <row r="40" spans="6:9">
       <c r="F40" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H40" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -5568,13 +5650,13 @@
     </row>
     <row r="41" spans="6:9">
       <c r="F41" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G41" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H41" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -5582,13 +5664,13 @@
     </row>
     <row r="42" spans="6:9">
       <c r="F42" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G42" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H42" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -5596,13 +5678,13 @@
     </row>
     <row r="43" spans="6:9">
       <c r="F43" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G43" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H43" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -5610,13 +5692,13 @@
     </row>
     <row r="44" spans="6:9">
       <c r="F44" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G44" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H44" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -5624,13 +5706,13 @@
     </row>
     <row r="45" spans="6:9">
       <c r="F45" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G45" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H45" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -5638,13 +5720,13 @@
     </row>
     <row r="46" spans="6:9">
       <c r="F46" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G46" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H46" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -5652,13 +5734,13 @@
     </row>
     <row r="47" spans="6:9">
       <c r="F47" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G47" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H47" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -5666,10 +5748,10 @@
     </row>
     <row r="48" spans="6:9">
       <c r="F48" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G48" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="H48" t="s">
         <v>21</v>
@@ -5680,10 +5762,10 @@
     </row>
     <row r="49" spans="6:9">
       <c r="F49" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H49" t="s">
         <v>21</v>
@@ -5694,10 +5776,10 @@
     </row>
     <row r="50" spans="6:9">
       <c r="F50" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G50" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H50" t="s">
         <v>21</v>
@@ -5708,10 +5790,10 @@
     </row>
     <row r="51" spans="6:9">
       <c r="F51" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G51" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H51" t="s">
         <v>21</v>
@@ -5722,10 +5804,10 @@
     </row>
     <row r="52" spans="6:9">
       <c r="F52" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H52" t="s">
         <v>21</v>
@@ -5736,10 +5818,10 @@
     </row>
     <row r="53" spans="6:9">
       <c r="F53" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G53" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="H53" t="s">
         <v>21</v>
@@ -5750,10 +5832,10 @@
     </row>
     <row r="54" spans="6:9">
       <c r="F54" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H54" t="s">
         <v>21</v>
@@ -5764,10 +5846,10 @@
     </row>
     <row r="55" spans="6:9">
       <c r="F55" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G55" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H55" t="s">
         <v>21</v>
@@ -5778,10 +5860,10 @@
     </row>
     <row r="56" spans="6:9">
       <c r="F56" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G56" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H56" t="s">
         <v>21</v>
@@ -5792,10 +5874,10 @@
     </row>
     <row r="57" spans="6:9">
       <c r="F57" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H57" t="s">
         <v>21</v>
@@ -5806,10 +5888,10 @@
     </row>
     <row r="58" spans="6:9">
       <c r="F58" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H58" t="s">
         <v>21</v>
@@ -5820,10 +5902,10 @@
     </row>
     <row r="59" spans="6:9">
       <c r="F59" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H59" t="s">
         <v>21</v>
@@ -5834,10 +5916,10 @@
     </row>
     <row r="60" spans="6:9">
       <c r="F60" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H60" t="s">
         <v>21</v>
@@ -5848,10 +5930,10 @@
     </row>
     <row r="61" spans="6:9">
       <c r="F61" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H61" t="s">
         <v>21</v>
@@ -5862,10 +5944,10 @@
     </row>
     <row r="62" spans="6:9">
       <c r="F62" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H62" t="s">
         <v>21</v>
@@ -5876,10 +5958,10 @@
     </row>
     <row r="63" spans="6:9">
       <c r="F63" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H63" t="s">
         <v>21</v>
@@ -5890,10 +5972,10 @@
     </row>
     <row r="64" spans="6:9">
       <c r="F64" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G64" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H64" t="s">
         <v>21</v>
@@ -5904,10 +5986,10 @@
     </row>
     <row r="65" spans="6:9">
       <c r="F65" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H65" t="s">
         <v>21</v>
@@ -5918,10 +6000,10 @@
     </row>
     <row r="66" spans="6:9">
       <c r="F66" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G66" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H66" t="s">
         <v>21</v>
@@ -5932,10 +6014,10 @@
     </row>
     <row r="67" spans="6:9">
       <c r="F67" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G67" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H67" t="s">
         <v>21</v>
@@ -5946,10 +6028,10 @@
     </row>
     <row r="68" spans="6:9">
       <c r="F68" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G68" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H68" t="s">
         <v>21</v>
@@ -5960,10 +6042,10 @@
     </row>
     <row r="69" spans="6:9">
       <c r="F69" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G69" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H69" t="s">
         <v>21</v>
@@ -5974,10 +6056,10 @@
     </row>
     <row r="70" spans="6:9">
       <c r="F70" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G70" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H70" t="s">
         <v>21</v>
@@ -5988,10 +6070,10 @@
     </row>
     <row r="71" spans="6:9">
       <c r="F71" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H71" t="s">
         <v>21</v>
@@ -6002,10 +6084,10 @@
     </row>
     <row r="72" spans="6:9">
       <c r="F72" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G72" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H72" t="s">
         <v>21</v>
@@ -6016,10 +6098,10 @@
     </row>
     <row r="73" spans="6:9">
       <c r="F73" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G73" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H73" t="s">
         <v>21</v>
@@ -6030,10 +6112,10 @@
     </row>
     <row r="74" spans="6:9">
       <c r="F74" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G74" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H74" t="s">
         <v>21</v>
@@ -6044,10 +6126,10 @@
     </row>
     <row r="75" spans="6:9">
       <c r="F75" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G75" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H75" t="s">
         <v>21</v>
@@ -6058,10 +6140,10 @@
     </row>
     <row r="76" spans="6:9">
       <c r="F76" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G76" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H76" t="s">
         <v>21</v>
@@ -6072,10 +6154,10 @@
     </row>
     <row r="77" spans="6:9">
       <c r="F77" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G77" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H77" t="s">
         <v>21</v>
@@ -6086,10 +6168,10 @@
     </row>
     <row r="78" spans="6:9">
       <c r="F78" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G78" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H78" t="s">
         <v>21</v>
@@ -6100,10 +6182,10 @@
     </row>
     <row r="79" spans="6:9">
       <c r="F79" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G79" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="H79" t="s">
         <v>21</v>
@@ -6114,10 +6196,10 @@
     </row>
     <row r="80" spans="6:9">
       <c r="F80" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G80" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H80" t="s">
         <v>21</v>
@@ -6128,10 +6210,10 @@
     </row>
     <row r="81" spans="6:9">
       <c r="F81" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G81" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H81" t="s">
         <v>21</v>
@@ -6142,10 +6224,10 @@
     </row>
     <row r="82" spans="6:9">
       <c r="F82" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G82" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H82" t="s">
         <v>21</v>
@@ -6156,10 +6238,10 @@
     </row>
     <row r="83" spans="6:9">
       <c r="F83" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G83" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H83" t="s">
         <v>21</v>
@@ -6170,10 +6252,10 @@
     </row>
     <row r="84" spans="6:9">
       <c r="F84" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G84" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H84" t="s">
         <v>21</v>
@@ -6184,10 +6266,10 @@
     </row>
     <row r="85" spans="6:9">
       <c r="F85" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="H85" t="s">
         <v>21</v>
@@ -6195,10 +6277,10 @@
     </row>
     <row r="86" spans="6:9">
       <c r="F86" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="H86" t="s">
         <v>21</v>
@@ -6206,10 +6288,10 @@
     </row>
     <row r="87" spans="6:9">
       <c r="F87" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H87" t="s">
         <v>21</v>
@@ -6217,10 +6299,10 @@
     </row>
     <row r="88" spans="6:9">
       <c r="F88" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H88" t="s">
         <v>21</v>
@@ -6228,10 +6310,10 @@
     </row>
     <row r="89" spans="6:9">
       <c r="F89" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H89" t="s">
         <v>21</v>
@@ -6239,10 +6321,10 @@
     </row>
     <row r="90" spans="6:9">
       <c r="F90" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H90" t="s">
         <v>21</v>
@@ -6250,10 +6332,10 @@
     </row>
     <row r="91" spans="6:9">
       <c r="F91" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="H91" t="s">
         <v>21</v>
@@ -6261,10 +6343,10 @@
     </row>
     <row r="92" spans="6:9">
       <c r="F92" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H92" t="s">
         <v>21</v>
@@ -6272,10 +6354,10 @@
     </row>
     <row r="93" spans="6:9">
       <c r="F93" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="H93" t="s">
         <v>21</v>
@@ -6283,10 +6365,10 @@
     </row>
     <row r="94" spans="6:9">
       <c r="F94" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H94" t="s">
         <v>21</v>
@@ -6294,10 +6376,10 @@
     </row>
     <row r="95" spans="6:9">
       <c r="F95" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H95" t="s">
         <v>21</v>
@@ -6305,10 +6387,10 @@
     </row>
     <row r="96" spans="6:9">
       <c r="F96" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H96" t="s">
         <v>21</v>
@@ -6324,7 +6406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="D7:H175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D147" zoomScale="171" workbookViewId="0">
+    <sheetView topLeftCell="D147" zoomScale="171" workbookViewId="0">
       <selection activeCell="G176" sqref="G176"/>
     </sheetView>
   </sheetViews>
@@ -6340,19 +6422,19 @@
   <sheetData>
     <row r="7" spans="4:8" ht="12.75" customHeight="1">
       <c r="D7" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="4:8" ht="12.75" customHeight="1">
@@ -6360,7 +6442,7 @@
         <v>119</v>
       </c>
       <c r="G8" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -6371,7 +6453,7 @@
         <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -6382,7 +6464,7 @@
         <v>119</v>
       </c>
       <c r="G10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -6393,7 +6475,7 @@
         <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -6404,7 +6486,7 @@
         <v>128</v>
       </c>
       <c r="G12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -6412,10 +6494,10 @@
     </row>
     <row r="13" spans="4:8">
       <c r="F13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -6423,10 +6505,10 @@
     </row>
     <row r="14" spans="4:8">
       <c r="F14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -6434,10 +6516,10 @@
     </row>
     <row r="15" spans="4:8">
       <c r="F15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G15" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -6445,10 +6527,10 @@
     </row>
     <row r="16" spans="4:8">
       <c r="F16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G16" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -6456,10 +6538,10 @@
     </row>
     <row r="17" spans="6:8">
       <c r="F17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -6467,10 +6549,10 @@
     </row>
     <row r="18" spans="6:8">
       <c r="F18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G18" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -6478,10 +6560,10 @@
     </row>
     <row r="19" spans="6:8">
       <c r="F19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G19" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -6489,10 +6571,10 @@
     </row>
     <row r="20" spans="6:8">
       <c r="F20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G20" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -6500,10 +6582,10 @@
     </row>
     <row r="21" spans="6:8">
       <c r="F21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -6511,10 +6593,10 @@
     </row>
     <row r="22" spans="6:8">
       <c r="F22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G22" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -6522,10 +6604,10 @@
     </row>
     <row r="23" spans="6:8">
       <c r="F23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G23" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -6533,10 +6615,10 @@
     </row>
     <row r="24" spans="6:8">
       <c r="F24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G24" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -6544,10 +6626,10 @@
     </row>
     <row r="25" spans="6:8">
       <c r="F25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G25" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -6555,10 +6637,10 @@
     </row>
     <row r="26" spans="6:8">
       <c r="F26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G26" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -6566,10 +6648,10 @@
     </row>
     <row r="27" spans="6:8">
       <c r="F27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G27" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -6577,10 +6659,10 @@
     </row>
     <row r="28" spans="6:8">
       <c r="F28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G28" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -6588,10 +6670,10 @@
     </row>
     <row r="29" spans="6:8">
       <c r="F29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G29" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -6599,10 +6681,10 @@
     </row>
     <row r="30" spans="6:8">
       <c r="F30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G30" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -6610,10 +6692,10 @@
     </row>
     <row r="31" spans="6:8">
       <c r="F31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G31" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -6621,10 +6703,10 @@
     </row>
     <row r="32" spans="6:8">
       <c r="F32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G32" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -6632,10 +6714,10 @@
     </row>
     <row r="33" spans="6:8">
       <c r="F33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G33" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -6643,10 +6725,10 @@
     </row>
     <row r="34" spans="6:8">
       <c r="F34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G34" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -6654,10 +6736,10 @@
     </row>
     <row r="35" spans="6:8">
       <c r="F35" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G35" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -6665,10 +6747,10 @@
     </row>
     <row r="36" spans="6:8">
       <c r="F36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G36" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -6676,10 +6758,10 @@
     </row>
     <row r="37" spans="6:8">
       <c r="F37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G37" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -6687,10 +6769,10 @@
     </row>
     <row r="38" spans="6:8">
       <c r="F38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G38" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -6698,10 +6780,10 @@
     </row>
     <row r="39" spans="6:8">
       <c r="F39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G39" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -6709,10 +6791,10 @@
     </row>
     <row r="40" spans="6:8">
       <c r="F40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G40" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -6720,10 +6802,10 @@
     </row>
     <row r="41" spans="6:8">
       <c r="F41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G41" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -6731,10 +6813,10 @@
     </row>
     <row r="42" spans="6:8">
       <c r="F42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G42" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -6742,10 +6824,10 @@
     </row>
     <row r="43" spans="6:8">
       <c r="F43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G43" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -6753,10 +6835,10 @@
     </row>
     <row r="44" spans="6:8">
       <c r="F44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G44" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -6764,10 +6846,10 @@
     </row>
     <row r="45" spans="6:8">
       <c r="F45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G45" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -6775,10 +6857,10 @@
     </row>
     <row r="46" spans="6:8">
       <c r="F46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G46" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -6786,10 +6868,10 @@
     </row>
     <row r="47" spans="6:8">
       <c r="F47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G47" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -6797,10 +6879,10 @@
     </row>
     <row r="48" spans="6:8">
       <c r="F48" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G48" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -6808,10 +6890,10 @@
     </row>
     <row r="49" spans="6:8">
       <c r="F49" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G49" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -6819,10 +6901,10 @@
     </row>
     <row r="50" spans="6:8">
       <c r="F50" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G50" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -6830,10 +6912,10 @@
     </row>
     <row r="51" spans="6:8">
       <c r="F51" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G51" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -6841,10 +6923,10 @@
     </row>
     <row r="52" spans="6:8">
       <c r="F52" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G52" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -6852,10 +6934,10 @@
     </row>
     <row r="53" spans="6:8">
       <c r="F53" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G53" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -6863,10 +6945,10 @@
     </row>
     <row r="54" spans="6:8">
       <c r="F54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G54" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -6874,10 +6956,10 @@
     </row>
     <row r="55" spans="6:8">
       <c r="F55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G55" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -6885,10 +6967,10 @@
     </row>
     <row r="56" spans="6:8">
       <c r="F56" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G56" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -6896,10 +6978,10 @@
     </row>
     <row r="57" spans="6:8">
       <c r="F57" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G57" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -6907,10 +6989,10 @@
     </row>
     <row r="58" spans="6:8">
       <c r="F58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G58" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -6918,10 +7000,10 @@
     </row>
     <row r="59" spans="6:8">
       <c r="F59" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G59" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -6929,10 +7011,10 @@
     </row>
     <row r="60" spans="6:8">
       <c r="F60" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G60" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -6940,10 +7022,10 @@
     </row>
     <row r="61" spans="6:8">
       <c r="F61" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G61" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -6951,10 +7033,10 @@
     </row>
     <row r="62" spans="6:8">
       <c r="F62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G62" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6962,10 +7044,10 @@
     </row>
     <row r="63" spans="6:8">
       <c r="F63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G63" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6973,10 +7055,10 @@
     </row>
     <row r="64" spans="6:8">
       <c r="F64" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G64" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6984,10 +7066,10 @@
     </row>
     <row r="65" spans="6:8">
       <c r="F65" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G65" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6995,10 +7077,10 @@
     </row>
     <row r="66" spans="6:8">
       <c r="F66" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G66" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -7006,10 +7088,10 @@
     </row>
     <row r="67" spans="6:8">
       <c r="F67" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G67" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -7017,10 +7099,10 @@
     </row>
     <row r="68" spans="6:8">
       <c r="F68" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G68" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -7028,10 +7110,10 @@
     </row>
     <row r="69" spans="6:8">
       <c r="F69" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G69" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -7039,10 +7121,10 @@
     </row>
     <row r="70" spans="6:8">
       <c r="F70" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G70" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -7050,10 +7132,10 @@
     </row>
     <row r="71" spans="6:8">
       <c r="F71" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G71" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -7061,10 +7143,10 @@
     </row>
     <row r="72" spans="6:8">
       <c r="F72" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G72" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -7072,10 +7154,10 @@
     </row>
     <row r="73" spans="6:8">
       <c r="F73" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G73" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -7083,10 +7165,10 @@
     </row>
     <row r="74" spans="6:8">
       <c r="F74" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7094,10 +7176,10 @@
     </row>
     <row r="75" spans="6:8">
       <c r="F75" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G75" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7105,10 +7187,10 @@
     </row>
     <row r="76" spans="6:8">
       <c r="F76" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G76" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7116,10 +7198,10 @@
     </row>
     <row r="77" spans="6:8">
       <c r="F77" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G77" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7127,10 +7209,10 @@
     </row>
     <row r="78" spans="6:8">
       <c r="F78" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G78" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7138,10 +7220,10 @@
     </row>
     <row r="79" spans="6:8">
       <c r="F79" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G79" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7149,10 +7231,10 @@
     </row>
     <row r="80" spans="6:8">
       <c r="F80" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G80" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7160,10 +7242,10 @@
     </row>
     <row r="81" spans="6:8">
       <c r="F81" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G81" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7171,10 +7253,10 @@
     </row>
     <row r="82" spans="6:8">
       <c r="F82" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G82" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7182,10 +7264,10 @@
     </row>
     <row r="83" spans="6:8">
       <c r="F83" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G83" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7193,10 +7275,10 @@
     </row>
     <row r="84" spans="6:8">
       <c r="F84" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G84" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7204,10 +7286,10 @@
     </row>
     <row r="85" spans="6:8">
       <c r="F85" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G85" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -7215,10 +7297,10 @@
     </row>
     <row r="86" spans="6:8">
       <c r="F86" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G86" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -7226,10 +7308,10 @@
     </row>
     <row r="87" spans="6:8">
       <c r="F87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G87" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -7237,10 +7319,10 @@
     </row>
     <row r="88" spans="6:8">
       <c r="F88" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G88" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -7248,10 +7330,10 @@
     </row>
     <row r="89" spans="6:8">
       <c r="F89" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G89" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -7259,10 +7341,10 @@
     </row>
     <row r="90" spans="6:8">
       <c r="F90" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G90" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -7270,10 +7352,10 @@
     </row>
     <row r="91" spans="6:8">
       <c r="F91" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G91" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -7281,10 +7363,10 @@
     </row>
     <row r="92" spans="6:8">
       <c r="F92" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G92" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -7292,10 +7374,10 @@
     </row>
     <row r="93" spans="6:8">
       <c r="F93" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G93" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H93">
         <v>1</v>
@@ -7303,10 +7385,10 @@
     </row>
     <row r="94" spans="6:8">
       <c r="F94" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G94" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -7314,10 +7396,10 @@
     </row>
     <row r="95" spans="6:8">
       <c r="F95" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G95" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -7325,10 +7407,10 @@
     </row>
     <row r="96" spans="6:8">
       <c r="F96" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G96" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -7336,10 +7418,10 @@
     </row>
     <row r="97" spans="6:8">
       <c r="F97" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G97" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -7347,10 +7429,10 @@
     </row>
     <row r="98" spans="6:8">
       <c r="F98" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G98" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -7358,10 +7440,10 @@
     </row>
     <row r="99" spans="6:8">
       <c r="F99" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G99" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -7369,10 +7451,10 @@
     </row>
     <row r="100" spans="6:8">
       <c r="F100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G100" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -7380,10 +7462,10 @@
     </row>
     <row r="101" spans="6:8">
       <c r="F101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G101" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -7391,10 +7473,10 @@
     </row>
     <row r="102" spans="6:8">
       <c r="F102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G102" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -7402,10 +7484,10 @@
     </row>
     <row r="103" spans="6:8">
       <c r="F103" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G103" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -7413,10 +7495,10 @@
     </row>
     <row r="104" spans="6:8">
       <c r="F104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G104" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -7424,10 +7506,10 @@
     </row>
     <row r="105" spans="6:8">
       <c r="F105" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G105" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -7435,10 +7517,10 @@
     </row>
     <row r="106" spans="6:8">
       <c r="F106" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G106" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -7446,10 +7528,10 @@
     </row>
     <row r="107" spans="6:8">
       <c r="F107" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G107" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H107">
         <v>1</v>
@@ -7457,10 +7539,10 @@
     </row>
     <row r="108" spans="6:8">
       <c r="F108" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G108" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H108">
         <v>1</v>
@@ -7468,10 +7550,10 @@
     </row>
     <row r="109" spans="6:8">
       <c r="F109" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G109" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -7479,10 +7561,10 @@
     </row>
     <row r="110" spans="6:8">
       <c r="F110" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G110" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H110">
         <v>1</v>
@@ -7490,10 +7572,10 @@
     </row>
     <row r="111" spans="6:8">
       <c r="F111" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G111" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H111">
         <v>1</v>
@@ -7501,10 +7583,10 @@
     </row>
     <row r="112" spans="6:8">
       <c r="F112" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G112" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -7512,10 +7594,10 @@
     </row>
     <row r="113" spans="6:8">
       <c r="F113" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G113" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -7523,10 +7605,10 @@
     </row>
     <row r="114" spans="6:8">
       <c r="F114" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G114" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -7534,10 +7616,10 @@
     </row>
     <row r="115" spans="6:8">
       <c r="F115" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G115" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -7545,10 +7627,10 @@
     </row>
     <row r="116" spans="6:8">
       <c r="F116" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G116" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -7556,10 +7638,10 @@
     </row>
     <row r="117" spans="6:8">
       <c r="F117" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G117" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -7567,10 +7649,10 @@
     </row>
     <row r="118" spans="6:8">
       <c r="F118" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G118" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="H118">
         <v>1</v>
@@ -7578,10 +7660,10 @@
     </row>
     <row r="119" spans="6:8">
       <c r="F119" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G119" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -7589,10 +7671,10 @@
     </row>
     <row r="120" spans="6:8">
       <c r="F120" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G120" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -7600,10 +7682,10 @@
     </row>
     <row r="121" spans="6:8">
       <c r="F121" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G121" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H121">
         <v>1</v>
@@ -7611,10 +7693,10 @@
     </row>
     <row r="122" spans="6:8">
       <c r="F122" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G122" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="H122">
         <v>1</v>
@@ -7622,10 +7704,10 @@
     </row>
     <row r="123" spans="6:8">
       <c r="F123" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G123" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H123">
         <v>1</v>
@@ -7633,10 +7715,10 @@
     </row>
     <row r="124" spans="6:8">
       <c r="F124" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G124" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -7644,10 +7726,10 @@
     </row>
     <row r="125" spans="6:8">
       <c r="F125" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G125" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -7655,10 +7737,10 @@
     </row>
     <row r="126" spans="6:8">
       <c r="F126" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G126" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -7666,10 +7748,10 @@
     </row>
     <row r="127" spans="6:8">
       <c r="F127" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G127" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H127">
         <v>1</v>
@@ -7677,10 +7759,10 @@
     </row>
     <row r="128" spans="6:8">
       <c r="F128" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G128" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H128">
         <v>1</v>
@@ -7688,10 +7770,10 @@
     </row>
     <row r="129" spans="6:8">
       <c r="F129" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G129" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -7699,10 +7781,10 @@
     </row>
     <row r="130" spans="6:8">
       <c r="F130" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G130" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -7710,10 +7792,10 @@
     </row>
     <row r="131" spans="6:8">
       <c r="F131" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G131" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H131">
         <v>1</v>
@@ -7721,10 +7803,10 @@
     </row>
     <row r="132" spans="6:8">
       <c r="F132" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G132" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H132">
         <v>1</v>
@@ -7732,10 +7814,10 @@
     </row>
     <row r="133" spans="6:8">
       <c r="F133" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G133" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -7743,10 +7825,10 @@
     </row>
     <row r="134" spans="6:8">
       <c r="F134" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G134" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -7754,10 +7836,10 @@
     </row>
     <row r="135" spans="6:8">
       <c r="F135" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G135" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H135">
         <v>1</v>
@@ -7765,10 +7847,10 @@
     </row>
     <row r="136" spans="6:8">
       <c r="F136" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G136" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -7776,10 +7858,10 @@
     </row>
     <row r="137" spans="6:8">
       <c r="F137" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G137" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -7787,10 +7869,10 @@
     </row>
     <row r="138" spans="6:8">
       <c r="F138" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G138" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H138">
         <v>1</v>
@@ -7798,10 +7880,10 @@
     </row>
     <row r="139" spans="6:8">
       <c r="F139" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G139" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -7809,10 +7891,10 @@
     </row>
     <row r="140" spans="6:8">
       <c r="F140" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G140" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -7820,10 +7902,10 @@
     </row>
     <row r="141" spans="6:8">
       <c r="F141" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G141" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -7831,10 +7913,10 @@
     </row>
     <row r="142" spans="6:8">
       <c r="F142" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G142" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -7842,10 +7924,10 @@
     </row>
     <row r="143" spans="6:8">
       <c r="F143" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G143" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -7853,10 +7935,10 @@
     </row>
     <row r="144" spans="6:8">
       <c r="F144" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G144" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H144">
         <v>1</v>
@@ -7864,10 +7946,10 @@
     </row>
     <row r="145" spans="6:8">
       <c r="F145" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G145" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -7875,10 +7957,10 @@
     </row>
     <row r="146" spans="6:8">
       <c r="F146" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G146" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -7886,10 +7968,10 @@
     </row>
     <row r="147" spans="6:8">
       <c r="F147" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G147" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -7897,10 +7979,10 @@
     </row>
     <row r="148" spans="6:8">
       <c r="F148" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G148" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="H148">
         <v>1</v>
@@ -7908,10 +7990,10 @@
     </row>
     <row r="149" spans="6:8">
       <c r="F149" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G149" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H149">
         <v>1</v>
@@ -7919,10 +8001,10 @@
     </row>
     <row r="150" spans="6:8">
       <c r="F150" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G150" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -7930,10 +8012,10 @@
     </row>
     <row r="151" spans="6:8">
       <c r="F151" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G151" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -7941,10 +8023,10 @@
     </row>
     <row r="152" spans="6:8">
       <c r="F152" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G152" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -7952,10 +8034,10 @@
     </row>
     <row r="153" spans="6:8">
       <c r="F153" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G153" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H153">
         <v>1</v>
@@ -7963,10 +8045,10 @@
     </row>
     <row r="154" spans="6:8">
       <c r="F154" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G154" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -7974,10 +8056,10 @@
     </row>
     <row r="155" spans="6:8">
       <c r="F155" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G155" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -7985,10 +8067,10 @@
     </row>
     <row r="156" spans="6:8">
       <c r="F156" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G156" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -7996,10 +8078,10 @@
     </row>
     <row r="157" spans="6:8">
       <c r="F157" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G157" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -8007,10 +8089,10 @@
     </row>
     <row r="158" spans="6:8">
       <c r="F158" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G158" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -8018,10 +8100,10 @@
     </row>
     <row r="159" spans="6:8">
       <c r="F159" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G159" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H159">
         <v>1</v>
@@ -8029,10 +8111,10 @@
     </row>
     <row r="160" spans="6:8">
       <c r="F160" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G160" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -8040,10 +8122,10 @@
     </row>
     <row r="161" spans="6:8">
       <c r="F161" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G161" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H161">
         <v>1</v>
@@ -8051,10 +8133,10 @@
     </row>
     <row r="162" spans="6:8">
       <c r="F162" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G162" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="H162">
         <v>1</v>
@@ -8062,10 +8144,10 @@
     </row>
     <row r="163" spans="6:8">
       <c r="F163" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G163" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -8073,10 +8155,10 @@
     </row>
     <row r="164" spans="6:8">
       <c r="F164" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G164" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -8084,10 +8166,10 @@
     </row>
     <row r="165" spans="6:8">
       <c r="F165" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G165" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H165">
         <v>1</v>
@@ -8095,58 +8177,58 @@
     </row>
     <row r="166" spans="6:8">
       <c r="F166" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G166" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="167" spans="6:8">
       <c r="F167" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G167" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="168" spans="6:8">
       <c r="F168" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G168" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="169" spans="6:8">
       <c r="F169" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G169" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="170" spans="6:8">
       <c r="F170" s="4" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G170" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="171" spans="6:8">
       <c r="F171" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G171" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="172" spans="6:8">
       <c r="F172" s="4" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G172" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="173" spans="6:8">
